--- a/files/TS_todays_support.xlsx
+++ b/files/TS_todays_support.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisuke_koresawa\project\kpi_project\kpi_info_sync\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D2926C-B030-4B98-90AF-1126049AB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B0417-613B-4838-8D20-7CE39C080AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="19200" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="23040" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_todays_support" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$1</definedName>
+    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="502">
   <si>
     <t>(変更しないでください) サポート案件</t>
   </si>
@@ -123,6 +123,1434 @@
   </si>
   <si>
     <t>ー</t>
+  </si>
+  <si>
+    <t>ca3a4222-4e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>直受け</t>
+  </si>
+  <si>
+    <t>松本公認会計士事務所</t>
+  </si>
+  <si>
+    <t>即答</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro会計</t>
+  </si>
+  <si>
+    <t>SKTCEdQTeR+1Wjp5pEdU0VMhgu6fn3XHyHlBHD9FRGTMoKZFqq5F3l5d3DlSBY8grMrwJPP0IYmxesxWwzc8Cg==</t>
+  </si>
+  <si>
+    <t>524b81a3-514f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>2IFqbJtbxgvEeyRWnwrRB4kycwpYjxkOghkJ2U2GW5W1+V6iVL7hoDQOvaHszdvqmGZj0eqv7SjQw20fgtCCEg==</t>
+  </si>
+  <si>
+    <t>岩本敏彦税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proｼｽﾃﾑ</t>
+  </si>
+  <si>
+    <t>55931e28-614f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>zrOp8FhqT+1IKV59xEWJ67kQgI2I8WnvgFDzcruLImk4aPosWMntnjKamPd+LrOihy2RgBggiFaVOxmStFKG6g==</t>
+  </si>
+  <si>
+    <t>三島 孝司 税理士事務所</t>
+  </si>
+  <si>
+    <t>828fdda7-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Gph/nNtlMHGSBTL3RSNPAB8FUurgGQv+XT+qD6NafRS/rpVNR5NGNv3WffsfNMSYNR6Ly2fS2Wd+kE6Shg97HQ==</t>
+  </si>
+  <si>
+    <t>有限会社 Ａ．Ｄ．Ｓ</t>
+  </si>
+  <si>
+    <t>対応待ち</t>
+  </si>
+  <si>
+    <t>iCompassNX</t>
+  </si>
+  <si>
+    <t>788fdda7-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>iXBVcuYILWzv2dpFQ2C1q6oG06Cs2X42lD2t5Sf5Xoqal5MzfxCj7ob/jew+mnPeRSgLM1tPABczJyM5OYA87w==</t>
+  </si>
+  <si>
+    <t>HHD</t>
+  </si>
+  <si>
+    <t>TVS/SS入電</t>
+  </si>
+  <si>
+    <t>Ｂｒａｎｄｉｎｇ ａｔｅ株式会社</t>
+  </si>
+  <si>
+    <t>ＰＣ</t>
+  </si>
+  <si>
+    <t>20b18898-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>5EE7rtV2HbyDlX3VkysmXDvrdMnO0QUDHlAVcd5TPyFJDukcAFi5hcJlZzyPFO7D38i2uNCRbJ3ma7AzH8QF5w==</t>
+  </si>
+  <si>
+    <t>顧問先ソフトウェア</t>
+  </si>
+  <si>
+    <t>エアサーブ株式会社</t>
+  </si>
+  <si>
+    <t>かんたん!ｼﾘｰｽﾞ</t>
+  </si>
+  <si>
+    <t>17b18898-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>nVZJhYHbmCt2UIpXFTnxzvvF3JrvBD6PqjvhkuiLocCk2hvAFr3riaj/3BBEc8+nBl0ekD9lwmOihTtKhz0L6Q==</t>
+  </si>
+  <si>
+    <t>辻・本郷税理士法人</t>
+  </si>
+  <si>
+    <t>自己解決</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>d5106091-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>CPmAvUaiIIrAWcNh4NeNyGVoKn5M7Y44EvyIhGhZ3ovvUx2GNNl4Z7eCcYJIr2hBqpjAtptreWneWBwPNN0Kew==</t>
+  </si>
+  <si>
+    <t>支社より依頼</t>
+  </si>
+  <si>
+    <t>税理士法人 甲南総合会計 枕崎支店</t>
+  </si>
+  <si>
+    <t>kかんたんｸﾗｳﾄﾞ</t>
+  </si>
+  <si>
+    <t>89f5a989-9f4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>eYpB5zq/nWfP4cnVAOyf5I8fthRR9CcWBkTA5VMIHeK2+uIimvFa3rFzL4BuSH3XfNfTRsBaMc6g2bQpOQiVTw==</t>
+  </si>
+  <si>
+    <t>折返し</t>
+  </si>
+  <si>
+    <t>税理士法人 烏丸会計事務所</t>
+  </si>
+  <si>
+    <t>d電子申告</t>
+  </si>
+  <si>
+    <t>febe0677-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>WWQIWTcdrDIGYEnlrwMVH7ZAy4Mr+LnlzktsffiAh+RA21qAb7NgT62kHPHyDVPWxJacHFJSzRazUMAbGCFc8Q==</t>
+  </si>
+  <si>
+    <t>支社問い</t>
+  </si>
+  <si>
+    <t>堤 義久 税理士事務所</t>
+  </si>
+  <si>
+    <t>各種ソフト</t>
+  </si>
+  <si>
+    <t>584ca86d-9f4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>+FTvLV6XuNheMunz005Q687BpNlLIaeqizQLpEIgW9rvkj+uBqBFdNwUI2tCldIyeB7NRpwra+dHgM2ymLsZoA==</t>
+  </si>
+  <si>
+    <t>45505.4073958333</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>有限会社 山愛緑化</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CE会計</t>
+  </si>
+  <si>
+    <t>2e0fc260-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>/mpVunoOPxABguiP65OKgyc8MDEViwfrKfSFghfmZVev+oj7v/xRABdwzCrA5uW8VKmVE3nvKyHnWHB5qAfbIg==</t>
+  </si>
+  <si>
+    <t>力丸公認会計士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro給与</t>
+  </si>
+  <si>
+    <t>2aab9852-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>7BQ3yykbEuJiRowlRL0rR4xeqTzz+UzPJqj6pv1SmS5IzY5Xz+hnlLIJ3YD60XugWAm13brUoQffA+dx1KjjWg==</t>
+  </si>
+  <si>
+    <t>今西敦司税理士事務所</t>
+  </si>
+  <si>
+    <t>7d27484c-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>kRW9lg3W1ySY+yvIXr0ByIpgOsNJn3+ozBLi5BHKKNNOjWEaKdH9jJZAmVlz7kDa2Zd4i/WHlEH16pF+tUCmdA==</t>
+  </si>
+  <si>
+    <t>石尾 公認会計士事務所</t>
+  </si>
+  <si>
+    <t>98680446-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Ln1FPhF6DHsUbSqNEF5RNY4TDcUkCz85F80/yw540smSZ/8iU7/jZbb7rFrycN/EUD2xNxHf33BAOUI5oJYkpQ==</t>
+  </si>
+  <si>
+    <t>かむら会計事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proその他</t>
+  </si>
+  <si>
+    <t>8e680446-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>WLBfw48Dm/I8KiuYPJplxUobxcH2LDgcHDIkr2v+6cbBADW2kO/WLa+fmMHxrJCMg98eQVh8zFuT7rktKKe4Jg==</t>
+  </si>
+  <si>
+    <t>工藤会計・綜合事務所</t>
+  </si>
+  <si>
+    <t>a3a56843-9f4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>HN5PYhpGIOqtITV8GFgI/dJT9WGe9dxX4SaJKZKptXfvySd9OOdaNs5bAUPIcIYzd8UtzaqftQO+mb6dgIoZWQ==</t>
+  </si>
+  <si>
+    <t>梶内隆幸税理士事務所</t>
+  </si>
+  <si>
+    <t>cb57023d-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>a3z8gCstK6r+s3xzU72QsxpnA0WlWq7cU7w6TulQQ7oF0zWKUjG0ALjFOOrBbH1BdMBQ0sntMLUzW+MIYNaUfw==</t>
+  </si>
+  <si>
+    <t>笹江税理士事務所</t>
+  </si>
+  <si>
+    <t>5c98ea20-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>PaJcM/puG3/UADcpws8RH1zE2EAspuS78YAP5jTYe8otaRgirhoEKUmmY1b0fVUS9gJMQKC4uOWUb7IqK5Knbg==</t>
+  </si>
+  <si>
+    <t>東京法律会計事務所</t>
+  </si>
+  <si>
+    <t>91f6910c-9f4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>EEUhDRrS532QUFeVQdbs0Pcjj+VpOKYeRAJq+4r23H+JsSvpRXO+k6zXV8I/MaQ9rqA9QbCQdjGACF7sMIiMAA==</t>
+  </si>
+  <si>
+    <t>アズタックス税理士法人</t>
+  </si>
+  <si>
+    <t>8c528503-9f4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0Y/7QNf3jIrFS9r3glIclcZZCVrNGmZjpCTrrqZRQt6ej6KRzqPyxJVB9IgnpXKP+JVi/e/h34uSbyynGhAskQ==</t>
+  </si>
+  <si>
+    <t>鈴木 直人税理士事務所</t>
+  </si>
+  <si>
+    <t>8f498f05-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>fFeCGxs73t26NqedM/nnkIpXdWgUYRETGRFcx9j6GX83lBwpwDFeMXCqYXW3A/AM0weWHfyjmPR5e79Qy4cRrg==</t>
+  </si>
+  <si>
+    <t>天野税務会計事務所</t>
+  </si>
+  <si>
+    <t>88498f05-9f4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>eVevaO+UYvySW9JgJLmR9BRSocv+KcNL38WoJDvYz6KHwcI+CBDzaU5AzVo2QyZeuk1JFWV3sA9TyczoORZarA==</t>
+  </si>
+  <si>
+    <t>尾﨑 圭三 税理士事務所</t>
+  </si>
+  <si>
+    <t>6f760ee5-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>U12yW5jvdc8HkVV77XEnrxFiei2Rn18WC91RZojXWyEVFPJiIOl1Jd/xjxNxQUsGD4Hyu/ygsqb9g4jGaRwtGw==</t>
+  </si>
+  <si>
+    <t>古谷税務会計事務所</t>
+  </si>
+  <si>
+    <t>cef2b8dd-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>fO6ZKIB5sk0P1X/WR+2I8YZuJDGbSG8KVBLhekLVBVHXacU9Lmt5zEtrHDPAi5hgj9sBKHaHUgkBebUkVXj4ZA==</t>
+  </si>
+  <si>
+    <t>不明企業</t>
+  </si>
+  <si>
+    <t>66e2d2d6-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6pvIcTBfP3ycFzM+EwO1Vh47kabGsAywR89P6dgdM91YvmDAfNcx5Q9N+B5ZP796Rd/GHuZM+zFZfDyRKkk3nQ==</t>
+  </si>
+  <si>
+    <t>静 税理士事務所</t>
+  </si>
+  <si>
+    <t>5de2d2d6-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6Bh8vhRsKFJUSgm/+LQNQdqxrcqaVMWBudqsQ0A5+FJxTzO/maiZtWzZvdGwi1uIlFyacq7cqfBcpJAERmCijg==</t>
+  </si>
+  <si>
+    <t>合同会社 ＮＯＤＡ</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro事務所管理</t>
+  </si>
+  <si>
+    <t>729997bc-9e4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>cyl2u8pzBiziuFIhO4Wbem46/wziEuD5ESLxYjvNZLntNgd2jx2vtTC14OR14UsatGOyJ6WZ96KXFmA3sQOdmg==</t>
+  </si>
+  <si>
+    <t>佐藤晃税理士事務所</t>
+  </si>
+  <si>
+    <t>015799b4-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>o2frNeQ2fRLfiDbKpK+VZdZKWnMSjSBj4CFLvDXJkF1veeuNvW3D1P/PMgZmZHjCHKvCJYQRiDhLTWFFkrbf1Q==</t>
+  </si>
+  <si>
+    <t>みそら税理士法人</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro減価</t>
+  </si>
+  <si>
+    <t>54857c96-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>gDxmow62ws+WAA/SaXuDIPYtoZkPSRcxi8M0ZMVoWBQtWjLSqNETvynxWHROMEc61pr+tEuxcGL0gNB3ZHqdFA==</t>
+  </si>
+  <si>
+    <t>呉市衛生興業 株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK NX-Plus給与</t>
+  </si>
+  <si>
+    <t>153fe358-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>WrS9nLtQCvymrK8NeKXAyUU14cDlM0ufsXDD9xR9otTvspD2WQ8PdBINgl7wp3TVshxjYh1VC6a2L2scQhY3hg==</t>
+  </si>
+  <si>
+    <t>江尻容明 税理士事務所</t>
+  </si>
+  <si>
+    <t>8b98152d-9e4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>D7aYrG1hSpxXZqPAxGmXccKARAVmaYb6qzXiQX+9j5vr8VrOiKarcHfkbTOLXJagvamxOc9B7p/SA/QSvX2yFw==</t>
+  </si>
+  <si>
+    <t>WEB問い</t>
+  </si>
+  <si>
+    <t>高橋 求</t>
+  </si>
+  <si>
+    <t>6a00a927-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>IMKdfs3WSJPOFMZFe8wkkM7yxu80oYxIYVbID6NUVnmoulAm8P8WIcmiNrdfkvNMuMwiqXtKm2JzZEkfFxVUaQ==</t>
+  </si>
+  <si>
+    <t>折返し不要・ｷｬﾝｾﾙ</t>
+  </si>
+  <si>
+    <t>6900a927-9e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>qG9SnNQWI8u97PFmmOHMW0g1GBbjY3DBMTb2PS438fYPxDg/9OWfvqxhDdMgO+SZW1dLQd8X8PNFDDCsL3isvA==</t>
+  </si>
+  <si>
+    <t>7146c524-9e4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>h4RKIJrrv2E0CZWw08MwAgn1RIe+DqKHn4vPpL3nlj0eCc6mVUUwNqkaItGCTB5nAAVImPxnt03s/l5cUV5yyA==</t>
+  </si>
+  <si>
+    <t>吉永有里</t>
+  </si>
+  <si>
+    <t>c8a36fe7-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>8t7BiGO3DKuQiNZhCPwH7lf4spV6qEOUP1/4frqIQ8xMivLfaTvwNhaoFCL8Tmgym6pgPxPeRN8lxHqPvBUifg==</t>
+  </si>
+  <si>
+    <t>税理士法人 日本綜研</t>
+  </si>
+  <si>
+    <t>77c6dbd3-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>ypoJJfd5H0JYBkRfx2vF6LzzJ8luljNqLE2wDWjuBih2sI3QbH66d3I5vbNdHNGixfYCxOPEuhoygGjNb/9WxQ==</t>
+  </si>
+  <si>
+    <t>高嶋榮治税理士事務所</t>
+  </si>
+  <si>
+    <t>ba70c9d6-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>32r3BZi6O/3Bbcdwj+x1mFYvBjxLZJSReMn5gR+gWVTxEMQpsQFioVriic4luFftAAiKmh9V0i2eu0VKlOOZfA==</t>
+  </si>
+  <si>
+    <t>スカイハイ税理士法人</t>
+  </si>
+  <si>
+    <t>NX記帳くん</t>
+  </si>
+  <si>
+    <t>2ee63fcb-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>UqAr6ocDqhokaIH+grtzowCUDODkOxKo7YZ5qHoFNw+mrlweH7BJmsJjaQqnEDHopcRDxRFD4rvY4RQWjHi6AA==</t>
+  </si>
+  <si>
+    <t>株式会社 ＪＩＮ</t>
+  </si>
+  <si>
+    <t>MJSLINK DX財務</t>
+  </si>
+  <si>
+    <t>852c03c5-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>3bnL0htL5T0TjTodRT56ltkcAjV69SwdZalHkx5rZrwGo/P3YbEkh4QGRoxxG1yNqa2dPfzCdrfBTkSFfeDBbw==</t>
+  </si>
+  <si>
+    <t>相原和司税理士事務所</t>
+  </si>
+  <si>
+    <t>2ea7e59d-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>dTmaJDOjE7KWHHIvDTf7qSwx2t7SAPSL9P4rmKd5KnblZFoo4XtyAOAusAcukq0dL/oqpvlGfBJqI8/wbnCh6w==</t>
+  </si>
+  <si>
+    <t>理研鍛造株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK NX-Plus財務</t>
+  </si>
+  <si>
+    <t>85c0a499-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>VLD47ySQG8RY0ehWP2GqsMNzpPTVptXuMQGrnx2y8+BUoSRyIol+VRj6/ZymRBsV44CwMFn4QLiNv9wGw9Uykw==</t>
+  </si>
+  <si>
+    <t>津別建設株式会社</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CE給与</t>
+  </si>
+  <si>
+    <t>713a8e90-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>nCWFo9tq9mzMvUm6sm6B+u8gAZhg4d31+sW5MwKTuFv1VAuz1GeR+wfzxO8pjzqLJ43G0ZrA0QWOpXTbR9+Hkg==</t>
+  </si>
+  <si>
+    <t>新エネルギー流通システム株式会社</t>
+  </si>
+  <si>
+    <t>f3f67d78-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>UgXKAZUhR11o7vokTH5G81X+zlHXptBNnPZUTRc6xWqDSs1O67LTv20jowJ9s0noE468vu4DPZtk5GpHss0L3A==</t>
+  </si>
+  <si>
+    <t>西日本車輌運輸 株式会社</t>
+  </si>
+  <si>
+    <t>03e0975e-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>59jKcnJo8bKdbJBtli8uWlnu/fihXREXN5C7gGNPdKXv2yp8uxJccp4Kb7JSQKOuEb63nFli9VTU3gVVlmtacA==</t>
+  </si>
+  <si>
+    <t>中村 和惠税理士事務所</t>
+  </si>
+  <si>
+    <t>e561e84d-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ePxQTkqniv4w6K6CC5xbSCiC5KIFMMI393Tv0j1kXf9DLMOnpDo6o3vZZTL+D4d9QMr9C59Zy8sbMHcTaw97bg==</t>
+  </si>
+  <si>
+    <t>株式会社タイカン</t>
+  </si>
+  <si>
+    <t>かんたんｸﾗｳﾄﾞ</t>
+  </si>
+  <si>
+    <t>2f645a4c-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>ZG7Nx2oL4XodxRQHZZdNfrfp0advJpxfJFYS5JQVTfY/Z9eb537W5mPHPwpsDgkQUKcvkv42pRTiWNCmInPX4w==</t>
+  </si>
+  <si>
+    <t>今井一徳 税理士事務所</t>
+  </si>
+  <si>
+    <t>185d7538-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>UJpY3dmzBA6ot/K5sjTztb5GbkWnWh9VxlEnk+r7Q8+OiTznbaQTdaES0vbq+1xU/hrR+MS9ViuzdluL/PTo/g==</t>
+  </si>
+  <si>
+    <t>池田祐香公認会計士・税理士事務所</t>
+  </si>
+  <si>
+    <t>79eecf34-9d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>AkskQqqqpHzWsqtLyZzsV6otAAbO22i/N1mp/BHnqmS/LozZTzcEmXYOP8/CpE8WGN4XZagsuRuTD/MMd6yULQ==</t>
+  </si>
+  <si>
+    <t>株式会社 建装</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CEｼｽﾃﾑ</t>
+  </si>
+  <si>
+    <t>73df6211-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>pbvjkbxF4qL6Yb+L76KgUGx2Yjvd03/8EnqTxCPZR5eczbOHdpC7TGQs3uyn37pCD1pEpUdsVw1uXQ526vw9vg==</t>
+  </si>
+  <si>
+    <t>株式会社三峯商事</t>
+  </si>
+  <si>
+    <t>Edge Tracker</t>
+  </si>
+  <si>
+    <t>b743f30a-9d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>lg0E4BUwrh6b3RjgCSjAoCXEzI9iQ7TQCHcZhjcV8gW1fk/d8G2gcrPVKL6VcPlICok5Qrev5HgLMoIwXsyP3A==</t>
+  </si>
+  <si>
+    <t>庵章税理士事務所</t>
+  </si>
+  <si>
+    <t>cb46f5fa-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>nXDzqVQxPp6D/Hob1DNuiSNcZHry9QOXJ9leAXGyonRskv45XRChVOIn3XBph1hHt3NWyMLFA+/q4HKdM8HEog==</t>
+  </si>
+  <si>
+    <t>米本益栄税理士事務所</t>
+  </si>
+  <si>
+    <t>b86cbde8-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>BJchD+c0yWtTR70j+uHkRGw3yYnJctTK/fUbJ83EjGF9vnU4nm/Zl7QlUaABOPCxBHtYRQMjx9NhQZNxv9lqDQ==</t>
+  </si>
+  <si>
+    <t>杉野 元昭 税理士事務所</t>
+  </si>
+  <si>
+    <t>2784e2e1-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>WVEQLxSG6Eg30V7zUxKrxcl2Ujhsm5iC7S9souavAEDb7SFZ1Jr4vZDzQVGa9M2Yw74v9gT4jnc2rcCCdTtX6Q==</t>
+  </si>
+  <si>
+    <t>杉山会計事務所</t>
+  </si>
+  <si>
+    <t>572bcbdd-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ZWUBG6bBdf477WoeG0afDJ8a10pClwYMkPWvFQxJwtopE/mT2i50MeJc8terS/J0v5FOc7zyn9fcjRe9UYJg6Q==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医療法人 翠甲会 </t>
+  </si>
+  <si>
+    <t>ACELINK NX-CEその他</t>
+  </si>
+  <si>
+    <t>756542c1-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Wid4RsFxTUmV72bKPGIvIUjhSX4WAjcy432hvEL3ShK6Be11DRIu4qZqC2zS2MySkqtO9JyI/Htw+zMfyfNShQ==</t>
+  </si>
+  <si>
+    <t>766542c1-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>lNHj3y6r3sj50q2Wb7nYiDCdKSReMJIZq4vJ3Wqwx9Upm5KIVJJ8LcoabRoQs/do1xgy705oyrPEGQlcmickKg==</t>
+  </si>
+  <si>
+    <t>4138a3bc-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>z9TazcaicmAKH5YZewS09j5qluwr+E74ftPKxUJMclwYsoSoXl8uzHIvfA00YTPidOq2Qb1rCYNO0yTmqSkEGg==</t>
+  </si>
+  <si>
+    <t>吉田 和正 税理士事務所</t>
+  </si>
+  <si>
+    <t>ecf5009b-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Kw+0eSeorXj8LSe2dd6H8dEYKZlZ+S/vIwJntuL7gnpWJ43gKreF2pSS4LvHkyjqq/9dL+/U36wXDBJ3zr+aBQ==</t>
+  </si>
+  <si>
+    <t>板垣 税務会計事務所</t>
+  </si>
+  <si>
+    <t>73ca458d-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ErS8Q5pWlRv2NuM6kFxo/vfg0PJzPgzqivUaF6Egg1BFTe2s/dbOUTnpsy7qdUaDuVNSoz037vaabEgEPScFdQ==</t>
+  </si>
+  <si>
+    <t>深山 茂 税理士事務所</t>
+  </si>
+  <si>
+    <t>eb91368d-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>QT+9M383d+XXyZge+2IsEDRAQaTO/VMIc5ZB6TxKGo5U2hFH/8YkzfpY57mdEzhFd6Jj28VHDY9DBnW0cljHMA==</t>
+  </si>
+  <si>
+    <t>森川 敏行 会計事務所</t>
+  </si>
+  <si>
+    <t>6af67264-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>CKiAKI7K29LBpnXK75boEFMOFXO3otc1WBiZR84GaTWPHWdlfcLqr5NsQ0FPOW1wfbZa9Ki6Tk4cFfscH7Z33Q==</t>
+  </si>
+  <si>
+    <t>社会福祉法人 幌北学園</t>
+  </si>
+  <si>
+    <t>MJSLINK NX-Plusその他</t>
+  </si>
+  <si>
+    <t>d4fae54a-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>I/trDO98ZQiI7gkmW9fYTafLP0WOCTq3UlOezu1z3oHiquNbAe2CTs7bAa6TySFi1pRjCUe5SDbdts8+YRzv9Q==</t>
+  </si>
+  <si>
+    <t>平岡ボデー 株式会社</t>
+  </si>
+  <si>
+    <t>c2fddc34-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6Y+kihW/SJhbt/3lw0v/DlOBcZOCxc8HqsNy+TeGebbDUPeV4KiTn22E2F+0c6KMViUhi+e4BOs3Vzdi+YkM3g==</t>
+  </si>
+  <si>
+    <t>株式会社財務工房</t>
+  </si>
+  <si>
+    <t>589f1217-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>7Qz2kh4Y86o3Ndh4HdfeLA4wLwntisClBOZcvwcs5bKXR/ld67ldqYa+z8zdAZjsrmTgsNayOTNITZJKeICzxQ==</t>
+  </si>
+  <si>
+    <t>三瀬哲也税理士事務所</t>
+  </si>
+  <si>
+    <t>確認後回答(部内)</t>
+  </si>
+  <si>
+    <t>519f1217-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>hJolFFq9D6mNFFmrcRHyVPuzi0kU4wYQEdenddrlAhB2gh0RsTh7qlV5YmZ2n8JORqnecOP8IHw5SHWKCNeRwA==</t>
+  </si>
+  <si>
+    <t>ミナリスメディカル株式会社</t>
+  </si>
+  <si>
+    <t>GalileoptDX債権・債務</t>
+  </si>
+  <si>
+    <t>eb6f2806-9c4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>aYu/xGNOivcmzoT3Bl2tDh2lpzHR6OWxVdfGZfZAaDdnde38pj1Xs9RdvhoOM6r/L4kwCr2Phhntiv+L45YHwQ==</t>
+  </si>
+  <si>
+    <t>税理士法人山本一郎税理士事務所</t>
+  </si>
+  <si>
+    <t>79861908-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Jk8DzQtv7x7Dy4tz6x+GQgUnf1ltk3hns2dhSPeUY756pd7grvzGt0+KO7+rVwiDTcoUdIUjop9D2/JUOhE/cg==</t>
+  </si>
+  <si>
+    <t>78861908-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>2dCDoT/iqew2e8EJEU8+Grq3iBBJ/BxRE8fuJaIwMeKkZ7sVC+8l3Moj69O+GXKKd336zYGctotHkvg2XbjPPA==</t>
+  </si>
+  <si>
+    <t>税理士法人ﾏｲﾀｯｸｽ･ﾊﾟｰﾄﾅｰｽﾞ本部</t>
+  </si>
+  <si>
+    <t>77861908-9c4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Fa0CAL02QyLY5opsLGSyk6d5L92bdHj3z1clwVaVO1S1GLSMpMYDPkQIL2hW50yyItJMReVjYctBSpjXObkZCw==</t>
+  </si>
+  <si>
+    <t>NSK富山株式会社</t>
+  </si>
+  <si>
+    <t>fb3025d8-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>0OeZx9VDNNhJSZqY0YHiLkllHmWczaWU14S9NCnE7SDxtLwNJWN7qKyIBsXXUoTpN0FjAtKEsLjzSoERPej20w==</t>
+  </si>
+  <si>
+    <t>葛西敏雄 税理士事務所</t>
+  </si>
+  <si>
+    <t>a53373d3-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>QACau7AtwghRX2P5ncGI60xnzG+k35hzvVzkaZIa2ogUK7b666IVbAkLWY7YJ57/Sn7jTiTEJNIgeWr3Yha5kg==</t>
+  </si>
+  <si>
+    <t>東洋ファスナー 株式会社</t>
+  </si>
+  <si>
+    <t>bff5c8bc-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>vMDHr+5MIV2W3YNKzEQZCNBZJTaBi7eIvmFuu7tyYSRUFC1fUn7BLh4V8vUqbPm0y4EEubR4XiLyYoKxjCzjfQ==</t>
+  </si>
+  <si>
+    <t>株式会社ブルームホールディングス</t>
+  </si>
+  <si>
+    <t>e42768b2-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>eGp++4hfJ/YhVqD73J8QHmngX8UYPsHuqD1fPiU52RLNsQipP2fZjj6ylNErRMFvibYSYey224Td/GXsr+fpRw==</t>
+  </si>
+  <si>
+    <t>渡辺税務会計事務所</t>
+  </si>
+  <si>
+    <t>4944a6a4-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>pnlHhhTjYhF6m+wFXqGOXoW06RxXe6O40Y0Lg1Zp8AJ7FEkloxwjH/WLeqgF99BYze+MRr6lz6Ec4skz+RVbeQ==</t>
+  </si>
+  <si>
+    <t>税理士法人 高田・中野総合会計 大阪事務所</t>
+  </si>
+  <si>
+    <t>a299e699-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>NYdU+NG4POEbbuR+eoVpw5ymt9LNXJBQ0lIBQhADCur2Wp+RHPver4wewWkOeIC3uu//Q6pwaLWdDtnHMvywUg==</t>
+  </si>
+  <si>
+    <t>税理士法人熊谷事務所</t>
+  </si>
+  <si>
+    <t>e687287f-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>8LiFFtHEm0BPBXGU+7lBownM3lkabtUhAZnzT3QRWVVafIqY+dHioN8UKLqO5+xYUE68bfq9NxQkjE8UaB34sg==</t>
+  </si>
+  <si>
+    <t>税理士法人 錦織会計事務所</t>
+  </si>
+  <si>
+    <t>e83f5f82-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>FOCpWD4PXMxNN02lEeZ35MFpui+WuiOzPDcjkANBmTt/flSgW26M1+Wz8zdWPSPbyLlCuZMNjYOVGXOAOQV+5Q==</t>
+  </si>
+  <si>
+    <t>西久保勝郎税理士事務所</t>
+  </si>
+  <si>
+    <t>dd87287f-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Rbxtx8FHP316GzlVSNB95DKCfrRfiYEI9Fof/q8nX/K8TuWcg47l8FEr0CwquBZMd3Hfi+yY3Kmny/dsBhIZBw==</t>
+  </si>
+  <si>
+    <t>八文字コンサルティング株式会社</t>
+  </si>
+  <si>
+    <t>2d9f6d6f-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>ZG/7URJpqOr9gKH19FFvECE81xWb3v47NLhEZ9isyf8sOquoB6FyaCNMV01eNw68m6fU34xZghKGGUgjqloKVw==</t>
+  </si>
+  <si>
+    <t>中野 稔 税理士事務所</t>
+  </si>
+  <si>
+    <t>1e35b268-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>sJ80aol0vNrb13+jum/NZaDEn1oMJ/FDAjpCu+ws0S0WzurIme6xXNT+i0taUWouoWqbd8Vnk+O21Dweuj/Yxw==</t>
+  </si>
+  <si>
+    <t>株式会社タケダ</t>
+  </si>
+  <si>
+    <t>ae1ce34a-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>DTw68m3Snv+sle9oZtVx2+s+FIfQlpRtWalK85uDmm8lkUcPzDIwSsqSD1DHG0OAMeTsxG0Vt5dPdqczWsf5hw==</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>5b40e540-9b4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>1PGS0jW/69xufFUnHzTpxBVqY64NfInhwiW6aWmlT0F2HyrF+FkYYZM6Zugfl9qqdqdSlanZx9JZctPIsnmTkg==</t>
+  </si>
+  <si>
+    <t>0b5a9b1e-9b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>3WIBU/v2sm3UKWszL4DepZ6PLRK++VB87DzN4PAtls6ka8/ui2qn3ADmqHw7sPiwk6YRX298pvtVBTVShPEsuQ==</t>
+  </si>
+  <si>
+    <t>a23c79e8-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>H2SQalZTgMS6fJhxMEXedGh3Sf5SevZ+vrBkixT6GB3iCICBx58h/dgSrH4rNjX5rY5ELWoscIER4IF0gGQC7g==</t>
+  </si>
+  <si>
+    <t>a780aee3-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>uLAcIilyMaX75GHUaih46VeLc2qecHU5vFq7TWdmN63y5k2lmzf8+x6l42TgMfQt7+AjhsviBEVbtZHmXTdOgQ==</t>
+  </si>
+  <si>
+    <t>あさひ 税理士法人</t>
+  </si>
+  <si>
+    <t>e367e4af-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>1ArwBOks2QaJ8fQM8E+T6ERQAWqE5j4OUkUQ/ZD0Dr4KUCQyiNdMFg8wBpURBVVs7SrE3ElqZngUd6AJKmcxwg==</t>
+  </si>
+  <si>
+    <t>税理士法人Sofa</t>
+  </si>
+  <si>
+    <t>da67e4af-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>VbQjORZtD17JoeCZdWwHeBlrBl+TE3q1XVfi6XlL/FmJPS1DfghMVzC5BiyDRd3mVqjRQ5qjSNnIQN7JgTzJ2Q==</t>
+  </si>
+  <si>
+    <t>d367e4af-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>+KHAskXnHZ/V40ERbg0ta15YhpsLBvBA2XmozUJgP8dLiqwtVILrB2tZkQF3zFHQkLVqYIRo6TWyPw1eOZysQA==</t>
+  </si>
+  <si>
+    <t>45505.4062847222</t>
+  </si>
+  <si>
+    <t>社会福祉法人 枚方療育園</t>
+  </si>
+  <si>
+    <t>cc67e4af-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>A7qJoH7oREVfr/b/llmdi1XsifFiQWeld88fBz3DZomKW+GreUKGo+LMaoGyjRa1VQyJ8dL75qXjhSU92gFAlQ==</t>
+  </si>
+  <si>
+    <t>宮本隆税理士事務所</t>
+  </si>
+  <si>
+    <t>4e212ea3-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>N2rHhSvho1So3Prb/fuPjQJyr4KXm4OAfEc4PQzifa81kft4kVKwnDtAiB3YI0Y1AOhO3TrE6kPw7VDaRVIVaw==</t>
+  </si>
+  <si>
+    <t>新大阪タクシー株式会社</t>
+  </si>
+  <si>
+    <t>f1d13c91-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>c+WBDMxKjLmAB4uo+yNawXSavZv78eI/xKTAiXZtLKV9+Ngcp+LphUzo9k9Wc1CWvFWfsIQ2WsYwH/NFbrtdWg==</t>
+  </si>
+  <si>
+    <t>平井 賢治 税理士事務所</t>
+  </si>
+  <si>
+    <t>e9d13c91-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>lBHSPZ5NQ5LRvIshdPbwIai80CElwl5OyOWlgjEBn3CB2qcf5XkW3/CAkh+hQcawMJEwm4gL3DiVvHCONJKELw==</t>
+  </si>
+  <si>
+    <t>中山竜也税理士事務所</t>
+  </si>
+  <si>
+    <t>64f64384-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>37tOmscyMHJylZRyhG7iCkRYOYv2YjeXi093BNBWrXYj5ThmOFK2QzCEfKn9cSjVTrOV9FgM5hZQ/71rBPqWBw==</t>
+  </si>
+  <si>
+    <t>65f64384-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>oUXokkvcvVyBCrYc/CZ+J1VDANjjuCj8agO6Z3T8/kMrq340dcixWhvGjxQDMocjNEPJ08YkER00EbPWuS3Ppg==</t>
+  </si>
+  <si>
+    <t>762b437a-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>EqAqNSwCSmJrT6c47t4w722sVnAAuv+W1fFlp49BOHjzE1QRf/rLlvrLs1IdUE2osuZGabDWk5qEkqM9Vrfp7A==</t>
+  </si>
+  <si>
+    <t>税理士法人 平川会計パートナーズ</t>
+  </si>
+  <si>
+    <t>b316e460-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>+oXe1bgANkTQKMuYMzAs/L8cEzzERjqdBk3vdvkCKayrN25o2V2hkptx1YfHCT2fErTrW9UhO3Ljwb5aR16Rag==</t>
+  </si>
+  <si>
+    <t>45505.3819212963</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>株式会社 テクスコ</t>
+  </si>
+  <si>
+    <t>ﾒｰﾙ・FAX回答（送信）</t>
+  </si>
+  <si>
+    <t>9464894d-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>e1Zj8hcRjs4wQ8VVNI+z3Vq18HhqbqNY1ctGCJ9lFXXWYlYKkQevx5126Xb2pdogfA84qA0sjZFMJgxtsIftOg==</t>
+  </si>
+  <si>
+    <t>佐久森林組合</t>
+  </si>
+  <si>
+    <t>8d64894d-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>vF2UhahlbDmA44uZ9kfg14gUhu7SqST9scn5InnPWKcm+51piOHDNKwFCULrWc7XZZai2VPMM3qN/Jaa3xhZjg==</t>
+  </si>
+  <si>
+    <t>高橋靖忠税理士事務所</t>
+  </si>
+  <si>
+    <t>bad6e337-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>6RNCa3pYr7qiIui4lbce4OXCsn+E3nuAfUFzQVU4OMxFEAdAPhWdFt4ZFs8GSUT2jZ6TQR2myqG6VES9x7MMug==</t>
+  </si>
+  <si>
+    <t>社会福祉法人 福栄会</t>
+  </si>
+  <si>
+    <t>MJS税務DX</t>
+  </si>
+  <si>
+    <t>b3d6e337-9a4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>85DwA1dSWcXUh57RGG322dnkYUejsFzZPCInIyXX0QRhGTbusF+eMMP6gAs9rG4o4XYdK1nk3D2Xo0tMh8AUmQ==</t>
+  </si>
+  <si>
+    <t>南三陸病院</t>
+  </si>
+  <si>
+    <t>支社依頼(通常)</t>
+  </si>
+  <si>
+    <t>051ed036-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>LKMua4DiaVgB42f7S+XpVuZwidJHm+0c2jLvmsTUnQk21vLfO9cp+RTb5OQisdvAntUGhms6P9O4qc6GVoYgJg==</t>
+  </si>
+  <si>
+    <t>税理士法人森田経営</t>
+  </si>
+  <si>
+    <t>fe1dd036-9a4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>tOum+UmT1hg+2M/c78int0Dp61iKZM0eCs5pyZHVZ5j/bFWOkTczIzY2HEzZL5DxyL0UyBO4dQRZ5DhzHe4POQ==</t>
+  </si>
+  <si>
+    <t>税理士法人のぼる</t>
+  </si>
+  <si>
+    <t>MJSﾏｲﾅﾝﾊﾞｰ</t>
+  </si>
+  <si>
+    <t>7b631cfe-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>k8+hibx0Q6WFRVmjPRcx/wKBN4b/dkZGMNt+GMAisS3r26z9ys/OA4PyUvHwe/KOD492nnSXjreVcFjje0UQsA==</t>
+  </si>
+  <si>
+    <t>8238bcf3-994f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Alv2sRveoQ0+rsDQRRFRAhDY45IQSFQEP+fAXRdeuGVRj8CeLjPy8t8xA9C1NUq4bVgm3OldvYibvnARG312Sw==</t>
+  </si>
+  <si>
+    <t>858122dc-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>d0uD7mCBDbxL6/bAHZl/L4sX+R96m0ovv/k6d5pSoQz54CFw+aboiMu7v0fBVhgW20RLAhTm9xXFeYjA2QSxXw==</t>
+  </si>
+  <si>
+    <t>八木 昭 税理士事務所</t>
+  </si>
+  <si>
+    <t>df6274d5-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>OZiRiw60tF7X0eiqaK2RcD85fl2PrfckgVeCGQDnA2kML/bst7FisZ/fXYZUUM1FZ6yLC+DnGigbGZwI4xooJw==</t>
+  </si>
+  <si>
+    <t>大和電器 株式会社</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus共通</t>
+  </si>
+  <si>
+    <t>09fcc4d3-994f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6ldV5zUXTqvKyG3p9JkiMUOtpo/qkuj1xxNVWxBBjWj/flKSG98H4JhAKwGFzx7r2KABkZn3p3PxIzz5ZLnGuw==</t>
+  </si>
+  <si>
+    <t>教育サービス株式会社</t>
+  </si>
+  <si>
+    <t>a31651c4-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>/9h8/RnBPX5j2yRh5dac95gIzQYCT/UNs510gVix92KtWuHswYIrsnd+iwayz3yuP/0NwjtU+KKFVlQUvy9FAw==</t>
+  </si>
+  <si>
+    <t>bcfb67b0-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>QqgazmxcbGgswjVdDvHGshiC/i+9T9nAoo+G9hi99+VDUA2Dp0oC5ndi8hQwq3nFZyCO+oLGqRdI/k87XX1nGg==</t>
+  </si>
+  <si>
+    <t>afdd25af-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>e3TPWNnRXdf9KDF+twS151gJ99nY5Po7SlUyBhKFEcxVwml6NjyeTRreSXBAiClqJpcD21TqFtZpXQ7ZsPZKCw==</t>
+  </si>
+  <si>
+    <t>東亜物産 株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK DX販売</t>
+  </si>
+  <si>
+    <t>31582b9e-994f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>8ERz3zmhIzqXL+8C222nJEu8ZIbw0dEaGFPj57ejAulAFol1kM6xjoXgIKJzPgq/44LWHFmjTxUPu28wR988RA==</t>
+  </si>
+  <si>
+    <t>鉱研工業株式会社</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus財務</t>
+  </si>
+  <si>
+    <t>22811297-994f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>uaEoeXypKCBi++BzcorarrBOsndK0PuFMrr6OmM515Q3epvEN2noc1t1IQ4FdfNkozuLxSkuPOPDESVGE+muhQ==</t>
+  </si>
+  <si>
+    <t>株式会社 米善</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CE販売</t>
+  </si>
+  <si>
+    <t>84b7ef8c-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>vrwGUcVv9V3F0RInhjIVQ1j9h3IlU61OZfUIuQuXA2Gt78iR12B3CBWdd27gpzLjVdG6hNQkkSg2+wEkpICEGA==</t>
+  </si>
+  <si>
+    <t>山田陽一税理士事務所</t>
+  </si>
+  <si>
+    <t>7cb7ef8c-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>wzXnZmolwGPvs9VRPjCJlxgRBd55BmX+Jzel6r/aNrx6ej9pJhkgZTPSFSE1GIUnL2vOnEI3ZxoyFocXZOz/pg==</t>
+  </si>
+  <si>
+    <t>医療法人 わかば会</t>
+  </si>
+  <si>
+    <t>6613847c-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>HoPfJ8ah2NIYjN4WIGewutxBLYSj4PoGUo1BK7YSFIPnEMUcDQ+vYLYmuPVwZ312ArWjDtEjE+cz0y8TiOuo6g==</t>
+  </si>
+  <si>
+    <t>税理士法人グッドパートナーズ</t>
+  </si>
+  <si>
+    <t>b1b0c574-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>wHgcuf73m1qJc9BTDxdwQrBNiP+V5cN2gJkRcfcXO/4C3YRPTDxoeJQ5ToD0NX36PaydCQSGGQZJBmP2yIHdug==</t>
+  </si>
+  <si>
+    <t>6b69c46e-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>hsUSo4dxyEAbhk2XaIx6fjoGWt6cgQAH88khlwWRQ01UEksgtSwyHLYbpQSryaKYRGsFTXGXuFwzniXP/Y+4LA==</t>
+  </si>
+  <si>
+    <t>極東印刷紙工 株式会社</t>
+  </si>
+  <si>
+    <t>プリンタ</t>
+  </si>
+  <si>
+    <t>2a991c4e-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0vLo9G9u8Z55zZhaevvlWHtniry0GKfXGjWBuF7ZbxclqyUQZPsCAu2O33ghhAxkBFt2IjOb0CQXq+yK7aTnRQ==</t>
+  </si>
+  <si>
+    <t>株式会社第五電子工業</t>
+  </si>
+  <si>
+    <t>61706a3a-994f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>rPjCDTTAz8t6g7DzY1GoGwx+Oez2Cjw1Py9p4i2mzHeJsXqzEJqo5wbxlEwQRwq1rBiuTE4Q9Tn3Ll+oIVeWYA==</t>
+  </si>
+  <si>
+    <t>株式会社 東京金融取引所</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus給与</t>
+  </si>
+  <si>
+    <t>8a1bf2d6-984f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>j6mGWKeCR03eXu9Byor882EXpJxfoP5ugSRyQ4hDabTrm77myqAFY1vVKiHvEd/2O3M1O0AheIe+s9/gBcLbFQ==</t>
+  </si>
+  <si>
+    <t>西山勝税理士事務所</t>
+  </si>
+  <si>
+    <t>見積り承認待ち</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>0d2ac384-984f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>c3mS6ZZDjKo/qGsKQ9Dt3R7MAuzJBpuhchHROuVihrdG+hT4FLClEsHj8RR+eGv+XUmu7zBvKp87yYwQGifvvw==</t>
+  </si>
+  <si>
+    <t>小林又次郎税理士事務所</t>
+  </si>
+  <si>
+    <t>hﾊｰﾄﾞ・OS関連</t>
+  </si>
+  <si>
+    <t>24ff8507-984f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>4EnU3vY++byFtLKf/3RX6vW2H+Mc0ckyZiyyOd00QTprXe5RGV+wZWPEOrTjomcUPpOOtQdqA+n/A6VL1Ywb6A==</t>
+  </si>
+  <si>
+    <t>746da6d3-974f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>YGXxz0xVGc+Q5luyVqNIusvwTchY1f2MsRP5rtqYcMFkSpTXhfOcKS6j9GpXV2MyzGCU84Ue0n3n7uIuBeOArA==</t>
+  </si>
+  <si>
+    <t>91171faa-974f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>YrdYXtf3MpSIXY7O15jLKg0Jd+pzHokLJE3LPU9c0n7df22LD2VeuHrN8wg9IBpshd6Mqilrggx/1rEnTr+CEQ==</t>
+  </si>
+  <si>
+    <t>西野敬一税理士事務所</t>
+  </si>
+  <si>
+    <t>792fe58b-974f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>d8yexAersyM7UpI212BOLgkyLuZGmb2iHNyvRhOlkt5jvlgC3JtGsMvgpZmM5aJA3sowtjGa270CsLcvOgu5SQ==</t>
+  </si>
+  <si>
+    <t>有限会社 ディック北九州</t>
+  </si>
+  <si>
+    <t>47af9e20-974f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>wkgx5bWx7S4tdwP6h5+JgRkBfstfzM0PS4rtdsOum/1yL7S02zD4XVG6r2rlubDXUBJJMilyBCaX4JXFEvXk5w==</t>
+  </si>
+  <si>
+    <t>愛知機械工業株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK DX給与</t>
+  </si>
+  <si>
+    <t>4c1c2ab7-964f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>F1wottCdA8vCRQLSCGJlToZ+0giIaVWQK/X5xRlbDkEVyiM7D8w+xRwRoKeq12o2jWWqqvhvFMwsxpQmZzNH+Q==</t>
+  </si>
+  <si>
+    <t>サーバ</t>
+  </si>
+  <si>
+    <t>8d788c17-964f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>4VYv3ZAxGHxHb6nR1h7ArKZV21u8VzPShaSGlCmEXWsU2aYRWPs8t73T8YJBVDavfqY1iAfyBBK8aMhgdfLWuQ==</t>
+  </si>
+  <si>
+    <t>f5d8fc8b-954f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>J6QLcQHYDfHceHYe9j1/rffliXRVKuuG/vg5doJT7pJPwIQmM8g1XyUML+OXTd83YH90hqPkZrxxBDTwvKun4w==</t>
+  </si>
+  <si>
+    <t>日比野将吉税理士事務所</t>
+  </si>
+  <si>
+    <t>c90c8e09-944f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Q4Ta5zRHVVx2GnnXBK5qQ2qiZNIII6t7DRv3ZAMJVKgB7H+W/41iN6qI+ovtYMsULEX+fgRs3XJ5BdDIP71x4g==</t>
+  </si>
+  <si>
+    <t>6425f3fc-934f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>ayF2sBEfLQOe9csK6x/FVZvvRMtzvGi3784qAZtfmNw/spBU3CpnJCvKJRK9Sa25CTyCkAlg2oYDPenHvoV6pw==</t>
+  </si>
+  <si>
+    <t>a73073a7-934f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>F337SCXSoFeYQGZbb1cRMHdJcOYC1XkxTk3qJR9O3/a3TRok2HlzLve8JXxD4R3NVavNJaMwWADwX54q87ez0w==</t>
+  </si>
+  <si>
+    <t>ファースト税理士法人</t>
+  </si>
+  <si>
+    <t>2b3445df-924f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>p34aOJqwlfzoEtQlwFB+A8CJmJzLUmmgWHWLbujvAX6hqwZ1zEGiHz+2o4/nI4QlKTazuEU+40OJAHehf6A3Ng==</t>
+  </si>
+  <si>
+    <t>留守電</t>
+  </si>
+  <si>
+    <t>ＢＩＺＡＲＱ合同会社</t>
+  </si>
+  <si>
+    <t>81d064b0-924f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Vfm/PCGtI24JqUFZavclqtOCBmX1HThtZbwxhxHfBdVsgJAWkNSg0E6Vmcm7YjXDTO7eaFNVR3AAqvVir5/+Mg==</t>
+  </si>
+  <si>
+    <t>髙橋 拓 税理士事務所</t>
+  </si>
+  <si>
+    <t>0ae88817-924f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>cdnDyUnJJEP30nNf/5o0824c8JTp+SOh0qPfkt3OIQpxb+vJZmcmGHUc461ZqHbyxj9c1Dqe/kPyC4jMQEN75g==</t>
+  </si>
+  <si>
+    <t>鹿児島総合会計</t>
+  </si>
+  <si>
+    <t>6fc82165-914f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>45va2XsaC28e3ltX4BVmCGBkKk2/nJPvX09v2quwwnnErJ3bomyn/eTVHxsvuEQyxpwN7LeX4st7PyoWkuGMpg==</t>
+  </si>
+  <si>
+    <t>鶴山安浩税理士事務所</t>
+  </si>
+  <si>
+    <t>afa4a735-914f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>xseqWIHs1sRe5E6tQvEM2OHer2Ghoec/U7GqVDkAGekKHSCNwxl0Emst3PgRunZVB6dCIaasOlMzfjMZ3JHNJQ==</t>
+  </si>
+  <si>
+    <t>税理士法人 加藤事務所</t>
+  </si>
+  <si>
+    <t>74de6889-904f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>1aP/JHG5Mat2iVNtgrP87jkWAiAEauIxxKnh+kzWQ1y7KuhdF2+b/uA7tRo1aZcPhBB+eRyo/dVzuYCYdTkvog==</t>
+  </si>
+  <si>
+    <t>且井信昭公認会計士事務所</t>
+  </si>
+  <si>
+    <t>3dc0f8a9-8e4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>0hXa0l/4TQEk2Py4yH6p6LcUWeB8jc5QYiy70u3oGyM52g0YGQ8DJIJ+6N130IQTOI+dYgw69tVTV7NuPiHXYQ==</t>
+  </si>
+  <si>
+    <t>bc9691ec-8d4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0FTtUm0//CjIAPcxmXeGNbizB0UBWWK3L3Qt4IB/kQ+gyXVSgYYihm9VXVvC92azfc0Q7o/bw8nush7AR2tT+w==</t>
+  </si>
+  <si>
+    <t>7802beea-8d4f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>MfUU0q4c6fa2dPCbg9/MM4/G0z2bc4AGoaVnvXWxH/cpDajPuXsWS6gbitSaz0tqOPfc5LWTcRTynfsu8JLrbw==</t>
+  </si>
+  <si>
+    <t>眞鍋信一税理士事務所</t>
+  </si>
+  <si>
+    <t>84d67647-8b4f-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>4h4hA5UFndl1xXAYfA2oWMhiZwIX7R7GrCA3l5kAxl3sDAI6YI0uYdO4BTqMcwvB8tbtPefgHDGorUsIOLe2gg==</t>
+  </si>
+  <si>
+    <t>川崎大地税理士事務所</t>
+  </si>
+  <si>
+    <t>c5c55039-894f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>nm0tBTsH0d7CNk/hCk+Ssjg1mkWdnGg/KH/gQC9d84NtoWV7XJ6RHooSl2oEFd0Xfmc+R3Vej13++MZ7ofVL0g==</t>
+  </si>
+  <si>
+    <t>矢野 幸博税理士事務所</t>
+  </si>
+  <si>
+    <t>96e46755-884f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>majwYhT3P4T8oJBVgzh+CXWKITtORDxSOFpAHQmaALhCM8onVzGFB5LG4KMwcdbqeWARKbHu6o5kcXW8HGcSBg==</t>
+  </si>
+  <si>
+    <t>e9b1b2b5-864f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>iTApwnXD3rZatgGvBz1hcLptxQA00rUDsEkKJ2riJymPONLuSIwcRICtiOGKUVcTh3LLSKJ9vA8QEISmhiOvnw==</t>
+  </si>
+  <si>
+    <t>山本忠行税理士事務所</t>
+  </si>
+  <si>
+    <t>cc50d6cb-854f-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>B2YrGPnqMWm4vRuNIwuvEs9Q3+buU+0cOmEOE0NLdcHJBWcqudRuAnIK+8135rYVrn6inDN9SSKK3FCy/rEnyg==</t>
+  </si>
+  <si>
+    <t>田戸俊也税理士・行政書士事務所</t>
   </si>
 </sst>
 </file>
@@ -592,2062 +2020,4956 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45505.408217592601</v>
+      </c>
+      <c r="D2" s="8">
+        <v>11731125</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45505.408217592601</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45505.408113425903</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11731124</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45505.408113425903</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45505.407847222203</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11731123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10">
+        <v>45505.407847222203</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45505.4078240741</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11731122</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10">
+        <v>45505.407812500001</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45505.4078240741</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11731121</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45505.407743055599</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45505.408020833303</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11731120</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="10">
+        <v>45505.407592592601</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45505.4075115741</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11731119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="10">
+        <v>45505.407245370399</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11731118</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10">
+        <v>45505.406990740703</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45505.406770833302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>11731117</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45505.406770833302</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45505.407858796301</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11731116</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45505.406550925902</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45505.406620370399</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11731115</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10">
+        <v>45505.4063425926</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45505.407025462999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11731114</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="10">
+        <v>45505.406319444402</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45505.406585648103</v>
+      </c>
+      <c r="D14" s="8">
+        <v>11731113</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="10">
+        <v>45505.406215277799</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45505.408101851899</v>
+      </c>
+      <c r="D15" s="8">
+        <v>11731112</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="10">
+        <v>45505.406168981499</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45505.4063888889</v>
+      </c>
+      <c r="D16" s="8">
+        <v>11731111</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10">
+        <v>45505.406064814801</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45505.406041666698</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11731110</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45505.4055324074</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45505.405694444402</v>
+      </c>
+      <c r="D18" s="8">
+        <v>11731109</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="10">
+        <v>45505.405208333301</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45505.406597222202</v>
+      </c>
+      <c r="D19" s="8">
+        <v>11731108</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45505.405023148101</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45505.4053935185</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11731107</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10">
+        <v>45505.4049884259</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="A21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9">
+        <v>45505.405312499999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>11731106</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="10">
+        <v>45505.404965277798</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45505.404895833301</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11731105</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="10">
+        <v>45505.4043634259</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45505.408252314803</v>
+      </c>
+      <c r="D23" s="8">
+        <v>11731104</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="10">
+        <v>45505.404189814799</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45505.407523148097</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11731103</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10">
+        <v>45505.404166666704</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45505.404328703698</v>
+      </c>
+      <c r="D25" s="8">
+        <v>11731102</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="10">
+        <v>45505.404050925899</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="9">
+        <v>45505.403969907398</v>
+      </c>
+      <c r="D26" s="8">
+        <v>11731101</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="10">
+        <v>45505.403541666703</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="9">
+        <v>45505.403842592597</v>
+      </c>
+      <c r="D27" s="8">
+        <v>11731100</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="10">
+        <v>45505.403391203698</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="9">
+        <v>45505.402858796297</v>
+      </c>
+      <c r="D28" s="8">
+        <v>11731099</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="10">
+        <v>45505.402858796297</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45505.407164351898</v>
+      </c>
+      <c r="D29" s="8">
+        <v>11731098</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="10">
+        <v>45505.401701388902</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="A30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45505.407905092601</v>
+      </c>
+      <c r="D30" s="8">
+        <v>11731097</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="10">
+        <v>45505.400763888902</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="9">
+        <v>45505.405358796299</v>
+      </c>
+      <c r="D31" s="8">
+        <v>11731096</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="10">
+        <v>45505.400717592602</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="9">
+        <v>45505.4031944444</v>
+      </c>
+      <c r="D32" s="8">
+        <v>11731095</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="10">
+        <v>45505.400717592602</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="9">
+        <v>45505.401284722197</v>
+      </c>
+      <c r="D33" s="8">
+        <v>11731094</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="10">
+        <v>45505.400706018503</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="9">
+        <v>45505.403900463003</v>
+      </c>
+      <c r="D34" s="8">
+        <v>11731092</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="10">
+        <v>45505.399444444403</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="9">
+        <v>45505.399629629603</v>
+      </c>
+      <c r="D35" s="8">
+        <v>11731091</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="10">
+        <v>45505.3991087963</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="9">
+        <v>45505.404120370396</v>
+      </c>
+      <c r="D36" s="8">
+        <v>11731090</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="10">
+        <v>45505.399085648103</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="9">
+        <v>45505.408020833303</v>
+      </c>
+      <c r="D37" s="8">
+        <v>11731089</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="10">
+        <v>45505.398923611101</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="9">
+        <v>45505.398738425902</v>
+      </c>
+      <c r="D38" s="8">
+        <v>11731088</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="10">
+        <v>45505.398738425902</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="9">
+        <v>45505.401215277801</v>
+      </c>
+      <c r="D39" s="8">
+        <v>11731087</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="10">
+        <v>45505.398009259297</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45505.403182870403</v>
+      </c>
+      <c r="D40" s="8">
+        <v>11731085</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="10">
+        <v>45505.397974537002</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45505.3977199074</v>
+      </c>
+      <c r="D41" s="8">
+        <v>11731084</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="10">
+        <v>45505.3977199074</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="A42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="9">
+        <v>45505.397847222201</v>
+      </c>
+      <c r="D42" s="8">
+        <v>11731083</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="10">
+        <v>45505.397349537001</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45505.407719907402</v>
+      </c>
+      <c r="D43" s="8">
+        <v>11731082</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="10">
+        <v>45505.396747685198</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="A44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45505.405300925901</v>
+      </c>
+      <c r="D44" s="8">
+        <v>11731081</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="10">
+        <v>45505.396516203698</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45505.403298611098</v>
+      </c>
+      <c r="D45" s="8">
+        <v>11731080</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="10">
+        <v>45505.396435185197</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="A46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45505.4014930556</v>
+      </c>
+      <c r="D46" s="8">
+        <v>11731078</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="10">
+        <v>45505.3960532407</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="L46" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="A47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45505.401238425897</v>
+      </c>
+      <c r="D47" s="8">
+        <v>11731077</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="10">
+        <v>45505.395960648202</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="L47" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="A48" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="9">
+        <v>45505.407962963</v>
+      </c>
+      <c r="D48" s="8">
+        <v>11731076</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="10">
+        <v>45505.395254629599</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45505.395659722199</v>
+      </c>
+      <c r="D49" s="8">
+        <v>11731074</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="10">
+        <v>45505.395208333299</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="L49" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="A50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45505.398541666698</v>
+      </c>
+      <c r="D50" s="8">
+        <v>11731072</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="10">
+        <v>45505.394849536999</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="A51" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45505.4053472222</v>
+      </c>
+      <c r="D51" s="8">
+        <v>11731071</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="10">
+        <v>45505.394513888903</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="L51" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="A52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45505.402372685203</v>
+      </c>
+      <c r="D52" s="8">
+        <v>11731069</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="10">
+        <v>45505.394398148201</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45505.394722222198</v>
+      </c>
+      <c r="D53" s="8">
+        <v>11731067</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="10">
+        <v>45505.394247685203</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="L53" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="A54" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="9">
+        <v>45505.395150463002</v>
+      </c>
+      <c r="D54" s="8">
+        <v>11731066</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="10">
+        <v>45505.393750000003</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="9">
+        <v>45505.393750000003</v>
+      </c>
+      <c r="D55" s="8">
+        <v>11731065</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="8"/>
+      <c r="G55" s="10">
+        <v>45505.393750000003</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="A56" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="9">
+        <v>45505.4054861111</v>
+      </c>
+      <c r="D56" s="8">
+        <v>11731064</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="10">
+        <v>45505.393657407403</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="A57" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="9">
+        <v>45505.392951388902</v>
+      </c>
+      <c r="D57" s="8">
+        <v>11731063</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="10">
+        <v>45505.392951388902</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="A58" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="9">
+        <v>45505.396030092597</v>
+      </c>
+      <c r="D58" s="8">
+        <v>11731062</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="10">
+        <v>45505.392685185201</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="L58" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="9">
+        <v>45505.393182870401</v>
+      </c>
+      <c r="D59" s="8">
+        <v>11731061</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="10">
+        <v>45505.392685185201</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="L59" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="A60" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="9">
+        <v>45505.400983796302</v>
+      </c>
+      <c r="D60" s="8">
+        <v>11731060</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="10">
+        <v>45505.391909722202</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="A61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="9">
+        <v>45505.392708333296</v>
+      </c>
+      <c r="D61" s="8">
+        <v>11731059</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="10">
+        <v>45505.391516203701</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="L61" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="9">
+        <v>45505.391504629602</v>
+      </c>
+      <c r="D62" s="8">
+        <v>11731058</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="10">
+        <v>45505.3910300926</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="L62" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="A63" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="9">
+        <v>45505.402060185203</v>
+      </c>
+      <c r="D63" s="8">
+        <v>11731057</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="10">
+        <v>45505.390428240702</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="L63" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="A64" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="9">
+        <v>45505.3936805556</v>
+      </c>
+      <c r="D64" s="8">
+        <v>11731056</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="10">
+        <v>45505.390393518501</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="L64" s="8" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="A65" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="9">
+        <v>45505.393668981502</v>
+      </c>
+      <c r="D65" s="8">
+        <v>11731055</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="10">
+        <v>45505.390150462998</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="L65" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="8"/>
+      <c r="A66" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="9">
+        <v>45505.390104166698</v>
+      </c>
+      <c r="D66" s="8">
+        <v>11731054</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
+      <c r="G66" s="10">
+        <v>45505.390104166698</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="6"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="A67" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="9">
+        <v>45505.394050925897</v>
+      </c>
+      <c r="D67" s="8">
+        <v>11731053</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="10">
+        <v>45505.390104166698</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="L67" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="9">
+        <v>45505.406851851898</v>
+      </c>
+      <c r="D68" s="8">
+        <v>11731052</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="10">
+        <v>45505.390104166698</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="A69" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="9">
+        <v>45505.395763888897</v>
+      </c>
+      <c r="D69" s="8">
+        <v>11731050</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="10">
+        <v>45505.389166666697</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="L69" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="A70" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="9">
+        <v>45505.395648148202</v>
+      </c>
+      <c r="D70" s="8">
+        <v>11731049</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="10">
+        <v>45505.389131944401</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="L70" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="9">
+        <v>45505.391157407401</v>
+      </c>
+      <c r="D71" s="8">
+        <v>11731048</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="10">
+        <v>45505.388634259303</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="L71" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="6"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="9">
+        <v>45505.389293981498</v>
+      </c>
+      <c r="D72" s="8">
+        <v>11731047</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="10">
+        <v>45505.388437499998</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="L72" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="A73" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="9">
+        <v>45505.394363425898</v>
+      </c>
+      <c r="D73" s="8">
+        <v>11731045</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="10">
+        <v>45505.388252314799</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="L73" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="6"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="9">
+        <v>45505.3988888889</v>
+      </c>
+      <c r="D74" s="8">
+        <v>11731044</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="10">
+        <v>45505.387986111098</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="6"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="A75" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="9">
+        <v>45505.396574074097</v>
+      </c>
+      <c r="D75" s="8">
+        <v>11731043</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="10">
+        <v>45505.387534722198</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="L75" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="9">
+        <v>45505.388229166703</v>
+      </c>
+      <c r="D76" s="8">
+        <v>11731042</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="10">
+        <v>45505.387499999997</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="L76" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="6"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="A77" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C77" s="9">
+        <v>45505.394710648201</v>
+      </c>
+      <c r="D77" s="8">
+        <v>11731041</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="10">
+        <v>45505.387442129599</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="L77" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="A78" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="9">
+        <v>45505.395821759303</v>
+      </c>
+      <c r="D78" s="8">
+        <v>11731040</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="10">
+        <v>45505.387129629598</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="L78" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="6"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="A79" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" s="9">
+        <v>45505.390821759298</v>
+      </c>
+      <c r="D79" s="8">
+        <v>11731039</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="10">
+        <v>45505.387002314797</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="L79" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="6"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="A80" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="9">
+        <v>45505.3891435185</v>
+      </c>
+      <c r="D80" s="8">
+        <v>11731038</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" s="10">
+        <v>45505.386446759301</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="A81" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="9">
+        <v>45505.386851851901</v>
+      </c>
+      <c r="D81" s="8">
+        <v>11731037</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="10">
+        <v>45505.386296296303</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="6"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="A82" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" s="9">
+        <v>45505.400659722203</v>
+      </c>
+      <c r="D82" s="8">
+        <v>11731036</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="10">
+        <v>45505.385567129597</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="L82" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="6"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="A83" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="9">
+        <v>45505.391909722202</v>
+      </c>
+      <c r="D83" s="8">
+        <v>11731035</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="10">
+        <v>45505.384513888901</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="6"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="A84" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="9">
+        <v>45505.388368055603</v>
+      </c>
+      <c r="D84" s="8">
+        <v>11731034</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="10">
+        <v>45505.384421296301</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="L84" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85" s="6"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="A85" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="9">
+        <v>45505.401724536998</v>
+      </c>
+      <c r="D85" s="8">
+        <v>11731033</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="10">
+        <v>45505.383460648103</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="L85" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A86" s="6"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="A86" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="9">
+        <v>45505.383437500001</v>
+      </c>
+      <c r="D86" s="8">
+        <v>11731032</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="10">
+        <v>45505.383437500001</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="L86" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="A87" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="8">
+        <v>11731031</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="10">
+        <v>45505.383414351898</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="L87" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="6"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="A88" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="9">
+        <v>45505.389039351903</v>
+      </c>
+      <c r="D88" s="8">
+        <v>11731030</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="10">
+        <v>45505.383414351898</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="L88" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="6"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="A89" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="9">
+        <v>45505.390706018501</v>
+      </c>
+      <c r="D89" s="8">
+        <v>11731029</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="10">
+        <v>45505.383194444403</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="L89" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="6"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="A90" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="9">
+        <v>45505.385960648098</v>
+      </c>
+      <c r="D90" s="8">
+        <v>11731028</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="10">
+        <v>45505.3828587963</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="L90" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="6"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="A91" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="9">
+        <v>45505.385902777802</v>
+      </c>
+      <c r="D91" s="8">
+        <v>11731027</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" s="10">
+        <v>45505.382824074099</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92" s="6"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="A92" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="9">
+        <v>45505.391284722202</v>
+      </c>
+      <c r="D92" s="8">
+        <v>11731026</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="10">
+        <v>45505.382569444402</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="L92" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93" s="6"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="A93" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45505.385069444397</v>
+      </c>
+      <c r="D93" s="8">
+        <v>11731025</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="10">
+        <v>45505.382569444402</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94" s="6"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="A94" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" s="9">
+        <v>45505.404166666704</v>
+      </c>
+      <c r="D94" s="8">
+        <v>11731024</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="10">
+        <v>45505.3824537037</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="L94" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95" s="6"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="A95" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95" s="8">
+        <v>11731023</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G95" s="10">
+        <v>45505.381921296299</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="L95" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A96" s="6"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="A96" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" s="9">
+        <v>45505.3886921296</v>
+      </c>
+      <c r="D96" s="8">
+        <v>11731022</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="10">
+        <v>45505.381539351903</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="L96" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="6"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="A97" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C97" s="9">
+        <v>45505.382986111101</v>
+      </c>
+      <c r="D97" s="8">
+        <v>11731021</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="10">
+        <v>45505.3815046296</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="L97" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="6"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="A98" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" s="9">
+        <v>45505.388993055603</v>
+      </c>
+      <c r="D98" s="8">
+        <v>11731020</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="10">
+        <v>45505.381203703699</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
+      <c r="L98" s="8" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="6"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="A99" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" s="9">
+        <v>45505.4067939815</v>
+      </c>
+      <c r="D99" s="8">
+        <v>11731019</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="10">
+        <v>45505.381157407399</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="L99" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="A100" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" s="9">
+        <v>45505.383541666699</v>
+      </c>
+      <c r="D100" s="8">
+        <v>11731018</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="10">
+        <v>45505.381076388898</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
+      <c r="L100" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="6"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="A101" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101" s="9">
+        <v>45505.405613425901</v>
+      </c>
+      <c r="D101" s="8">
+        <v>11731017</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="10">
+        <v>45505.381064814799</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
+      <c r="L101" s="8" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="6"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="A102" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="9">
+        <v>45505.383009259298</v>
+      </c>
+      <c r="D102" s="8">
+        <v>11731016</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="10">
+        <v>45505.3800694444</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
+      <c r="L102" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="6"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="A103" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="9">
+        <v>45505.3995138889</v>
+      </c>
+      <c r="D103" s="8">
+        <v>11731015</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="10">
+        <v>45505.3797569444</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
+      <c r="L103" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="6"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="A104" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="9">
+        <v>45505.392534722203</v>
+      </c>
+      <c r="D104" s="8">
+        <v>11731014</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="10">
+        <v>45505.379409722198</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
+      <c r="L104" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="6"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="A105" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="9">
+        <v>45505.390034722201</v>
+      </c>
+      <c r="D105" s="8">
+        <v>11731013</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="10">
+        <v>45505.379178240699</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
+      <c r="L105" s="8" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="6"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="A106" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C106" s="9">
+        <v>45505.391851851899</v>
+      </c>
+      <c r="D106" s="8">
+        <v>11731012</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="10">
+        <v>45505.379143518498</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
+      <c r="L106" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="6"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="A107" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C107" s="9">
+        <v>45505.378946759301</v>
+      </c>
+      <c r="D107" s="8">
+        <v>11731011</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="10">
+        <v>45505.378946759301</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
+      <c r="L107" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="6"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="A108" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="9">
+        <v>45505.3820023148</v>
+      </c>
+      <c r="D108" s="8">
+        <v>11731010</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G108" s="10">
+        <v>45505.378518518497</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="6"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="A109" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109" s="9">
+        <v>45505.385729166701</v>
+      </c>
+      <c r="D109" s="8">
+        <v>11731009</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="10">
+        <v>45505.378506944398</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
+      <c r="L109" s="8" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="6"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="A110" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" s="9">
+        <v>45505.393854166701</v>
+      </c>
+      <c r="D110" s="8">
+        <v>11731008</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="10">
+        <v>45505.378148148098</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
+      <c r="L110" s="8" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="6"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="A111" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="9">
+        <v>45505.3815972222</v>
+      </c>
+      <c r="D111" s="8">
+        <v>11731007</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="10">
+        <v>45505.377986111103</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
+      <c r="L111" s="8" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="6"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="A112" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" s="9">
+        <v>45505.377835648098</v>
+      </c>
+      <c r="D112" s="8">
+        <v>11731006</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="10">
+        <v>45505.377835648098</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
+      <c r="L112" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="6"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="A113" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C113" s="9">
+        <v>45505.381759259297</v>
+      </c>
+      <c r="D113" s="8">
+        <v>11731005</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="10">
+        <v>45505.377766203703</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
+      <c r="L113" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="6"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="A114" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C114" s="9">
+        <v>45505.393472222197</v>
+      </c>
+      <c r="D114" s="8">
+        <v>11731004</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="10">
+        <v>45505.377523148098</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
+      <c r="L114" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="6"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="A115" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C115" s="9">
+        <v>45505.386215277802</v>
+      </c>
+      <c r="D115" s="8">
+        <v>11731003</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" s="10">
+        <v>45505.3772916667</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="6"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="A116" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" s="9">
+        <v>45505.408043981501</v>
+      </c>
+      <c r="D116" s="8">
+        <v>11731002</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="10">
+        <v>45505.3772453704</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
+      <c r="L116" s="8" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="6"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="A117" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="9">
+        <v>45505.382060185198</v>
+      </c>
+      <c r="D117" s="8">
+        <v>11731001</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="10">
+        <v>45505.376585648097</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
+      <c r="L117" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="6"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="A118" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" s="9">
+        <v>45505.403032407397</v>
+      </c>
+      <c r="D118" s="8">
+        <v>11731000</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="10">
+        <v>45505.3761689815</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="L118" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="6"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
+      <c r="A119" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C119" s="9">
+        <v>45505.383553240703</v>
+      </c>
+      <c r="D119" s="8">
+        <v>11730999</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="10">
+        <v>45505.3742361111</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="L119" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="6"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
+      <c r="A120" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C120" s="9">
+        <v>45505.372696759303</v>
+      </c>
+      <c r="D120" s="8">
+        <v>11730998</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="10">
+        <v>45505.372696759303</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
+      <c r="L120" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A121" s="6"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="A121" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C121" s="9">
+        <v>45505.382488425901</v>
+      </c>
+      <c r="D121" s="8">
+        <v>11730997</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="10">
+        <v>45505.370208333297</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
+      <c r="L121" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A122" s="6"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="A122" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C122" s="9">
+        <v>45505.370949074102</v>
+      </c>
+      <c r="D122" s="8">
+        <v>11730996</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="10">
+        <v>45505.369201388901</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A123" s="6"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="A123" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C123" s="9">
+        <v>45505.373310185198</v>
+      </c>
+      <c r="D123" s="8">
+        <v>11730995</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="10">
+        <v>45505.368437500001</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
+      <c r="L123" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A124" s="6"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="A124" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C124" s="9">
+        <v>45505.378310185202</v>
+      </c>
+      <c r="D124" s="8">
+        <v>11730994</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="10">
+        <v>45505.367870370399</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
+      <c r="L124" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="6"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
+      <c r="A125" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C125" s="9">
+        <v>45505.368981481501</v>
+      </c>
+      <c r="D125" s="8">
+        <v>11730993</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G125" s="10">
+        <v>45505.365717592598</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
+      <c r="L125" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="6"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
+      <c r="A126" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" s="9">
+        <v>45505.386516203696</v>
+      </c>
+      <c r="D126" s="8">
+        <v>11730992</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G126" s="10">
+        <v>45505.363668981503</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
+      <c r="L126" s="8" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="6"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
+      <c r="A127" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C127" s="9">
+        <v>45505.362418981502</v>
+      </c>
+      <c r="D127" s="8">
+        <v>11730991</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127" s="10">
+        <v>45505.360578703701</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
+      <c r="L127" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="6"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+      <c r="A128" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C128" s="9">
+        <v>45505.364363425899</v>
+      </c>
+      <c r="D128" s="8">
+        <v>11730990</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="10">
+        <v>45505.357858796298</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
+      <c r="L128" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
+      <c r="A129" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C129" s="9">
+        <v>45505.353715277801</v>
+      </c>
+      <c r="D129" s="8">
+        <v>11730989</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="10">
+        <v>45505.350358796299</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
+      <c r="L129" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" s="6"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+      <c r="A130" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" s="9">
+        <v>45505.370219907403</v>
+      </c>
+      <c r="D130" s="8">
+        <v>11730988</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="10">
+        <v>45505.350115740701</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
+      <c r="L130" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="6"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
+      <c r="A131" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C131" s="9">
+        <v>45505.360868055599</v>
+      </c>
+      <c r="D131" s="8">
+        <v>11730986</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="10">
+        <v>45505.348460648202</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
+      <c r="L131" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="6"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
+      <c r="A132" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C132" s="9">
+        <v>45505.381620370397</v>
+      </c>
+      <c r="D132" s="8">
+        <v>11730985</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G132" s="10">
+        <v>45505.344571759299</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
+      <c r="L132" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A133" s="6"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
+      <c r="A133" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C133" s="9">
+        <v>45505.346192129597</v>
+      </c>
+      <c r="D133" s="8">
+        <v>11730984</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="10">
+        <v>45505.3436574074</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
+      <c r="L133" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A134" s="6"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+      <c r="A134" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C134" s="9">
+        <v>45505.354293981502</v>
+      </c>
+      <c r="D134" s="8">
+        <v>11730983</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="10">
+        <v>45505.3406944444</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
+      <c r="L134" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A135" s="6"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
+      <c r="A135" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" s="9">
+        <v>45505.337233796301</v>
+      </c>
+      <c r="D135" s="8">
+        <v>11730982</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="10">
+        <v>45505.337222222202</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
+      <c r="L135" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A136" s="6"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="A136" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C136" s="9">
+        <v>45505.336307870399</v>
+      </c>
+      <c r="D136" s="8">
+        <v>11730981</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="10">
+        <v>45505.336307870399</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
+      <c r="L136" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A137" s="6"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
+      <c r="A137" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C137" s="9">
+        <v>45505.332962963003</v>
+      </c>
+      <c r="D137" s="8">
+        <v>11730980</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="10">
+        <v>45505.332962963003</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
+      <c r="L137" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A138" s="6"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
+      <c r="A138" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C138" s="9">
+        <v>45505.351076388899</v>
+      </c>
+      <c r="D138" s="8">
+        <v>11730979</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G138" s="10">
+        <v>45505.323645833298</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A139" s="6"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
+      <c r="A139" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C139" s="9">
+        <v>45505.319976851897</v>
+      </c>
+      <c r="D139" s="8">
+        <v>11730978</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="10">
+        <v>45505.319965277798</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
+      <c r="L139" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A140" s="6"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
+      <c r="A140" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C140" s="9">
+        <v>45505.403900463003</v>
+      </c>
+      <c r="D140" s="8">
+        <v>11730977</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="10">
+        <v>45505.319942129601</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="L140" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A141" s="6"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
+      <c r="A141" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C141" s="9">
+        <v>45505.306840277801</v>
+      </c>
+      <c r="D141" s="8">
+        <v>11730976</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" s="10">
+        <v>45505.306828703702</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
+      <c r="L141" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A142" s="6"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+      <c r="A142" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C142" s="9">
+        <v>45505.297314814801</v>
+      </c>
+      <c r="D142" s="8">
+        <v>11730975</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="10">
+        <v>45505.2966087963</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
+      <c r="L142" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A143" s="6"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
+      <c r="A143" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C143" s="9">
+        <v>45505.3296527778</v>
+      </c>
+      <c r="D143" s="8">
+        <v>11730974</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="10">
+        <v>45505.292233796303</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="L143" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A144" s="6"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="A144" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C144" s="9">
+        <v>45505.284108796302</v>
+      </c>
+      <c r="D144" s="8">
+        <v>11730973</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="10">
+        <v>45505.284108796302</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
+      <c r="L144" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A145" s="6"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
+      <c r="A145" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C145" s="9">
+        <v>45505.279571759304</v>
+      </c>
+      <c r="D145" s="8">
+        <v>11730972</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" s="10">
+        <v>45505.279571759304</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
+      <c r="L145" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A146" s="6"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
+      <c r="A146" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="9">
+        <v>45505.097430555601</v>
+      </c>
+      <c r="D146" s="8">
+        <v>11730971</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G146" s="10">
+        <v>45505.097430555601</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
+      <c r="L146" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A147" s="6"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
+      <c r="A147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="9">
+        <v>45505.020300925898</v>
+      </c>
+      <c r="D147" s="8">
+        <v>11730970</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="10">
+        <v>45505.020289351902</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
+      <c r="L147" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A148" s="6"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
+      <c r="A148" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="9">
+        <v>45505.003402777802</v>
+      </c>
+      <c r="D148" s="8">
+        <v>11730969</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="10">
+        <v>45505.002870370401</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
+      <c r="L148" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" s="6"/>

--- a/files/TS_todays_support.xlsx
+++ b/files/TS_todays_support.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisuke_koresawa\project\kpi_project\kpi_info_sync\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B0417-613B-4838-8D20-7CE39C080AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF4481-9B19-43DB-A637-FEB45DE8E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="23040" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_todays_support" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$148</definedName>
+    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>(変更しないでください) サポート案件</t>
   </si>
@@ -125,7 +125,10 @@
     <t>ー</t>
   </si>
   <si>
-    <t>ca3a4222-4e4f-ef11-882f-00505695a183</t>
+    <t>ea773d36-e050-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>D0pSpuP+wud3lP7RjDsrwpHNxofm4Xh47o6QVweSZppgETCgnGpmbyagazgEmfU3gjA4mYqapBG2C1Xg9F6N5w==</t>
   </si>
   <si>
     <t>TVS</t>
@@ -134,1423 +137,34 @@
     <t>直受け</t>
   </si>
   <si>
-    <t>松本公認会計士事務所</t>
+    <t>合同会社りんどう</t>
   </si>
   <si>
     <t>即答</t>
   </si>
   <si>
-    <t>ACELINK NX-Pro会計</t>
+    <t>ACELINK NX-Pro給与</t>
   </si>
   <si>
-    <t>SKTCEdQTeR+1Wjp5pEdU0VMhgu6fn3XHyHlBHD9FRGTMoKZFqq5F3l5d3DlSBY8grMrwJPP0IYmxesxWwzc8Cg==</t>
+    <t>58f09090-ea50-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>524b81a3-514f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>2IFqbJtbxgvEeyRWnwrRB4kycwpYjxkOghkJ2U2GW5W1+V6iVL7hoDQOvaHszdvqmGZj0eqv7SjQw20fgtCCEg==</t>
-  </si>
-  <si>
-    <t>岩本敏彦税理士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Proｼｽﾃﾑ</t>
-  </si>
-  <si>
-    <t>55931e28-614f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>zrOp8FhqT+1IKV59xEWJ67kQgI2I8WnvgFDzcruLImk4aPosWMntnjKamPd+LrOihy2RgBggiFaVOxmStFKG6g==</t>
-  </si>
-  <si>
-    <t>三島 孝司 税理士事務所</t>
-  </si>
-  <si>
-    <t>828fdda7-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Gph/nNtlMHGSBTL3RSNPAB8FUurgGQv+XT+qD6NafRS/rpVNR5NGNv3WffsfNMSYNR6Ly2fS2Wd+kE6Shg97HQ==</t>
-  </si>
-  <si>
-    <t>有限会社 Ａ．Ｄ．Ｓ</t>
-  </si>
-  <si>
-    <t>対応待ち</t>
-  </si>
-  <si>
-    <t>iCompassNX</t>
-  </si>
-  <si>
-    <t>788fdda7-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>iXBVcuYILWzv2dpFQ2C1q6oG06Cs2X42lD2t5Sf5Xoqal5MzfxCj7ob/jew+mnPeRSgLM1tPABczJyM5OYA87w==</t>
-  </si>
-  <si>
-    <t>HHD</t>
-  </si>
-  <si>
-    <t>TVS/SS入電</t>
-  </si>
-  <si>
-    <t>Ｂｒａｎｄｉｎｇ ａｔｅ株式会社</t>
-  </si>
-  <si>
-    <t>ＰＣ</t>
-  </si>
-  <si>
-    <t>20b18898-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>5EE7rtV2HbyDlX3VkysmXDvrdMnO0QUDHlAVcd5TPyFJDukcAFi5hcJlZzyPFO7D38i2uNCRbJ3ma7AzH8QF5w==</t>
-  </si>
-  <si>
-    <t>顧問先ソフトウェア</t>
-  </si>
-  <si>
-    <t>エアサーブ株式会社</t>
-  </si>
-  <si>
-    <t>かんたん!ｼﾘｰｽﾞ</t>
-  </si>
-  <si>
-    <t>17b18898-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>nVZJhYHbmCt2UIpXFTnxzvvF3JrvBD6PqjvhkuiLocCk2hvAFr3riaj/3BBEc8+nBl0ekD9lwmOihTtKhz0L6Q==</t>
+    <t>AGG2qnWWJ9BU7V9gyt5Ap1JdWU6KbCbFraGQl9gPSh9EDT4sJJlH0jaa+nK637tZs5rOxLb/pNQ3Dw/G0Ixduw==</t>
   </si>
   <si>
     <t>辻・本郷税理士法人</t>
   </si>
   <si>
-    <t>自己解決</t>
+    <t>ACELINK NX-Pro会計</t>
   </si>
   <si>
-    <t>その他</t>
+    <t>4260d0f8-1c51-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>d5106091-9f4f-ef11-882f-00505695a183</t>
+    <t>BcGjq06i/qOoZFlf0Udjovt0VqSehu2WoWfUhkRCIUIz4HhHrUfZmAKs8XlWUw2Pdy98q3vOMlNeVYlMORe9nw==</t>
   </si>
   <si>
-    <t>CPmAvUaiIIrAWcNh4NeNyGVoKn5M7Y44EvyIhGhZ3ovvUx2GNNl4Z7eCcYJIr2hBqpjAtptreWneWBwPNN0Kew==</t>
-  </si>
-  <si>
-    <t>支社より依頼</t>
-  </si>
-  <si>
-    <t>税理士法人 甲南総合会計 枕崎支店</t>
-  </si>
-  <si>
-    <t>kかんたんｸﾗｳﾄﾞ</t>
-  </si>
-  <si>
-    <t>89f5a989-9f4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>eYpB5zq/nWfP4cnVAOyf5I8fthRR9CcWBkTA5VMIHeK2+uIimvFa3rFzL4BuSH3XfNfTRsBaMc6g2bQpOQiVTw==</t>
-  </si>
-  <si>
-    <t>折返し</t>
-  </si>
-  <si>
-    <t>税理士法人 烏丸会計事務所</t>
-  </si>
-  <si>
-    <t>d電子申告</t>
-  </si>
-  <si>
-    <t>febe0677-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>WWQIWTcdrDIGYEnlrwMVH7ZAy4Mr+LnlzktsffiAh+RA21qAb7NgT62kHPHyDVPWxJacHFJSzRazUMAbGCFc8Q==</t>
-  </si>
-  <si>
-    <t>支社問い</t>
-  </si>
-  <si>
-    <t>堤 義久 税理士事務所</t>
-  </si>
-  <si>
-    <t>各種ソフト</t>
-  </si>
-  <si>
-    <t>584ca86d-9f4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>+FTvLV6XuNheMunz005Q687BpNlLIaeqizQLpEIgW9rvkj+uBqBFdNwUI2tCldIyeB7NRpwra+dHgM2ymLsZoA==</t>
-  </si>
-  <si>
-    <t>45505.4073958333</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>有限会社 山愛緑化</t>
-  </si>
-  <si>
-    <t>ACELINK NX-CE会計</t>
-  </si>
-  <si>
-    <t>2e0fc260-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>/mpVunoOPxABguiP65OKgyc8MDEViwfrKfSFghfmZVev+oj7v/xRABdwzCrA5uW8VKmVE3nvKyHnWHB5qAfbIg==</t>
-  </si>
-  <si>
-    <t>力丸公認会計士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro給与</t>
-  </si>
-  <si>
-    <t>2aab9852-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>7BQ3yykbEuJiRowlRL0rR4xeqTzz+UzPJqj6pv1SmS5IzY5Xz+hnlLIJ3YD60XugWAm13brUoQffA+dx1KjjWg==</t>
-  </si>
-  <si>
-    <t>今西敦司税理士事務所</t>
-  </si>
-  <si>
-    <t>7d27484c-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>kRW9lg3W1ySY+yvIXr0ByIpgOsNJn3+ozBLi5BHKKNNOjWEaKdH9jJZAmVlz7kDa2Zd4i/WHlEH16pF+tUCmdA==</t>
-  </si>
-  <si>
-    <t>石尾 公認会計士事務所</t>
-  </si>
-  <si>
-    <t>98680446-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Ln1FPhF6DHsUbSqNEF5RNY4TDcUkCz85F80/yw540smSZ/8iU7/jZbb7rFrycN/EUD2xNxHf33BAOUI5oJYkpQ==</t>
-  </si>
-  <si>
-    <t>かむら会計事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Proその他</t>
-  </si>
-  <si>
-    <t>8e680446-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>WLBfw48Dm/I8KiuYPJplxUobxcH2LDgcHDIkr2v+6cbBADW2kO/WLa+fmMHxrJCMg98eQVh8zFuT7rktKKe4Jg==</t>
-  </si>
-  <si>
-    <t>工藤会計・綜合事務所</t>
-  </si>
-  <si>
-    <t>a3a56843-9f4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>HN5PYhpGIOqtITV8GFgI/dJT9WGe9dxX4SaJKZKptXfvySd9OOdaNs5bAUPIcIYzd8UtzaqftQO+mb6dgIoZWQ==</t>
-  </si>
-  <si>
-    <t>梶内隆幸税理士事務所</t>
-  </si>
-  <si>
-    <t>cb57023d-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>a3z8gCstK6r+s3xzU72QsxpnA0WlWq7cU7w6TulQQ7oF0zWKUjG0ALjFOOrBbH1BdMBQ0sntMLUzW+MIYNaUfw==</t>
-  </si>
-  <si>
-    <t>笹江税理士事務所</t>
-  </si>
-  <si>
-    <t>5c98ea20-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>PaJcM/puG3/UADcpws8RH1zE2EAspuS78YAP5jTYe8otaRgirhoEKUmmY1b0fVUS9gJMQKC4uOWUb7IqK5Knbg==</t>
-  </si>
-  <si>
-    <t>東京法律会計事務所</t>
-  </si>
-  <si>
-    <t>91f6910c-9f4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>EEUhDRrS532QUFeVQdbs0Pcjj+VpOKYeRAJq+4r23H+JsSvpRXO+k6zXV8I/MaQ9rqA9QbCQdjGACF7sMIiMAA==</t>
-  </si>
-  <si>
-    <t>アズタックス税理士法人</t>
-  </si>
-  <si>
-    <t>8c528503-9f4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>0Y/7QNf3jIrFS9r3glIclcZZCVrNGmZjpCTrrqZRQt6ej6KRzqPyxJVB9IgnpXKP+JVi/e/h34uSbyynGhAskQ==</t>
-  </si>
-  <si>
-    <t>鈴木 直人税理士事務所</t>
-  </si>
-  <si>
-    <t>8f498f05-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>fFeCGxs73t26NqedM/nnkIpXdWgUYRETGRFcx9j6GX83lBwpwDFeMXCqYXW3A/AM0weWHfyjmPR5e79Qy4cRrg==</t>
-  </si>
-  <si>
-    <t>天野税務会計事務所</t>
-  </si>
-  <si>
-    <t>88498f05-9f4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>eVevaO+UYvySW9JgJLmR9BRSocv+KcNL38WoJDvYz6KHwcI+CBDzaU5AzVo2QyZeuk1JFWV3sA9TyczoORZarA==</t>
-  </si>
-  <si>
-    <t>尾﨑 圭三 税理士事務所</t>
-  </si>
-  <si>
-    <t>6f760ee5-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>U12yW5jvdc8HkVV77XEnrxFiei2Rn18WC91RZojXWyEVFPJiIOl1Jd/xjxNxQUsGD4Hyu/ygsqb9g4jGaRwtGw==</t>
-  </si>
-  <si>
-    <t>古谷税務会計事務所</t>
-  </si>
-  <si>
-    <t>cef2b8dd-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>fO6ZKIB5sk0P1X/WR+2I8YZuJDGbSG8KVBLhekLVBVHXacU9Lmt5zEtrHDPAi5hgj9sBKHaHUgkBebUkVXj4ZA==</t>
-  </si>
-  <si>
-    <t>不明企業</t>
-  </si>
-  <si>
-    <t>66e2d2d6-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6pvIcTBfP3ycFzM+EwO1Vh47kabGsAywR89P6dgdM91YvmDAfNcx5Q9N+B5ZP796Rd/GHuZM+zFZfDyRKkk3nQ==</t>
-  </si>
-  <si>
-    <t>静 税理士事務所</t>
-  </si>
-  <si>
-    <t>5de2d2d6-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6Bh8vhRsKFJUSgm/+LQNQdqxrcqaVMWBudqsQ0A5+FJxTzO/maiZtWzZvdGwi1uIlFyacq7cqfBcpJAERmCijg==</t>
-  </si>
-  <si>
-    <t>合同会社 ＮＯＤＡ</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro事務所管理</t>
-  </si>
-  <si>
-    <t>729997bc-9e4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>cyl2u8pzBiziuFIhO4Wbem46/wziEuD5ESLxYjvNZLntNgd2jx2vtTC14OR14UsatGOyJ6WZ96KXFmA3sQOdmg==</t>
-  </si>
-  <si>
-    <t>佐藤晃税理士事務所</t>
-  </si>
-  <si>
-    <t>015799b4-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>o2frNeQ2fRLfiDbKpK+VZdZKWnMSjSBj4CFLvDXJkF1veeuNvW3D1P/PMgZmZHjCHKvCJYQRiDhLTWFFkrbf1Q==</t>
-  </si>
-  <si>
-    <t>みそら税理士法人</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro減価</t>
-  </si>
-  <si>
-    <t>54857c96-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>gDxmow62ws+WAA/SaXuDIPYtoZkPSRcxi8M0ZMVoWBQtWjLSqNETvynxWHROMEc61pr+tEuxcGL0gNB3ZHqdFA==</t>
-  </si>
-  <si>
-    <t>呉市衛生興業 株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK NX-Plus給与</t>
-  </si>
-  <si>
-    <t>153fe358-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>WrS9nLtQCvymrK8NeKXAyUU14cDlM0ufsXDD9xR9otTvspD2WQ8PdBINgl7wp3TVshxjYh1VC6a2L2scQhY3hg==</t>
-  </si>
-  <si>
-    <t>江尻容明 税理士事務所</t>
-  </si>
-  <si>
-    <t>8b98152d-9e4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>D7aYrG1hSpxXZqPAxGmXccKARAVmaYb6qzXiQX+9j5vr8VrOiKarcHfkbTOLXJagvamxOc9B7p/SA/QSvX2yFw==</t>
-  </si>
-  <si>
-    <t>WEB問い</t>
-  </si>
-  <si>
-    <t>高橋 求</t>
-  </si>
-  <si>
-    <t>6a00a927-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>IMKdfs3WSJPOFMZFe8wkkM7yxu80oYxIYVbID6NUVnmoulAm8P8WIcmiNrdfkvNMuMwiqXtKm2JzZEkfFxVUaQ==</t>
-  </si>
-  <si>
-    <t>折返し不要・ｷｬﾝｾﾙ</t>
-  </si>
-  <si>
-    <t>6900a927-9e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>qG9SnNQWI8u97PFmmOHMW0g1GBbjY3DBMTb2PS438fYPxDg/9OWfvqxhDdMgO+SZW1dLQd8X8PNFDDCsL3isvA==</t>
-  </si>
-  <si>
-    <t>7146c524-9e4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>h4RKIJrrv2E0CZWw08MwAgn1RIe+DqKHn4vPpL3nlj0eCc6mVUUwNqkaItGCTB5nAAVImPxnt03s/l5cUV5yyA==</t>
-  </si>
-  <si>
-    <t>吉永有里</t>
-  </si>
-  <si>
-    <t>c8a36fe7-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>8t7BiGO3DKuQiNZhCPwH7lf4spV6qEOUP1/4frqIQ8xMivLfaTvwNhaoFCL8Tmgym6pgPxPeRN8lxHqPvBUifg==</t>
-  </si>
-  <si>
-    <t>税理士法人 日本綜研</t>
-  </si>
-  <si>
-    <t>77c6dbd3-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>ypoJJfd5H0JYBkRfx2vF6LzzJ8luljNqLE2wDWjuBih2sI3QbH66d3I5vbNdHNGixfYCxOPEuhoygGjNb/9WxQ==</t>
-  </si>
-  <si>
-    <t>高嶋榮治税理士事務所</t>
-  </si>
-  <si>
-    <t>ba70c9d6-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>32r3BZi6O/3Bbcdwj+x1mFYvBjxLZJSReMn5gR+gWVTxEMQpsQFioVriic4luFftAAiKmh9V0i2eu0VKlOOZfA==</t>
-  </si>
-  <si>
-    <t>スカイハイ税理士法人</t>
-  </si>
-  <si>
-    <t>NX記帳くん</t>
-  </si>
-  <si>
-    <t>2ee63fcb-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>UqAr6ocDqhokaIH+grtzowCUDODkOxKo7YZ5qHoFNw+mrlweH7BJmsJjaQqnEDHopcRDxRFD4rvY4RQWjHi6AA==</t>
-  </si>
-  <si>
-    <t>株式会社 ＪＩＮ</t>
-  </si>
-  <si>
-    <t>MJSLINK DX財務</t>
-  </si>
-  <si>
-    <t>852c03c5-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>3bnL0htL5T0TjTodRT56ltkcAjV69SwdZalHkx5rZrwGo/P3YbEkh4QGRoxxG1yNqa2dPfzCdrfBTkSFfeDBbw==</t>
-  </si>
-  <si>
-    <t>相原和司税理士事務所</t>
-  </si>
-  <si>
-    <t>2ea7e59d-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>dTmaJDOjE7KWHHIvDTf7qSwx2t7SAPSL9P4rmKd5KnblZFoo4XtyAOAusAcukq0dL/oqpvlGfBJqI8/wbnCh6w==</t>
-  </si>
-  <si>
-    <t>理研鍛造株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK NX-Plus財務</t>
-  </si>
-  <si>
-    <t>85c0a499-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>VLD47ySQG8RY0ehWP2GqsMNzpPTVptXuMQGrnx2y8+BUoSRyIol+VRj6/ZymRBsV44CwMFn4QLiNv9wGw9Uykw==</t>
-  </si>
-  <si>
-    <t>津別建設株式会社</t>
-  </si>
-  <si>
-    <t>ACELINK NX-CE給与</t>
-  </si>
-  <si>
-    <t>713a8e90-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>nCWFo9tq9mzMvUm6sm6B+u8gAZhg4d31+sW5MwKTuFv1VAuz1GeR+wfzxO8pjzqLJ43G0ZrA0QWOpXTbR9+Hkg==</t>
-  </si>
-  <si>
-    <t>新エネルギー流通システム株式会社</t>
-  </si>
-  <si>
-    <t>f3f67d78-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>UgXKAZUhR11o7vokTH5G81X+zlHXptBNnPZUTRc6xWqDSs1O67LTv20jowJ9s0noE468vu4DPZtk5GpHss0L3A==</t>
-  </si>
-  <si>
-    <t>西日本車輌運輸 株式会社</t>
-  </si>
-  <si>
-    <t>03e0975e-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>59jKcnJo8bKdbJBtli8uWlnu/fihXREXN5C7gGNPdKXv2yp8uxJccp4Kb7JSQKOuEb63nFli9VTU3gVVlmtacA==</t>
-  </si>
-  <si>
-    <t>中村 和惠税理士事務所</t>
-  </si>
-  <si>
-    <t>e561e84d-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ePxQTkqniv4w6K6CC5xbSCiC5KIFMMI393Tv0j1kXf9DLMOnpDo6o3vZZTL+D4d9QMr9C59Zy8sbMHcTaw97bg==</t>
-  </si>
-  <si>
-    <t>株式会社タイカン</t>
-  </si>
-  <si>
-    <t>かんたんｸﾗｳﾄﾞ</t>
-  </si>
-  <si>
-    <t>2f645a4c-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>ZG7Nx2oL4XodxRQHZZdNfrfp0advJpxfJFYS5JQVTfY/Z9eb537W5mPHPwpsDgkQUKcvkv42pRTiWNCmInPX4w==</t>
-  </si>
-  <si>
-    <t>今井一徳 税理士事務所</t>
-  </si>
-  <si>
-    <t>185d7538-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>UJpY3dmzBA6ot/K5sjTztb5GbkWnWh9VxlEnk+r7Q8+OiTznbaQTdaES0vbq+1xU/hrR+MS9ViuzdluL/PTo/g==</t>
-  </si>
-  <si>
-    <t>池田祐香公認会計士・税理士事務所</t>
-  </si>
-  <si>
-    <t>79eecf34-9d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>AkskQqqqpHzWsqtLyZzsV6otAAbO22i/N1mp/BHnqmS/LozZTzcEmXYOP8/CpE8WGN4XZagsuRuTD/MMd6yULQ==</t>
-  </si>
-  <si>
-    <t>株式会社 建装</t>
-  </si>
-  <si>
-    <t>ACELINK NX-CEｼｽﾃﾑ</t>
-  </si>
-  <si>
-    <t>73df6211-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>pbvjkbxF4qL6Yb+L76KgUGx2Yjvd03/8EnqTxCPZR5eczbOHdpC7TGQs3uyn37pCD1pEpUdsVw1uXQ526vw9vg==</t>
-  </si>
-  <si>
-    <t>株式会社三峯商事</t>
-  </si>
-  <si>
-    <t>Edge Tracker</t>
-  </si>
-  <si>
-    <t>b743f30a-9d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>lg0E4BUwrh6b3RjgCSjAoCXEzI9iQ7TQCHcZhjcV8gW1fk/d8G2gcrPVKL6VcPlICok5Qrev5HgLMoIwXsyP3A==</t>
-  </si>
-  <si>
-    <t>庵章税理士事務所</t>
-  </si>
-  <si>
-    <t>cb46f5fa-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>nXDzqVQxPp6D/Hob1DNuiSNcZHry9QOXJ9leAXGyonRskv45XRChVOIn3XBph1hHt3NWyMLFA+/q4HKdM8HEog==</t>
-  </si>
-  <si>
-    <t>米本益栄税理士事務所</t>
-  </si>
-  <si>
-    <t>b86cbde8-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>BJchD+c0yWtTR70j+uHkRGw3yYnJctTK/fUbJ83EjGF9vnU4nm/Zl7QlUaABOPCxBHtYRQMjx9NhQZNxv9lqDQ==</t>
-  </si>
-  <si>
-    <t>杉野 元昭 税理士事務所</t>
-  </si>
-  <si>
-    <t>2784e2e1-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>WVEQLxSG6Eg30V7zUxKrxcl2Ujhsm5iC7S9souavAEDb7SFZ1Jr4vZDzQVGa9M2Yw74v9gT4jnc2rcCCdTtX6Q==</t>
-  </si>
-  <si>
-    <t>杉山会計事務所</t>
-  </si>
-  <si>
-    <t>572bcbdd-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ZWUBG6bBdf477WoeG0afDJ8a10pClwYMkPWvFQxJwtopE/mT2i50MeJc8terS/J0v5FOc7zyn9fcjRe9UYJg6Q==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医療法人 翠甲会 </t>
-  </si>
-  <si>
-    <t>ACELINK NX-CEその他</t>
-  </si>
-  <si>
-    <t>756542c1-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Wid4RsFxTUmV72bKPGIvIUjhSX4WAjcy432hvEL3ShK6Be11DRIu4qZqC2zS2MySkqtO9JyI/Htw+zMfyfNShQ==</t>
-  </si>
-  <si>
-    <t>766542c1-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>lNHj3y6r3sj50q2Wb7nYiDCdKSReMJIZq4vJ3Wqwx9Upm5KIVJJ8LcoabRoQs/do1xgy705oyrPEGQlcmickKg==</t>
-  </si>
-  <si>
-    <t>4138a3bc-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>z9TazcaicmAKH5YZewS09j5qluwr+E74ftPKxUJMclwYsoSoXl8uzHIvfA00YTPidOq2Qb1rCYNO0yTmqSkEGg==</t>
-  </si>
-  <si>
-    <t>吉田 和正 税理士事務所</t>
-  </si>
-  <si>
-    <t>ecf5009b-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Kw+0eSeorXj8LSe2dd6H8dEYKZlZ+S/vIwJntuL7gnpWJ43gKreF2pSS4LvHkyjqq/9dL+/U36wXDBJ3zr+aBQ==</t>
-  </si>
-  <si>
-    <t>板垣 税務会計事務所</t>
-  </si>
-  <si>
-    <t>73ca458d-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ErS8Q5pWlRv2NuM6kFxo/vfg0PJzPgzqivUaF6Egg1BFTe2s/dbOUTnpsy7qdUaDuVNSoz037vaabEgEPScFdQ==</t>
-  </si>
-  <si>
-    <t>深山 茂 税理士事務所</t>
-  </si>
-  <si>
-    <t>eb91368d-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>QT+9M383d+XXyZge+2IsEDRAQaTO/VMIc5ZB6TxKGo5U2hFH/8YkzfpY57mdEzhFd6Jj28VHDY9DBnW0cljHMA==</t>
-  </si>
-  <si>
-    <t>森川 敏行 会計事務所</t>
-  </si>
-  <si>
-    <t>6af67264-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>CKiAKI7K29LBpnXK75boEFMOFXO3otc1WBiZR84GaTWPHWdlfcLqr5NsQ0FPOW1wfbZa9Ki6Tk4cFfscH7Z33Q==</t>
-  </si>
-  <si>
-    <t>社会福祉法人 幌北学園</t>
-  </si>
-  <si>
-    <t>MJSLINK NX-Plusその他</t>
-  </si>
-  <si>
-    <t>d4fae54a-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>I/trDO98ZQiI7gkmW9fYTafLP0WOCTq3UlOezu1z3oHiquNbAe2CTs7bAa6TySFi1pRjCUe5SDbdts8+YRzv9Q==</t>
-  </si>
-  <si>
-    <t>平岡ボデー 株式会社</t>
-  </si>
-  <si>
-    <t>c2fddc34-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6Y+kihW/SJhbt/3lw0v/DlOBcZOCxc8HqsNy+TeGebbDUPeV4KiTn22E2F+0c6KMViUhi+e4BOs3Vzdi+YkM3g==</t>
-  </si>
-  <si>
-    <t>株式会社財務工房</t>
-  </si>
-  <si>
-    <t>589f1217-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>7Qz2kh4Y86o3Ndh4HdfeLA4wLwntisClBOZcvwcs5bKXR/ld67ldqYa+z8zdAZjsrmTgsNayOTNITZJKeICzxQ==</t>
-  </si>
-  <si>
-    <t>三瀬哲也税理士事務所</t>
-  </si>
-  <si>
-    <t>確認後回答(部内)</t>
-  </si>
-  <si>
-    <t>519f1217-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>hJolFFq9D6mNFFmrcRHyVPuzi0kU4wYQEdenddrlAhB2gh0RsTh7qlV5YmZ2n8JORqnecOP8IHw5SHWKCNeRwA==</t>
-  </si>
-  <si>
-    <t>ミナリスメディカル株式会社</t>
-  </si>
-  <si>
-    <t>GalileoptDX債権・債務</t>
-  </si>
-  <si>
-    <t>eb6f2806-9c4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>aYu/xGNOivcmzoT3Bl2tDh2lpzHR6OWxVdfGZfZAaDdnde38pj1Xs9RdvhoOM6r/L4kwCr2Phhntiv+L45YHwQ==</t>
-  </si>
-  <si>
-    <t>税理士法人山本一郎税理士事務所</t>
-  </si>
-  <si>
-    <t>79861908-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Jk8DzQtv7x7Dy4tz6x+GQgUnf1ltk3hns2dhSPeUY756pd7grvzGt0+KO7+rVwiDTcoUdIUjop9D2/JUOhE/cg==</t>
-  </si>
-  <si>
-    <t>78861908-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>2dCDoT/iqew2e8EJEU8+Grq3iBBJ/BxRE8fuJaIwMeKkZ7sVC+8l3Moj69O+GXKKd336zYGctotHkvg2XbjPPA==</t>
-  </si>
-  <si>
-    <t>税理士法人ﾏｲﾀｯｸｽ･ﾊﾟｰﾄﾅｰｽﾞ本部</t>
-  </si>
-  <si>
-    <t>77861908-9c4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Fa0CAL02QyLY5opsLGSyk6d5L92bdHj3z1clwVaVO1S1GLSMpMYDPkQIL2hW50yyItJMReVjYctBSpjXObkZCw==</t>
-  </si>
-  <si>
-    <t>NSK富山株式会社</t>
-  </si>
-  <si>
-    <t>fb3025d8-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>0OeZx9VDNNhJSZqY0YHiLkllHmWczaWU14S9NCnE7SDxtLwNJWN7qKyIBsXXUoTpN0FjAtKEsLjzSoERPej20w==</t>
-  </si>
-  <si>
-    <t>葛西敏雄 税理士事務所</t>
-  </si>
-  <si>
-    <t>a53373d3-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>QACau7AtwghRX2P5ncGI60xnzG+k35hzvVzkaZIa2ogUK7b666IVbAkLWY7YJ57/Sn7jTiTEJNIgeWr3Yha5kg==</t>
-  </si>
-  <si>
-    <t>東洋ファスナー 株式会社</t>
-  </si>
-  <si>
-    <t>bff5c8bc-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>vMDHr+5MIV2W3YNKzEQZCNBZJTaBi7eIvmFuu7tyYSRUFC1fUn7BLh4V8vUqbPm0y4EEubR4XiLyYoKxjCzjfQ==</t>
-  </si>
-  <si>
-    <t>株式会社ブルームホールディングス</t>
-  </si>
-  <si>
-    <t>e42768b2-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>eGp++4hfJ/YhVqD73J8QHmngX8UYPsHuqD1fPiU52RLNsQipP2fZjj6ylNErRMFvibYSYey224Td/GXsr+fpRw==</t>
-  </si>
-  <si>
-    <t>渡辺税務会計事務所</t>
-  </si>
-  <si>
-    <t>4944a6a4-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>pnlHhhTjYhF6m+wFXqGOXoW06RxXe6O40Y0Lg1Zp8AJ7FEkloxwjH/WLeqgF99BYze+MRr6lz6Ec4skz+RVbeQ==</t>
-  </si>
-  <si>
-    <t>税理士法人 高田・中野総合会計 大阪事務所</t>
-  </si>
-  <si>
-    <t>a299e699-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>NYdU+NG4POEbbuR+eoVpw5ymt9LNXJBQ0lIBQhADCur2Wp+RHPver4wewWkOeIC3uu//Q6pwaLWdDtnHMvywUg==</t>
-  </si>
-  <si>
-    <t>税理士法人熊谷事務所</t>
-  </si>
-  <si>
-    <t>e687287f-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>8LiFFtHEm0BPBXGU+7lBownM3lkabtUhAZnzT3QRWVVafIqY+dHioN8UKLqO5+xYUE68bfq9NxQkjE8UaB34sg==</t>
-  </si>
-  <si>
-    <t>税理士法人 錦織会計事務所</t>
-  </si>
-  <si>
-    <t>e83f5f82-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>FOCpWD4PXMxNN02lEeZ35MFpui+WuiOzPDcjkANBmTt/flSgW26M1+Wz8zdWPSPbyLlCuZMNjYOVGXOAOQV+5Q==</t>
-  </si>
-  <si>
-    <t>西久保勝郎税理士事務所</t>
-  </si>
-  <si>
-    <t>dd87287f-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Rbxtx8FHP316GzlVSNB95DKCfrRfiYEI9Fof/q8nX/K8TuWcg47l8FEr0CwquBZMd3Hfi+yY3Kmny/dsBhIZBw==</t>
-  </si>
-  <si>
-    <t>八文字コンサルティング株式会社</t>
-  </si>
-  <si>
-    <t>2d9f6d6f-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>ZG/7URJpqOr9gKH19FFvECE81xWb3v47NLhEZ9isyf8sOquoB6FyaCNMV01eNw68m6fU34xZghKGGUgjqloKVw==</t>
-  </si>
-  <si>
-    <t>中野 稔 税理士事務所</t>
-  </si>
-  <si>
-    <t>1e35b268-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>sJ80aol0vNrb13+jum/NZaDEn1oMJ/FDAjpCu+ws0S0WzurIme6xXNT+i0taUWouoWqbd8Vnk+O21Dweuj/Yxw==</t>
-  </si>
-  <si>
-    <t>株式会社タケダ</t>
-  </si>
-  <si>
-    <t>ae1ce34a-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>DTw68m3Snv+sle9oZtVx2+s+FIfQlpRtWalK85uDmm8lkUcPzDIwSsqSD1DHG0OAMeTsxG0Vt5dPdqczWsf5hw==</t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>5b40e540-9b4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>1PGS0jW/69xufFUnHzTpxBVqY64NfInhwiW6aWmlT0F2HyrF+FkYYZM6Zugfl9qqdqdSlanZx9JZctPIsnmTkg==</t>
-  </si>
-  <si>
-    <t>0b5a9b1e-9b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>3WIBU/v2sm3UKWszL4DepZ6PLRK++VB87DzN4PAtls6ka8/ui2qn3ADmqHw7sPiwk6YRX298pvtVBTVShPEsuQ==</t>
-  </si>
-  <si>
-    <t>a23c79e8-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>H2SQalZTgMS6fJhxMEXedGh3Sf5SevZ+vrBkixT6GB3iCICBx58h/dgSrH4rNjX5rY5ELWoscIER4IF0gGQC7g==</t>
-  </si>
-  <si>
-    <t>a780aee3-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>uLAcIilyMaX75GHUaih46VeLc2qecHU5vFq7TWdmN63y5k2lmzf8+x6l42TgMfQt7+AjhsviBEVbtZHmXTdOgQ==</t>
-  </si>
-  <si>
-    <t>あさひ 税理士法人</t>
-  </si>
-  <si>
-    <t>e367e4af-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>1ArwBOks2QaJ8fQM8E+T6ERQAWqE5j4OUkUQ/ZD0Dr4KUCQyiNdMFg8wBpURBVVs7SrE3ElqZngUd6AJKmcxwg==</t>
-  </si>
-  <si>
-    <t>税理士法人Sofa</t>
-  </si>
-  <si>
-    <t>da67e4af-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>VbQjORZtD17JoeCZdWwHeBlrBl+TE3q1XVfi6XlL/FmJPS1DfghMVzC5BiyDRd3mVqjRQ5qjSNnIQN7JgTzJ2Q==</t>
-  </si>
-  <si>
-    <t>d367e4af-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>+KHAskXnHZ/V40ERbg0ta15YhpsLBvBA2XmozUJgP8dLiqwtVILrB2tZkQF3zFHQkLVqYIRo6TWyPw1eOZysQA==</t>
-  </si>
-  <si>
-    <t>45505.4062847222</t>
-  </si>
-  <si>
-    <t>社会福祉法人 枚方療育園</t>
-  </si>
-  <si>
-    <t>cc67e4af-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>A7qJoH7oREVfr/b/llmdi1XsifFiQWeld88fBz3DZomKW+GreUKGo+LMaoGyjRa1VQyJ8dL75qXjhSU92gFAlQ==</t>
-  </si>
-  <si>
-    <t>宮本隆税理士事務所</t>
-  </si>
-  <si>
-    <t>4e212ea3-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>N2rHhSvho1So3Prb/fuPjQJyr4KXm4OAfEc4PQzifa81kft4kVKwnDtAiB3YI0Y1AOhO3TrE6kPw7VDaRVIVaw==</t>
-  </si>
-  <si>
-    <t>新大阪タクシー株式会社</t>
-  </si>
-  <si>
-    <t>f1d13c91-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>c+WBDMxKjLmAB4uo+yNawXSavZv78eI/xKTAiXZtLKV9+Ngcp+LphUzo9k9Wc1CWvFWfsIQ2WsYwH/NFbrtdWg==</t>
-  </si>
-  <si>
-    <t>平井 賢治 税理士事務所</t>
-  </si>
-  <si>
-    <t>e9d13c91-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>lBHSPZ5NQ5LRvIshdPbwIai80CElwl5OyOWlgjEBn3CB2qcf5XkW3/CAkh+hQcawMJEwm4gL3DiVvHCONJKELw==</t>
-  </si>
-  <si>
-    <t>中山竜也税理士事務所</t>
-  </si>
-  <si>
-    <t>64f64384-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>37tOmscyMHJylZRyhG7iCkRYOYv2YjeXi093BNBWrXYj5ThmOFK2QzCEfKn9cSjVTrOV9FgM5hZQ/71rBPqWBw==</t>
-  </si>
-  <si>
-    <t>65f64384-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>oUXokkvcvVyBCrYc/CZ+J1VDANjjuCj8agO6Z3T8/kMrq340dcixWhvGjxQDMocjNEPJ08YkER00EbPWuS3Ppg==</t>
-  </si>
-  <si>
-    <t>762b437a-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>EqAqNSwCSmJrT6c47t4w722sVnAAuv+W1fFlp49BOHjzE1QRf/rLlvrLs1IdUE2osuZGabDWk5qEkqM9Vrfp7A==</t>
-  </si>
-  <si>
-    <t>税理士法人 平川会計パートナーズ</t>
-  </si>
-  <si>
-    <t>b316e460-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>+oXe1bgANkTQKMuYMzAs/L8cEzzERjqdBk3vdvkCKayrN25o2V2hkptx1YfHCT2fErTrW9UhO3Ljwb5aR16Rag==</t>
-  </si>
-  <si>
-    <t>45505.3819212963</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>株式会社 テクスコ</t>
-  </si>
-  <si>
-    <t>ﾒｰﾙ・FAX回答（送信）</t>
-  </si>
-  <si>
-    <t>9464894d-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>e1Zj8hcRjs4wQ8VVNI+z3Vq18HhqbqNY1ctGCJ9lFXXWYlYKkQevx5126Xb2pdogfA84qA0sjZFMJgxtsIftOg==</t>
-  </si>
-  <si>
-    <t>佐久森林組合</t>
-  </si>
-  <si>
-    <t>8d64894d-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>vF2UhahlbDmA44uZ9kfg14gUhu7SqST9scn5InnPWKcm+51piOHDNKwFCULrWc7XZZai2VPMM3qN/Jaa3xhZjg==</t>
-  </si>
-  <si>
-    <t>高橋靖忠税理士事務所</t>
-  </si>
-  <si>
-    <t>bad6e337-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>6RNCa3pYr7qiIui4lbce4OXCsn+E3nuAfUFzQVU4OMxFEAdAPhWdFt4ZFs8GSUT2jZ6TQR2myqG6VES9x7MMug==</t>
-  </si>
-  <si>
-    <t>社会福祉法人 福栄会</t>
-  </si>
-  <si>
-    <t>MJS税務DX</t>
-  </si>
-  <si>
-    <t>b3d6e337-9a4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>85DwA1dSWcXUh57RGG322dnkYUejsFzZPCInIyXX0QRhGTbusF+eMMP6gAs9rG4o4XYdK1nk3D2Xo0tMh8AUmQ==</t>
-  </si>
-  <si>
-    <t>南三陸病院</t>
-  </si>
-  <si>
-    <t>支社依頼(通常)</t>
-  </si>
-  <si>
-    <t>051ed036-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>LKMua4DiaVgB42f7S+XpVuZwidJHm+0c2jLvmsTUnQk21vLfO9cp+RTb5OQisdvAntUGhms6P9O4qc6GVoYgJg==</t>
-  </si>
-  <si>
-    <t>税理士法人森田経営</t>
-  </si>
-  <si>
-    <t>fe1dd036-9a4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>tOum+UmT1hg+2M/c78int0Dp61iKZM0eCs5pyZHVZ5j/bFWOkTczIzY2HEzZL5DxyL0UyBO4dQRZ5DhzHe4POQ==</t>
-  </si>
-  <si>
-    <t>税理士法人のぼる</t>
-  </si>
-  <si>
-    <t>MJSﾏｲﾅﾝﾊﾞｰ</t>
-  </si>
-  <si>
-    <t>7b631cfe-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>k8+hibx0Q6WFRVmjPRcx/wKBN4b/dkZGMNt+GMAisS3r26z9ys/OA4PyUvHwe/KOD492nnSXjreVcFjje0UQsA==</t>
-  </si>
-  <si>
-    <t>8238bcf3-994f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Alv2sRveoQ0+rsDQRRFRAhDY45IQSFQEP+fAXRdeuGVRj8CeLjPy8t8xA9C1NUq4bVgm3OldvYibvnARG312Sw==</t>
-  </si>
-  <si>
-    <t>858122dc-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>d0uD7mCBDbxL6/bAHZl/L4sX+R96m0ovv/k6d5pSoQz54CFw+aboiMu7v0fBVhgW20RLAhTm9xXFeYjA2QSxXw==</t>
-  </si>
-  <si>
-    <t>八木 昭 税理士事務所</t>
-  </si>
-  <si>
-    <t>df6274d5-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>OZiRiw60tF7X0eiqaK2RcD85fl2PrfckgVeCGQDnA2kML/bst7FisZ/fXYZUUM1FZ6yLC+DnGigbGZwI4xooJw==</t>
-  </si>
-  <si>
-    <t>大和電器 株式会社</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus共通</t>
-  </si>
-  <si>
-    <t>09fcc4d3-994f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6ldV5zUXTqvKyG3p9JkiMUOtpo/qkuj1xxNVWxBBjWj/flKSG98H4JhAKwGFzx7r2KABkZn3p3PxIzz5ZLnGuw==</t>
-  </si>
-  <si>
-    <t>教育サービス株式会社</t>
-  </si>
-  <si>
-    <t>a31651c4-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>/9h8/RnBPX5j2yRh5dac95gIzQYCT/UNs510gVix92KtWuHswYIrsnd+iwayz3yuP/0NwjtU+KKFVlQUvy9FAw==</t>
-  </si>
-  <si>
-    <t>bcfb67b0-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>QqgazmxcbGgswjVdDvHGshiC/i+9T9nAoo+G9hi99+VDUA2Dp0oC5ndi8hQwq3nFZyCO+oLGqRdI/k87XX1nGg==</t>
-  </si>
-  <si>
-    <t>afdd25af-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>e3TPWNnRXdf9KDF+twS151gJ99nY5Po7SlUyBhKFEcxVwml6NjyeTRreSXBAiClqJpcD21TqFtZpXQ7ZsPZKCw==</t>
-  </si>
-  <si>
-    <t>東亜物産 株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK DX販売</t>
-  </si>
-  <si>
-    <t>31582b9e-994f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>8ERz3zmhIzqXL+8C222nJEu8ZIbw0dEaGFPj57ejAulAFol1kM6xjoXgIKJzPgq/44LWHFmjTxUPu28wR988RA==</t>
-  </si>
-  <si>
-    <t>鉱研工業株式会社</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus財務</t>
-  </si>
-  <si>
-    <t>22811297-994f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>uaEoeXypKCBi++BzcorarrBOsndK0PuFMrr6OmM515Q3epvEN2noc1t1IQ4FdfNkozuLxSkuPOPDESVGE+muhQ==</t>
-  </si>
-  <si>
-    <t>株式会社 米善</t>
-  </si>
-  <si>
-    <t>ACELINK NX-CE販売</t>
-  </si>
-  <si>
-    <t>84b7ef8c-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>vrwGUcVv9V3F0RInhjIVQ1j9h3IlU61OZfUIuQuXA2Gt78iR12B3CBWdd27gpzLjVdG6hNQkkSg2+wEkpICEGA==</t>
-  </si>
-  <si>
-    <t>山田陽一税理士事務所</t>
-  </si>
-  <si>
-    <t>7cb7ef8c-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>wzXnZmolwGPvs9VRPjCJlxgRBd55BmX+Jzel6r/aNrx6ej9pJhkgZTPSFSE1GIUnL2vOnEI3ZxoyFocXZOz/pg==</t>
-  </si>
-  <si>
-    <t>医療法人 わかば会</t>
-  </si>
-  <si>
-    <t>6613847c-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>HoPfJ8ah2NIYjN4WIGewutxBLYSj4PoGUo1BK7YSFIPnEMUcDQ+vYLYmuPVwZ312ArWjDtEjE+cz0y8TiOuo6g==</t>
-  </si>
-  <si>
-    <t>税理士法人グッドパートナーズ</t>
-  </si>
-  <si>
-    <t>b1b0c574-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>wHgcuf73m1qJc9BTDxdwQrBNiP+V5cN2gJkRcfcXO/4C3YRPTDxoeJQ5ToD0NX36PaydCQSGGQZJBmP2yIHdug==</t>
-  </si>
-  <si>
-    <t>6b69c46e-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>hsUSo4dxyEAbhk2XaIx6fjoGWt6cgQAH88khlwWRQ01UEksgtSwyHLYbpQSryaKYRGsFTXGXuFwzniXP/Y+4LA==</t>
-  </si>
-  <si>
-    <t>極東印刷紙工 株式会社</t>
-  </si>
-  <si>
-    <t>プリンタ</t>
-  </si>
-  <si>
-    <t>2a991c4e-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>0vLo9G9u8Z55zZhaevvlWHtniry0GKfXGjWBuF7ZbxclqyUQZPsCAu2O33ghhAxkBFt2IjOb0CQXq+yK7aTnRQ==</t>
-  </si>
-  <si>
-    <t>株式会社第五電子工業</t>
-  </si>
-  <si>
-    <t>61706a3a-994f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>rPjCDTTAz8t6g7DzY1GoGwx+Oez2Cjw1Py9p4i2mzHeJsXqzEJqo5wbxlEwQRwq1rBiuTE4Q9Tn3Ll+oIVeWYA==</t>
-  </si>
-  <si>
-    <t>株式会社 東京金融取引所</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus給与</t>
-  </si>
-  <si>
-    <t>8a1bf2d6-984f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>j6mGWKeCR03eXu9Byor882EXpJxfoP5ugSRyQ4hDabTrm77myqAFY1vVKiHvEd/2O3M1O0AheIe+s9/gBcLbFQ==</t>
-  </si>
-  <si>
-    <t>西山勝税理士事務所</t>
-  </si>
-  <si>
-    <t>見積り承認待ち</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>0d2ac384-984f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>c3mS6ZZDjKo/qGsKQ9Dt3R7MAuzJBpuhchHROuVihrdG+hT4FLClEsHj8RR+eGv+XUmu7zBvKp87yYwQGifvvw==</t>
-  </si>
-  <si>
-    <t>小林又次郎税理士事務所</t>
-  </si>
-  <si>
-    <t>hﾊｰﾄﾞ・OS関連</t>
-  </si>
-  <si>
-    <t>24ff8507-984f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>4EnU3vY++byFtLKf/3RX6vW2H+Mc0ckyZiyyOd00QTprXe5RGV+wZWPEOrTjomcUPpOOtQdqA+n/A6VL1Ywb6A==</t>
-  </si>
-  <si>
-    <t>746da6d3-974f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>YGXxz0xVGc+Q5luyVqNIusvwTchY1f2MsRP5rtqYcMFkSpTXhfOcKS6j9GpXV2MyzGCU84Ue0n3n7uIuBeOArA==</t>
-  </si>
-  <si>
-    <t>91171faa-974f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>YrdYXtf3MpSIXY7O15jLKg0Jd+pzHokLJE3LPU9c0n7df22LD2VeuHrN8wg9IBpshd6Mqilrggx/1rEnTr+CEQ==</t>
-  </si>
-  <si>
-    <t>西野敬一税理士事務所</t>
-  </si>
-  <si>
-    <t>792fe58b-974f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>d8yexAersyM7UpI212BOLgkyLuZGmb2iHNyvRhOlkt5jvlgC3JtGsMvgpZmM5aJA3sowtjGa270CsLcvOgu5SQ==</t>
-  </si>
-  <si>
-    <t>有限会社 ディック北九州</t>
-  </si>
-  <si>
-    <t>47af9e20-974f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>wkgx5bWx7S4tdwP6h5+JgRkBfstfzM0PS4rtdsOum/1yL7S02zD4XVG6r2rlubDXUBJJMilyBCaX4JXFEvXk5w==</t>
-  </si>
-  <si>
-    <t>愛知機械工業株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK DX給与</t>
-  </si>
-  <si>
-    <t>4c1c2ab7-964f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>F1wottCdA8vCRQLSCGJlToZ+0giIaVWQK/X5xRlbDkEVyiM7D8w+xRwRoKeq12o2jWWqqvhvFMwsxpQmZzNH+Q==</t>
-  </si>
-  <si>
-    <t>サーバ</t>
-  </si>
-  <si>
-    <t>8d788c17-964f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>4VYv3ZAxGHxHb6nR1h7ArKZV21u8VzPShaSGlCmEXWsU2aYRWPs8t73T8YJBVDavfqY1iAfyBBK8aMhgdfLWuQ==</t>
-  </si>
-  <si>
-    <t>f5d8fc8b-954f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>J6QLcQHYDfHceHYe9j1/rffliXRVKuuG/vg5doJT7pJPwIQmM8g1XyUML+OXTd83YH90hqPkZrxxBDTwvKun4w==</t>
-  </si>
-  <si>
-    <t>日比野将吉税理士事務所</t>
-  </si>
-  <si>
-    <t>c90c8e09-944f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Q4Ta5zRHVVx2GnnXBK5qQ2qiZNIII6t7DRv3ZAMJVKgB7H+W/41iN6qI+ovtYMsULEX+fgRs3XJ5BdDIP71x4g==</t>
-  </si>
-  <si>
-    <t>6425f3fc-934f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>ayF2sBEfLQOe9csK6x/FVZvvRMtzvGi3784qAZtfmNw/spBU3CpnJCvKJRK9Sa25CTyCkAlg2oYDPenHvoV6pw==</t>
-  </si>
-  <si>
-    <t>a73073a7-934f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>F337SCXSoFeYQGZbb1cRMHdJcOYC1XkxTk3qJR9O3/a3TRok2HlzLve8JXxD4R3NVavNJaMwWADwX54q87ez0w==</t>
-  </si>
-  <si>
-    <t>ファースト税理士法人</t>
-  </si>
-  <si>
-    <t>2b3445df-924f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>p34aOJqwlfzoEtQlwFB+A8CJmJzLUmmgWHWLbujvAX6hqwZ1zEGiHz+2o4/nI4QlKTazuEU+40OJAHehf6A3Ng==</t>
-  </si>
-  <si>
-    <t>留守電</t>
-  </si>
-  <si>
-    <t>ＢＩＺＡＲＱ合同会社</t>
-  </si>
-  <si>
-    <t>81d064b0-924f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Vfm/PCGtI24JqUFZavclqtOCBmX1HThtZbwxhxHfBdVsgJAWkNSg0E6Vmcm7YjXDTO7eaFNVR3AAqvVir5/+Mg==</t>
-  </si>
-  <si>
-    <t>髙橋 拓 税理士事務所</t>
-  </si>
-  <si>
-    <t>0ae88817-924f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>cdnDyUnJJEP30nNf/5o0824c8JTp+SOh0qPfkt3OIQpxb+vJZmcmGHUc461ZqHbyxj9c1Dqe/kPyC4jMQEN75g==</t>
-  </si>
-  <si>
-    <t>鹿児島総合会計</t>
-  </si>
-  <si>
-    <t>6fc82165-914f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>45va2XsaC28e3ltX4BVmCGBkKk2/nJPvX09v2quwwnnErJ3bomyn/eTVHxsvuEQyxpwN7LeX4st7PyoWkuGMpg==</t>
-  </si>
-  <si>
-    <t>鶴山安浩税理士事務所</t>
-  </si>
-  <si>
-    <t>afa4a735-914f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>xseqWIHs1sRe5E6tQvEM2OHer2Ghoec/U7GqVDkAGekKHSCNwxl0Emst3PgRunZVB6dCIaasOlMzfjMZ3JHNJQ==</t>
-  </si>
-  <si>
-    <t>税理士法人 加藤事務所</t>
-  </si>
-  <si>
-    <t>74de6889-904f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>1aP/JHG5Mat2iVNtgrP87jkWAiAEauIxxKnh+kzWQ1y7KuhdF2+b/uA7tRo1aZcPhBB+eRyo/dVzuYCYdTkvog==</t>
-  </si>
-  <si>
-    <t>且井信昭公認会計士事務所</t>
-  </si>
-  <si>
-    <t>3dc0f8a9-8e4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>0hXa0l/4TQEk2Py4yH6p6LcUWeB8jc5QYiy70u3oGyM52g0YGQ8DJIJ+6N130IQTOI+dYgw69tVTV7NuPiHXYQ==</t>
-  </si>
-  <si>
-    <t>bc9691ec-8d4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>0FTtUm0//CjIAPcxmXeGNbizB0UBWWK3L3Qt4IB/kQ+gyXVSgYYihm9VXVvC92azfc0Q7o/bw8nush7AR2tT+w==</t>
-  </si>
-  <si>
-    <t>7802beea-8d4f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>MfUU0q4c6fa2dPCbg9/MM4/G0z2bc4AGoaVnvXWxH/cpDajPuXsWS6gbitSaz0tqOPfc5LWTcRTynfsu8JLrbw==</t>
-  </si>
-  <si>
-    <t>眞鍋信一税理士事務所</t>
-  </si>
-  <si>
-    <t>84d67647-8b4f-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>4h4hA5UFndl1xXAYfA2oWMhiZwIX7R7GrCA3l5kAxl3sDAI6YI0uYdO4BTqMcwvB8tbtPefgHDGorUsIOLe2gg==</t>
-  </si>
-  <si>
-    <t>川崎大地税理士事務所</t>
-  </si>
-  <si>
-    <t>c5c55039-894f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>nm0tBTsH0d7CNk/hCk+Ssjg1mkWdnGg/KH/gQC9d84NtoWV7XJ6RHooSl2oEFd0Xfmc+R3Vej13++MZ7ofVL0g==</t>
-  </si>
-  <si>
-    <t>矢野 幸博税理士事務所</t>
-  </si>
-  <si>
-    <t>96e46755-884f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>majwYhT3P4T8oJBVgzh+CXWKITtORDxSOFpAHQmaALhCM8onVzGFB5LG4KMwcdbqeWARKbHu6o5kcXW8HGcSBg==</t>
-  </si>
-  <si>
-    <t>e9b1b2b5-864f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>iTApwnXD3rZatgGvBz1hcLptxQA00rUDsEkKJ2riJymPONLuSIwcRICtiOGKUVcTh3LLSKJ9vA8QEISmhiOvnw==</t>
-  </si>
-  <si>
-    <t>山本忠行税理士事務所</t>
-  </si>
-  <si>
-    <t>cc50d6cb-854f-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>B2YrGPnqMWm4vRuNIwuvEs9Q3+buU+0cOmEOE0NLdcHJBWcqudRuAnIK+8135rYVrn6inDN9SSKK3FCy/rEnyg==</t>
-  </si>
-  <si>
-    <t>田戸俊也税理士・行政書士事務所</t>
+    <t>喜納兼永税理士事務所</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +581,7 @@
   <dimension ref="A1:L2712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L2" sqref="J2:L2"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2021,4955 +635,2121 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9">
-        <v>45505.408217592601</v>
+        <v>45507.303668981498</v>
       </c>
       <c r="D2" s="8">
-        <v>11731125</v>
+        <v>11733973</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="10">
-        <v>45505.408217592601</v>
+        <v>45507.303657407399</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9">
-        <v>45505.408113425903</v>
+        <v>45507.053078703699</v>
       </c>
       <c r="D3" s="8">
-        <v>11731124</v>
+        <v>11733972</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G3" s="10">
-        <v>45505.408113425903</v>
+        <v>45507.053078703699</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
-        <v>45505.407847222203</v>
+        <v>45507.001643518503</v>
       </c>
       <c r="D4" s="8">
-        <v>11731123</v>
+        <v>11733971</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="10">
-        <v>45505.407847222203</v>
+        <v>45507.0016203704</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45505.4078240741</v>
-      </c>
-      <c r="D5" s="8">
-        <v>11731122</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10">
-        <v>45505.407812500001</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45505.4078240741</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11731121</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45505.407743055599</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45505.408020833303</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11731120</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="10">
-        <v>45505.407592592601</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="9">
-        <v>45505.4075115741</v>
-      </c>
-      <c r="D8" s="8">
-        <v>11731119</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="10">
-        <v>45505.407245370399</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="8">
-        <v>11731118</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="10">
-        <v>45505.406990740703</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45505.406770833302</v>
-      </c>
-      <c r="D10" s="8">
-        <v>11731117</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45505.406770833302</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45505.407858796301</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11731116</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="10">
-        <v>45505.406550925902</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45505.406620370399</v>
-      </c>
-      <c r="D12" s="8">
-        <v>11731115</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45505.4063425926</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45505.407025462999</v>
-      </c>
-      <c r="D13" s="8">
-        <v>11731114</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10">
-        <v>45505.406319444402</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="9">
-        <v>45505.406585648103</v>
-      </c>
-      <c r="D14" s="8">
-        <v>11731113</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="10">
-        <v>45505.406215277799</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45505.408101851899</v>
-      </c>
-      <c r="D15" s="8">
-        <v>11731112</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10">
-        <v>45505.406168981499</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45505.4063888889</v>
-      </c>
-      <c r="D16" s="8">
-        <v>11731111</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10">
-        <v>45505.406064814801</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45505.406041666698</v>
-      </c>
-      <c r="D17" s="8">
-        <v>11731110</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10">
-        <v>45505.4055324074</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="9">
-        <v>45505.405694444402</v>
-      </c>
-      <c r="D18" s="8">
-        <v>11731109</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10">
-        <v>45505.405208333301</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45505.406597222202</v>
-      </c>
-      <c r="D19" s="8">
-        <v>11731108</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="10">
-        <v>45505.405023148101</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="9">
-        <v>45505.4053935185</v>
-      </c>
-      <c r="D20" s="8">
-        <v>11731107</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="10">
-        <v>45505.4049884259</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="9">
-        <v>45505.405312499999</v>
-      </c>
-      <c r="D21" s="8">
-        <v>11731106</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="10">
-        <v>45505.404965277798</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="9">
-        <v>45505.404895833301</v>
-      </c>
-      <c r="D22" s="8">
-        <v>11731105</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="10">
-        <v>45505.4043634259</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="9">
-        <v>45505.408252314803</v>
-      </c>
-      <c r="D23" s="8">
-        <v>11731104</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="10">
-        <v>45505.404189814799</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45505.407523148097</v>
-      </c>
-      <c r="D24" s="8">
-        <v>11731103</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="10">
-        <v>45505.404166666704</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="9">
-        <v>45505.404328703698</v>
-      </c>
-      <c r="D25" s="8">
-        <v>11731102</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10">
-        <v>45505.404050925899</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45505.403969907398</v>
-      </c>
-      <c r="D26" s="8">
-        <v>11731101</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="10">
-        <v>45505.403541666703</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45505.403842592597</v>
-      </c>
-      <c r="D27" s="8">
-        <v>11731100</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="10">
-        <v>45505.403391203698</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45505.402858796297</v>
-      </c>
-      <c r="D28" s="8">
-        <v>11731099</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="10">
-        <v>45505.402858796297</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45505.407164351898</v>
-      </c>
-      <c r="D29" s="8">
-        <v>11731098</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="10">
-        <v>45505.401701388902</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="9">
-        <v>45505.407905092601</v>
-      </c>
-      <c r="D30" s="8">
-        <v>11731097</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="10">
-        <v>45505.400763888902</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="9">
-        <v>45505.405358796299</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11731096</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="10">
-        <v>45505.400717592602</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45505.4031944444</v>
-      </c>
-      <c r="D32" s="8">
-        <v>11731095</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="10">
-        <v>45505.400717592602</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45505.401284722197</v>
-      </c>
-      <c r="D33" s="8">
-        <v>11731094</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="10">
-        <v>45505.400706018503</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45505.403900463003</v>
-      </c>
-      <c r="D34" s="8">
-        <v>11731092</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="10">
-        <v>45505.399444444403</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45505.399629629603</v>
-      </c>
-      <c r="D35" s="8">
-        <v>11731091</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="10">
-        <v>45505.3991087963</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="9">
-        <v>45505.404120370396</v>
-      </c>
-      <c r="D36" s="8">
-        <v>11731090</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="10">
-        <v>45505.399085648103</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="9">
-        <v>45505.408020833303</v>
-      </c>
-      <c r="D37" s="8">
-        <v>11731089</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="10">
-        <v>45505.398923611101</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8" t="s">
-        <v>172</v>
-      </c>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="9">
-        <v>45505.398738425902</v>
-      </c>
-      <c r="D38" s="8">
-        <v>11731088</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="10">
-        <v>45505.398738425902</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="9">
-        <v>45505.401215277801</v>
-      </c>
-      <c r="D39" s="8">
-        <v>11731087</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="10">
-        <v>45505.398009259297</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45505.403182870403</v>
-      </c>
-      <c r="D40" s="8">
-        <v>11731085</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="10">
-        <v>45505.397974537002</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45505.3977199074</v>
-      </c>
-      <c r="D41" s="8">
-        <v>11731084</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="10">
-        <v>45505.3977199074</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="9">
-        <v>45505.397847222201</v>
-      </c>
-      <c r="D42" s="8">
-        <v>11731083</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="10">
-        <v>45505.397349537001</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="9">
-        <v>45505.407719907402</v>
-      </c>
-      <c r="D43" s="8">
-        <v>11731082</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="10">
-        <v>45505.396747685198</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="9">
-        <v>45505.405300925901</v>
-      </c>
-      <c r="D44" s="8">
-        <v>11731081</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="10">
-        <v>45505.396516203698</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="9">
-        <v>45505.403298611098</v>
-      </c>
-      <c r="D45" s="8">
-        <v>11731080</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="10">
-        <v>45505.396435185197</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45505.4014930556</v>
-      </c>
-      <c r="D46" s="8">
-        <v>11731078</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="10">
-        <v>45505.3960532407</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45505.401238425897</v>
-      </c>
-      <c r="D47" s="8">
-        <v>11731077</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="10">
-        <v>45505.395960648202</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45505.407962963</v>
-      </c>
-      <c r="D48" s="8">
-        <v>11731076</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="10">
-        <v>45505.395254629599</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45505.395659722199</v>
-      </c>
-      <c r="D49" s="8">
-        <v>11731074</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="10">
-        <v>45505.395208333299</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45505.398541666698</v>
-      </c>
-      <c r="D50" s="8">
-        <v>11731072</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="10">
-        <v>45505.394849536999</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45505.4053472222</v>
-      </c>
-      <c r="D51" s="8">
-        <v>11731071</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="10">
-        <v>45505.394513888903</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45505.402372685203</v>
-      </c>
-      <c r="D52" s="8">
-        <v>11731069</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="10">
-        <v>45505.394398148201</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="9">
-        <v>45505.394722222198</v>
-      </c>
-      <c r="D53" s="8">
-        <v>11731067</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="10">
-        <v>45505.394247685203</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="9">
-        <v>45505.395150463002</v>
-      </c>
-      <c r="D54" s="8">
-        <v>11731066</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="10">
-        <v>45505.393750000003</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45505.393750000003</v>
-      </c>
-      <c r="D55" s="8">
-        <v>11731065</v>
-      </c>
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="10">
-        <v>45505.393750000003</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="9">
-        <v>45505.4054861111</v>
-      </c>
-      <c r="D56" s="8">
-        <v>11731064</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" s="10">
-        <v>45505.393657407403</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="9">
-        <v>45505.392951388902</v>
-      </c>
-      <c r="D57" s="8">
-        <v>11731063</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="10">
-        <v>45505.392951388902</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="9">
-        <v>45505.396030092597</v>
-      </c>
-      <c r="D58" s="8">
-        <v>11731062</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="10">
-        <v>45505.392685185201</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="9">
-        <v>45505.393182870401</v>
-      </c>
-      <c r="D59" s="8">
-        <v>11731061</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="10">
-        <v>45505.392685185201</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="9">
-        <v>45505.400983796302</v>
-      </c>
-      <c r="D60" s="8">
-        <v>11731060</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="10">
-        <v>45505.391909722202</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="9">
-        <v>45505.392708333296</v>
-      </c>
-      <c r="D61" s="8">
-        <v>11731059</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="10">
-        <v>45505.391516203701</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="9">
-        <v>45505.391504629602</v>
-      </c>
-      <c r="D62" s="8">
-        <v>11731058</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="10">
-        <v>45505.3910300926</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C63" s="9">
-        <v>45505.402060185203</v>
-      </c>
-      <c r="D63" s="8">
-        <v>11731057</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="10">
-        <v>45505.390428240702</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" s="9">
-        <v>45505.3936805556</v>
-      </c>
-      <c r="D64" s="8">
-        <v>11731056</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="10">
-        <v>45505.390393518501</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="9">
-        <v>45505.393668981502</v>
-      </c>
-      <c r="D65" s="8">
-        <v>11731055</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="10">
-        <v>45505.390150462998</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="9">
-        <v>45505.390104166698</v>
-      </c>
-      <c r="D66" s="8">
-        <v>11731054</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="10">
-        <v>45505.390104166698</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="9">
-        <v>45505.394050925897</v>
-      </c>
-      <c r="D67" s="8">
-        <v>11731053</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G67" s="10">
-        <v>45505.390104166698</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C68" s="9">
-        <v>45505.406851851898</v>
-      </c>
-      <c r="D68" s="8">
-        <v>11731052</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G68" s="10">
-        <v>45505.390104166698</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C69" s="9">
-        <v>45505.395763888897</v>
-      </c>
-      <c r="D69" s="8">
-        <v>11731050</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="10">
-        <v>45505.389166666697</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C70" s="9">
-        <v>45505.395648148202</v>
-      </c>
-      <c r="D70" s="8">
-        <v>11731049</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="10">
-        <v>45505.389131944401</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="9">
-        <v>45505.391157407401</v>
-      </c>
-      <c r="D71" s="8">
-        <v>11731048</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="10">
-        <v>45505.388634259303</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C72" s="9">
-        <v>45505.389293981498</v>
-      </c>
-      <c r="D72" s="8">
-        <v>11731047</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="10">
-        <v>45505.388437499998</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="9">
-        <v>45505.394363425898</v>
-      </c>
-      <c r="D73" s="8">
-        <v>11731045</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="10">
-        <v>45505.388252314799</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C74" s="9">
-        <v>45505.3988888889</v>
-      </c>
-      <c r="D74" s="8">
-        <v>11731044</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="10">
-        <v>45505.387986111098</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C75" s="9">
-        <v>45505.396574074097</v>
-      </c>
-      <c r="D75" s="8">
-        <v>11731043</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="10">
-        <v>45505.387534722198</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="L75" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="9">
-        <v>45505.388229166703</v>
-      </c>
-      <c r="D76" s="8">
-        <v>11731042</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="10">
-        <v>45505.387499999997</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
-      <c r="L76" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C77" s="9">
-        <v>45505.394710648201</v>
-      </c>
-      <c r="D77" s="8">
-        <v>11731041</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="10">
-        <v>45505.387442129599</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" s="9">
-        <v>45505.395821759303</v>
-      </c>
-      <c r="D78" s="8">
-        <v>11731040</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="10">
-        <v>45505.387129629598</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
-      <c r="L78" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C79" s="9">
-        <v>45505.390821759298</v>
-      </c>
-      <c r="D79" s="8">
-        <v>11731039</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="10">
-        <v>45505.387002314797</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
-      <c r="L79" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="9">
-        <v>45505.3891435185</v>
-      </c>
-      <c r="D80" s="8">
-        <v>11731038</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G80" s="10">
-        <v>45505.386446759301</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C81" s="9">
-        <v>45505.386851851901</v>
-      </c>
-      <c r="D81" s="8">
-        <v>11731037</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G81" s="10">
-        <v>45505.386296296303</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="9">
-        <v>45505.400659722203</v>
-      </c>
-      <c r="D82" s="8">
-        <v>11731036</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="10">
-        <v>45505.385567129597</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
-      <c r="L82" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L82" s="8"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C83" s="9">
-        <v>45505.391909722202</v>
-      </c>
-      <c r="D83" s="8">
-        <v>11731035</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="10">
-        <v>45505.384513888901</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L83" s="8"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C84" s="9">
-        <v>45505.388368055603</v>
-      </c>
-      <c r="D84" s="8">
-        <v>11731034</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="10">
-        <v>45505.384421296301</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C85" s="9">
-        <v>45505.401724536998</v>
-      </c>
-      <c r="D85" s="8">
-        <v>11731033</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="10">
-        <v>45505.383460648103</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C86" s="9">
-        <v>45505.383437500001</v>
-      </c>
-      <c r="D86" s="8">
-        <v>11731032</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" s="10">
-        <v>45505.383437500001</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L86" s="8"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="8">
-        <v>11731031</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="10">
-        <v>45505.383414351898</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="L87" s="8"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="9">
-        <v>45505.389039351903</v>
-      </c>
-      <c r="D88" s="8">
-        <v>11731030</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="10">
-        <v>45505.383414351898</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="L88" s="8"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C89" s="9">
-        <v>45505.390706018501</v>
-      </c>
-      <c r="D89" s="8">
-        <v>11731029</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" s="10">
-        <v>45505.383194444403</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A89" s="6"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="L89" s="8"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" s="9">
-        <v>45505.385960648098</v>
-      </c>
-      <c r="D90" s="8">
-        <v>11731028</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" s="10">
-        <v>45505.3828587963</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L90" s="8"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C91" s="9">
-        <v>45505.385902777802</v>
-      </c>
-      <c r="D91" s="8">
-        <v>11731027</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G91" s="10">
-        <v>45505.382824074099</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="L91" s="8"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C92" s="9">
-        <v>45505.391284722202</v>
-      </c>
-      <c r="D92" s="8">
-        <v>11731026</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="10">
-        <v>45505.382569444402</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A92" s="6"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="L92" s="8"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C93" s="9">
-        <v>45505.385069444397</v>
-      </c>
-      <c r="D93" s="8">
-        <v>11731025</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" s="10">
-        <v>45505.382569444402</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C94" s="9">
-        <v>45505.404166666704</v>
-      </c>
-      <c r="D94" s="8">
-        <v>11731024</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="10">
-        <v>45505.3824537037</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L94" s="8"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D95" s="8">
-        <v>11731023</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" s="10">
-        <v>45505.381921296299</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="L95" s="8"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C96" s="9">
-        <v>45505.3886921296</v>
-      </c>
-      <c r="D96" s="8">
-        <v>11731022</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" s="10">
-        <v>45505.381539351903</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
-      <c r="L96" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="L96" s="8"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C97" s="9">
-        <v>45505.382986111101</v>
-      </c>
-      <c r="D97" s="8">
-        <v>11731021</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="10">
-        <v>45505.3815046296</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L97" s="8"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C98" s="9">
-        <v>45505.388993055603</v>
-      </c>
-      <c r="D98" s="8">
-        <v>11731020</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" s="10">
-        <v>45505.381203703699</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="L98" s="8"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C99" s="9">
-        <v>45505.4067939815</v>
-      </c>
-      <c r="D99" s="8">
-        <v>11731019</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" s="10">
-        <v>45505.381157407399</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>364</v>
-      </c>
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="L99" s="8"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C100" s="9">
-        <v>45505.383541666699</v>
-      </c>
-      <c r="D100" s="8">
-        <v>11731018</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" s="10">
-        <v>45505.381076388898</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A100" s="6"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="L100" s="8"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C101" s="9">
-        <v>45505.405613425901</v>
-      </c>
-      <c r="D101" s="8">
-        <v>11731017</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="10">
-        <v>45505.381064814799</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
-      <c r="L101" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="L101" s="8"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C102" s="9">
-        <v>45505.383009259298</v>
-      </c>
-      <c r="D102" s="8">
-        <v>11731016</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" s="10">
-        <v>45505.3800694444</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A102" s="6"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
-      <c r="L102" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="L102" s="8"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C103" s="9">
-        <v>45505.3995138889</v>
-      </c>
-      <c r="D103" s="8">
-        <v>11731015</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" s="10">
-        <v>45505.3797569444</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A103" s="6"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L103" s="8"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C104" s="9">
-        <v>45505.392534722203</v>
-      </c>
-      <c r="D104" s="8">
-        <v>11731014</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" s="10">
-        <v>45505.379409722198</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A104" s="6"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
-      <c r="L104" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L104" s="8"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105" s="9">
-        <v>45505.390034722201</v>
-      </c>
-      <c r="D105" s="8">
-        <v>11731013</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" s="10">
-        <v>45505.379178240699</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A105" s="6"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
-      <c r="L105" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="L105" s="8"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C106" s="9">
-        <v>45505.391851851899</v>
-      </c>
-      <c r="D106" s="8">
-        <v>11731012</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" s="10">
-        <v>45505.379143518498</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A106" s="6"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="8" t="s">
-        <v>172</v>
-      </c>
+      <c r="L106" s="8"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C107" s="9">
-        <v>45505.378946759301</v>
-      </c>
-      <c r="D107" s="8">
-        <v>11731011</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G107" s="10">
-        <v>45505.378946759301</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A107" s="6"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L107" s="8"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C108" s="9">
-        <v>45505.3820023148</v>
-      </c>
-      <c r="D108" s="8">
-        <v>11731010</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G108" s="10">
-        <v>45505.378518518497</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C109" s="9">
-        <v>45505.385729166701</v>
-      </c>
-      <c r="D109" s="8">
-        <v>11731009</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" s="10">
-        <v>45505.378506944398</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
-      <c r="L109" s="8" t="s">
-        <v>393</v>
-      </c>
+      <c r="L109" s="8"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C110" s="9">
-        <v>45505.393854166701</v>
-      </c>
-      <c r="D110" s="8">
-        <v>11731008</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" s="10">
-        <v>45505.378148148098</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8" t="s">
-        <v>397</v>
-      </c>
+      <c r="L110" s="8"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C111" s="9">
-        <v>45505.3815972222</v>
-      </c>
-      <c r="D111" s="8">
-        <v>11731007</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" s="10">
-        <v>45505.377986111103</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="8" t="s">
-        <v>401</v>
-      </c>
+      <c r="L111" s="8"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C112" s="9">
-        <v>45505.377835648098</v>
-      </c>
-      <c r="D112" s="8">
-        <v>11731006</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" s="10">
-        <v>45505.377835648098</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A112" s="6"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L112" s="8"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C113" s="9">
-        <v>45505.381759259297</v>
-      </c>
-      <c r="D113" s="8">
-        <v>11731005</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" s="10">
-        <v>45505.377766203703</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="L113" s="8"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C114" s="9">
-        <v>45505.393472222197</v>
-      </c>
-      <c r="D114" s="8">
-        <v>11731004</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G114" s="10">
-        <v>45505.377523148098</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C115" s="9">
-        <v>45505.386215277802</v>
-      </c>
-      <c r="D115" s="8">
-        <v>11731003</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G115" s="10">
-        <v>45505.3772916667</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C116" s="9">
-        <v>45505.408043981501</v>
-      </c>
-      <c r="D116" s="8">
-        <v>11731002</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G116" s="10">
-        <v>45505.3772453704</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="8" t="s">
-        <v>416</v>
-      </c>
+      <c r="L116" s="8"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C117" s="9">
-        <v>45505.382060185198</v>
-      </c>
-      <c r="D117" s="8">
-        <v>11731001</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" s="10">
-        <v>45505.376585648097</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
-      <c r="L117" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="L117" s="8"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C118" s="9">
-        <v>45505.403032407397</v>
-      </c>
-      <c r="D118" s="8">
-        <v>11731000</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="10">
-        <v>45505.3761689815</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A118" s="6"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
-      <c r="L118" s="8" t="s">
-        <v>423</v>
-      </c>
+      <c r="L118" s="8"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C119" s="9">
-        <v>45505.383553240703</v>
-      </c>
-      <c r="D119" s="8">
-        <v>11730999</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G119" s="10">
-        <v>45505.3742361111</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>427</v>
-      </c>
+      <c r="A119" s="6"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
-      <c r="L119" s="8" t="s">
-        <v>428</v>
-      </c>
+      <c r="L119" s="8"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C120" s="9">
-        <v>45505.372696759303</v>
-      </c>
-      <c r="D120" s="8">
-        <v>11730998</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" s="10">
-        <v>45505.372696759303</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
-      <c r="L120" s="8" t="s">
-        <v>432</v>
-      </c>
+      <c r="L120" s="8"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A121" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C121" s="9">
-        <v>45505.382488425901</v>
-      </c>
-      <c r="D121" s="8">
-        <v>11730997</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G121" s="10">
-        <v>45505.370208333297</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="L121" s="8"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A122" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C122" s="9">
-        <v>45505.370949074102</v>
-      </c>
-      <c r="D122" s="8">
-        <v>11730996</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G122" s="10">
-        <v>45505.369201388901</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A123" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C123" s="9">
-        <v>45505.373310185198</v>
-      </c>
-      <c r="D123" s="8">
-        <v>11730995</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" s="10">
-        <v>45505.368437500001</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L123" s="8"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A124" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C124" s="9">
-        <v>45505.378310185202</v>
-      </c>
-      <c r="D124" s="8">
-        <v>11730994</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" s="10">
-        <v>45505.367870370399</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="A124" s="6"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L124" s="8"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C125" s="9">
-        <v>45505.368981481501</v>
-      </c>
-      <c r="D125" s="8">
-        <v>11730993</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G125" s="10">
-        <v>45505.365717592598</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
-      <c r="L125" s="8" t="s">
-        <v>446</v>
-      </c>
+      <c r="L125" s="8"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C126" s="9">
-        <v>45505.386516203696</v>
-      </c>
-      <c r="D126" s="8">
-        <v>11730992</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G126" s="10">
-        <v>45505.363668981503</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
-      <c r="L126" s="8" t="s">
-        <v>449</v>
-      </c>
+      <c r="L126" s="8"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C127" s="9">
-        <v>45505.362418981502</v>
-      </c>
-      <c r="D127" s="8">
-        <v>11730991</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G127" s="10">
-        <v>45505.360578703701</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
-      <c r="L127" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L127" s="8"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C128" s="9">
-        <v>45505.364363425899</v>
-      </c>
-      <c r="D128" s="8">
-        <v>11730990</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" s="10">
-        <v>45505.357858796298</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A128" s="6"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L128" s="8"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C129" s="9">
-        <v>45505.353715277801</v>
-      </c>
-      <c r="D129" s="8">
-        <v>11730989</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" s="10">
-        <v>45505.350358796299</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L129" s="8"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C130" s="9">
-        <v>45505.370219907403</v>
-      </c>
-      <c r="D130" s="8">
-        <v>11730988</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" s="10">
-        <v>45505.350115740701</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A130" s="6"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L130" s="8"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C131" s="9">
-        <v>45505.360868055599</v>
-      </c>
-      <c r="D131" s="8">
-        <v>11730986</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" s="10">
-        <v>45505.348460648202</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
-      <c r="L131" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L131" s="8"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C132" s="9">
-        <v>45505.381620370397</v>
-      </c>
-      <c r="D132" s="8">
-        <v>11730985</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="G132" s="10">
-        <v>45505.344571759299</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A132" s="6"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
-      <c r="L132" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A133" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C133" s="9">
-        <v>45505.346192129597</v>
-      </c>
-      <c r="D133" s="8">
-        <v>11730984</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" s="10">
-        <v>45505.3436574074</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A133" s="6"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
-      <c r="L133" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="L133" s="8"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A134" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C134" s="9">
-        <v>45505.354293981502</v>
-      </c>
-      <c r="D134" s="8">
-        <v>11730983</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" s="10">
-        <v>45505.3406944444</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A134" s="6"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
-      <c r="L134" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="L134" s="8"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A135" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C135" s="9">
-        <v>45505.337233796301</v>
-      </c>
-      <c r="D135" s="8">
-        <v>11730982</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" s="10">
-        <v>45505.337222222202</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L135" s="8"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A136" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C136" s="9">
-        <v>45505.336307870399</v>
-      </c>
-      <c r="D136" s="8">
-        <v>11730981</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" s="10">
-        <v>45505.336307870399</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A136" s="6"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
-      <c r="L136" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A137" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C137" s="9">
-        <v>45505.332962963003</v>
-      </c>
-      <c r="D137" s="8">
-        <v>11730980</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" s="10">
-        <v>45505.332962963003</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A137" s="6"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
-      <c r="L137" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L137" s="8"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A138" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C138" s="9">
-        <v>45505.351076388899</v>
-      </c>
-      <c r="D138" s="8">
-        <v>11730979</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G138" s="10">
-        <v>45505.323645833298</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A138" s="6"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A139" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C139" s="9">
-        <v>45505.319976851897</v>
-      </c>
-      <c r="D139" s="8">
-        <v>11730978</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" s="10">
-        <v>45505.319965277798</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A139" s="6"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
-      <c r="L139" s="8" t="s">
-        <v>432</v>
-      </c>
+      <c r="L139" s="8"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A140" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C140" s="9">
-        <v>45505.403900463003</v>
-      </c>
-      <c r="D140" s="8">
-        <v>11730977</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" s="10">
-        <v>45505.319942129601</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>364</v>
-      </c>
+      <c r="A140" s="6"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
-      <c r="L140" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A141" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C141" s="9">
-        <v>45505.306840277801</v>
-      </c>
-      <c r="D141" s="8">
-        <v>11730976</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" s="10">
-        <v>45505.306828703702</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A141" s="6"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A142" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C142" s="9">
-        <v>45505.297314814801</v>
-      </c>
-      <c r="D142" s="8">
-        <v>11730975</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" s="10">
-        <v>45505.2966087963</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A142" s="6"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
-      <c r="L142" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L142" s="8"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A143" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C143" s="9">
-        <v>45505.3296527778</v>
-      </c>
-      <c r="D143" s="8">
-        <v>11730974</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" s="10">
-        <v>45505.292233796303</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A143" s="6"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
-      <c r="L143" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L143" s="8"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A144" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C144" s="9">
-        <v>45505.284108796302</v>
-      </c>
-      <c r="D144" s="8">
-        <v>11730973</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" s="10">
-        <v>45505.284108796302</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A144" s="6"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
-      <c r="L144" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="L144" s="8"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A145" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="C145" s="9">
-        <v>45505.279571759304</v>
-      </c>
-      <c r="D145" s="8">
-        <v>11730972</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" s="10">
-        <v>45505.279571759304</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A145" s="6"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
-      <c r="L145" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L145" s="8"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A146" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="9">
-        <v>45505.097430555601</v>
-      </c>
-      <c r="D146" s="8">
-        <v>11730971</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" s="10">
-        <v>45505.097430555601</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A146" s="6"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
-      <c r="L146" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L146" s="8"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A147" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="9">
-        <v>45505.020300925898</v>
-      </c>
-      <c r="D147" s="8">
-        <v>11730970</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" s="10">
-        <v>45505.020289351902</v>
-      </c>
-      <c r="H147" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A147" s="6"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
-      <c r="L147" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L147" s="8"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A148" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="9">
-        <v>45505.003402777802</v>
-      </c>
-      <c r="D148" s="8">
-        <v>11730969</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" s="10">
-        <v>45505.002870370401</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A148" s="6"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
-      <c r="L148" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="L148" s="8"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" s="6"/>

--- a/files/TS_todays_support.xlsx
+++ b/files/TS_todays_support.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisuke_koresawa\project\kpi_project\kpi_info_sync\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF4481-9B19-43DB-A637-FEB45DE8E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FD271-8EEB-4D2A-AE50-D7AEE45497AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32205" yWindow="1455" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_todays_support" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$4</definedName>
+    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="467">
   <si>
     <t>(変更しないでください) サポート案件</t>
   </si>
@@ -165,6 +165,1287 @@
   </si>
   <si>
     <t>喜納兼永税理士事務所</t>
+  </si>
+  <si>
+    <t>f8513838-3851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>折返し</t>
+  </si>
+  <si>
+    <t>対応待ち</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CEその他</t>
+  </si>
+  <si>
+    <t>a05c2175-3751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>GiPfzl+gPDshq+RnFkycqR9RflTDV3ToKmvbfZTVFt9POQ+YIjm9nWUJaNdEA5qhgcomSA+BM7jSBtksRRcE8w==</t>
+  </si>
+  <si>
+    <t>若原税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proｼｽﾃﾑ</t>
+  </si>
+  <si>
+    <t>cf26e557-3751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社大分綜合会計</t>
+  </si>
+  <si>
+    <t>e0a7ce3c-3751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 響成工業(日本電算)</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CE給与</t>
+  </si>
+  <si>
+    <t>24897a23-3751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>林剛史税理士事務所</t>
+  </si>
+  <si>
+    <t>1d2e03d2-3651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人アイ・フロンティア</t>
+  </si>
+  <si>
+    <t>312f2c8a-3651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 小林組</t>
+  </si>
+  <si>
+    <t>aacda650-3651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0Ou4ZqWtnYASIdFvWeoP/aCGnh0h11ThJcfFn9ni6Jg456m1NOqjyg11/xBwm708qvB85Ecc2Lta4g0TkoDZag==</t>
+  </si>
+  <si>
+    <t>東樹 進 税理士事務所</t>
+  </si>
+  <si>
+    <t>21b8cefc-3551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 ニュー・クイック</t>
+  </si>
+  <si>
+    <t>MJSLINK DX資産管理</t>
+  </si>
+  <si>
+    <t>292bc6b2-3551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>GcNRpdA4yRLo2RrgctyUi2KyxW2G3QDeN3oUsQ/zLnghoQF4hKyMtsXrDLtZ7YcHKNCtvPEW95FfWU2PIxy1xQ==</t>
+  </si>
+  <si>
+    <t>小久保 隆 税理士事務所</t>
+  </si>
+  <si>
+    <t>2a0d497a-3551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人 オーレンス税務事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro事務所管理</t>
+  </si>
+  <si>
+    <t>06ccc052-3451-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>東和貿易 株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK NX-Plus財務</t>
+  </si>
+  <si>
+    <t>b4c936eb-3351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>m4Am3nXBDwDjlR1/Y/+4YZ39XcRHRAsHWAs/qNCavbdZXCwRfDauHnOrfNdML/SAyIUUhq65onjRheHOcVQDcg==</t>
+  </si>
+  <si>
+    <t>株式会社 ビジネスサポート</t>
+  </si>
+  <si>
+    <t>e6334b33-3351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ywFyYyPXYFsyMMm8oHikxtCj6rj/JoO3Ug40tp/bIVEZtfZkbCAbX0U8RPEBIJ1pz7lHikG8y0+hx6WZJgLnAA==</t>
+  </si>
+  <si>
+    <t>医療法人 寿栄会</t>
+  </si>
+  <si>
+    <t>MJSLINK DXその他</t>
+  </si>
+  <si>
+    <t>8e392a98-3251-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Y+tyCnVvIAS/+bSGzJMes120KSgMkvqksqb8TlCMtIZR5SdjCaGKA1x99tITvX3+Irz+PLZMNwjH2VeMVpiOgQ==</t>
+  </si>
+  <si>
+    <t>相原和司税理士事務所</t>
+  </si>
+  <si>
+    <t>d2d612e9-3151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>U3la3WjJTg8TJcc+73fKIJOupI6O9hbmSFDgmpsk/mKeMfwEjSm92776uZsH7NyUNMoY2QYWKEVdmAa8SlRqvw==</t>
+  </si>
+  <si>
+    <t>阿部税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro減価</t>
+  </si>
+  <si>
+    <t>8b971f81-3151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>As8HEIcthM08+vXrV3OPrEAP24nk4dQc5FlfiAVRKATFOg14xYpNLBqW0CKou7Fh0pwV7IUwfIZZxnhWY8k3Tg==</t>
+  </si>
+  <si>
+    <t>平川税理士事務所</t>
+  </si>
+  <si>
+    <t>344ef879-3151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>RW/IfqI48rP7VjUW+fBNlf1IUQ28YynczKADPC3PdZj0sWdoDZ18EGePGl2oT7K4wT8/sju2kXItRPB1n+wLkQ==</t>
+  </si>
+  <si>
+    <t>d7d6cb72-3151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>pHtYjZdZveJp3lUQEJvBq9pklILZ+DhhtKRBVGnu9LiUH1s4+J/n11PpWtz0ZRLp2Tsxe+xFBeYwTjhBI4Cz0Q==</t>
+  </si>
+  <si>
+    <t>株式会社ポンパドウル</t>
+  </si>
+  <si>
+    <t>GalileoptDX給与</t>
+  </si>
+  <si>
+    <t>38178619-3151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>dDGqvjjkC9lanMGWhO+Z00Fggmd280gTxVC2U1PdkeLLDyFVH6qnRXg2RjhtvIGc/Bq4+Ujc+litez+nxYzVFw==</t>
+  </si>
+  <si>
+    <t>宮崎信一郎税理士事務所</t>
+  </si>
+  <si>
+    <t>79bd2dea-3051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0f769098-3051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>zn7Xjg62CNO6p0668NjYPNyEzOo6MlUWQP45W3j6KuHu5mD5I+DFyETsjj+XZ1UCW7sI91URpd0phXq9VbhH9g==</t>
+  </si>
+  <si>
+    <t>松山 真美 税理士事務所</t>
+  </si>
+  <si>
+    <t>9826ac2b-3051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>M･P税務会計事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proその他</t>
+  </si>
+  <si>
+    <t>6df68c17-3051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>WldQ8FaAEQbcQYWaBSsaIPjiuCjsZnBKNxLcTmV0Bh+wXc/fu6elWpVNgaP4Mden9nBn4k71aWchKvHZoTOz/Q==</t>
+  </si>
+  <si>
+    <t>株式会社 畑商会</t>
+  </si>
+  <si>
+    <t>13c1e0e5-2f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>MNcyJk2A04v4m3kpE/a2Xr1u9iLfH8yAa8+fakD57qYlgHEVSlmdSdMjtAK0i98pOy6OA7GLBIGKCGqVLtYNEw==</t>
+  </si>
+  <si>
+    <t>HHD</t>
+  </si>
+  <si>
+    <t>TVS/SS入電</t>
+  </si>
+  <si>
+    <t>友松 悦子 税理士事務所</t>
+  </si>
+  <si>
+    <t>折返し不要・ｷｬﾝｾﾙ</t>
+  </si>
+  <si>
+    <t>各種ソフト</t>
+  </si>
+  <si>
+    <t>e33b58af-2f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>iwnajwJHKIFGgGaHZLwPOwS6hqjgwZv5XbOBw0MI/VRu3b0KgirDIjsNx8LsrC5MCabUc90Wu5sVnz4hwThrmQ==</t>
+  </si>
+  <si>
+    <t>木村税理士事務所</t>
+  </si>
+  <si>
+    <t>NX記帳くん</t>
+  </si>
+  <si>
+    <t>0c9496a8-2f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>社会医療法人 松本快生会</t>
+  </si>
+  <si>
+    <t>MJSLINK NX-Plus給与</t>
+  </si>
+  <si>
+    <t>fc43174c-2f51-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>tSwny6V1R7xq7T68dLSFxdz7FXS4ExK+Emyhkc3KC4FRmIdcXMxfPukaLpu2jL9iPyh2o6G1dcvKQSFSt5dB+g==</t>
+  </si>
+  <si>
+    <t>顧問先ソフトウェア</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>不明企業</t>
+  </si>
+  <si>
+    <t>a5fbd2d2-2d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>有限会社 ゼンコー</t>
+  </si>
+  <si>
+    <t>MJSLINK DX販売</t>
+  </si>
+  <si>
+    <t>b0460540-2d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ub1tUPpSTMTqlTZgfTipDCt7iPVcuZTP1DCz3q4Pbe6tq5LDdnMaJbxf31ZbeLVQ2kXIE4n7jrOpvi8DBI9wUA==</t>
+  </si>
+  <si>
+    <t>税理士法人 松丸会計事務所</t>
+  </si>
+  <si>
+    <t>d電子申告</t>
+  </si>
+  <si>
+    <t>dc6aa9f5-2c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>7Pb/5kiZfEbw9irvd3anZxd+F6EDiHPSR05SOBKVJGh0zySHdM2/fexnusBRhpRjmoXKeK1KgfgVHuWaWLzlNQ==</t>
+  </si>
+  <si>
+    <t>株式会社NICHIUN</t>
+  </si>
+  <si>
+    <t>d61c16de-2c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>X7F7+uUn4mcpd8SQn0VfrTDI/9l7HhNq/x04YjYwKNjsumYtOhvxeCfeUYqCsHrpg9skoUrfwO7Gn9VZpFRG8g==</t>
+  </si>
+  <si>
+    <t>本吉公認会計士税理士事務所</t>
+  </si>
+  <si>
+    <t>88aee1bd-2c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>biV0ST/mRHe5NZjQXhWn7IPM0tlWssxm6EZ5JKvuI8lo6XIuHQXTk98lvI4djWq8sQfrQiiOqBk8PlnlKySXPg==</t>
+  </si>
+  <si>
+    <t>株式会社桃原農園</t>
+  </si>
+  <si>
+    <t>7d02b20b-2c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>wZ8JzpD3sEl6bd/hWuAEEom+wAmDr4mqAgmAJs0yUQVQboeT1bB/C07Bzrr9e0Mgn74cBSEwGTg2hvZL+m/SLA==</t>
+  </si>
+  <si>
+    <t>坂博通税理士事務所</t>
+  </si>
+  <si>
+    <t>fe2b34ce-2b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>/lYVs4SFp5YZpZ1sOtVOjlGlQ458nZyWka3QzLFjIyyhuKXn2rPD3Dan40JkiwV6iOEIstN8hPE5fx4NQ37U3w==</t>
+  </si>
+  <si>
+    <t>株式会社小西砕石工業所</t>
+  </si>
+  <si>
+    <t>10aea75b-2b51-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>Um7Y9YhaoFYr9MUBAf4uu9DnNHtYUSO1ifgkxb+6i05b3TENV4wtaDPGiPCeXqwvi93YgDKXsHhqCANX6nVDcA==</t>
+  </si>
+  <si>
+    <t>平野治税理士事務所</t>
+  </si>
+  <si>
+    <t>b0a5ccbd-2a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>5ooA8v9MjOLTvFpfI0PancyGEHQ/nxlKh/kQPF5YuCc2mS7V+gsPwhj6NNisw2iaG5gihDQNPI+HGzp7VZ5shg==</t>
+  </si>
+  <si>
+    <t>江藤義雄税理士事務所</t>
+  </si>
+  <si>
+    <t>a51edaae-2a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>7P42tnXs+YBCtCoKsUN6NT8Fzx9zGE3JVRwscq28aGOV8XxZIZ0YAk5kr4/K/JadktyWRpzaLVEyaKGyhPNqpg==</t>
+  </si>
+  <si>
+    <t>山田裕一税理士事務所</t>
+  </si>
+  <si>
+    <t>9d56003a-2a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>5OxuKxivatibwsJznmnCeiAy1O9B7iz+Q3km7aqI+iOtM4abJ0ZleFRhAiTeRNqjO6mqOaiYH/rzTo2JRE4Kpw==</t>
+  </si>
+  <si>
+    <t>奥田俊彦税理士事務所</t>
+  </si>
+  <si>
+    <t>e591f4b3-2651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>中野 敬司 税理士事務所</t>
+  </si>
+  <si>
+    <t>CbYFn4RoKPbHuVKcm7aXssdVdY9vBbdkcymHlqxS7vJ1T8HHIFi48PYHJuJqHKt1oFMDfKah0NTc3ibA4HEHuA==</t>
+  </si>
+  <si>
+    <t>0d2f3434-3951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>アイテップ 株式会社</t>
+  </si>
+  <si>
+    <t>MJSLINK DX財務</t>
+  </si>
+  <si>
+    <t>49a5cc2c-3951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>杉浦大貴税理士事務所</t>
+  </si>
+  <si>
+    <t>VZ53FwklDEyzVJO3h6RDABY2/x8F2wYGTP5YS6PwwVm3WEdWxC+NYTbe0FHzOKD/BryFjv3MXOnrhqbz9caODA==</t>
+  </si>
+  <si>
+    <t>1eb85f43-3951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>OFFICE KODERA</t>
+  </si>
+  <si>
+    <t>kかんたんｸﾗｳﾄﾞ</t>
+  </si>
+  <si>
+    <t>99172365-3951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>光建設株式会社</t>
+  </si>
+  <si>
+    <t>a8xlmMH83Fv6aijf3EX+VskeZpvaYx7HV3Ks29zs4Q9HV4/4gyzES07JbLlZMenlzhsDWBL5r0PQo5ZVvmI5Lw==</t>
+  </si>
+  <si>
+    <t>75103a79-3a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>有限会社 津久井新聞販売ステーション</t>
+  </si>
+  <si>
+    <t>CNhpVF3612B1Y80zgsdsV/IYR04QF5KOZKmoOhde5E5g68/ytclbm1g4Yk5drHGzKLhQoqgT2L224YWPhESlrw==</t>
+  </si>
+  <si>
+    <t>wHcAXF8SxPGXbwa3oxMYz+iQLVhQZdat9KAV6Z0Xka+URgCK0eL/Uypm7IBCEU4a/a73kW30szQoum8XfcQUgA==</t>
+  </si>
+  <si>
+    <t>fcf4634c-3b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>JJu1ejyJK97YaucMJLuTrzNt5W+7ocqiKGFQLHUOFqvfUe0LFNKEHtRMFn/zzHzHd8erg2irmeawKowUyABMBg==</t>
+  </si>
+  <si>
+    <t>6255525e-3c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>日の丸ビッグテック株式会社</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus給与</t>
+  </si>
+  <si>
+    <t>WEB問い</t>
+  </si>
+  <si>
+    <t>岡本武税理士事務所</t>
+  </si>
+  <si>
+    <t>iTNySbtLCKyJ4cPgL8rJn3lkHpTkynunSRxiqSRH7Y0+qRHMCxNN1t3Pdz9WpSzcz0fZqY2ZD5gKND8oQrLqkw==</t>
+  </si>
+  <si>
+    <t>b26dd0f9-3c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人 山田＆パートナーズ</t>
+  </si>
+  <si>
+    <t>N0ebVk/v/GRt2xEsfC6t2Sshz2dtpBJbhT6jcE6+k4DwlW0cZLw0c+jEZ/AMOkY2W1adRih523hf0FrwaNyUHw==</t>
+  </si>
+  <si>
+    <t>0TwpyHQqvn/3bgUdLkqFz0M901JdqjtlroLlF7rEnyhyBnAMDntAu5dYW5+Nm2BvF25q+1jOMNsdmV3IiAHnsw==</t>
+  </si>
+  <si>
+    <t>773cc809-3d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>有限会社 出浦商事</t>
+  </si>
+  <si>
+    <t>eVvD25tKhjY36MNnHigHd0h5ZY7qQzpqjulZgah6cLuxlNNk4dNeEdpY7U7CE+4/yI3k/jwFgFDVgYEP2OSqfg==</t>
+  </si>
+  <si>
+    <t>9q8hKH/t8OCKloyPHrRNpVeZI39OmNWR2pPAJKroPddCMOI3sY2pm7Pagl06KXwsvDmblDtdD8TsixOnQrWqZQ==</t>
+  </si>
+  <si>
+    <t>11609d7e-3d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>abaf83aa-3d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>澤田 博明税理士事務所</t>
+  </si>
+  <si>
+    <t>a4af83aa-3d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>1cb34f4d-3e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社トランジットジェネラルオフィス</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus債権・債務</t>
+  </si>
+  <si>
+    <t>4/o+lwD5AsCJmdrTpmlqDj07/Xb5BXmjNGHLdJYzXPqD7NVhdzbWFwaiDSuh1A9iT3lW9uAbPSdc7OPX8qmEKg==</t>
+  </si>
+  <si>
+    <t>U5s+g+g7BjHVhdMiteLo83y9EarHouJl4IBZFE+8p4Yz3uSs31RsinK5H17kDrlj5to2tUJcDSTuLLU83jXMHw==</t>
+  </si>
+  <si>
+    <t>WdGXjcK6mZ+wDi+xHFwNyoz0nfum9dQO4VqBVH6M9aNLpwrKP6s7DXK5xsdrQUFbnwiKcoF6KurY7B0lqkCuUQ==</t>
+  </si>
+  <si>
+    <t>8M3ss48tasSvVVp5Jn59T6EApSSnXyLBNmn20Y85IEOEIY650QJLyGg5z+ZCkdGWYyJ0i5Zm4/jZhG94WVJx6w==</t>
+  </si>
+  <si>
+    <t>88e1ab94-3f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>竹居税務会計・行政書士事務所</t>
+  </si>
+  <si>
+    <t>確認後回答(部内)</t>
+  </si>
+  <si>
+    <t>q+575tXGelcCZ9ubXcn/RHZmUbGgDmQlacWUXrdUdMjuvs97T6Z1+FpTGcjUVxwIfdcHxaZCV1FwGAE3NCh/6A==</t>
+  </si>
+  <si>
+    <t>SRB投稿（要望）</t>
+  </si>
+  <si>
+    <t>kYqaaK6bWY2ITBiHuTjExhgojFLsdGY2w92Lc1Gx71LktQ+VAZumf/XaoL2hG5H2zuniaatBzD7F0AJMnOd9Sw==</t>
+  </si>
+  <si>
+    <t>xfKAW7yksXAwCQCa/GTcwjdSvfQTLjHwOwIH2AdXmy7B+nXVI5WhRwrQ5NPsVKVAZsaq6KLy671BAG1jlJx3kA==</t>
+  </si>
+  <si>
+    <t>e4e10681-4051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人 土谷会計事務所</t>
+  </si>
+  <si>
+    <t>C0QWSt082qtKm1DPYtd194e1xxSJzah8UV4DtqQIMO7IYv47U/6kgbfnydbJgWYQPeV7M/5nAHiPoqe41hH+3Q==</t>
+  </si>
+  <si>
+    <t>BvHk+oy9BAquuO3T2YzWtC+o6A/Lb0uQ+DPbJGooZMEso0Kktf0fDxTV95F56sWZbx+1mX7440XNHa7xZp0bsg==</t>
+  </si>
+  <si>
+    <t>AkwXzPKEElvgyWW8b6OxtcwPG1UgRg2/qKNZcSTQQuIwETjouJNdna47RFHYSt+RPzUhEbnvAx9PriuPfAJUyQ==</t>
+  </si>
+  <si>
+    <t>a6dc43bc-4251-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>菅谷税理士事務所</t>
+  </si>
+  <si>
+    <t>D8AkhPwaBX57v2gAIE0R+m7SUUL1SHuTYECaO/4t8C+o/t+T0wXNnJeMizvC3ZvGUNPxNYQUbG+uH4hn6yfr4w==</t>
+  </si>
+  <si>
+    <t>hDZf0kfixfKD4prhat3GKKA8cSJmKIG8WKzB+a40kznMPnbK5tMkEZ+bYR7YNO4iK3LFUinDjsXPhOQIl8/jwQ==</t>
+  </si>
+  <si>
+    <t>9hM/ztiOJQ933BzsI7t7x14jk+pTt4WjDDqO91C6O1w3it+efHNMkUMtgw+NApSJpwg/CyQ2hBI9RBs0yoBnQg==</t>
+  </si>
+  <si>
+    <t>b113a255-4351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>社会福祉法人 恵康会</t>
+  </si>
+  <si>
+    <t>aa13a255-4351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>湯浅税理士事務所</t>
+  </si>
+  <si>
+    <t>978a6884-4351-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>株式会社 大成エンジニア 糸満営業所</t>
+  </si>
+  <si>
+    <t>896e3ff0-4351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus共通</t>
+  </si>
+  <si>
+    <t>68d1e4d8-4351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>e37cd0ff-4351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>平博成税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-CE会計</t>
+  </si>
+  <si>
+    <t>nYBudFxU6+E2ZhWd4X+jWjwpKxbckMo9+fHwh0vi8QBbWp+1v2NstLarbCOA5s8MTZYCKoMiWzsS33tjVbNulQ==</t>
+  </si>
+  <si>
+    <t>PCEK+kQDupniv/sfGGRdTppK1CTZrA9QLJI/E6ln2HPXGYFoQUw/OwGHAq5Lxuz9099Vr/i3jDOw4w7fI4bYsQ==</t>
+  </si>
+  <si>
+    <t>7e8c7675-4551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>6dd581e0-4551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>StanRiver税理士法人</t>
+  </si>
+  <si>
+    <t>831673fd-4551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>喜久山定男税理士事務所</t>
+  </si>
+  <si>
+    <t>s3Hro32l18z5KX++iqcvUfzsPytkRYdxE8KtQte1sGftEANYyYwidQETad1DlocpJwlHZsMul3xYvffYQN/dcA==</t>
+  </si>
+  <si>
+    <t>xe8h00LDee9Py+9im8hoYfhLlxQ3TYHTgifF1vBIh6XZxNfN+yg2j+lge7bzTodOjrVBpM2dq6GjweetJHmiLw==</t>
+  </si>
+  <si>
+    <t>512e9f6a-4651-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>909a7d5f-4651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人松澤毛利会計</t>
+  </si>
+  <si>
+    <t>a06bcbb7-4651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>かんたん！一般入電</t>
+  </si>
+  <si>
+    <t>h7RClg2FU65e0PdBkl/BzEvHiseXW91A1BZknVUJWbik2XUB0k1tAFOpV9Iv1p6wkGZJ11rwgT6R3KUkGwVKmA==</t>
+  </si>
+  <si>
+    <t>TKWQVcOMtfXsOnkoKNN+2J8lTtN4pBgPYcbL0O85wXXZL9ovYAHPVBVC6V47sgqIB+FmfOf2iG4VdOaOP9p3RQ==</t>
+  </si>
+  <si>
+    <t>b5d53197-4751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>九大前不動産株式会社</t>
+  </si>
+  <si>
+    <t>c3d19600-4851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医療法人社団史祥会 </t>
+  </si>
+  <si>
+    <t>日時予約</t>
+  </si>
+  <si>
+    <t>2b89d9f6-4751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>大野税理士事務所</t>
+  </si>
+  <si>
+    <t>fc9dda1d-4851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Zn7Ym2H5/XhlgYTm+NHhsrZsm3l0EvUEunypeZsdFkfZKtBy+k8M60KHQ5wjZX5GSOxI86/urM30VO0gY/IVCA==</t>
+  </si>
+  <si>
+    <t>明田川裕之税理士事務所</t>
+  </si>
+  <si>
+    <t>hﾊｰﾄﾞ・OS関連</t>
+  </si>
+  <si>
+    <t>DVcusKlTOAHkC4H9iwfdcAgY52OZqt3FoHt70lB8zfL0zwXwGdUzU428ubSxldDj4Siv0BjwakrgiCYeNxK0jw==</t>
+  </si>
+  <si>
+    <t>pfI69heKNBPbR/Qm+mVzLz49UWBk2Nn9OM33UEk6GNocz6aziI57WLElJR/eltWVLPlPSIe9PJAQqRnbbTvVrA==</t>
+  </si>
+  <si>
+    <t>IgQgETmOdCcXVQWWuz8Bp+Au/xktd1WPRxKOCr/44uk9dBlfYE2pPUMS4MVnmU26Or4mFUF4tBOOyAkvYgOT7Q==</t>
+  </si>
+  <si>
+    <t>VEMAU2nfuKaYyaDH6Xlh9TnmGuXLENC0SIX0NQ3DaDsRRK/2STkZ29IrrWFXseKiZH7boHeunvK/QgZIChgbGw==</t>
+  </si>
+  <si>
+    <t>77aa8d33-4951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>bU6a7tQEwb27wVAd18aQPG3lmjr8/w3jw5dk1257CtYOP4Uld1NahC+QPIjP0fGhwog7cpJQVcvLoXzznj8BdA==</t>
+  </si>
+  <si>
+    <t>他ｸﾞﾙｰﾌﾟ依頼</t>
+  </si>
+  <si>
+    <t>6e6fc983-4951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>てづか税理士事務所</t>
+  </si>
+  <si>
+    <t>a1HSbJk7ykhUm1sBDFxT6D4lNMgD5v+fVfJ7HzdeKHx4A6mAy3qjIdiS9BHd40aJQj4vAsDZPLfUUST19QVqLQ==</t>
+  </si>
+  <si>
+    <t>ZDD8OupNVwSW+L4pKKt89c0czD6cK4fgbUzGecryqqVVW2avC7ge6dUSsquRt9kC5DvgQrv+7baDwxweALe80g==</t>
+  </si>
+  <si>
+    <t>04ZfrJ+9My1DZl6GVFjhTh/TMctvEDd4ET4SLXxzY/VyLM0fFOcJSTiDCw4jlhl664WfSojuVBED0LSWIIMtPA==</t>
+  </si>
+  <si>
+    <t>27a2acb5-4a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 坂田計算センター</t>
+  </si>
+  <si>
+    <t>9a7a5812-4b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 結南クリーンセンター</t>
+  </si>
+  <si>
+    <t>a3f0eb02-4b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>栗栖英俊。税理士事務所</t>
+  </si>
+  <si>
+    <t>7aoHLF93f0ANA30s8/4//XHIQI9eSkfcBA5Sf0P2pPd6xzvQOEMZ5B0e2/AS84n7zsUWfB4R/1cjbTkW0dh95w==</t>
+  </si>
+  <si>
+    <t>e4246a8c-4b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>9915dced-4b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社ファーストマネージメント</t>
+  </si>
+  <si>
+    <t>RhfhLXtKxgQolY5v8tUySEIxIR8xl/woJtgVM3AlkAsp79ZICtl12xz5P85R9l7KZZglZfWt6sW9t8obtN7JTQ==</t>
+  </si>
+  <si>
+    <t>234hjH2mQT8XZShXOuh/9mDkvRGmWgvkh9jOcpqW7/K+F5luDYK9SHqiLAENMqPJ3HSMMz5ioFXFdAFrZHVLrQ==</t>
+  </si>
+  <si>
+    <t>qW2txe53m4XsgyqpuAGDEmn1ECsdFFlVJ6QfBmKuzadpY8ws5GDlYDQ1HvJ+Qxpjp0EF7+AtAoKKeB58gmw4FA==</t>
+  </si>
+  <si>
+    <t>F7kRyPvB8i6KYAQuXUfTMgr8cEoyCMYDV501Zw0dypSejJhqoV7bvqfqR68j17SnuTseVx3raRh1rQ2lWtxHpw==</t>
+  </si>
+  <si>
+    <t>10WTZHXRXRakjElPcmLUejX2W/QIxuxalUDYLVpB9kywYVfwrfF/zwuVF60W6vrLJzuUrfZBYIaoNhG59uN5Jg==</t>
+  </si>
+  <si>
+    <t>24bc5c1a-4d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>大津映子税理士事務所</t>
+  </si>
+  <si>
+    <t>973c5714-4d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>IJnUBJBsk++B0ahnmud93RFGq19R6AznKX9V/16mfiAOg9SpGTD9kV/QYkrmU4OCnuLlfLZd6ObYlreb5ZoBTg==</t>
+  </si>
+  <si>
+    <t>a7d07e6a-4e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ba370e58-4e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>kFkMXodVq9whtqkl5yj94Ldej9akkVY6V6EF3yOcHYGbRa8nfScCw8jLvlEx3m3/xwUQNZZG83dogzK/evUALg==</t>
+  </si>
+  <si>
+    <t>5d3baf76-4e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>伊藤千鶴税理士事務所</t>
+  </si>
+  <si>
+    <t>4f70edd2-4e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社アサショウ</t>
+  </si>
+  <si>
+    <t>wm4kPOrMvCOyVxzbPw2w2CtyPITqKi/2eATFsxFn+WCDxGlM1lA4FDzyod/Tw/+Q7f4314K+KuSPfR+jAG46QA==</t>
+  </si>
+  <si>
+    <t>d12400f8-4e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 クオリティ</t>
+  </si>
+  <si>
+    <t>e3e66106-4f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>石井香織税理士事務所</t>
+  </si>
+  <si>
+    <t>vy2rrMmmsVVh6jdrTRSnlfatuHwQpzyPSWthorZxUeLF+/f3KaEva+8PM8GPJaKu57TNzWrDYPHSizEkwQqGuw==</t>
+  </si>
+  <si>
+    <t>4UkXRlXCLfoEuG4QFrWVWQQA0QEsG0fg3aKeSrnpe+S3sQMRICUQSAAd3i1g8rR7a5R61lf+i/V/z6A2ezEfMQ==</t>
+  </si>
+  <si>
+    <t>beHIwwiaprkfRea63fQLcZ0VnMBgqIYNR2MhZ2Cam6/+LeiiatLoy/tYgZX+09h8fCktrmws+dw4rwOek46wpA==</t>
+  </si>
+  <si>
+    <t>RwLjo1YK5pLM8Aq+Vt7z8wVg3+w5Y8aayYIbKt5++JdDIwx1xjeE4SkLTjga4jk82T1suQgDki1wLKRFCzzviw==</t>
+  </si>
+  <si>
+    <t>jdDGbN8Bvv0cLBXT0ZEQXa5d3Ofz1fnvoPfELXj8TpUIIHfxJpqIATe6birXgZh0Qq0kO9q6TNNoLSl2F8mzeg==</t>
+  </si>
+  <si>
+    <t>eddbaa6c-5251-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>田畑 清典 税理士事務所</t>
+  </si>
+  <si>
+    <t>9ebfc135-5351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>97bfc135-5351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>黒坂 勇貴</t>
+  </si>
+  <si>
+    <t>w4L6GwU+xULvSZOt8VmyN68mNoChdNX8Mb+k+zcggIihw8JTMtMidyD0NSH22upTLF6XPexzZrkcilJmcY0LhQ==</t>
+  </si>
+  <si>
+    <t>wP+xbegkm4ZmaaBbYTTaRsPnZUBRu047MVKOQFUpz4ZIZcRiaYi/SFzebk2Dpf1nbhiYe8DIsM1WSuzUZauwGA==</t>
+  </si>
+  <si>
+    <t>408d0483-5351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人 日本綜研</t>
+  </si>
+  <si>
+    <t>16bdccaf-5351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>林貞治税理士事務所</t>
+  </si>
+  <si>
+    <t>706628a9-5351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 藤商事</t>
+  </si>
+  <si>
+    <t>nlFpS1bePbVhFb2npRWl3+314fFsillIn66CxjwWmHxUiWbTiHCisxJKzHLtzmu/XCMnMvgpT+uqHSgkG+Dl+w==</t>
+  </si>
+  <si>
+    <t>tUqnpvTUgbPJoOBML7sEacXXvd5JhTwdKjz7x4ucYCcCgxC1Gm0+ymOlqWghQdH1mw3WOydH1gSZ0IgIso7tcg==</t>
+  </si>
+  <si>
+    <t>622fe3d0-5451-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>南出利之税理士事務所</t>
+  </si>
+  <si>
+    <t>f4355a15-5551-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>0c35c536-5551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ミカタ税理士法人</t>
+  </si>
+  <si>
+    <t>91a13e50-5551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 川上板金工業所</t>
+  </si>
+  <si>
+    <t>somBiM4wTVRvfVl5hQcfy2bEE+wrQ3d5M4DON4WjUc4AyOefp5y5FOnIzPlvOcRW0x/41jnRzB82ZJeOsUrMYQ==</t>
+  </si>
+  <si>
+    <t>ed76ca86-5651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>bc7094f8-5651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>rUygDWg3nusOFkrQ3XcUE/tm++Oydu5rzdNQw4XvQVE5BkMvMHcVm+31PpsGmrZhtYET4pUPC8VnBegKfGL94g==</t>
+  </si>
+  <si>
+    <t>Ire6opMwR+5DSDp27pbnmGEl3b2LADDJEaLPtpgXSehariZ1TI8Vxn/BNCrUDiLDTGscJsQKhoJ4ze2poXQE5A==</t>
+  </si>
+  <si>
+    <t>c7bvuA00xQF8W5XVE4a5NzDVn+wmPmXnDLdkI0C4M0PPbMCZsKSk4m8PDOWj3uVz+sSXrLhG0USLwC+VemipEg==</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>3da10699-5751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ZkAtIp1DkSU/Uhje+EVbsHvb2jpYZ5b9q9dSfJ5wtqQ8MGONMxeiDP5A07mO/uDntjxka2PXd7gK2RxMyDCaVA==</t>
+  </si>
+  <si>
+    <t>cAOvZx2IbGfeKbASVl0wGqU3GU8IbUx7KbQuciTDnJbe1907eGGOVktKgzWfW6/Zuh6QwdfL21wDmhrf04G+LQ==</t>
+  </si>
+  <si>
+    <t>yCmJuLyxsCn9A7rDNbqAuPOMFoLkw4QFhNZ6VFAh6Hr/qLKeM/AhK/9BAifYOqAPDyb1c/LfP9XlO1otahuzog==</t>
+  </si>
+  <si>
+    <t>5QPeo++SnNsAa047db6AJFVNLR+6gsX4P7/bEB6JMj0LubjB/+s3rb1d1HwUpQk0aYBDbqzYNYX1iB4WMm/ZIQ==</t>
+  </si>
+  <si>
+    <t>12Ls34K0qSYpu1PT5oly7tF5HDpHEEOuCDPvuDnAvvco230YI4QaZaHok2jmP0rX8r4wRTYPX7m49lgEuM70tg==</t>
+  </si>
+  <si>
+    <t>8d4cc43e-5851-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>ysOjO2krdeLzL+E3Xwhv2IRkC2aEaUJu1r74qSxpLcnnGwQa/v6IYidDZmKcX/QjMwPz5lDWXDYiVEmTD8ZnPA==</t>
+  </si>
+  <si>
+    <t>7bde816f-5851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>山口テレコム 株式会社</t>
+  </si>
+  <si>
+    <t>I4dDepzuBhRFC6ZGZ28d8IBNSZbExGOAooUQz2JNpgV1ChXJDWzrz6lJFxkEjvoY0pLn5kQis+mRSorjIwmKbw==</t>
+  </si>
+  <si>
+    <t>c4d0b7fd-5851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>90ca838d-6e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>p1HTAZ/t1a3wsvsx19l95cHBkJHQBP6y9ozSIUCV8xg5xCNdLHIlV2i77HVFuVqSrRrokv0F0i4VittG4Ndhnw==</t>
+  </si>
+  <si>
+    <t>株式会社 横浜ハーベスト</t>
+  </si>
+  <si>
+    <t>06c4c841-6e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>2iEOeSrCNbwiSar5rXR5YyI7kffLBOovf7Hmt+KICFFNm7KqXWRvKVEnxjK2U1fslTDLY10G7HTijKgKCNyBVg==</t>
+  </si>
+  <si>
+    <t>MC税理士法人</t>
+  </si>
+  <si>
+    <t>57f56a0f-6e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>L6o/xPl0keVJMNjqVurb2LibeYf0mpH973A4cMszwXwyxYF3TXulp62r5Pa8FU4bPzciDdXCEOmi0Oyq91vAaQ==</t>
+  </si>
+  <si>
+    <t>株式会社 はれコーポレーション</t>
+  </si>
+  <si>
+    <t>cafa75d7-6d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>0d6940d0-6d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ZulvXewh0Xg8sM6uCYL+/cU0qzz+x9KlBWX+Kwp4/yMOVy9lmfHP806TY+i9W2WgB0hLBBp7npAIPQMNlcKL8Q==</t>
+  </si>
+  <si>
+    <t>株式会社ジー・キューブ</t>
+  </si>
+  <si>
+    <t>4b075289-6d51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>WpK+RxGd7tTwqtLZdDDVzjkasfnGggoKY+Pl7uGEWuSchRcgNNAg7nGWejFnh5IG29/FoY4HJtiAbbmahnNoOA==</t>
+  </si>
+  <si>
+    <t>税理士法人丸岡&amp;パートナーズ</t>
+  </si>
+  <si>
+    <t>e9d56ae6-6c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>6QAcBfyQ2/09z+nx/3NdADxHyt3AB98wrh18WsQ40Keg/Ev3P25oh8O8+FLw5dooABeMyJkn6A2pHKvhkWXXnA==</t>
+  </si>
+  <si>
+    <t>株式会社市進ホールディングス</t>
+  </si>
+  <si>
+    <t>GalileoptNX-Plus財務</t>
+  </si>
+  <si>
+    <t>11868609-6c51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>L/k2KAeGQY3Jo9opxVmBlLMxDG8qmLzxJK217+YmfAElQ5W6f6dAOJdOSAtEmsMRISgiOaHxemNn8Wo3AttqkA==</t>
+  </si>
+  <si>
+    <t>粒崎幸夫税理士事務所</t>
+  </si>
+  <si>
+    <t>f9137fb6-6b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ImG/IhugIgd2y5oUC2utX8SUCCwCgladxVuN2PBCyNoKgdTwEaLDZ87Sfhyri+cPBs1eR2oZvW8peN1wVV9xGw==</t>
+  </si>
+  <si>
+    <t>有限会社 タクセスビューロー</t>
+  </si>
+  <si>
+    <t>92198bab-6b51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>GVCuMpysVt9OXzQHSSoe2UZMgg5UIwaNeTdP20ZD4OgdcvXlx5OhFiMlNl2U4TA8UDkGA3NSQwWy524zGMaHYQ==</t>
+  </si>
+  <si>
+    <t>株式会社 ハスコムモバイル</t>
+  </si>
+  <si>
+    <t>3886a6b7-6a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>RWi4WBtRH2tcMtwxlwTG11e2BYMbpPU6KW6c6/dx3k5gcVQLtEti4LiNHe2N0f5HLHD4X9icrHnVf88VKiQyPA==</t>
+  </si>
+  <si>
+    <t>合同会社EINコンサル</t>
+  </si>
+  <si>
+    <t>37a0d459-6a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>YVQZHCSH9wg/pzIoqRkEmix2Q5xHhzj5xZEOHQNX5Cuqnmynmwu/R0EGYjIjcaKoISwlfatHu76mYr9u65MS7Q==</t>
+  </si>
+  <si>
+    <t>畑野税務会計事務所</t>
+  </si>
+  <si>
+    <t>e522f0ba-6951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>OsO5POwMX3nlokVXTBjlb7Vy9ffAKa3Yk73jGg++Rrdh8vpLlD8WSiMC9dewF+7pGAmZcUb7ORZu4CQbZMfCtw==</t>
+  </si>
+  <si>
+    <t>三井税務会計事務所</t>
+  </si>
+  <si>
+    <t>150195f4-6851-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>CX/zIxIHfUaODVLncQ7xTxXlSdLO0nHoPcwbj/SJb4reIBseUgSqUK8PCdce4+HAPH2zFhC3UVkMmF2l9NPmRw==</t>
+  </si>
+  <si>
+    <t>重久善一公認会計士事務所</t>
+  </si>
+  <si>
+    <t>ace63ac0-6751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>HAQty53Jfwp01I4qPNykr/FlNNB1tSHI9FnLzEIiwm+Q9MttvZDXWsQFPYLJwd//i4M7+mnIO4d3LiLNuOUKrw==</t>
+  </si>
+  <si>
+    <t>村田千紘税理士事務所</t>
+  </si>
+  <si>
+    <t>150f5c13-6751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>fZ5YYtypO4uU3AZRtewRkHm7qRd4ml7J2Er1RCUWoRtT3cyG1t0RsPGQhiA2NlzYl0MbyPNsHVU9UEfvbPqT1w==</t>
+  </si>
+  <si>
+    <t>福冨留里子税理士事務所</t>
+  </si>
+  <si>
+    <t>981daa24-6551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>BgfFqqG1drOFuT/OX5N0Gw4LfPoIoT6pnWQNny5BnsB3/w+ja2F1Mfbew2Zl8tt0if2Z7AfTHnu6UJqT55rH9g==</t>
+  </si>
+  <si>
+    <t>iCompassNX</t>
+  </si>
+  <si>
+    <t>34252111-6551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>JdWgeTWBf7UwMjAhqcgmjTpnTYbXkwTdeB6n9MYtojFvhhggyL+F2GzlYuIwFQEUZ3vSLq58DxTeyG/AmZUZxw==</t>
+  </si>
+  <si>
+    <t>80e682d4-6351-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>mLIA6cherColl9xUR7nBoJhhO4yq3VtH9rOYM3wKx5dpmVibQ1RyNOWZ6Xss/ibygj1bKYAVJ+RDkrWll4fhoA==</t>
+  </si>
+  <si>
+    <t>平井 文夫税理士事務所</t>
+  </si>
+  <si>
+    <t>07ac6485-6251-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>rh3sVYsbNrpPtFcnI43s69HUcWkiguegitzTcdYdwILgsYxdol9sOQ+zz/SR60vZgRQBdU3Dsp+vMyWD6bDaLg==</t>
+  </si>
+  <si>
+    <t>株式会社小松物産</t>
+  </si>
+  <si>
+    <t>かんたん!ｼﾘｰｽﾞ</t>
+  </si>
+  <si>
+    <t>894c01cf-6151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>mTuLVN7U2vli1xayEr5ZALYFqixOkN68KF+EHs8zzgOFJqJL2Pgje7F65SsM+VT3QYcnWHx/te5nRd8BmG0yiQ==</t>
+  </si>
+  <si>
+    <t>西村 正史税理士事務所</t>
+  </si>
+  <si>
+    <t>f03644c8-6151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Mf5vqcS3QlpYkTNMgIVNmtoc4ZVFXWs9OmG00XqLhzY3ZakSik0bvwotS/B2AqcAQksgPpl7B7/cgJB2EqeJmw==</t>
+  </si>
+  <si>
+    <t>山口正人税理士事務所</t>
+  </si>
+  <si>
+    <t>f6a32016-6151-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>kG/AxDt+Gol4Pvy/2yl/S9HCUAaPY8q9u+0tpFRz0Ia9FaMI/I6NVww0NQhe5ZRsjhoBYfmnTltWGmxlRfZG1w==</t>
+  </si>
+  <si>
+    <t>赤井裕和税理士事務所</t>
+  </si>
+  <si>
+    <t>d704cd16-6051-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>KfM3irdOvpdQR8kQKth4IJoFyDeBqIrDiZXC0n+DFwUKD3Uq0ZyikYgf+otTQOCxUlw08+cExFWLZMPM20FIHg==</t>
+  </si>
+  <si>
+    <t>0804a18b-5f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>wMLvw3sD+WJ8Q/pwe9qSLaxrSyNPL7WZn8rVs0nq7ra/8QxgO7+Qt2AgghwryC8agS1LVBSvLyZy3QsRHewKhQ==</t>
+  </si>
+  <si>
+    <t>e86cb068-5f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>zTOTxuIypdkAEUIMKKo6JeAo/DrgzUz8ROC5AmixjSU2ATlcXIdqhDnMID6lUh9cBGZ7CMH6vQAAA3jDw4kRfQ==</t>
+  </si>
+  <si>
+    <t>ライス税理士事務所</t>
+  </si>
+  <si>
+    <t>c542161e-5f51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>3kZqLc+Ee2gNrjLY/xAxJL85V1hUyGq7dlshWbmeXRjhMW/CgN0jB7VuIhbtJmEzp5KNCIg1XA7bmjW5Clrf4g==</t>
+  </si>
+  <si>
+    <t>平 浩税理士事務所</t>
+  </si>
+  <si>
+    <t>91b8223b-5e51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>OhY8n91l2cf5gwp0mIGVSKpL95t0yIy3gVKr5HFIq9vZzXODbL9tlwx4XLdNRZidSfNnODJoO3GDDZn1rYWbBg==</t>
+  </si>
+  <si>
+    <t>佐久間敏夫</t>
+  </si>
+  <si>
+    <t>7d639cf7-5a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>9yRVmwsNxnSKPDq0pXm1BXdLKxr9MDHfTmPi7pwBAgd516wdPemzH/MWzv9KaJ7g29DK8ZBlLTo7VR570a0r+w==</t>
+  </si>
+  <si>
+    <t>税理士法人 上坂会計</t>
+  </si>
+  <si>
+    <t>76639cf7-5a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>VXaw15UvhwbTitqASLZv8iCwqZpV0suSYbLaEfoaldWyp3wl+ogVC4ZOnZX/+wXQRvduYzqeuDEhGn/ofNIQFA==</t>
+  </si>
+  <si>
+    <t>沼田税理士事務所</t>
+  </si>
+  <si>
+    <t>d14b08d3-5a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>akZ4NlIzrlWQwxfWfn8o6tACDVEtnp5bySmvmghkfgHOAtecM4VYNJFc3Kny4cdJIOQnq2kDtA1kYR2xceDibQ==</t>
+  </si>
+  <si>
+    <t>e15c11a6-5a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>ZCmyZ+wxtMnLnC1T48prMsRVgw2Svxg+5U+brLov7ubcOXmdzyJ3zr5s/3Mt7uG6A3Wt6CKUGkPDUdoCk6xACA==</t>
+  </si>
+  <si>
+    <t>石田 税務会計事務所</t>
+  </si>
+  <si>
+    <t>fb3fb41a-5a51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>2/P/yDr6RXLm1E8nWUh/NuR2TC/wb82FxmR1MYsDRxoOOfygAIZgD1a+rVYYhHJv5RjW/y6/8qmGt8qt9+K4cw==</t>
+  </si>
+  <si>
+    <t>株式会社木の力</t>
+  </si>
+  <si>
+    <t>003e9ee7-5951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>tyBR+6BMGmRzkVAq7sTS/Y5Gige5JmICEFUKQe02FjGT90aoFX5vrAi2iKsq2LNynP+hVLtWzd2q75jL1OJD5Q==</t>
+  </si>
+  <si>
+    <t>株式会社 トラストスタッフ</t>
+  </si>
+  <si>
+    <t>a9e196df-5951-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>9m0F9rgZHJcOkya+wAUSiTMB1Wc5ebAmEA9Xes5z3r4nKn5W6SNA31SrDAy+Z4tDRB+3hF3F6Rh37/2MlTpI6A==</t>
+  </si>
+  <si>
+    <t>川崎医療生活協同組合</t>
+  </si>
+  <si>
+    <t>05REB6QEzTW5TVYMuZZr6OUiNoCuuX3awuCDUlSniaJVGjnhRux6E/pvhL33hRm9x0qldgDRV13MaG8SPX7tkg==</t>
+  </si>
+  <si>
+    <t>aW8E8Mwx5cFh42rjUST/lJtxiapTZWr4M7rWcMLRqeCi+WNYjxNSRTaEfYiN6HZ0Mh9kbuIYJez/fCizFX/UCw==</t>
+  </si>
+  <si>
+    <t>OisNdMNjSNDWet6+BecsVeZThyTcJ9OXo01fhs2NuN2HAntxTiID+3QKMqKCEnM5KLfnCUDxVIEj9d5cdt/0QQ==</t>
+  </si>
+  <si>
+    <t>r6GF6y9gdbZS0KsmZju9n1JIpnxEHorPwczwO56LYJVuthQdgE4PTPObVL4PKx1UVcXg5KnEMekkSar0Qlwr4g==</t>
+  </si>
+  <si>
+    <t>Y46Oh5Wgit3Zwt8qAyxpNKtvMFKQk5lIo2uH9gtKxn96SjbHZAmef3IFgWILKhhG84LPFoo12SkcMBkWnWHowA==</t>
+  </si>
+  <si>
+    <t>TzAzR5hAir0scPTzWbWkCivVLFqc18iyvrtEgDqLKR4wUAU6qhMOMg6t4xsoCE/0EQZATTi9D45T2h5UyDsYRA==</t>
+  </si>
+  <si>
+    <t>aI1YWbcdm7PFqn4NO4ANKdcKFM0RU9OlQO9kNQ8P+dPA4uVQBVy3gcV8sGz2yiHQftI7zQg6B0zeZ8OtMprgQg==</t>
+  </si>
+  <si>
+    <t>8PKGViWzmF1ypLaIQZ367u5YT1wHjQt5mDFA8xDj0IPjg4DMovLFu7vndwpUOXw/HfHTgH+QaeJ/mHQMDJDG0Q==</t>
+  </si>
+  <si>
+    <t>対応中</t>
+  </si>
+  <si>
+    <t>LD/et0Ay1GEuMP64eIv4TEtWOvy2b8QcfgIgGLS2pMSKW6Xd0dm/k9QMfE/gF1z12guk4jLQFYWjWYnDfbJLHA==</t>
+  </si>
+  <si>
+    <t>6K/TdeGzPw08GQ8FSvG7krbICsHBHM051kea3R/wcBFiIf0/gOMgdzKvMBkIeEYIAaifg8s/1tfzil70y0mMIw==</t>
   </si>
 </sst>
 </file>
@@ -635,50 +1916,50 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="C2" s="9">
-        <v>45507.303668981498</v>
+        <v>45507.716238425899</v>
       </c>
       <c r="D2" s="8">
-        <v>11733973</v>
+        <v>11734111</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G2" s="10">
-        <v>45507.303657407399</v>
+        <v>45507.709189814799</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="C3" s="9">
-        <v>45507.053078703699</v>
+        <v>45507.708067129599</v>
       </c>
       <c r="D3" s="8">
-        <v>11733972</v>
+        <v>11734110</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>28</v>
@@ -687,44 +1968,44 @@
         <v>29</v>
       </c>
       <c r="G3" s="10">
-        <v>45507.053078703699</v>
+        <v>45507.707719907397</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="C4" s="9">
-        <v>45507.001643518503</v>
+        <v>45507.715810185196</v>
       </c>
       <c r="D4" s="8">
-        <v>11733971</v>
+        <v>11734109</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G4" s="10">
-        <v>45507.0016203704</v>
+        <v>45507.706736111097</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>31</v>
@@ -732,1940 +2013,4692 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45507.721921296303</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11734108</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="10">
+        <v>45507.705659722204</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45507.7129166667</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11734107</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45507.7055092593</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45507.704490740703</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11734106</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10">
+        <v>45507.704131944403</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45507.701365740701</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11734105</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10">
+        <v>45507.700972222199</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45507.701979166697</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11734104</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="10">
+        <v>45507.696689814802</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45507.708634259303</v>
+      </c>
+      <c r="D10" s="8">
+        <v>11734103</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45507.695069444402</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45507.702754629601</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11734102</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45507.6948611111</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45507.7104398148</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11734101</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="10">
+        <v>45507.690127314803</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45507.691747685203</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11734100</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10">
+        <v>45507.688391203701</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45507.697592592602</v>
+      </c>
+      <c r="D14" s="8">
+        <v>11734099</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10">
+        <v>45507.685219907398</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45507.696863425903</v>
+      </c>
+      <c r="D15" s="8">
+        <v>11734098</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10">
+        <v>45507.681365740696</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45507.680798611102</v>
+      </c>
+      <c r="D16" s="8">
+        <v>11734097</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10">
+        <v>45507.675381944398</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45507.684386574103</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11734096</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45507.672025462998</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45507.671400462998</v>
+      </c>
+      <c r="D18" s="8">
+        <v>11734095</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="10">
+        <v>45507.662418981497</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45507.6641087963</v>
+      </c>
+      <c r="D19" s="8">
+        <v>11734094</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45507.662141203698</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45507.659016203703</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11734093</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="10">
+        <v>45507.6558912037</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="A21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="9">
+        <v>45507.675300925897</v>
+      </c>
+      <c r="D21" s="8">
+        <v>11734092</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="10">
+        <v>45507.649375000001</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45507.657303240703</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11734091</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10">
+        <v>45507.645833333299</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45507.6507291667</v>
+      </c>
+      <c r="D23" s="8">
+        <v>11734090</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10">
+        <v>45507.645706018498</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45507.652210648201</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11734089</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="10">
+        <v>45507.642337963</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45507.645289351902</v>
+      </c>
+      <c r="D25" s="8">
+        <v>11734088</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
+        <v>45507.637384259302</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="9">
+        <v>45507.689675925903</v>
+      </c>
+      <c r="D26" s="8">
+        <v>11734087</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10">
+        <v>45507.634583333303</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="9">
+        <v>45507.641898148097</v>
+      </c>
+      <c r="D27" s="8">
+        <v>11734086</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10">
+        <v>45507.633912037003</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" s="9">
+        <v>45507.638449074097</v>
+      </c>
+      <c r="D28" s="8">
+        <v>11734085</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="10">
+        <v>45507.632465277798</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45507.673564814802</v>
+      </c>
+      <c r="D29" s="8">
+        <v>11734084</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="10">
+        <v>45507.628113425897</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45507.623576388898</v>
+      </c>
+      <c r="D30" s="8">
+        <v>11734083</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="10">
+        <v>45507.611898148098</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="9">
+        <v>45507.615497685198</v>
+      </c>
+      <c r="D31" s="8">
+        <v>11734082</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="10">
+        <v>45507.611828703702</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="9">
+        <v>45507.627974536997</v>
+      </c>
+      <c r="D32" s="8">
+        <v>11734081</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="10">
+        <v>45507.611122685201</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="9">
+        <v>45507.6176388889</v>
+      </c>
+      <c r="D33" s="8">
+        <v>11734080</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="10">
+        <v>45507.610243055598</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="9">
+        <v>45507.617106481499</v>
+      </c>
+      <c r="D34" s="8">
+        <v>11734079</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="10">
+        <v>45507.607534722199</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="9">
+        <v>45507.637291666702</v>
+      </c>
+      <c r="D35" s="8">
+        <v>11734078</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="10">
+        <v>45507.606550925899</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C36" s="9">
+        <v>45507.615104166704</v>
+      </c>
+      <c r="D36" s="8">
+        <v>11734077</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="10">
+        <v>45507.606388888897</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" s="9">
+        <v>45507.617662037002</v>
+      </c>
+      <c r="D37" s="8">
+        <v>11734076</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="10">
+        <v>45507.602002314801</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="9">
+        <v>45507.608530092599</v>
+      </c>
+      <c r="D38" s="8">
+        <v>11734075</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="10">
+        <v>45507.599247685197</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="9">
+        <v>45507.598298611098</v>
+      </c>
+      <c r="D39" s="8">
+        <v>11734074</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="10">
+        <v>45507.598298611098</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C40" s="9">
+        <v>45507.607627314799</v>
+      </c>
+      <c r="D40" s="8">
+        <v>11734073</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="10">
+        <v>45507.595081018502</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45507.6265740741</v>
+      </c>
+      <c r="D41" s="8">
+        <v>11734072</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="10">
+        <v>45507.591967592598</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="A42" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="9">
+        <v>45507.593865740702</v>
+      </c>
+      <c r="D42" s="8">
+        <v>11734071</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="10">
+        <v>45507.589861111097</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45507.597800925898</v>
+      </c>
+      <c r="D43" s="8">
+        <v>11734070</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="10">
+        <v>45507.583726851903</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="A44" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45507.592523148101</v>
+      </c>
+      <c r="D44" s="8">
+        <v>11734069</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="10">
+        <v>45507.583229166703</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45507.596203703702</v>
+      </c>
+      <c r="D45" s="8">
+        <v>11734068</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="10">
+        <v>45507.582581018498</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="A46" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="9">
+        <v>45507.601041666698</v>
+      </c>
+      <c r="D46" s="8">
+        <v>11734067</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="10">
+        <v>45507.581250000003</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="L46" s="8" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="A47" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45507.5857986111</v>
+      </c>
+      <c r="D47" s="8">
+        <v>11734066</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="10">
+        <v>45507.575636574104</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="L47" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="A48" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="9">
+        <v>45507.578831018502</v>
+      </c>
+      <c r="D48" s="8">
+        <v>11734065</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="10">
+        <v>45507.575509259303</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45507.594907407401</v>
+      </c>
+      <c r="D49" s="8">
+        <v>11734064</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="10">
+        <v>45507.574768518498</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="L49" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="A50" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45507.597210648099</v>
+      </c>
+      <c r="D50" s="8">
+        <v>11734063</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="10">
+        <v>45507.573275463001</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="A51" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45507.577893518501</v>
+      </c>
+      <c r="D51" s="8">
+        <v>11734062</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="10">
+        <v>45507.573263888902</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="L51" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="A52" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45507.573333333297</v>
+      </c>
+      <c r="D52" s="8">
+        <v>11734061</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="10">
+        <v>45507.569398148102</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45507.563819444404</v>
+      </c>
+      <c r="D53" s="8">
+        <v>11734060</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="10">
+        <v>45507.552488425899</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="L53" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="A54" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="9">
+        <v>45507.574537036999</v>
+      </c>
+      <c r="D54" s="8">
+        <v>11734059</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="10">
+        <v>45507.552187499998</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="L54" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="A55" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="9">
+        <v>45507.552858796298</v>
+      </c>
+      <c r="D55" s="8">
+        <v>11734058</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="10">
+        <v>45507.551562499997</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="L55" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="A56" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="9">
+        <v>45507.5553587963</v>
+      </c>
+      <c r="D56" s="8">
+        <v>11734057</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="10">
+        <v>45507.549675925897</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="A57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="9">
+        <v>45507.563136574099</v>
+      </c>
+      <c r="D57" s="8">
+        <v>11734056</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="10">
+        <v>45507.549432870401</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
+      <c r="L57" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="A58" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="9">
+        <v>45507.559039351901</v>
+      </c>
+      <c r="D58" s="8">
+        <v>11734055</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="10">
+        <v>45507.549155092602</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="L58" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="9">
+        <v>45507.551018518498</v>
+      </c>
+      <c r="D59" s="8">
+        <v>11734054</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="10">
+        <v>45507.542905092603</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="L59" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="A60" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="9">
+        <v>45507.548252314802</v>
+      </c>
+      <c r="D60" s="8">
+        <v>11734053</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="10">
+        <v>45507.542789351901</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="A61" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="9">
+        <v>45507.541875000003</v>
+      </c>
+      <c r="D61" s="8">
+        <v>11734052</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="10">
+        <v>45507.537071759303</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="L61" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="9">
+        <v>45507.539756944403</v>
+      </c>
+      <c r="D62" s="8">
+        <v>11734051</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="10">
+        <v>45507.535185185203</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="L62" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="A63" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="9">
+        <v>45507.536597222199</v>
+      </c>
+      <c r="D63" s="8">
+        <v>11734050</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="10">
+        <v>45507.532905092601</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="L63" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="A64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="9">
+        <v>45507.540671296301</v>
+      </c>
+      <c r="D64" s="8">
+        <v>11734049</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="10">
+        <v>45507.5325115741</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="L64" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="A65" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="9">
+        <v>45507.539247685199</v>
+      </c>
+      <c r="D65" s="8">
+        <v>11734048</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="10">
+        <v>45507.531006944402</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="L65" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="A66" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="9">
+        <v>45507.528263888897</v>
+      </c>
+      <c r="D66" s="8">
+        <v>11734047</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="10">
+        <v>45507.525069444397</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="L66" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="6"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="A67" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="9">
+        <v>45507.5235763889</v>
+      </c>
+      <c r="D67" s="8">
+        <v>11734046</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="10">
+        <v>45507.523518518501</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="L67" s="8" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="9">
+        <v>45507.518125000002</v>
+      </c>
+      <c r="D68" s="8">
+        <v>11734045</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="10">
+        <v>45507.518125000002</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="A69" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="9">
+        <v>45507.518541666701</v>
+      </c>
+      <c r="D69" s="8">
+        <v>11734044</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="10">
+        <v>45507.517638888901</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="L69" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="A70" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="9">
+        <v>45507.525462963</v>
+      </c>
+      <c r="D70" s="8">
+        <v>11734043</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="10">
+        <v>45507.517361111102</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="L70" s="8" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="9">
+        <v>45507.524895833303</v>
+      </c>
+      <c r="D71" s="8">
+        <v>11734042</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="10">
+        <v>45507.515509259298</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="L71" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="6"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="9">
+        <v>45507.518645833297</v>
+      </c>
+      <c r="D72" s="8">
+        <v>11734041</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="10">
+        <v>45507.511168981502</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="L72" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="A73" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="9">
+        <v>45507.512175925898</v>
+      </c>
+      <c r="D73" s="8">
+        <v>11734040</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="10">
+        <v>45507.509675925903</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="L73" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="6"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="9">
+        <v>45507.5329166667</v>
+      </c>
+      <c r="D74" s="8">
+        <v>11734039</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="10">
+        <v>45507.509456018503</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="6"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="A75" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="9">
+        <v>45507.514687499999</v>
+      </c>
+      <c r="D75" s="8">
+        <v>11734038</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="10">
+        <v>45507.5075462963</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="L75" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="9">
+        <v>45507.520289351902</v>
+      </c>
+      <c r="D76" s="8">
+        <v>11734037</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="10">
+        <v>45507.506990740701</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="L76" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="6"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="A77" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" s="9">
+        <v>45507.519803240699</v>
+      </c>
+      <c r="D77" s="8">
+        <v>11734036</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="10">
+        <v>45507.504907407398</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="L77" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="A78" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="9">
+        <v>45507.549270833297</v>
+      </c>
+      <c r="D78" s="8">
+        <v>11734035</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="10">
+        <v>45507.4977083333</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="L78" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="6"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="A79" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="9">
+        <v>45507.507789351897</v>
+      </c>
+      <c r="D79" s="8">
+        <v>11734034</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="10">
+        <v>45507.497418981497</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="L79" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="6"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="A80" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="9">
+        <v>45507.499247685198</v>
+      </c>
+      <c r="D80" s="8">
+        <v>11734033</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="10">
+        <v>45507.496898148202</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="A81" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C81" s="9">
+        <v>45507.636122685202</v>
+      </c>
+      <c r="D81" s="8">
+        <v>11734032</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="10">
+        <v>45507.495254629597</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="L81" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="6"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="A82" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="9">
+        <v>45507.509236111102</v>
+      </c>
+      <c r="D82" s="8">
+        <v>11734031</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="10">
+        <v>45507.494467592602</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="L82" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="6"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="A83" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="9">
+        <v>45507.499062499999</v>
+      </c>
+      <c r="D83" s="8">
+        <v>11734030</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="10">
+        <v>45507.494351851798</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="6"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="A84" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="9">
+        <v>45507.492696759298</v>
+      </c>
+      <c r="D84" s="8">
+        <v>11734029</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="10">
+        <v>45507.4913773148</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="L84" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85" s="6"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="A85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="9">
+        <v>45507.493194444403</v>
+      </c>
+      <c r="D85" s="8">
+        <v>11734028</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="10">
+        <v>45507.480277777802</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="L85" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A86" s="6"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="A86" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="9">
+        <v>45507.485347222202</v>
+      </c>
+      <c r="D86" s="8">
+        <v>11734027</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="10">
+        <v>45507.475694444402</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="L86" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="A87" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="9">
+        <v>45507.474039351902</v>
+      </c>
+      <c r="D87" s="8">
+        <v>11734026</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="10">
+        <v>45507.469328703701</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="L87" s="8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="6"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="A88" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" s="9">
+        <v>45507.594953703701</v>
+      </c>
+      <c r="D88" s="8">
+        <v>11734025</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="10">
+        <v>45507.466215277796</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="L88" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="6"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="A89" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="9">
+        <v>45507.471782407403</v>
+      </c>
+      <c r="D89" s="8">
+        <v>11734024</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="10">
+        <v>45507.466168981497</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="L89" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="6"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="A90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C90" s="9">
+        <v>45507.636701388903</v>
+      </c>
+      <c r="D90" s="8">
+        <v>11734023</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="10">
+        <v>45507.465393518498</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="L90" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="6"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="A91" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="9">
+        <v>45507.482743055603</v>
+      </c>
+      <c r="D91" s="8">
+        <v>11734022</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="10">
+        <v>45507.463113425903</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92" s="6"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="A92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="9">
+        <v>45507.471597222197</v>
+      </c>
+      <c r="D92" s="8">
+        <v>11734021</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="10">
+        <v>45507.462743055599</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="L92" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93" s="6"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="A93" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45507.639618055597</v>
+      </c>
+      <c r="D93" s="8">
+        <v>11734020</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="10">
+        <v>45507.4597222222</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
+      <c r="L93" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94" s="6"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="A94" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="9">
+        <v>45507.464814814797</v>
+      </c>
+      <c r="D94" s="8">
+        <v>11734019</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="10">
+        <v>45507.454513888901</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="L94" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95" s="6"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="A95" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C95" s="9">
+        <v>45507.618888888901</v>
+      </c>
+      <c r="D95" s="8">
+        <v>11734018</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" s="10">
+        <v>45507.450358796297</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="L95" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A96" s="6"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="A96" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="9">
+        <v>45507.453900462999</v>
+      </c>
+      <c r="D96" s="8">
+        <v>11734017</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="10">
+        <v>45507.444942129601</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="L96" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="6"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="A97" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="9">
+        <v>45507.473148148201</v>
+      </c>
+      <c r="D97" s="8">
+        <v>11734016</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="10">
+        <v>45507.444351851896</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="L97" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="6"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="A98" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="9">
+        <v>45507.449710648201</v>
+      </c>
+      <c r="D98" s="8">
+        <v>11734015</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="10">
+        <v>45507.443993055596</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
+      <c r="L98" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="6"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="A99" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="9">
+        <v>45507.460300925901</v>
+      </c>
+      <c r="D99" s="8">
+        <v>11734014</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="10">
+        <v>45507.443842592598</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="L99" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="A100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="9">
+        <v>45507.482569444401</v>
+      </c>
+      <c r="D100" s="8">
+        <v>11734013</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="10">
+        <v>45507.439097222203</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
+      <c r="L100" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="6"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="A101" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="9">
+        <v>45507.437071759297</v>
+      </c>
+      <c r="D101" s="8">
+        <v>11734012</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="10">
+        <v>45507.435312499998</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
+      <c r="L101" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="6"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="A102" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="9">
+        <v>45507.441435185203</v>
+      </c>
+      <c r="D102" s="8">
+        <v>11734011</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="10">
+        <v>45507.434814814798</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
+      <c r="L102" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="6"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="A103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C103" s="9">
+        <v>45507.640231481499</v>
+      </c>
+      <c r="D103" s="8">
+        <v>11734010</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="10">
+        <v>45507.434212963002</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
+      <c r="L103" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="6"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="A104" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="9">
+        <v>45507.458726851903</v>
+      </c>
+      <c r="D104" s="8">
+        <v>11734009</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="10">
+        <v>45507.433726851901</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
+      <c r="L104" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="6"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="A105" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="9">
+        <v>45507.462268518502</v>
+      </c>
+      <c r="D105" s="8">
+        <v>11734008</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="10">
+        <v>45507.432141203702</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
+      <c r="L105" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="6"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="A106" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="9">
+        <v>45507.479398148098</v>
+      </c>
+      <c r="D106" s="8">
+        <v>11734007</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="10">
+        <v>45507.430752314802</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
+      <c r="L106" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="6"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="A107" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="9">
+        <v>45507.432349536997</v>
+      </c>
+      <c r="D107" s="8">
+        <v>11734006</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="10">
+        <v>45507.429629629602</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
+      <c r="L107" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="6"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="A108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="9">
+        <v>45507.462453703702</v>
+      </c>
+      <c r="D108" s="8">
+        <v>11734005</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="10">
+        <v>45507.427997685198</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
+      <c r="L108" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="6"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="A109" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="9">
+        <v>45507.438321759299</v>
+      </c>
+      <c r="D109" s="8">
+        <v>11734004</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="10">
+        <v>45507.426562499997</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
+      <c r="L109" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="6"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="A110" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="9">
+        <v>45507.476539351897</v>
+      </c>
+      <c r="D110" s="8">
+        <v>11734003</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="10">
+        <v>45507.425462963001</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
+      <c r="L110" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="6"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="A111" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="9">
+        <v>45507.4436921296</v>
+      </c>
+      <c r="D111" s="8">
+        <v>11734002</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="10">
+        <v>45507.419733796298</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
+      <c r="L111" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="6"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="A112" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="9">
+        <v>45507.422002314801</v>
+      </c>
+      <c r="D112" s="8">
+        <v>11734001</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="10">
+        <v>45507.417812500003</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
+      <c r="L112" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="6"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="A113" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="9">
+        <v>45507.426076388903</v>
+      </c>
+      <c r="D113" s="8">
+        <v>11734000</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="10">
+        <v>45507.414143518501</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
+      <c r="L113" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="6"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="A114" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="9">
+        <v>45507.427881944401</v>
+      </c>
+      <c r="D114" s="8">
+        <v>11733999</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="10">
+        <v>45507.411134259302</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
+      <c r="L114" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="6"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="A115" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="9">
+        <v>45507.420266203699</v>
+      </c>
+      <c r="D115" s="8">
+        <v>11733998</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" s="10">
+        <v>45507.4077777778</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
+      <c r="L115" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="6"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="A116" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" s="9">
+        <v>45507.419606481497</v>
+      </c>
+      <c r="D116" s="8">
+        <v>11733997</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="10">
+        <v>45507.405775462998</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
+      <c r="L116" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="6"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="A117" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="9">
+        <v>45507.423067129603</v>
+      </c>
+      <c r="D117" s="8">
+        <v>11733996</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="10">
+        <v>45507.4055787037</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
+      <c r="L117" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="6"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="A118" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="9">
+        <v>45507.412187499998</v>
+      </c>
+      <c r="D118" s="8">
+        <v>11733995</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="10">
+        <v>45507.4054398148</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="L118" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="6"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
+      <c r="A119" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="9">
+        <v>45507.406076388899</v>
+      </c>
+      <c r="D119" s="8">
+        <v>11733994</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="10">
+        <v>45507.403738425899</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="L119" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="6"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
+      <c r="A120" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C120" s="9">
+        <v>45507.594363425902</v>
+      </c>
+      <c r="D120" s="8">
+        <v>11733993</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="10">
+        <v>45507.402789351901</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
+      <c r="L120" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A121" s="6"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="A121" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="9">
+        <v>45507.436307870397</v>
+      </c>
+      <c r="D121" s="8">
+        <v>11733992</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="10">
+        <v>45507.401203703703</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
+      <c r="L121" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A122" s="6"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="A122" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" s="9">
+        <v>45507.452696759297</v>
+      </c>
+      <c r="D122" s="8">
+        <v>11733991</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="10">
+        <v>45507.399085648103</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
+      <c r="L122" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A123" s="6"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="A123" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="9">
+        <v>45507.408981481502</v>
+      </c>
+      <c r="D123" s="8">
+        <v>11733990</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="10">
+        <v>45507.398773148103</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
+      <c r="L123" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A124" s="6"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="A124" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="9">
+        <v>45507.400092592601</v>
+      </c>
+      <c r="D124" s="8">
+        <v>11733989</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G124" s="10">
+        <v>45507.397789351897</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
+      <c r="L124" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="6"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
+      <c r="A125" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="9">
+        <v>45507.404074074097</v>
+      </c>
+      <c r="D125" s="8">
+        <v>11733988</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="10">
+        <v>45507.396666666697</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
+      <c r="L125" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="6"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
+      <c r="A126" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="9">
+        <v>45507.478842592602</v>
+      </c>
+      <c r="D126" s="8">
+        <v>11733987</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="10">
+        <v>45507.396539351903</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
+      <c r="L126" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="6"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
+      <c r="A127" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="9">
+        <v>45507.401458333297</v>
+      </c>
+      <c r="D127" s="8">
+        <v>11733986</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" s="10">
+        <v>45507.394803240699</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="6"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+      <c r="A128" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="9">
+        <v>45507.493888888901</v>
+      </c>
+      <c r="D128" s="8">
+        <v>11733985</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="10">
+        <v>45507.387418981503</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
+      <c r="L128" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
+      <c r="A129" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="9">
+        <v>45507.389178240701</v>
+      </c>
+      <c r="D129" s="8">
+        <v>11733984</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="10">
+        <v>45507.384571759299</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
+      <c r="L129" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" s="6"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+      <c r="A130" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="9">
+        <v>45507.390034722201</v>
+      </c>
+      <c r="D130" s="8">
+        <v>11733983</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="10">
+        <v>45507.383125</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
+      <c r="L130" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="6"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
+      <c r="A131" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="9">
+        <v>45507.388217592597</v>
+      </c>
+      <c r="D131" s="8">
+        <v>11733982</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="10">
+        <v>45507.382662037002</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
+      <c r="L131" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="6"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
+      <c r="A132" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" s="9">
+        <v>45507.387986111098</v>
+      </c>
+      <c r="D132" s="8">
+        <v>11733981</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="10">
+        <v>45507.382037037001</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
+      <c r="L132" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A133" s="6"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
+      <c r="A133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133" s="9">
+        <v>45507.385578703703</v>
+      </c>
+      <c r="D133" s="8">
+        <v>11733980</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="10">
+        <v>45507.378599536998</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
+      <c r="L133" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A134" s="6"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+      <c r="A134" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="9">
+        <v>45507.385717592602</v>
+      </c>
+      <c r="D134" s="8">
+        <v>11733979</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="10">
+        <v>45507.3773842593</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
+      <c r="L134" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A135" s="6"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
+      <c r="A135" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="9">
+        <v>45507.375173611101</v>
+      </c>
+      <c r="D135" s="8">
+        <v>11733978</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="10">
+        <v>45507.375162037002</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
+      <c r="L135" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A136" s="6"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="A136" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" s="9">
+        <v>45507.378877314797</v>
+      </c>
+      <c r="D136" s="8">
+        <v>11733977</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="10">
+        <v>45507.372094907398</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
+      <c r="L136" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A137" s="6"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
+      <c r="A137" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="9">
+        <v>45507.385567129597</v>
+      </c>
+      <c r="D137" s="8">
+        <v>11733976</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="10">
+        <v>45507.371805555602</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
+      <c r="L137" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A138" s="6"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
+      <c r="A138" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="9">
+        <v>45507.374780092599</v>
+      </c>
+      <c r="D138" s="8">
+        <v>11733975</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="10">
+        <v>45507.369537036997</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
+      <c r="L138" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A139" s="6"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
+      <c r="A139" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="9">
+        <v>45507.464004629597</v>
+      </c>
+      <c r="D139" s="8">
+        <v>11733974</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="10">
+        <v>45507.352025462998</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
+      <c r="L139" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A140" s="6"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
+      <c r="A140" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="9">
+        <v>45507.303668981498</v>
+      </c>
+      <c r="D140" s="8">
+        <v>11733973</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="10">
+        <v>45507.303657407399</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
+      <c r="L140" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A141" s="6"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
+      <c r="A141" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="9">
+        <v>45507.053078703699</v>
+      </c>
+      <c r="D141" s="8">
+        <v>11733972</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="10">
+        <v>45507.053078703699</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
+      <c r="L141" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A142" s="6"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+      <c r="A142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="9">
+        <v>45507.001643518503</v>
+      </c>
+      <c r="D142" s="8">
+        <v>11733971</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" s="10">
+        <v>45507.0016203704</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
+      <c r="L142" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="6"/>

--- a/files/TS_todays_support.xlsx
+++ b/files/TS_todays_support.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisuke_koresawa\project\kpi_project\kpi_info_sync\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FD271-8EEB-4D2A-AE50-D7AEE45497AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50827F99-5ABE-4854-8AAC-ED666C462DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32205" yWindow="1455" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_todays_support" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$142</definedName>
+    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="310">
   <si>
     <t>(変更しないでください) サポート案件</t>
   </si>
@@ -125,10 +125,7 @@
     <t>ー</t>
   </si>
   <si>
-    <t>ea773d36-e050-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>D0pSpuP+wud3lP7RjDsrwpHNxofm4Xh47o6QVweSZppgETCgnGpmbyagazgEmfU3gjA4mYqapBG2C1Xg9F6N5w==</t>
+    <t>d0e6383a-af51-ef11-882f-00505695a183</t>
   </si>
   <si>
     <t>TVS</t>
@@ -137,1315 +134,847 @@
     <t>直受け</t>
   </si>
   <si>
-    <t>合同会社りんどう</t>
+    <t>大石 雅也 税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proｼｽﾃﾑ</t>
   </si>
   <si>
     <t>即答</t>
   </si>
   <si>
+    <t>618fc806-b351-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>荒木 克彦税理士事務所</t>
+  </si>
+  <si>
     <t>ACELINK NX-Pro給与</t>
   </si>
   <si>
-    <t>58f09090-ea50-ef11-8830-0050569565d2</t>
+    <t>2q6MufFc6FZHYDp5rP9j5LpHW9KWRgUi/ZlsWW68cphKe3LhSQGlQlnDAG1mS3odFH33Fi+eLdBd322OjIAQfg==</t>
   </si>
   <si>
-    <t>AGG2qnWWJ9BU7V9gyt5Ap1JdWU6KbCbFraGQl9gPSh9EDT4sJJlH0jaa+nK637tZs5rOxLb/pNQ3Dw/G0Ixduw==</t>
+    <t>2836d84d-b451-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>辻・本郷税理士法人</t>
+    <t>松下 陽一 税理士事務所</t>
+  </si>
+  <si>
+    <t>NX記帳くん</t>
+  </si>
+  <si>
+    <t>vx1MHbtzHH86hoQwx5407p2byT1pnlziDxSPKqSSa2DXWYJkksaZN8Yqgt/qVGoTQ8aL5wsVFhTjfjtQIxKxmw==</t>
+  </si>
+  <si>
+    <t>418a6e11-b751-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>藤生耕太税理士事務所</t>
+  </si>
+  <si>
+    <t>Y1RU2QViFfd7g7KKBI0BNvhUDFN8V0ADficcWBw/zUgeoY0qkLp2IPiWYygZsOqDEMa1nrX7MsIW9LA9N2nFpg==</t>
+  </si>
+  <si>
+    <t>0df2dea4-be51-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>海野会計事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proその他</t>
+  </si>
+  <si>
+    <t>93a+UyrBjUfx3cao61NYikPaF4+kwjU4/J/h2zs4JYlkfk79zwO0Eb6TAYKVbxreTx/Ifm9OANfi4vhyRk2wfg==</t>
+  </si>
+  <si>
+    <t>hmYmKNUMxqK7NGyC5APCBx1wBDHn4layUTCvx6w37EzV1G3WfSzRC5oa5WVQdS7rwOey03cIybKCw3LJ39QK2A==</t>
+  </si>
+  <si>
+    <t>973fa8b3-f251-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>bRsUqUyJzfjIhLOaGxHwXDmMiuOEATSVLejBKLEix0Jd2dYzJC9TE0S5LXUfdvUnwqw3XWvlMr0fX9zwY3I02g==</t>
+  </si>
+  <si>
+    <t>不明企業</t>
+  </si>
+  <si>
+    <t>44d09f82-f551-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>米本税理士事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro減価</t>
+  </si>
+  <si>
+    <t>790b7c91-f651-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>1a86372f-f751-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>吉川税務会計事務所</t>
   </si>
   <si>
     <t>ACELINK NX-Pro会計</t>
   </si>
   <si>
-    <t>4260d0f8-1c51-ef11-882f-00505695a183</t>
+    <t>8y0z0GEF3lcrFDOAVy7CZxi50ef89lJC/VR07u92UngiRuarrw6tFH7NMz4oyb6mWhxZwItrS0Otwo/fAqjAPQ==</t>
   </si>
   <si>
-    <t>BcGjq06i/qOoZFlf0Udjovt0VqSehu2WoWfUhkRCIUIz4HhHrUfZmAKs8XlWUw2Pdy98q3vOMlNeVYlMORe9nw==</t>
+    <t>RelTlvw+BhvyTYkVeEfkxvapkh6JgpS4bXmDVGlNeO5k6kIMAESZk+ElgOIRn0bjo74oIRNC7ZXTgraaHqspfw==</t>
   </si>
   <si>
-    <t>喜納兼永税理士事務所</t>
+    <t>MJSﾏｲﾅﾝﾊﾞｰ</t>
   </si>
   <si>
-    <t>f8513838-3851-ef11-8830-0050569565d2</t>
+    <t>2Ue21YWSDZHOQXnCEjXtd016SIH1wRF/mimzfcYhFcPbuzhxkx2Db3p+Awo7RD/HF2VbkwtFTxkWD8gIEniseA==</t>
   </si>
   <si>
-    <t>SS</t>
+    <t>14c967d2-fa51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>トータルマネジメントコンサルタンツ</t>
+  </si>
+  <si>
+    <t>w+0ERr1aExZXJ3fdS6IaA1wvJamW46aTebZU5aigKsvSCt0Ox9RZSVJOYarTpLhs23n4hrDc0YiNB9OhKQ8hhw==</t>
+  </si>
+  <si>
+    <t>a56ae71f-fd51-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6XYsopQb5GUL5k4VebYbcVdQoA89pkjykjgspT7DXdqNAyap08FHzkRUWmZiHY8d1gaJb+D7VztjgxJYNDmdXw==</t>
+  </si>
+  <si>
+    <t>ecc89fdb-fd51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人アイ・フロンティア</t>
+  </si>
+  <si>
+    <t>78103b0a-fe51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>赤池 税理士事務所</t>
+  </si>
+  <si>
+    <t>nkfYMzh1H8wkOVlHkrw0EQVndDsFp+/QuV6A8yLsZbDdnvVsk2unuQq43ngGiK7ECKTAnx6s3HS/h8xdOucDrA==</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro事務所管理</t>
+  </si>
+  <si>
+    <t>a1fc3d17-ff51-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>D4s1RKHAHn4eWzBhvEoYkeVmPGOk80GgLvqlBPNgfZk0bReWoL0CAVr88qpF/vYra67cOdmbVzg+ROkGpuCqKw==</t>
+  </si>
+  <si>
+    <t>税理士法人丸岡&amp;パートナーズ</t>
+  </si>
+  <si>
+    <t>055d8803-ff51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>後藤賢吾税理士事務所</t>
+  </si>
+  <si>
+    <t>4b4fc78f-ff51-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>lXbXCpxKIdrXAf2habzuLdH5YUdpNBiWwT0En9n+zf8uvg+oSeBoKojCo5KzM2vZbxqS1e1bRaczYC5u8KBVlw==</t>
+  </si>
+  <si>
+    <t>d1d26e8f-0052-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>山田陽一税理士事務所</t>
+  </si>
+  <si>
+    <t>567e5405-0152-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>qbLzI+zbjNmUn+QwLe+/PxKUZfuJc2MpN4R5KcvGR538wcXgtN8bDwPiXY/4yl4aY6U26396bxylOOEg39vYBA==</t>
+  </si>
+  <si>
+    <t>b295214d-0252-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>税理士法人 オーレンス税務事務所</t>
+  </si>
+  <si>
+    <t>f251d240-0252-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>市川税理士事務所</t>
+  </si>
+  <si>
+    <t>90ccd59e-0252-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>永井 紀子 税理士事務所</t>
+  </si>
+  <si>
+    <t>EtLrkER7m9J3g+44DscQX8qG4QiAPXmHmIpeNWZ9NPFAoxuZkACE21SUlhrFI+EPOMzIMtrn4rDBnP8dlmyjOA==</t>
+  </si>
+  <si>
+    <t>622c6fe5-0252-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>小山貢税理士事務所</t>
+  </si>
+  <si>
+    <t>Fu3jtG68fGI8bpuKaThcZOqtpvYB7mqpVClZ4NjrypP4+XdJXGtlU2OmWwq20v0V3nms/Aa8jf9XGtoIXxQYnQ==</t>
+  </si>
+  <si>
+    <t>cEEDNdyudWY2Ps/uoIsW/DRI5RPl7mcYHnnLEDireWXY/SsHgAir3j3zvlltfYGNIBVXToKtvSGxTy0tTk+bSQ==</t>
+  </si>
+  <si>
+    <t>ec7a06be-0352-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>川崎大地税理士事務所</t>
+  </si>
+  <si>
+    <t>ed370874-0452-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>tfByD1EAeAm5mTCmnAcNtZ00azSB+Ur/KBHLoFftqlSBrQyqDnTGA64i+Kjq5ck33ROQEZCNNDNGbRx5c1uISA==</t>
+  </si>
+  <si>
+    <t>73e96875-0452-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>事務長代行株式会社</t>
+  </si>
+  <si>
+    <t>留守電</t>
+  </si>
+  <si>
+    <t>d電子申告</t>
+  </si>
+  <si>
+    <t>cc6c632b-0552-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>e67ac1c2-0552-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>岩下忠吾 税理士事務所</t>
+  </si>
+  <si>
+    <t>28b728e0-0552-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 仙台合同会計</t>
+  </si>
+  <si>
+    <t>1c457fe1-0552-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>NeHeD9Nx+IVRL1eXhsBhZcN3oLsyH/Y80woSDszS19QX2qRROciNrZDbwzzQ5LuBaERU3YbUdTsxKv9zwym2TQ==</t>
+  </si>
+  <si>
+    <t>iCompassNX</t>
+  </si>
+  <si>
+    <t>GIMxBfxq3wCUJPDaGqub+MGHD86KHujRP0JAB0rEtSq5EHe0tRzyLS+hCbn25HQMMVx4Qe8ulLlP04Ei5CDJSw==</t>
+  </si>
+  <si>
+    <t>5eUQv3oyomgqiZIgWEBiu2lVj/1SI3OWw8LZxN3xZHCsoAIJVYK2pc2IM9GEeUyVpA6HqXFjCPCD5BMowO/WBg==</t>
+  </si>
+  <si>
+    <t>Ybcu5cir9egwljgOE4EgXCXfIu0xi1/ePE27XG7zT2j5ZHlBQp+Px7BjrxmKIWX/OgS2lQKqrBbwUJMxZ1jduQ==</t>
+  </si>
+  <si>
+    <t>8KQYFLGXY+6O1gWie+FrCwWBr3SVQV1J1c0K1WgODCA1QmBDpiWFC0bnfkju0W20KS/O9tjxB1L0z8HChIPzSQ==</t>
+  </si>
+  <si>
+    <t>支社依頼(通常)</t>
+  </si>
+  <si>
+    <t>e535b923-0852-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>折返し不要・ｷｬﾝｾﾙ</t>
+  </si>
+  <si>
+    <t>iI9HDh2jY0FHA9XKwjYrWyCUUIJ4RMLXMYRlhK3DNU3e3bSe2MDfzanLWI1xnBtf5P4jvic7jSQbZRIkNmdJmg==</t>
+  </si>
+  <si>
+    <t>pzb7EhwO/PXE9hwNoTOeqJl+9g0PM+AeyxikopGKXVdN0XX6UcEifWB+v8loXiq+1IvXZZnJIzcv4qDpf6Fp1A==</t>
+  </si>
+  <si>
+    <t>ae4ce4f8-0952-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>mmlhayisrPMcKYymn8NdnEe6yaDp+yt2vdUpBeOWsuRhc2SEoUxNXPmPPEOjvIZjbz3QMZc5en5rLxPb6ENf1w==</t>
+  </si>
+  <si>
+    <t>9c33f4a8-0b52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>F0N0sFX9mddGL+OswGkLf+c58hfJvQpZi7BOr2OsvpU/87eDCOBP+vMCKcwwKrqTC674NeDr75RdYIdfhgGLgQ==</t>
+  </si>
+  <si>
+    <t>東由美税理士事務所</t>
+  </si>
+  <si>
+    <t>H8N0bc6EGgKLxctdkjK0FXFtYmtXSxt+1klNIGJtt1Hoe8CyCPXamEzMkwzhnsN3+yNJv/4kkKBzCoUO2YbSKg==</t>
+  </si>
+  <si>
+    <t>確認後回答(部内)</t>
+  </si>
+  <si>
+    <t>GXiL6vwNTvd9y5j4MMl2+KqClg8Xj16q59hD9l26CK16pPLNzs98hPeQGPfiZyvIIue03p1fmDzKPZcQma2DNg==</t>
+  </si>
+  <si>
+    <t>3e618730-0e52-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>有限会社 エスエスシー</t>
+  </si>
+  <si>
+    <t>ta4Ab0HuVkv6/rP1SCz0KTrKYJoLTxfsSZqcdjBH/Bv25bcYH7rgCbTQ46b4Cm+1+/sbEkm8mJYVXn3I0ID+KA==</t>
+  </si>
+  <si>
+    <t>33db26e6-0f52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>QzDghOJOsOGDSccbh+sPkK4rJ04zZYqpof6Nz9+zgCtwEC/klsrtraLCrXMlBkBhJqyRDQSNw9J6IvaNzjvnmA==</t>
+  </si>
+  <si>
+    <t>74040236-1052-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>/xxDH6WFSGEjXOTO+1yVIH2PW+TsXwwQgvHT71LLukOu/tsNGExvY6Khp8c16A1BnvTOc/Gz1rFUF1KLQN59hA==</t>
+  </si>
+  <si>
+    <t>榊原剛志税理士事務所</t>
+  </si>
+  <si>
+    <t>180aa776-1452-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>上月彪税理士事務所</t>
+  </si>
+  <si>
+    <t>1c0410ce-1452-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>gBhnqI8Y9OpkrodgJ+t9Qu7tLVzNhg3Us4MBH6Cy2Gt8tlPnUQGX2ouAczje2KN11TOA5AsITqq++fkzDKojMQ==</t>
+  </si>
+  <si>
+    <t>WEB問い</t>
+  </si>
+  <si>
+    <t>江黒高文税理士事務所</t>
+  </si>
+  <si>
+    <t>対応待ち</t>
+  </si>
+  <si>
+    <t>72e4fd4f-1952-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>齊藤究税理士事務所</t>
+  </si>
+  <si>
+    <t>9a827e12-1a52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>NFPYMZWVFujvWeeAUoqj5bjOOF7BjkjNJKnGE53WzclUbWCw6NudAczN5hK3K+AXfAGisYRsmYyaLCR2gXVP6A==</t>
+  </si>
+  <si>
+    <t>86a5f19c-1d52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>WzzcH5YRmTdOAAYKH4Palw7bs9OCSl2gHKv4rsXgEtrhd3Xck8Ianx8iDct+1MSOFRaM5pamO7OXbzuTAtfYpw==</t>
+  </si>
+  <si>
+    <t>ﾒｰﾙ・FAX回答（送信）</t>
+  </si>
+  <si>
+    <t>g41LLSNHwHYrscLUUEmDzMozQQZxGsNcJ5FhkmEPUzsVphUiU1oqe63tOHS+wYMxYuQkjJ2oynNbtqyrV40Uyw==</t>
+  </si>
+  <si>
+    <t>4549340a-1f52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>Wl9ec7nDlYQ9lwwyJ2z4vJkYPnFT8ZoRFM1EtzLcyvV8bBcP84XraFRb32/7fu7GIMW10fOiJuZFwTvRPeZfBg==</t>
+  </si>
+  <si>
+    <t>團野会計事務所</t>
+  </si>
+  <si>
+    <t>15dc092b-1f52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>清川高臣税理士事務所</t>
+  </si>
+  <si>
+    <t>bE+6tl+0gR3578ESYB/6OQKiRBOmwukdHW0STy//OX95LqAVhc+7S/vVrOc1v7CKQyVT6lU/luST7Nf+n7k6yg==</t>
+  </si>
+  <si>
+    <t>113ac2d9-2552-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>3fyc5EYNy+6ZxZ/iSL2lBbM4g/5H93yO9MC8gq8m6TBvoGUSj+rupEi47GTP8+i9GWcmL9BsxQHKEAf5Btl7sQ==</t>
+  </si>
+  <si>
+    <t>bc77419a-2552-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>eku+Nmw0XTp+yIzsfsIH7N9gqTjtPU21tPF9t60kmwqRUQJmyufTqadDp8/8EUmUjPjQ0Z+bpKWqQYOa3sBIMw==</t>
+  </si>
+  <si>
+    <t>久保木&amp;アソシエイツ税理士事務所</t>
+  </si>
+  <si>
+    <t>自己解決</t>
+  </si>
+  <si>
+    <t>kかんたんｸﾗｳﾄﾞ</t>
+  </si>
+  <si>
+    <t>b9b6073f-2552-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>/Udpt3QZIwdDjcBciKx3gmsVFDYHvl5Eru1ODmARM1Tgs1bs/ed02F4rO0Gw2DxZeYBE0RDHugcj8925QggaVA==</t>
+  </si>
+  <si>
+    <t>c9c3d565-2452-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>aH98gMQ3OkR6+9tZL0yFmwMR8h0INsJLQaMvrq6PsLkseV8rpmYjikjw3rodCySdHaILYxEZp7fTfi7+2zfQBg==</t>
+  </si>
+  <si>
+    <t>古川悟税理士事務所</t>
+  </si>
+  <si>
+    <t>8e8bd1f5-2352-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>6g8dU0Nmsi922TTRpX/rK2AIyqqK8SxMpAYhL/RcDNI8mmXFBzML+riXm/1BKj71ClJTf8mTumuS+n+MoVT2rg==</t>
+  </si>
+  <si>
+    <t>岩﨑達人税理士事務所</t>
+  </si>
+  <si>
+    <t>98aba2a6-2352-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>9s2m3jfmqV8Tc/49nAbXaTl8hVazUiIsclMnp7R7uMrNB6YSkcEO06Q7Ur7+5d0bYy1bmJO05VQeMfTZ7Jmzyw==</t>
+  </si>
+  <si>
+    <t>川邊俊一税理士事務所</t>
+  </si>
+  <si>
+    <t>他ｸﾞﾙｰﾌﾟ依頼</t>
+  </si>
+  <si>
+    <t>hﾊｰﾄﾞ・OS関連</t>
+  </si>
+  <si>
+    <t>019d5053-2252-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>NwhiwE/bFLqfxDQhRll991gE1By6CxqiCiqTSv27bxEgLuae6WAHJ6k/fhIXrNibCx/LOScfa8Yl81R5RVl9sw==</t>
+  </si>
+  <si>
+    <t>6ca9f946-2252-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>cMQE0WNRqWDlqhaiUdgmqbHVcYBLuT2mJ2TcNpkq4LaVQ/LBtq1cWttk6NUMPl+u7ujeDbGB6kFqGlCztH8sbg==</t>
+  </si>
+  <si>
+    <t>佐久間 一郎 税理士事務所</t>
+  </si>
+  <si>
+    <t>daad4d99-2152-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>DU3ZWy06VgafF370qcBwLuyPJhTf6buXblP2GhUaEh2+m4grHTCMOqKkr3qQsPjS8veJpokwigXQIMmyUZd9kg==</t>
+  </si>
+  <si>
+    <t>税理士法人 松丸会計事務所</t>
+  </si>
+  <si>
+    <t>b613ecdb-2852-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>6dc9371b-2952-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>原島 正光 税理士事務所</t>
+  </si>
+  <si>
+    <t>GGQxFRFIas3ArcQMKZ+Tuvr+zeoXXe8QehA6yT7xfAPuPs2H6PvPNTOuteg/N4JgQ5BUkj1HesHvryKHHEjdNg==</t>
+  </si>
+  <si>
+    <t>4dd3a421-2a52-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>LiuspwrcilgMMZa4m/yCgKOtK5sv9XZsJVQfmk++e2ghd+PdbJvBSp57/PtuBebmTkNvibtwKQ6hEBg+qSWTjg==</t>
+  </si>
+  <si>
+    <t>小坂 雄志郎 税理士事務所</t>
+  </si>
+  <si>
+    <t>XzCeFxNJz9dpU6L8PbyqLi0X2LPX97QtjecFM7ZRcLhkuKbvOlEVJOE0HsSUxexzbnyKudNNTFyyF0rzTOkV0w==</t>
+  </si>
+  <si>
+    <t>97b3ee3d-2c52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>川原 会計事務所</t>
+  </si>
+  <si>
+    <t>fL9jChc3vJU3rW3Uab0nHc87hyN2RJhGvc5yayuPEVxvjqQfIiYq2yGFYXZD3HxsWjHqyjRCwHWBi7PiE40IHg==</t>
+  </si>
+  <si>
+    <t>53b5a9ee-2f52-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>御旅屋 公認会計士事務所</t>
+  </si>
+  <si>
+    <t>83e2c53d-3052-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>阿部 会計事務所</t>
+  </si>
+  <si>
+    <t>2c70399d-3052-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>村上文雄税理士事務所</t>
+  </si>
+  <si>
+    <t>7addefda-3052-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>KhFcIFDVqoT76LSMnkMFti/o1mQ2cT55wpCgSI4sBTVLPwEwncDehqUEJTHux5xHDRHV6C+nk00BRoVsl68boQ==</t>
+  </si>
+  <si>
+    <t>押田税理士事務所</t>
+  </si>
+  <si>
+    <t>0r/hBLEcA0UOKB9ZC5xQ23LCih7ixXXFldxts8UKI6KgAOJUkvP2H1kQ0bzyF2Gje9BslPbm8EIrlzgKiNMSpA==</t>
+  </si>
+  <si>
+    <t>30eeb2e2-3352-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>齊藤秀典税理士事務所</t>
+  </si>
+  <si>
+    <t>1VAYnpVnTaEv4HxUTiJhtOxMUcBz0xE8iAxqepJH83VnPKxM6TswHlt9v9/BYAUyeSGcPbmV6txWHhuI1g2l9g==</t>
+  </si>
+  <si>
+    <t>zfbNitFRQ0OeWi4VMaSkekYTwfJ8cs9tD1RZKVzTtw1DlxbpUImaoGajysCNRt1zc6IAcXYnl9BORzaFpxzrAA==</t>
+  </si>
+  <si>
+    <t>726621e3-3452-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>hv3U92oj90Q1Iiwsiqj53ylQTCeMC495TEQocaf3VpriEYUVntoFsB8IgiklEItF+HKhFGfz7WXciw462yDg6w==</t>
+  </si>
+  <si>
+    <t>株式会社ファーストマネージメント</t>
+  </si>
+  <si>
+    <t>60146e12-3652-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>x13vWpEyXSNwvABccuGsVyqumXgvan6DbkUTyNz/YtNWFJfh7fyuRTgH43XRn3sEUTEendPNQmBD3VnupYzXvA==</t>
+  </si>
+  <si>
+    <t>菊池力税理士事務所</t>
+  </si>
+  <si>
+    <t>9a444896-3652-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>株式会社 サ ワ ネ</t>
+  </si>
+  <si>
+    <t>6a6eb189-3652-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>浦 恭子 税理士事務所</t>
+  </si>
+  <si>
+    <t>bjKc2BYCHrUmeemIB4nUwKWElDS5/ykPWrlQQBfQCrYz1heeEy4WbONmIzUsPUvaoGWv6/5qY4pHoExKoGPXrg==</t>
+  </si>
+  <si>
+    <t>thpIuUYvK80bR4DzMa/z5F7EfgWahlt7ueKhAzxh26gY+M9kx4OLScWFHMWH0nqemeaVpEZGAo9PunJ20NoDuw==</t>
+  </si>
+  <si>
+    <t>b361f6db-3852-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>VHhpCSe6vhPFmjNLyFidH0Lo4hgR1FePbsD8jO69Kdgkqg6rmv/RZM8Zf8GMU2SWg93ZxYqBxt5Ljk/M6BH9TA==</t>
+  </si>
+  <si>
+    <t>c3cd032c-3952-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>稲川紘章税理士事務所</t>
+  </si>
+  <si>
+    <t>tcu4pT9rTWqEEFgRKWQn+wKX+MHqggkxaCiQRwUywoGNaQd1QjsVZNTup/RAo2LADNE6e9LB6bgNOv+OQzlFgg==</t>
   </si>
   <si>
     <t>折返し</t>
   </si>
   <si>
-    <t>対応待ち</t>
+    <t>63ba416a-3a52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>ACELINK NX-CEその他</t>
+    <t>SKY税理士法人</t>
   </si>
   <si>
-    <t>a05c2175-3751-ef11-8830-0050569565d2</t>
+    <t>d3905c0c-3b52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>GiPfzl+gPDshq+RnFkycqR9RflTDV3ToKmvbfZTVFt9POQ+YIjm9nWUJaNdEA5qhgcomSA+BM7jSBtksRRcE8w==</t>
+    <t>且井信昭公認会計士事務所</t>
   </si>
   <si>
-    <t>若原税理士事務所</t>
+    <t>1a65af31-3b52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>ACELINK NX-Proｼｽﾃﾑ</t>
+    <t>aoTo/70oqh8ekkS4AkCdB8WtW1G8GWB9jXQbAHokx5PRVr0gPrVHjdCwLrP4h3K57cBGLtpv0W3+31BfW/jk9A==</t>
   </si>
   <si>
-    <t>cf26e557-3751-ef11-8830-0050569565d2</t>
+    <t>東京法律会計事務所</t>
   </si>
   <si>
-    <t>株式会社大分綜合会計</t>
+    <t>XYdJ1Tp/0m5WYZfdihiB8DdQQNlHbU9Mi1rwOGSv4D65nmHkmm04187hbcnfVCKEl3SEoOADgHOyXnnhl1KbtA==</t>
   </si>
   <si>
-    <t>e0a7ce3c-3751-ef11-8830-0050569565d2</t>
+    <t>8b82eaf2-3b52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>株式会社 響成工業(日本電算)</t>
+    <t>e6bb173b-3c52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>ACELINK NX-CE給与</t>
+    <t>小玉雅昭税理士事務所</t>
   </si>
   <si>
-    <t>24897a23-3751-ef11-8830-0050569565d2</t>
+    <t>BU1DoSkXWC418THcUZpA7nzCEQeJdptPniGv9X6ETQjfz6kovhRqD+4/gpnQa3OgvVpRyRuGEt3c8ntXvXz7vQ==</t>
   </si>
   <si>
-    <t>林剛史税理士事務所</t>
+    <t>oyThyaibQpQRVcottcbXxRMVR9+ViYeBZA+TjO9spKbt1d9WOW5/hWz4R8B+pBFjuZuoRif5BJVBW+FjyzA/5A==</t>
   </si>
   <si>
-    <t>1d2e03d2-3651-ef11-8830-0050569565d2</t>
+    <t>A/MIya46qQIcxhiuVg9jEokr5CkzjQTY5utc4myizBkMwvi/XhD82wlUy92XsFQr3SBLUkyzcuk20HAzaRfxUg==</t>
   </si>
   <si>
-    <t>税理士法人アイ・フロンティア</t>
+    <t>kb70Ybd8oXCiXDG0mnHjWz8gVa6d677qYsHp78fwVFyI5p7aAuxMhExMAQZYMQX9Qmi2X4lY8JbKFlBGdIXpaQ==</t>
   </si>
   <si>
-    <t>312f2c8a-3651-ef11-8830-0050569565d2</t>
+    <t>kFq5xupONEoBPDQUglFP8yxc8E1qjk96/7agyg2Iph7zcbVbLCUCwLzBv+quXEtz+J9ubEoT4ilBxZeDbneUZA==</t>
   </si>
   <si>
-    <t>株式会社 小林組</t>
+    <t>支社依頼(ｸﾚｰﾑ)</t>
   </si>
   <si>
-    <t>aacda650-3651-ef11-8830-0050569565d2</t>
+    <t>3cce4fb7-3e52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>0Ou4ZqWtnYASIdFvWeoP/aCGnh0h11ThJcfFn9ni6Jg456m1NOqjyg11/xBwm708qvB85Ecc2Lta4g0TkoDZag==</t>
+    <t>鷹巣税理士特定社会保険労務士事務所</t>
   </si>
   <si>
-    <t>東樹 進 税理士事務所</t>
+    <t>b87a8876-3f52-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>21b8cefc-3551-ef11-8830-0050569565d2</t>
+    <t>DqCfpfLkusjzKg4PEo9LsPu2yYaX9bxCWA6MnR1FcRM9c3nL0L7vNFy/jglulebIzpS5xSyGb5xqDaswGC7tdw==</t>
   </si>
   <si>
-    <t>株式会社 ニュー・クイック</t>
+    <t>48b4d42c-4052-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>MJSLINK DX資産管理</t>
+    <t>kci5QivgAdTcZ13yTj4FEVbwyrmWLRRDTcEq36DWwCF4Jf/pbkmDudSck5Y2Ggv2wZmYs7UkU1i837q3IKjG9w==</t>
   </si>
   <si>
-    <t>292bc6b2-3551-ef11-8830-0050569565d2</t>
+    <t>税理士法人 ＴＡＰ 本別事務所</t>
   </si>
   <si>
-    <t>GcNRpdA4yRLo2RrgctyUi2KyxW2G3QDeN3oUsQ/zLnghoQF4hKyMtsXrDLtZ7YcHKNCtvPEW95FfWU2PIxy1xQ==</t>
+    <t>c1e29dc2-4052-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>小久保 隆 税理士事務所</t>
+    <t>nzAN2Xn7OA+JwlS0EzFLIJC+klSJFPzjzfN4r7Vr9/Xj3uzva6eqxdoNDA7JZEJPCKZ0G+lX36xDNArSk/ovFg==</t>
   </si>
   <si>
-    <t>2a0d497a-3551-ef11-8830-0050569565d2</t>
+    <t>bae29dc2-4052-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>税理士法人 オーレンス税務事務所</t>
+    <t>QAm7HxLAQ5suZ8jQu08GBzAE63UUkFXAutvvXsPdYonMyAo83SoyRstOQXHhAkoVi5jkPUvTxtPzIBuPBi9Z6A==</t>
   </si>
   <si>
-    <t>ACELINK NX-Pro事務所管理</t>
+    <t>sbIDNVMcpHmMupRoCgKeb3qS9vsQMRz3A2/SQv+9Oz+bFPPJr2KxDotWA9VO+JK9cpJwNLEJSwgSw6Sp9ljHyw==</t>
   </si>
   <si>
-    <t>06ccc052-3451-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>東和貿易 株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK NX-Plus財務</t>
-  </si>
-  <si>
-    <t>b4c936eb-3351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>m4Am3nXBDwDjlR1/Y/+4YZ39XcRHRAsHWAs/qNCavbdZXCwRfDauHnOrfNdML/SAyIUUhq65onjRheHOcVQDcg==</t>
-  </si>
-  <si>
-    <t>株式会社 ビジネスサポート</t>
-  </si>
-  <si>
-    <t>e6334b33-3351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ywFyYyPXYFsyMMm8oHikxtCj6rj/JoO3Ug40tp/bIVEZtfZkbCAbX0U8RPEBIJ1pz7lHikG8y0+hx6WZJgLnAA==</t>
-  </si>
-  <si>
-    <t>医療法人 寿栄会</t>
-  </si>
-  <si>
-    <t>MJSLINK DXその他</t>
-  </si>
-  <si>
-    <t>8e392a98-3251-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Y+tyCnVvIAS/+bSGzJMes120KSgMkvqksqb8TlCMtIZR5SdjCaGKA1x99tITvX3+Irz+PLZMNwjH2VeMVpiOgQ==</t>
-  </si>
-  <si>
-    <t>相原和司税理士事務所</t>
-  </si>
-  <si>
-    <t>d2d612e9-3151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>U3la3WjJTg8TJcc+73fKIJOupI6O9hbmSFDgmpsk/mKeMfwEjSm92776uZsH7NyUNMoY2QYWKEVdmAa8SlRqvw==</t>
-  </si>
-  <si>
-    <t>阿部税理士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro減価</t>
-  </si>
-  <si>
-    <t>8b971f81-3151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>As8HEIcthM08+vXrV3OPrEAP24nk4dQc5FlfiAVRKATFOg14xYpNLBqW0CKou7Fh0pwV7IUwfIZZxnhWY8k3Tg==</t>
-  </si>
-  <si>
-    <t>平川税理士事務所</t>
-  </si>
-  <si>
-    <t>344ef879-3151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>RW/IfqI48rP7VjUW+fBNlf1IUQ28YynczKADPC3PdZj0sWdoDZ18EGePGl2oT7K4wT8/sju2kXItRPB1n+wLkQ==</t>
-  </si>
-  <si>
-    <t>d7d6cb72-3151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>pHtYjZdZveJp3lUQEJvBq9pklILZ+DhhtKRBVGnu9LiUH1s4+J/n11PpWtz0ZRLp2Tsxe+xFBeYwTjhBI4Cz0Q==</t>
-  </si>
-  <si>
-    <t>株式会社ポンパドウル</t>
-  </si>
-  <si>
-    <t>GalileoptDX給与</t>
-  </si>
-  <si>
-    <t>38178619-3151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>dDGqvjjkC9lanMGWhO+Z00Fggmd280gTxVC2U1PdkeLLDyFVH6qnRXg2RjhtvIGc/Bq4+Ujc+litez+nxYzVFw==</t>
-  </si>
-  <si>
-    <t>宮崎信一郎税理士事務所</t>
-  </si>
-  <si>
-    <t>79bd2dea-3051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>0f769098-3051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>zn7Xjg62CNO6p0668NjYPNyEzOo6MlUWQP45W3j6KuHu5mD5I+DFyETsjj+XZ1UCW7sI91URpd0phXq9VbhH9g==</t>
-  </si>
-  <si>
-    <t>松山 真美 税理士事務所</t>
-  </si>
-  <si>
-    <t>9826ac2b-3051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>M･P税務会計事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Proその他</t>
-  </si>
-  <si>
-    <t>6df68c17-3051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>WldQ8FaAEQbcQYWaBSsaIPjiuCjsZnBKNxLcTmV0Bh+wXc/fu6elWpVNgaP4Mden9nBn4k71aWchKvHZoTOz/Q==</t>
-  </si>
-  <si>
-    <t>株式会社 畑商会</t>
-  </si>
-  <si>
-    <t>13c1e0e5-2f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>MNcyJk2A04v4m3kpE/a2Xr1u9iLfH8yAa8+fakD57qYlgHEVSlmdSdMjtAK0i98pOy6OA7GLBIGKCGqVLtYNEw==</t>
-  </si>
-  <si>
-    <t>HHD</t>
-  </si>
-  <si>
-    <t>TVS/SS入電</t>
-  </si>
-  <si>
-    <t>友松 悦子 税理士事務所</t>
-  </si>
-  <si>
-    <t>折返し不要・ｷｬﾝｾﾙ</t>
-  </si>
-  <si>
-    <t>各種ソフト</t>
-  </si>
-  <si>
-    <t>e33b58af-2f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>iwnajwJHKIFGgGaHZLwPOwS6hqjgwZv5XbOBw0MI/VRu3b0KgirDIjsNx8LsrC5MCabUc90Wu5sVnz4hwThrmQ==</t>
-  </si>
-  <si>
-    <t>木村税理士事務所</t>
-  </si>
-  <si>
-    <t>NX記帳くん</t>
-  </si>
-  <si>
-    <t>0c9496a8-2f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>社会医療法人 松本快生会</t>
-  </si>
-  <si>
-    <t>MJSLINK NX-Plus給与</t>
-  </si>
-  <si>
-    <t>fc43174c-2f51-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>tSwny6V1R7xq7T68dLSFxdz7FXS4ExK+Emyhkc3KC4FRmIdcXMxfPukaLpu2jL9iPyh2o6G1dcvKQSFSt5dB+g==</t>
-  </si>
-  <si>
-    <t>顧問先ソフトウェア</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>不明企業</t>
-  </si>
-  <si>
-    <t>a5fbd2d2-2d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>有限会社 ゼンコー</t>
-  </si>
-  <si>
-    <t>MJSLINK DX販売</t>
-  </si>
-  <si>
-    <t>b0460540-2d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ub1tUPpSTMTqlTZgfTipDCt7iPVcuZTP1DCz3q4Pbe6tq5LDdnMaJbxf31ZbeLVQ2kXIE4n7jrOpvi8DBI9wUA==</t>
-  </si>
-  <si>
-    <t>税理士法人 松丸会計事務所</t>
-  </si>
-  <si>
-    <t>d電子申告</t>
-  </si>
-  <si>
-    <t>dc6aa9f5-2c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>7Pb/5kiZfEbw9irvd3anZxd+F6EDiHPSR05SOBKVJGh0zySHdM2/fexnusBRhpRjmoXKeK1KgfgVHuWaWLzlNQ==</t>
-  </si>
-  <si>
-    <t>株式会社NICHIUN</t>
-  </si>
-  <si>
-    <t>d61c16de-2c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>X7F7+uUn4mcpd8SQn0VfrTDI/9l7HhNq/x04YjYwKNjsumYtOhvxeCfeUYqCsHrpg9skoUrfwO7Gn9VZpFRG8g==</t>
-  </si>
-  <si>
-    <t>本吉公認会計士税理士事務所</t>
-  </si>
-  <si>
-    <t>88aee1bd-2c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>biV0ST/mRHe5NZjQXhWn7IPM0tlWssxm6EZ5JKvuI8lo6XIuHQXTk98lvI4djWq8sQfrQiiOqBk8PlnlKySXPg==</t>
-  </si>
-  <si>
-    <t>株式会社桃原農園</t>
-  </si>
-  <si>
-    <t>7d02b20b-2c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>wZ8JzpD3sEl6bd/hWuAEEom+wAmDr4mqAgmAJs0yUQVQboeT1bB/C07Bzrr9e0Mgn74cBSEwGTg2hvZL+m/SLA==</t>
-  </si>
-  <si>
-    <t>坂博通税理士事務所</t>
-  </si>
-  <si>
-    <t>fe2b34ce-2b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>/lYVs4SFp5YZpZ1sOtVOjlGlQ458nZyWka3QzLFjIyyhuKXn2rPD3Dan40JkiwV6iOEIstN8hPE5fx4NQ37U3w==</t>
-  </si>
-  <si>
-    <t>株式会社小西砕石工業所</t>
-  </si>
-  <si>
-    <t>10aea75b-2b51-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>Um7Y9YhaoFYr9MUBAf4uu9DnNHtYUSO1ifgkxb+6i05b3TENV4wtaDPGiPCeXqwvi93YgDKXsHhqCANX6nVDcA==</t>
-  </si>
-  <si>
-    <t>平野治税理士事務所</t>
-  </si>
-  <si>
-    <t>b0a5ccbd-2a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>5ooA8v9MjOLTvFpfI0PancyGEHQ/nxlKh/kQPF5YuCc2mS7V+gsPwhj6NNisw2iaG5gihDQNPI+HGzp7VZ5shg==</t>
-  </si>
-  <si>
-    <t>江藤義雄税理士事務所</t>
-  </si>
-  <si>
-    <t>a51edaae-2a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>7P42tnXs+YBCtCoKsUN6NT8Fzx9zGE3JVRwscq28aGOV8XxZIZ0YAk5kr4/K/JadktyWRpzaLVEyaKGyhPNqpg==</t>
-  </si>
-  <si>
-    <t>山田裕一税理士事務所</t>
-  </si>
-  <si>
-    <t>9d56003a-2a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>5OxuKxivatibwsJznmnCeiAy1O9B7iz+Q3km7aqI+iOtM4abJ0ZleFRhAiTeRNqjO6mqOaiYH/rzTo2JRE4Kpw==</t>
-  </si>
-  <si>
-    <t>奥田俊彦税理士事務所</t>
-  </si>
-  <si>
-    <t>e591f4b3-2651-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>中野 敬司 税理士事務所</t>
-  </si>
-  <si>
-    <t>CbYFn4RoKPbHuVKcm7aXssdVdY9vBbdkcymHlqxS7vJ1T8HHIFi48PYHJuJqHKt1oFMDfKah0NTc3ibA4HEHuA==</t>
-  </si>
-  <si>
-    <t>0d2f3434-3951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>アイテップ 株式会社</t>
-  </si>
-  <si>
-    <t>MJSLINK DX財務</t>
-  </si>
-  <si>
-    <t>49a5cc2c-3951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>杉浦大貴税理士事務所</t>
-  </si>
-  <si>
-    <t>VZ53FwklDEyzVJO3h6RDABY2/x8F2wYGTP5YS6PwwVm3WEdWxC+NYTbe0FHzOKD/BryFjv3MXOnrhqbz9caODA==</t>
-  </si>
-  <si>
-    <t>1eb85f43-3951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>OFFICE KODERA</t>
-  </si>
-  <si>
-    <t>kかんたんｸﾗｳﾄﾞ</t>
-  </si>
-  <si>
-    <t>99172365-3951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>光建設株式会社</t>
-  </si>
-  <si>
-    <t>a8xlmMH83Fv6aijf3EX+VskeZpvaYx7HV3Ks29zs4Q9HV4/4gyzES07JbLlZMenlzhsDWBL5r0PQo5ZVvmI5Lw==</t>
-  </si>
-  <si>
-    <t>75103a79-3a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>有限会社 津久井新聞販売ステーション</t>
-  </si>
-  <si>
-    <t>CNhpVF3612B1Y80zgsdsV/IYR04QF5KOZKmoOhde5E5g68/ytclbm1g4Yk5drHGzKLhQoqgT2L224YWPhESlrw==</t>
-  </si>
-  <si>
-    <t>wHcAXF8SxPGXbwa3oxMYz+iQLVhQZdat9KAV6Z0Xka+URgCK0eL/Uypm7IBCEU4a/a73kW30szQoum8XfcQUgA==</t>
-  </si>
-  <si>
-    <t>fcf4634c-3b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>JJu1ejyJK97YaucMJLuTrzNt5W+7ocqiKGFQLHUOFqvfUe0LFNKEHtRMFn/zzHzHd8erg2irmeawKowUyABMBg==</t>
-  </si>
-  <si>
-    <t>6255525e-3c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>日の丸ビッグテック株式会社</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus給与</t>
-  </si>
-  <si>
-    <t>WEB問い</t>
-  </si>
-  <si>
-    <t>岡本武税理士事務所</t>
-  </si>
-  <si>
-    <t>iTNySbtLCKyJ4cPgL8rJn3lkHpTkynunSRxiqSRH7Y0+qRHMCxNN1t3Pdz9WpSzcz0fZqY2ZD5gKND8oQrLqkw==</t>
-  </si>
-  <si>
-    <t>b26dd0f9-3c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人 山田＆パートナーズ</t>
-  </si>
-  <si>
-    <t>N0ebVk/v/GRt2xEsfC6t2Sshz2dtpBJbhT6jcE6+k4DwlW0cZLw0c+jEZ/AMOkY2W1adRih523hf0FrwaNyUHw==</t>
-  </si>
-  <si>
-    <t>0TwpyHQqvn/3bgUdLkqFz0M901JdqjtlroLlF7rEnyhyBnAMDntAu5dYW5+Nm2BvF25q+1jOMNsdmV3IiAHnsw==</t>
-  </si>
-  <si>
-    <t>773cc809-3d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>有限会社 出浦商事</t>
-  </si>
-  <si>
-    <t>eVvD25tKhjY36MNnHigHd0h5ZY7qQzpqjulZgah6cLuxlNNk4dNeEdpY7U7CE+4/yI3k/jwFgFDVgYEP2OSqfg==</t>
-  </si>
-  <si>
-    <t>9q8hKH/t8OCKloyPHrRNpVeZI39OmNWR2pPAJKroPddCMOI3sY2pm7Pagl06KXwsvDmblDtdD8TsixOnQrWqZQ==</t>
-  </si>
-  <si>
-    <t>11609d7e-3d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>abaf83aa-3d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>澤田 博明税理士事務所</t>
-  </si>
-  <si>
-    <t>a4af83aa-3d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>1cb34f4d-3e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社トランジットジェネラルオフィス</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus債権・債務</t>
-  </si>
-  <si>
-    <t>4/o+lwD5AsCJmdrTpmlqDj07/Xb5BXmjNGHLdJYzXPqD7NVhdzbWFwaiDSuh1A9iT3lW9uAbPSdc7OPX8qmEKg==</t>
-  </si>
-  <si>
-    <t>U5s+g+g7BjHVhdMiteLo83y9EarHouJl4IBZFE+8p4Yz3uSs31RsinK5H17kDrlj5to2tUJcDSTuLLU83jXMHw==</t>
-  </si>
-  <si>
-    <t>WdGXjcK6mZ+wDi+xHFwNyoz0nfum9dQO4VqBVH6M9aNLpwrKP6s7DXK5xsdrQUFbnwiKcoF6KurY7B0lqkCuUQ==</t>
-  </si>
-  <si>
-    <t>8M3ss48tasSvVVp5Jn59T6EApSSnXyLBNmn20Y85IEOEIY650QJLyGg5z+ZCkdGWYyJ0i5Zm4/jZhG94WVJx6w==</t>
-  </si>
-  <si>
-    <t>88e1ab94-3f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>竹居税務会計・行政書士事務所</t>
-  </si>
-  <si>
-    <t>確認後回答(部内)</t>
-  </si>
-  <si>
-    <t>q+575tXGelcCZ9ubXcn/RHZmUbGgDmQlacWUXrdUdMjuvs97T6Z1+FpTGcjUVxwIfdcHxaZCV1FwGAE3NCh/6A==</t>
-  </si>
-  <si>
-    <t>SRB投稿（要望）</t>
-  </si>
-  <si>
-    <t>kYqaaK6bWY2ITBiHuTjExhgojFLsdGY2w92Lc1Gx71LktQ+VAZumf/XaoL2hG5H2zuniaatBzD7F0AJMnOd9Sw==</t>
-  </si>
-  <si>
-    <t>xfKAW7yksXAwCQCa/GTcwjdSvfQTLjHwOwIH2AdXmy7B+nXVI5WhRwrQ5NPsVKVAZsaq6KLy671BAG1jlJx3kA==</t>
-  </si>
-  <si>
-    <t>e4e10681-4051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人 土谷会計事務所</t>
-  </si>
-  <si>
-    <t>C0QWSt082qtKm1DPYtd194e1xxSJzah8UV4DtqQIMO7IYv47U/6kgbfnydbJgWYQPeV7M/5nAHiPoqe41hH+3Q==</t>
-  </si>
-  <si>
-    <t>BvHk+oy9BAquuO3T2YzWtC+o6A/Lb0uQ+DPbJGooZMEso0Kktf0fDxTV95F56sWZbx+1mX7440XNHa7xZp0bsg==</t>
-  </si>
-  <si>
-    <t>AkwXzPKEElvgyWW8b6OxtcwPG1UgRg2/qKNZcSTQQuIwETjouJNdna47RFHYSt+RPzUhEbnvAx9PriuPfAJUyQ==</t>
-  </si>
-  <si>
-    <t>a6dc43bc-4251-ef11-8830-0050569565d2</t>
+    <t>5366ce18-4552-ef11-8830-0050569565d2</t>
   </si>
   <si>
     <t>菅谷税理士事務所</t>
   </si>
   <si>
-    <t>D8AkhPwaBX57v2gAIE0R+m7SUUL1SHuTYECaO/4t8C+o/t+T0wXNnJeMizvC3ZvGUNPxNYQUbG+uH4hn6yfr4w==</t>
+    <t>c23b3dbb-4552-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>hDZf0kfixfKD4prhat3GKKA8cSJmKIG8WKzB+a40kznMPnbK5tMkEZ+bYR7YNO4iK3LFUinDjsXPhOQIl8/jwQ==</t>
+    <t>田原慎二税理士事務所</t>
   </si>
   <si>
-    <t>9hM/ztiOJQ933BzsI7t7x14jk+pTt4WjDDqO91C6O1w3it+efHNMkUMtgw+NApSJpwg/CyQ2hBI9RBs0yoBnQg==</t>
+    <t>5796be9e-4552-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>b113a255-4351-ef11-8830-0050569565d2</t>
+    <t>高田政義税理士事務所</t>
   </si>
   <si>
-    <t>社会福祉法人 恵康会</t>
+    <t>10lFit+61WFpk25UMpZpqt+MUA4Lg8ltsWp/Awey2rRLEke1hg4RK3wtV6qUa/IiyemISOooPR4DJhmERLtRkw==</t>
   </si>
   <si>
-    <t>aa13a255-4351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>湯浅税理士事務所</t>
-  </si>
-  <si>
-    <t>978a6884-4351-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>株式会社 大成エンジニア 糸満営業所</t>
-  </si>
-  <si>
-    <t>896e3ff0-4351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus共通</t>
-  </si>
-  <si>
-    <t>68d1e4d8-4351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>e37cd0ff-4351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>平博成税理士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-CE会計</t>
-  </si>
-  <si>
-    <t>nYBudFxU6+E2ZhWd4X+jWjwpKxbckMo9+fHwh0vi8QBbWp+1v2NstLarbCOA5s8MTZYCKoMiWzsS33tjVbNulQ==</t>
-  </si>
-  <si>
-    <t>PCEK+kQDupniv/sfGGRdTppK1CTZrA9QLJI/E6ln2HPXGYFoQUw/OwGHAq5Lxuz9099Vr/i3jDOw4w7fI4bYsQ==</t>
-  </si>
-  <si>
-    <t>7e8c7675-4551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>6dd581e0-4551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>StanRiver税理士法人</t>
-  </si>
-  <si>
-    <t>831673fd-4551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>喜久山定男税理士事務所</t>
-  </si>
-  <si>
-    <t>s3Hro32l18z5KX++iqcvUfzsPytkRYdxE8KtQte1sGftEANYyYwidQETad1DlocpJwlHZsMul3xYvffYQN/dcA==</t>
-  </si>
-  <si>
-    <t>xe8h00LDee9Py+9im8hoYfhLlxQ3TYHTgifF1vBIh6XZxNfN+yg2j+lge7bzTodOjrVBpM2dq6GjweetJHmiLw==</t>
-  </si>
-  <si>
-    <t>512e9f6a-4651-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>909a7d5f-4651-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人松澤毛利会計</t>
-  </si>
-  <si>
-    <t>a06bcbb7-4651-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>かんたん！一般入電</t>
-  </si>
-  <si>
-    <t>h7RClg2FU65e0PdBkl/BzEvHiseXW91A1BZknVUJWbik2XUB0k1tAFOpV9Iv1p6wkGZJ11rwgT6R3KUkGwVKmA==</t>
-  </si>
-  <si>
-    <t>TKWQVcOMtfXsOnkoKNN+2J8lTtN4pBgPYcbL0O85wXXZL9ovYAHPVBVC6V47sgqIB+FmfOf2iG4VdOaOP9p3RQ==</t>
-  </si>
-  <si>
-    <t>b5d53197-4751-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>九大前不動産株式会社</t>
-  </si>
-  <si>
-    <t>c3d19600-4851-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医療法人社団史祥会 </t>
-  </si>
-  <si>
-    <t>日時予約</t>
-  </si>
-  <si>
-    <t>2b89d9f6-4751-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>大野税理士事務所</t>
-  </si>
-  <si>
-    <t>fc9dda1d-4851-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Zn7Ym2H5/XhlgYTm+NHhsrZsm3l0EvUEunypeZsdFkfZKtBy+k8M60KHQ5wjZX5GSOxI86/urM30VO0gY/IVCA==</t>
-  </si>
-  <si>
-    <t>明田川裕之税理士事務所</t>
-  </si>
-  <si>
-    <t>hﾊｰﾄﾞ・OS関連</t>
-  </si>
-  <si>
-    <t>DVcusKlTOAHkC4H9iwfdcAgY52OZqt3FoHt70lB8zfL0zwXwGdUzU428ubSxldDj4Siv0BjwakrgiCYeNxK0jw==</t>
-  </si>
-  <si>
-    <t>pfI69heKNBPbR/Qm+mVzLz49UWBk2Nn9OM33UEk6GNocz6aziI57WLElJR/eltWVLPlPSIe9PJAQqRnbbTvVrA==</t>
-  </si>
-  <si>
-    <t>IgQgETmOdCcXVQWWuz8Bp+Au/xktd1WPRxKOCr/44uk9dBlfYE2pPUMS4MVnmU26Or4mFUF4tBOOyAkvYgOT7Q==</t>
-  </si>
-  <si>
-    <t>VEMAU2nfuKaYyaDH6Xlh9TnmGuXLENC0SIX0NQ3DaDsRRK/2STkZ29IrrWFXseKiZH7boHeunvK/QgZIChgbGw==</t>
-  </si>
-  <si>
-    <t>77aa8d33-4951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>bU6a7tQEwb27wVAd18aQPG3lmjr8/w3jw5dk1257CtYOP4Uld1NahC+QPIjP0fGhwog7cpJQVcvLoXzznj8BdA==</t>
-  </si>
-  <si>
-    <t>他ｸﾞﾙｰﾌﾟ依頼</t>
-  </si>
-  <si>
-    <t>6e6fc983-4951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>てづか税理士事務所</t>
-  </si>
-  <si>
-    <t>a1HSbJk7ykhUm1sBDFxT6D4lNMgD5v+fVfJ7HzdeKHx4A6mAy3qjIdiS9BHd40aJQj4vAsDZPLfUUST19QVqLQ==</t>
-  </si>
-  <si>
-    <t>ZDD8OupNVwSW+L4pKKt89c0czD6cK4fgbUzGecryqqVVW2avC7ge6dUSsquRt9kC5DvgQrv+7baDwxweALe80g==</t>
-  </si>
-  <si>
-    <t>04ZfrJ+9My1DZl6GVFjhTh/TMctvEDd4ET4SLXxzY/VyLM0fFOcJSTiDCw4jlhl664WfSojuVBED0LSWIIMtPA==</t>
-  </si>
-  <si>
-    <t>27a2acb5-4a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 坂田計算センター</t>
-  </si>
-  <si>
-    <t>9a7a5812-4b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 結南クリーンセンター</t>
-  </si>
-  <si>
-    <t>a3f0eb02-4b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>栗栖英俊。税理士事務所</t>
-  </si>
-  <si>
-    <t>7aoHLF93f0ANA30s8/4//XHIQI9eSkfcBA5Sf0P2pPd6xzvQOEMZ5B0e2/AS84n7zsUWfB4R/1cjbTkW0dh95w==</t>
-  </si>
-  <si>
-    <t>e4246a8c-4b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>9915dced-4b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社ファーストマネージメント</t>
-  </si>
-  <si>
-    <t>RhfhLXtKxgQolY5v8tUySEIxIR8xl/woJtgVM3AlkAsp79ZICtl12xz5P85R9l7KZZglZfWt6sW9t8obtN7JTQ==</t>
-  </si>
-  <si>
-    <t>234hjH2mQT8XZShXOuh/9mDkvRGmWgvkh9jOcpqW7/K+F5luDYK9SHqiLAENMqPJ3HSMMz5ioFXFdAFrZHVLrQ==</t>
-  </si>
-  <si>
-    <t>qW2txe53m4XsgyqpuAGDEmn1ECsdFFlVJ6QfBmKuzadpY8ws5GDlYDQ1HvJ+Qxpjp0EF7+AtAoKKeB58gmw4FA==</t>
-  </si>
-  <si>
-    <t>F7kRyPvB8i6KYAQuXUfTMgr8cEoyCMYDV501Zw0dypSejJhqoV7bvqfqR68j17SnuTseVx3raRh1rQ2lWtxHpw==</t>
-  </si>
-  <si>
-    <t>10WTZHXRXRakjElPcmLUejX2W/QIxuxalUDYLVpB9kywYVfwrfF/zwuVF60W6vrLJzuUrfZBYIaoNhG59uN5Jg==</t>
-  </si>
-  <si>
-    <t>24bc5c1a-4d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>大津映子税理士事務所</t>
-  </si>
-  <si>
-    <t>973c5714-4d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>IJnUBJBsk++B0ahnmud93RFGq19R6AznKX9V/16mfiAOg9SpGTD9kV/QYkrmU4OCnuLlfLZd6ObYlreb5ZoBTg==</t>
-  </si>
-  <si>
-    <t>a7d07e6a-4e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ba370e58-4e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>kFkMXodVq9whtqkl5yj94Ldej9akkVY6V6EF3yOcHYGbRa8nfScCw8jLvlEx3m3/xwUQNZZG83dogzK/evUALg==</t>
-  </si>
-  <si>
-    <t>5d3baf76-4e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>伊藤千鶴税理士事務所</t>
-  </si>
-  <si>
-    <t>4f70edd2-4e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社アサショウ</t>
-  </si>
-  <si>
-    <t>wm4kPOrMvCOyVxzbPw2w2CtyPITqKi/2eATFsxFn+WCDxGlM1lA4FDzyod/Tw/+Q7f4314K+KuSPfR+jAG46QA==</t>
-  </si>
-  <si>
-    <t>d12400f8-4e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 クオリティ</t>
-  </si>
-  <si>
-    <t>e3e66106-4f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>石井香織税理士事務所</t>
-  </si>
-  <si>
-    <t>vy2rrMmmsVVh6jdrTRSnlfatuHwQpzyPSWthorZxUeLF+/f3KaEva+8PM8GPJaKu57TNzWrDYPHSizEkwQqGuw==</t>
-  </si>
-  <si>
-    <t>4UkXRlXCLfoEuG4QFrWVWQQA0QEsG0fg3aKeSrnpe+S3sQMRICUQSAAd3i1g8rR7a5R61lf+i/V/z6A2ezEfMQ==</t>
-  </si>
-  <si>
-    <t>beHIwwiaprkfRea63fQLcZ0VnMBgqIYNR2MhZ2Cam6/+LeiiatLoy/tYgZX+09h8fCktrmws+dw4rwOek46wpA==</t>
-  </si>
-  <si>
-    <t>RwLjo1YK5pLM8Aq+Vt7z8wVg3+w5Y8aayYIbKt5++JdDIwx1xjeE4SkLTjga4jk82T1suQgDki1wLKRFCzzviw==</t>
-  </si>
-  <si>
-    <t>jdDGbN8Bvv0cLBXT0ZEQXa5d3Ofz1fnvoPfELXj8TpUIIHfxJpqIATe6birXgZh0Qq0kO9q6TNNoLSl2F8mzeg==</t>
-  </si>
-  <si>
-    <t>eddbaa6c-5251-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>田畑 清典 税理士事務所</t>
-  </si>
-  <si>
-    <t>9ebfc135-5351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>97bfc135-5351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>黒坂 勇貴</t>
-  </si>
-  <si>
-    <t>w4L6GwU+xULvSZOt8VmyN68mNoChdNX8Mb+k+zcggIihw8JTMtMidyD0NSH22upTLF6XPexzZrkcilJmcY0LhQ==</t>
-  </si>
-  <si>
-    <t>wP+xbegkm4ZmaaBbYTTaRsPnZUBRu047MVKOQFUpz4ZIZcRiaYi/SFzebk2Dpf1nbhiYe8DIsM1WSuzUZauwGA==</t>
-  </si>
-  <si>
-    <t>408d0483-5351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人 日本綜研</t>
-  </si>
-  <si>
-    <t>16bdccaf-5351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>林貞治税理士事務所</t>
-  </si>
-  <si>
-    <t>706628a9-5351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 藤商事</t>
-  </si>
-  <si>
-    <t>nlFpS1bePbVhFb2npRWl3+314fFsillIn66CxjwWmHxUiWbTiHCisxJKzHLtzmu/XCMnMvgpT+uqHSgkG+Dl+w==</t>
-  </si>
-  <si>
-    <t>tUqnpvTUgbPJoOBML7sEacXXvd5JhTwdKjz7x4ucYCcCgxC1Gm0+ymOlqWghQdH1mw3WOydH1gSZ0IgIso7tcg==</t>
-  </si>
-  <si>
-    <t>622fe3d0-5451-ef11-8830-0050569565d2</t>
+    <t>4e4f340a-4752-ef11-8830-0050569565d2</t>
   </si>
   <si>
     <t>南出利之税理士事務所</t>
   </si>
   <si>
-    <t>f4355a15-5551-ef11-882f-00505695a183</t>
+    <t>72ef3a56-4852-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>0c35c536-5551-ef11-8830-0050569565d2</t>
+    <t>田村 奈々子税理士事務所</t>
   </si>
   <si>
-    <t>ミカタ税理士法人</t>
+    <t>OWtemslqiLtqTzI0Q9CGN1gcrS/aS95+TcrUrMD96boJgkRYFdxNhsgGSRJDanHFX+0mPaCoy4qm8keQ78tpFA==</t>
   </si>
   <si>
-    <t>91a13e50-5551-ef11-8830-0050569565d2</t>
+    <t>2dc67a9f-4852-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>株式会社 川上板金工業所</t>
+    <t>ajWSBRJzuAy2dGFyfoJ9pIB6GRNPeuSS3RpFcqFmCur6jl8+Nd1smh/x3gQf/iodogt9dqKiVoTHge/V2GZHSQ==</t>
   </si>
   <si>
-    <t>somBiM4wTVRvfVl5hQcfy2bEE+wrQ3d5M4DON4WjUc4AyOefp5y5FOnIzPlvOcRW0x/41jnRzB82ZJeOsUrMYQ==</t>
+    <t>SfHQGTv0MV3a5Q2AteuPgmfm18cm+cAZsmETr4C7o9NnxqUWc1G9tygctgDodm3V//1LPti3GaTmifrLWzTZBg==</t>
   </si>
   <si>
-    <t>ed76ca86-5651-ef11-8830-0050569565d2</t>
+    <t>034af3ba-4952-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>bc7094f8-5651-ef11-8830-0050569565d2</t>
+    <t>米村元宏 税理士事務所</t>
   </si>
   <si>
-    <t>rUygDWg3nusOFkrQ3XcUE/tm++Oydu5rzdNQw4XvQVE5BkMvMHcVm+31PpsGmrZhtYET4pUPC8VnBegKfGL94g==</t>
+    <t>W84U/C23VokO8A1RaBrUW4WtdS28t6YD8lDR1qg2DP1wN5SzS9i40ptqI5udDmqO4qsbmg9Eq5TTWCcm/gSF9Q==</t>
   </si>
   <si>
-    <t>Ire6opMwR+5DSDp27pbnmGEl3b2LADDJEaLPtpgXSehariZ1TI8Vxn/BNCrUDiLDTGscJsQKhoJ4ze2poXQE5A==</t>
+    <t>t62C6wsHPsdE70cstCH0tBfa4FtUGWUUuaxL+3CTuMXZXuP+J/Bt8XyGtYrLtkcQctzdyxgOt/7W3fTunPVrug==</t>
   </si>
   <si>
-    <t>c7bvuA00xQF8W5XVE4a5NzDVn+wmPmXnDLdkI0C4M0PPbMCZsKSk4m8PDOWj3uVz+sSXrLhG0USLwC+VemipEg==</t>
+    <t>2c4a8a2d-4d52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>その他</t>
+    <t>a4db4350-4e52-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>3da10699-5751-ef11-8830-0050569565d2</t>
+    <t>3b+Rif7Mco9z3ZuaJsoXEKAOUQLO8LiBY/3IQs0uUJICoijMvThtwjx3U/8zeNGUYyxevunGNzJcj5d5xfUDhA==</t>
   </si>
   <si>
-    <t>ZkAtIp1DkSU/Uhje+EVbsHvb2jpYZ5b9q9dSfJ5wtqQ8MGONMxeiDP5A07mO/uDntjxka2PXd7gK2RxMyDCaVA==</t>
+    <t>税理士法人アクシス</t>
   </si>
   <si>
-    <t>cAOvZx2IbGfeKbASVl0wGqU3GU8IbUx7KbQuciTDnJbe1907eGGOVktKgzWfW6/Zuh6QwdfL21wDmhrf04G+LQ==</t>
+    <t>5YzWioHFAhLu54Hzs3dVtAd4d61r20vI2ozLHpBb7DP0gs5gREHyXRfd0bBYukj+cLkazVM4azRaSD+jeUkseQ==</t>
   </si>
   <si>
-    <t>yCmJuLyxsCn9A7rDNbqAuPOMFoLkw4QFhNZ6VFAh6Hr/qLKeM/AhK/9BAifYOqAPDyb1c/LfP9XlO1otahuzog==</t>
+    <t>c8dd50de-5452-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>5QPeo++SnNsAa047db6AJFVNLR+6gsX4P7/bEB6JMj0LubjB/+s3rb1d1HwUpQk0aYBDbqzYNYX1iB4WMm/ZIQ==</t>
+    <t>大城税理士事務所</t>
   </si>
   <si>
-    <t>12Ls34K0qSYpu1PT5oly7tF5HDpHEEOuCDPvuDnAvvco230YI4QaZaHok2jmP0rX8r4wRTYPX7m49lgEuM70tg==</t>
+    <t>65a79d32-5752-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>8d4cc43e-5851-ef11-882f-00505695a183</t>
+    <t>松本正剛税理士事務所</t>
   </si>
   <si>
-    <t>ysOjO2krdeLzL+E3Xwhv2IRkC2aEaUJu1r74qSxpLcnnGwQa/v6IYidDZmKcX/QjMwPz5lDWXDYiVEmTD8ZnPA==</t>
+    <t>LVF984fhmFxC8Kjm81zcw4+mEtSiu5p/KTu3p+nYea5Fhqvel5Qwp9nWjVUJv1FCffjTvxp1jFhWvC/JYSEooQ==</t>
   </si>
   <si>
-    <t>7bde816f-5851-ef11-8830-0050569565d2</t>
+    <t>d104e316-5852-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>山口テレコム 株式会社</t>
+    <t>三坂税理士事務所</t>
   </si>
   <si>
-    <t>I4dDepzuBhRFC6ZGZ28d8IBNSZbExGOAooUQz2JNpgV1ChXJDWzrz6lJFxkEjvoY0pLn5kQis+mRSorjIwmKbw==</t>
+    <t>a0bb24ca-5952-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>c4d0b7fd-5851-ef11-8830-0050569565d2</t>
+    <t>張江税務会計事務所</t>
   </si>
   <si>
-    <t>90ca838d-6e51-ef11-8830-0050569565d2</t>
+    <t>n+bik/yxN5YrzcplMMAAT/5kVUVHEmnvIFl81+vkbD8QldRAd5j4En2Bl82101o8+R/htoHIUXV/ygcg8bD7DA==</t>
   </si>
   <si>
-    <t>p1HTAZ/t1a3wsvsx19l95cHBkJHQBP6y9ozSIUCV8xg5xCNdLHIlV2i77HVFuVqSrRrokv0F0i4VittG4Ndhnw==</t>
+    <t>908ed420-5c52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>株式会社 横浜ハーベスト</t>
+    <t>岩﨑総合会計事務所</t>
   </si>
   <si>
-    <t>06c4c841-6e51-ef11-8830-0050569565d2</t>
+    <t>63eb1f96-5c52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>2iEOeSrCNbwiSar5rXR5YyI7kffLBOovf7Hmt+KICFFNm7KqXWRvKVEnxjK2U1fslTDLY10G7HTijKgKCNyBVg==</t>
+    <t>山田晃代税理士事務所</t>
   </si>
   <si>
-    <t>MC税理士法人</t>
+    <t>0/DokOu49krL3Nw60lx1SW5rT6CtgW8hmuzhHtvSMIaxIHQkre4PvjfXfLj2SyMhvqZU1Wvh+peP3KBBQyTP4w==</t>
   </si>
   <si>
-    <t>57f56a0f-6e51-ef11-8830-0050569565d2</t>
+    <t>d168ebf8-5c52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>L6o/xPl0keVJMNjqVurb2LibeYf0mpH973A4cMszwXwyxYF3TXulp62r5Pa8FU4bPzciDdXCEOmi0Oyq91vAaQ==</t>
+    <t>e73a0875-5d52-ef11-8830-0050569565d2</t>
   </si>
   <si>
-    <t>株式会社 はれコーポレーション</t>
+    <t>Ppua+6Bs5VZO26c5qOOSdTEBKNUKzYhqHr8G8JsN/i5G3XLI37wuvgl//JdgfDhpz1C72l+GjsRKFWjaaIW2IQ==</t>
   </si>
   <si>
-    <t>cafa75d7-6d51-ef11-8830-0050569565d2</t>
+    <t>kR4OZj0GUA2H0zPVljq7Q+UOuoSW6diDcrQ1mOofVGlJILctdFtOxRqzKiIUfo3BdbAc975AxoTO5eDNachuiw==</t>
   </si>
   <si>
-    <t>0d6940d0-6d51-ef11-8830-0050569565d2</t>
+    <t>94X/NAUQZtxKTaG37icTDJHi4fpnUYhyFZuOc6QsVDA4SSC/1yugF1yxCsm39aVDgYaSyj27oyg1Ex+nBHO1rg==</t>
   </si>
   <si>
-    <t>ZulvXewh0Xg8sM6uCYL+/cU0qzz+x9KlBWX+Kwp4/yMOVy9lmfHP806TY+i9W2WgB0hLBBp7npAIPQMNlcKL8Q==</t>
-  </si>
-  <si>
-    <t>株式会社ジー・キューブ</t>
-  </si>
-  <si>
-    <t>4b075289-6d51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>WpK+RxGd7tTwqtLZdDDVzjkasfnGggoKY+Pl7uGEWuSchRcgNNAg7nGWejFnh5IG29/FoY4HJtiAbbmahnNoOA==</t>
-  </si>
-  <si>
-    <t>税理士法人丸岡&amp;パートナーズ</t>
-  </si>
-  <si>
-    <t>e9d56ae6-6c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>6QAcBfyQ2/09z+nx/3NdADxHyt3AB98wrh18WsQ40Keg/Ev3P25oh8O8+FLw5dooABeMyJkn6A2pHKvhkWXXnA==</t>
-  </si>
-  <si>
-    <t>株式会社市進ホールディングス</t>
-  </si>
-  <si>
-    <t>GalileoptNX-Plus財務</t>
-  </si>
-  <si>
-    <t>11868609-6c51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>L/k2KAeGQY3Jo9opxVmBlLMxDG8qmLzxJK217+YmfAElQ5W6f6dAOJdOSAtEmsMRISgiOaHxemNn8Wo3AttqkA==</t>
-  </si>
-  <si>
-    <t>粒崎幸夫税理士事務所</t>
-  </si>
-  <si>
-    <t>f9137fb6-6b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ImG/IhugIgd2y5oUC2utX8SUCCwCgladxVuN2PBCyNoKgdTwEaLDZ87Sfhyri+cPBs1eR2oZvW8peN1wVV9xGw==</t>
-  </si>
-  <si>
-    <t>有限会社 タクセスビューロー</t>
-  </si>
-  <si>
-    <t>92198bab-6b51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>GVCuMpysVt9OXzQHSSoe2UZMgg5UIwaNeTdP20ZD4OgdcvXlx5OhFiMlNl2U4TA8UDkGA3NSQwWy524zGMaHYQ==</t>
-  </si>
-  <si>
-    <t>株式会社 ハスコムモバイル</t>
-  </si>
-  <si>
-    <t>3886a6b7-6a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>RWi4WBtRH2tcMtwxlwTG11e2BYMbpPU6KW6c6/dx3k5gcVQLtEti4LiNHe2N0f5HLHD4X9icrHnVf88VKiQyPA==</t>
+    <t>c2758988-5f52-ef11-8830-0050569565d2</t>
   </si>
   <si>
     <t>合同会社EINコンサル</t>
   </si>
   <si>
-    <t>37a0d459-6a51-ef11-8830-0050569565d2</t>
+    <t>Q0893OcJmziLCQKD0G0zhQln7ZXtOmIsEjHNvyYy+QfGbFXen9ZKFsWKJdXxzOjo3Qk+FN0KqLMgREq3W8hCQQ==</t>
   </si>
   <si>
-    <t>YVQZHCSH9wg/pzIoqRkEmix2Q5xHhzj5xZEOHQNX5Cuqnmynmwu/R0EGYjIjcaKoISwlfatHu76mYr9u65MS7Q==</t>
+    <t>zDBh1ZpSYyiCItNoizuGZ/aGDWLCSc61LRvuqpLwNk/znxf+aVe6iskFvEXK0Ws2ctp36v9VoEZDI+ZBeH25Sg==</t>
   </si>
   <si>
-    <t>畑野税務会計事務所</t>
+    <t>r7BCFTOUIHL+C2P2fN03Cxk+VFT4BLG9G7klBKVYdeMRmUyQpTPKDM31DYj2Xv9KrMZex3zikd8OzxdtOYeTiQ==</t>
   </si>
   <si>
-    <t>e522f0ba-6951-ef11-8830-0050569565d2</t>
+    <t>6L80po6CylmGUa2hhRfqZ1lLWc5MYFIdrRKujNsXlL66qEL7jMyQtfuulK6nj4DKZ9t218DOuXwaYJO4EThEbQ==</t>
   </si>
   <si>
-    <t>OsO5POwMX3nlokVXTBjlb7Vy9ffAKa3Yk73jGg++Rrdh8vpLlD8WSiMC9dewF+7pGAmZcUb7ORZu4CQbZMfCtw==</t>
+    <t>xcJW3hGQ8S6188LRvB6dGvYAt/idbw4//GQAxEK5PIA5eKI1pZlrNx7foJhgFqZtEQwxUTBEPSgJkCH1JiEQHw==</t>
   </si>
   <si>
-    <t>三井税務会計事務所</t>
-  </si>
-  <si>
-    <t>150195f4-6851-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>CX/zIxIHfUaODVLncQ7xTxXlSdLO0nHoPcwbj/SJb4reIBseUgSqUK8PCdce4+HAPH2zFhC3UVkMmF2l9NPmRw==</t>
-  </si>
-  <si>
-    <t>重久善一公認会計士事務所</t>
-  </si>
-  <si>
-    <t>ace63ac0-6751-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>HAQty53Jfwp01I4qPNykr/FlNNB1tSHI9FnLzEIiwm+Q9MttvZDXWsQFPYLJwd//i4M7+mnIO4d3LiLNuOUKrw==</t>
-  </si>
-  <si>
-    <t>村田千紘税理士事務所</t>
-  </si>
-  <si>
-    <t>150f5c13-6751-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>fZ5YYtypO4uU3AZRtewRkHm7qRd4ml7J2Er1RCUWoRtT3cyG1t0RsPGQhiA2NlzYl0MbyPNsHVU9UEfvbPqT1w==</t>
-  </si>
-  <si>
-    <t>福冨留里子税理士事務所</t>
-  </si>
-  <si>
-    <t>981daa24-6551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>BgfFqqG1drOFuT/OX5N0Gw4LfPoIoT6pnWQNny5BnsB3/w+ja2F1Mfbew2Zl8tt0if2Z7AfTHnu6UJqT55rH9g==</t>
-  </si>
-  <si>
-    <t>iCompassNX</t>
-  </si>
-  <si>
-    <t>34252111-6551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>JdWgeTWBf7UwMjAhqcgmjTpnTYbXkwTdeB6n9MYtojFvhhggyL+F2GzlYuIwFQEUZ3vSLq58DxTeyG/AmZUZxw==</t>
-  </si>
-  <si>
-    <t>80e682d4-6351-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>mLIA6cherColl9xUR7nBoJhhO4yq3VtH9rOYM3wKx5dpmVibQ1RyNOWZ6Xss/ibygj1bKYAVJ+RDkrWll4fhoA==</t>
-  </si>
-  <si>
-    <t>平井 文夫税理士事務所</t>
-  </si>
-  <si>
-    <t>07ac6485-6251-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>rh3sVYsbNrpPtFcnI43s69HUcWkiguegitzTcdYdwILgsYxdol9sOQ+zz/SR60vZgRQBdU3Dsp+vMyWD6bDaLg==</t>
-  </si>
-  <si>
-    <t>株式会社小松物産</t>
-  </si>
-  <si>
-    <t>かんたん!ｼﾘｰｽﾞ</t>
-  </si>
-  <si>
-    <t>894c01cf-6151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>mTuLVN7U2vli1xayEr5ZALYFqixOkN68KF+EHs8zzgOFJqJL2Pgje7F65SsM+VT3QYcnWHx/te5nRd8BmG0yiQ==</t>
-  </si>
-  <si>
-    <t>西村 正史税理士事務所</t>
-  </si>
-  <si>
-    <t>f03644c8-6151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Mf5vqcS3QlpYkTNMgIVNmtoc4ZVFXWs9OmG00XqLhzY3ZakSik0bvwotS/B2AqcAQksgPpl7B7/cgJB2EqeJmw==</t>
-  </si>
-  <si>
-    <t>山口正人税理士事務所</t>
-  </si>
-  <si>
-    <t>f6a32016-6151-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>kG/AxDt+Gol4Pvy/2yl/S9HCUAaPY8q9u+0tpFRz0Ia9FaMI/I6NVww0NQhe5ZRsjhoBYfmnTltWGmxlRfZG1w==</t>
-  </si>
-  <si>
-    <t>赤井裕和税理士事務所</t>
-  </si>
-  <si>
-    <t>d704cd16-6051-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>KfM3irdOvpdQR8kQKth4IJoFyDeBqIrDiZXC0n+DFwUKD3Uq0ZyikYgf+otTQOCxUlw08+cExFWLZMPM20FIHg==</t>
-  </si>
-  <si>
-    <t>0804a18b-5f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>wMLvw3sD+WJ8Q/pwe9qSLaxrSyNPL7WZn8rVs0nq7ra/8QxgO7+Qt2AgghwryC8agS1LVBSvLyZy3QsRHewKhQ==</t>
-  </si>
-  <si>
-    <t>e86cb068-5f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>zTOTxuIypdkAEUIMKKo6JeAo/DrgzUz8ROC5AmixjSU2ATlcXIdqhDnMID6lUh9cBGZ7CMH6vQAAA3jDw4kRfQ==</t>
-  </si>
-  <si>
-    <t>ライス税理士事務所</t>
-  </si>
-  <si>
-    <t>c542161e-5f51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>3kZqLc+Ee2gNrjLY/xAxJL85V1hUyGq7dlshWbmeXRjhMW/CgN0jB7VuIhbtJmEzp5KNCIg1XA7bmjW5Clrf4g==</t>
-  </si>
-  <si>
-    <t>平 浩税理士事務所</t>
-  </si>
-  <si>
-    <t>91b8223b-5e51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>OhY8n91l2cf5gwp0mIGVSKpL95t0yIy3gVKr5HFIq9vZzXODbL9tlwx4XLdNRZidSfNnODJoO3GDDZn1rYWbBg==</t>
-  </si>
-  <si>
-    <t>佐久間敏夫</t>
-  </si>
-  <si>
-    <t>7d639cf7-5a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>9yRVmwsNxnSKPDq0pXm1BXdLKxr9MDHfTmPi7pwBAgd516wdPemzH/MWzv9KaJ7g29DK8ZBlLTo7VR570a0r+w==</t>
-  </si>
-  <si>
-    <t>税理士法人 上坂会計</t>
-  </si>
-  <si>
-    <t>76639cf7-5a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>VXaw15UvhwbTitqASLZv8iCwqZpV0suSYbLaEfoaldWyp3wl+ogVC4ZOnZX/+wXQRvduYzqeuDEhGn/ofNIQFA==</t>
-  </si>
-  <si>
-    <t>沼田税理士事務所</t>
-  </si>
-  <si>
-    <t>d14b08d3-5a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>akZ4NlIzrlWQwxfWfn8o6tACDVEtnp5bySmvmghkfgHOAtecM4VYNJFc3Kny4cdJIOQnq2kDtA1kYR2xceDibQ==</t>
-  </si>
-  <si>
-    <t>e15c11a6-5a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ZCmyZ+wxtMnLnC1T48prMsRVgw2Svxg+5U+brLov7ubcOXmdzyJ3zr5s/3Mt7uG6A3Wt6CKUGkPDUdoCk6xACA==</t>
-  </si>
-  <si>
-    <t>石田 税務会計事務所</t>
-  </si>
-  <si>
-    <t>fb3fb41a-5a51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>2/P/yDr6RXLm1E8nWUh/NuR2TC/wb82FxmR1MYsDRxoOOfygAIZgD1a+rVYYhHJv5RjW/y6/8qmGt8qt9+K4cw==</t>
-  </si>
-  <si>
-    <t>株式会社木の力</t>
-  </si>
-  <si>
-    <t>003e9ee7-5951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>tyBR+6BMGmRzkVAq7sTS/Y5Gige5JmICEFUKQe02FjGT90aoFX5vrAi2iKsq2LNynP+hVLtWzd2q75jL1OJD5Q==</t>
-  </si>
-  <si>
-    <t>株式会社 トラストスタッフ</t>
-  </si>
-  <si>
-    <t>a9e196df-5951-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>9m0F9rgZHJcOkya+wAUSiTMB1Wc5ebAmEA9Xes5z3r4nKn5W6SNA31SrDAy+Z4tDRB+3hF3F6Rh37/2MlTpI6A==</t>
-  </si>
-  <si>
-    <t>川崎医療生活協同組合</t>
-  </si>
-  <si>
-    <t>05REB6QEzTW5TVYMuZZr6OUiNoCuuX3awuCDUlSniaJVGjnhRux6E/pvhL33hRm9x0qldgDRV13MaG8SPX7tkg==</t>
-  </si>
-  <si>
-    <t>aW8E8Mwx5cFh42rjUST/lJtxiapTZWr4M7rWcMLRqeCi+WNYjxNSRTaEfYiN6HZ0Mh9kbuIYJez/fCizFX/UCw==</t>
-  </si>
-  <si>
-    <t>OisNdMNjSNDWet6+BecsVeZThyTcJ9OXo01fhs2NuN2HAntxTiID+3QKMqKCEnM5KLfnCUDxVIEj9d5cdt/0QQ==</t>
-  </si>
-  <si>
-    <t>r6GF6y9gdbZS0KsmZju9n1JIpnxEHorPwczwO56LYJVuthQdgE4PTPObVL4PKx1UVcXg5KnEMekkSar0Qlwr4g==</t>
-  </si>
-  <si>
-    <t>Y46Oh5Wgit3Zwt8qAyxpNKtvMFKQk5lIo2uH9gtKxn96SjbHZAmef3IFgWILKhhG84LPFoo12SkcMBkWnWHowA==</t>
-  </si>
-  <si>
-    <t>TzAzR5hAir0scPTzWbWkCivVLFqc18iyvrtEgDqLKR4wUAU6qhMOMg6t4xsoCE/0EQZATTi9D45T2h5UyDsYRA==</t>
-  </si>
-  <si>
-    <t>aI1YWbcdm7PFqn4NO4ANKdcKFM0RU9OlQO9kNQ8P+dPA4uVQBVy3gcV8sGz2yiHQftI7zQg6B0zeZ8OtMprgQg==</t>
-  </si>
-  <si>
-    <t>8PKGViWzmF1ypLaIQZ367u5YT1wHjQt5mDFA8xDj0IPjg4DMovLFu7vndwpUOXw/HfHTgH+QaeJ/mHQMDJDG0Q==</t>
-  </si>
-  <si>
-    <t>対応中</t>
-  </si>
-  <si>
-    <t>LD/et0Ay1GEuMP64eIv4TEtWOvy2b8QcfgIgGLS2pMSKW6Xd0dm/k9QMfE/gF1z12guk4jLQFYWjWYnDfbJLHA==</t>
-  </si>
-  <si>
-    <t>6K/TdeGzPw08GQ8FSvG7krbICsHBHM051kea3R/wcBFiIf0/gOMgdzKvMBkIeEYIAaifg8s/1tfzil70y0mMIw==</t>
+    <t>IrFuyQH6jQHUdDJBczke8CLty/XUGKh2j4A8qR2Swclg2E2G2ffCfqnBtIEY2sPY4qK/XqpATlMd+WYWcbmvEw==</t>
   </si>
 </sst>
 </file>
@@ -1916,96 +1445,96 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="C2" s="9">
-        <v>45507.716238425899</v>
+        <v>45508.917604166701</v>
       </c>
       <c r="D2" s="8">
-        <v>11734111</v>
+        <v>11734220</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G2" s="10">
-        <v>45507.709189814799</v>
+        <v>45508.9071064815</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="C3" s="9">
-        <v>45507.708067129599</v>
+        <v>45508.903379629599</v>
       </c>
       <c r="D3" s="8">
-        <v>11734110</v>
+        <v>11734219</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="10">
-        <v>45507.707719907397</v>
+        <v>45508.896793981497</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="C4" s="9">
-        <v>45507.715810185196</v>
+        <v>45508.918935185196</v>
       </c>
       <c r="D4" s="8">
-        <v>11734109</v>
+        <v>11734218</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G4" s="10">
-        <v>45507.706736111097</v>
+        <v>45508.894375000003</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>363</v>
+        <v>85</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>31</v>
@@ -2013,67 +1542,67 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>466</v>
+        <v>304</v>
       </c>
       <c r="C5" s="9">
-        <v>45507.721921296303</v>
+        <v>45508.908240740697</v>
       </c>
       <c r="D5" s="8">
-        <v>11734108</v>
+        <v>11734217</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G5" s="10">
-        <v>45507.705659722204</v>
+        <v>45508.8925115741</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="C6" s="9">
-        <v>45507.7129166667</v>
+        <v>45508.8965046296</v>
       </c>
       <c r="D6" s="8">
-        <v>11734107</v>
+        <v>11734216</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10">
-        <v>45507.7055092593</v>
+        <v>45508.890185185199</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>31</v>
@@ -2081,101 +1610,101 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C7" s="9">
-        <v>45507.704490740703</v>
+        <v>45508.893437500003</v>
       </c>
       <c r="D7" s="8">
-        <v>11734106</v>
+        <v>11734215</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="10">
-        <v>45507.704131944403</v>
+        <v>45508.878599536998</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>371</v>
+        <v>287</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="C8" s="9">
-        <v>45507.701365740701</v>
+        <v>45508.878784722197</v>
       </c>
       <c r="D8" s="8">
-        <v>11734105</v>
+        <v>11734214</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="10">
-        <v>45507.700972222199</v>
+        <v>45508.870208333297</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="C9" s="9">
-        <v>45507.701979166697</v>
+        <v>45508.869976851798</v>
       </c>
       <c r="D9" s="8">
-        <v>11734104</v>
+        <v>11734213</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="10">
-        <v>45507.696689814802</v>
+        <v>45508.865671296298</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>31</v>
@@ -2183,33 +1712,33 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="C10" s="9">
-        <v>45507.708634259303</v>
+        <v>45508.903287036999</v>
       </c>
       <c r="D10" s="8">
-        <v>11734103</v>
+        <v>11734212</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="10">
-        <v>45507.695069444402</v>
+        <v>45508.854097222204</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>31</v>
@@ -2217,33 +1746,33 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="C11" s="9">
-        <v>45507.702754629601</v>
+        <v>45508.821516203701</v>
       </c>
       <c r="D11" s="8">
-        <v>11734102</v>
+        <v>11734211</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="10">
-        <v>45507.6948611111</v>
+        <v>45508.821516203701</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>383</v>
+        <v>280</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>31</v>
@@ -2251,33 +1780,33 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="C12" s="9">
-        <v>45507.7104398148</v>
+        <v>45508.826388888898</v>
       </c>
       <c r="D12" s="8">
-        <v>11734101</v>
+        <v>11734210</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" s="10">
-        <v>45507.690127314803</v>
+        <v>45508.815902777802</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>386</v>
+        <v>263</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>31</v>
@@ -2285,33 +1814,33 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="C13" s="9">
-        <v>45507.691747685203</v>
+        <v>45508.808252314797</v>
       </c>
       <c r="D13" s="8">
-        <v>11734100</v>
+        <v>11734209</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="10">
-        <v>45507.688391203701</v>
+        <v>45508.798726851899</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>31</v>
@@ -2319,99 +1848,101 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>391</v>
+        <v>272</v>
       </c>
       <c r="C14" s="9">
-        <v>45507.697592592602</v>
+        <v>45508.798194444404</v>
       </c>
       <c r="D14" s="8">
-        <v>11734099</v>
+        <v>11734208</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="10">
-        <v>45507.685219907398</v>
+        <v>45508.793217592603</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="C15" s="9">
-        <v>45507.696863425903</v>
+        <v>45508.795995370398</v>
       </c>
       <c r="D15" s="8">
-        <v>11734098</v>
+        <v>11734207</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" s="10">
-        <v>45507.681365740696</v>
+        <v>45508.791793981502</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>395</v>
+        <v>268</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>396</v>
+        <v>265</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="C16" s="9">
-        <v>45507.680798611102</v>
+        <v>45508.807395833297</v>
       </c>
       <c r="D16" s="8">
-        <v>11734097</v>
+        <v>11734206</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="10">
-        <v>45507.675381944398</v>
+        <v>45508.785416666702</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>31</v>
@@ -2419,33 +1950,33 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>399</v>
+        <v>260</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>400</v>
+        <v>269</v>
       </c>
       <c r="C17" s="9">
-        <v>45507.684386574103</v>
+        <v>45508.792719907397</v>
       </c>
       <c r="D17" s="8">
-        <v>11734096</v>
+        <v>11734205</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" s="10">
-        <v>45507.672025462998</v>
+        <v>45508.778842592597</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>31</v>
@@ -2453,33 +1984,33 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="C18" s="9">
-        <v>45507.671400462998</v>
+        <v>45508.781215277799</v>
       </c>
       <c r="D18" s="8">
-        <v>11734095</v>
+        <v>11734204</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" s="10">
-        <v>45507.662418981497</v>
+        <v>45508.778298611098</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>401</v>
+        <v>263</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>31</v>
@@ -2487,33 +2018,33 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>404</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="C19" s="9">
-        <v>45507.6641087963</v>
+        <v>45508.909502314797</v>
       </c>
       <c r="D19" s="8">
-        <v>11734094</v>
+        <v>11734203</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="10">
-        <v>45507.662141203698</v>
+        <v>45508.775694444397</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>31</v>
@@ -2521,203 +2052,195 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>408</v>
+        <v>254</v>
       </c>
       <c r="C20" s="9">
-        <v>45507.659016203703</v>
+        <v>45508.754189814797</v>
       </c>
       <c r="D20" s="8">
-        <v>11734093</v>
+        <v>11734202</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="10">
-        <v>45507.6558912037</v>
+        <v>45508.754189814797</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>410</v>
+        <v>255</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
       <c r="C21" s="9">
-        <v>45507.675300925897</v>
+        <v>45508.7572685185</v>
       </c>
       <c r="D21" s="8">
-        <v>11734092</v>
+        <v>11734201</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="G21" s="10">
-        <v>45507.649375000001</v>
+        <v>45508.754131944399</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>412</v>
+        <v>252</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>413</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>414</v>
+        <v>250</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>415</v>
+        <v>251</v>
       </c>
       <c r="C22" s="9">
-        <v>45507.657303240703</v>
+        <v>45508.751238425903</v>
       </c>
       <c r="D22" s="8">
-        <v>11734091</v>
+        <v>11734200</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="10">
-        <v>45507.645833333299</v>
+        <v>45508.751226851899</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>416</v>
+        <v>252</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>418</v>
+        <v>249</v>
       </c>
       <c r="C23" s="9">
-        <v>45507.6507291667</v>
+        <v>45508.747685185197</v>
       </c>
       <c r="D23" s="8">
-        <v>11734090</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>11734199</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="10">
-        <v>45507.645706018498</v>
+        <v>45508.747685185197</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>420</v>
+        <v>246</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="C24" s="9">
-        <v>45507.652210648201</v>
+        <v>45508.754861111098</v>
       </c>
       <c r="D24" s="8">
-        <v>11734089</v>
+        <v>11734198</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G24" s="10">
-        <v>45507.642337963</v>
+        <v>45508.743969907402</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>422</v>
+        <v>247</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>423</v>
+        <v>238</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>424</v>
+        <v>243</v>
       </c>
       <c r="C25" s="9">
-        <v>45507.645289351902</v>
+        <v>45508.737662036998</v>
       </c>
       <c r="D25" s="8">
-        <v>11734088</v>
+        <v>11734197</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G25" s="10">
-        <v>45507.637384259302</v>
+        <v>45508.731620370403</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
@@ -2725,67 +2248,67 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>425</v>
+        <v>237</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="C26" s="9">
-        <v>45507.689675925903</v>
+        <v>45508.912384259304</v>
       </c>
       <c r="D26" s="8">
-        <v>11734087</v>
+        <v>11734196</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G26" s="10">
-        <v>45507.634583333303</v>
+        <v>45508.730219907397</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>428</v>
+        <v>234</v>
       </c>
       <c r="C27" s="9">
-        <v>45507.641898148097</v>
+        <v>45508.726597222201</v>
       </c>
       <c r="D27" s="8">
-        <v>11734086</v>
+        <v>11734195</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G27" s="10">
-        <v>45507.633912037003</v>
+        <v>45508.7264699074</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>429</v>
+        <v>235</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>31</v>
@@ -2793,33 +2316,33 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>431</v>
+        <v>241</v>
       </c>
       <c r="C28" s="9">
-        <v>45507.638449074097</v>
+        <v>45508.7352314815</v>
       </c>
       <c r="D28" s="8">
-        <v>11734085</v>
+        <v>11734194</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" s="10">
-        <v>45507.632465277798</v>
+        <v>45508.725740740701</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>31</v>
@@ -2827,67 +2350,67 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>433</v>
+        <v>229</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="C29" s="9">
-        <v>45507.673564814802</v>
+        <v>45508.733622685198</v>
       </c>
       <c r="D29" s="8">
-        <v>11734084</v>
+        <v>11734193</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="G29" s="10">
-        <v>45507.628113425897</v>
+        <v>45508.722592592603</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>435</v>
+        <v>230</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>413</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>436</v>
+        <v>225</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
       <c r="C30" s="9">
-        <v>45507.623576388898</v>
+        <v>45508.717152777797</v>
       </c>
       <c r="D30" s="8">
-        <v>11734083</v>
+        <v>11734192</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G30" s="10">
-        <v>45507.611898148098</v>
+        <v>45508.7165046296</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>31</v>
@@ -2895,33 +2418,33 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>439</v>
+        <v>223</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>440</v>
+        <v>236</v>
       </c>
       <c r="C31" s="9">
-        <v>45507.615497685198</v>
+        <v>45508.728101851899</v>
       </c>
       <c r="D31" s="8">
-        <v>11734082</v>
+        <v>11734191</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="G31" s="10">
-        <v>45507.611828703702</v>
+        <v>45508.714861111097</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>441</v>
+        <v>208</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>31</v>
@@ -2929,33 +2452,33 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>443</v>
+        <v>221</v>
       </c>
       <c r="C32" s="9">
-        <v>45507.627974536997</v>
+        <v>45508.705092592601</v>
       </c>
       <c r="D32" s="8">
-        <v>11734081</v>
+        <v>11734190</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G32" s="10">
-        <v>45507.611122685201</v>
+        <v>45508.703564814801</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>31</v>
@@ -2963,33 +2486,33 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>444</v>
+        <v>219</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="C33" s="9">
-        <v>45507.6176388889</v>
+        <v>45508.710682870398</v>
       </c>
       <c r="D33" s="8">
-        <v>11734080</v>
+        <v>11734189</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G33" s="10">
-        <v>45507.610243055598</v>
+        <v>45508.703321759298</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>446</v>
+        <v>220</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>31</v>
@@ -2997,33 +2520,33 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>447</v>
+        <v>214</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="C34" s="9">
-        <v>45507.617106481499</v>
+        <v>45508.7010069444</v>
       </c>
       <c r="D34" s="8">
-        <v>11734079</v>
+        <v>11734188</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="10">
-        <v>45507.607534722199</v>
+        <v>45508.7010069444</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>449</v>
+        <v>216</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>31</v>
@@ -3031,33 +2554,33 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>450</v>
+        <v>211</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>451</v>
+        <v>212</v>
       </c>
       <c r="C35" s="9">
-        <v>45507.637291666702</v>
+        <v>45508.695196759298</v>
       </c>
       <c r="D35" s="8">
-        <v>11734078</v>
+        <v>11734187</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G35" s="10">
-        <v>45507.606550925899</v>
+        <v>45508.695196759298</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>31</v>
@@ -3065,67 +2588,67 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>453</v>
+        <v>207</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>454</v>
+        <v>244</v>
       </c>
       <c r="C36" s="9">
-        <v>45507.615104166704</v>
+        <v>45508.743333333303</v>
       </c>
       <c r="D36" s="8">
-        <v>11734077</v>
+        <v>11734186</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" s="10">
-        <v>45507.606388888897</v>
+        <v>45508.690138888902</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
       <c r="C37" s="9">
-        <v>45507.617662037002</v>
+        <v>45508.675069444398</v>
       </c>
       <c r="D37" s="8">
-        <v>11734076</v>
+        <v>11734185</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G37" s="10">
-        <v>45507.602002314801</v>
+        <v>45508.675069444398</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>31</v>
@@ -3133,33 +2656,33 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>457</v>
+        <v>224</v>
       </c>
       <c r="C38" s="9">
-        <v>45507.608530092599</v>
+        <v>45508.716412037</v>
       </c>
       <c r="D38" s="8">
-        <v>11734075</v>
+        <v>11734184</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="10">
-        <v>45507.599247685197</v>
+        <v>45508.673877314803</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>31</v>
@@ -3167,67 +2690,67 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>349</v>
+        <v>199</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>350</v>
+        <v>206</v>
       </c>
       <c r="C39" s="9">
-        <v>45507.598298611098</v>
+        <v>45508.681157407402</v>
       </c>
       <c r="D39" s="8">
-        <v>11734074</v>
+        <v>11734183</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G39" s="10">
-        <v>45507.598298611098</v>
+        <v>45508.672025462998</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>343</v>
+        <v>197</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>458</v>
+        <v>209</v>
       </c>
       <c r="C40" s="9">
-        <v>45507.607627314799</v>
+        <v>45508.692754629599</v>
       </c>
       <c r="D40" s="8">
-        <v>11734073</v>
+        <v>11734182</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G40" s="10">
-        <v>45507.595081018502</v>
+        <v>45508.670486111099</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>31</v>
@@ -3235,33 +2758,33 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>459</v>
+        <v>210</v>
       </c>
       <c r="C41" s="9">
-        <v>45507.6265740741</v>
+        <v>45508.694652777798</v>
       </c>
       <c r="D41" s="8">
-        <v>11734072</v>
+        <v>11734181</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G41" s="10">
-        <v>45507.591967592598</v>
+        <v>45508.652141203696</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>31</v>
@@ -3269,33 +2792,33 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="C42" s="9">
-        <v>45507.593865740702</v>
+        <v>45508.641643518502</v>
       </c>
       <c r="D42" s="8">
-        <v>11734071</v>
+        <v>11734180</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G42" s="10">
-        <v>45507.589861111097</v>
+        <v>45508.641643518502</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>31</v>
@@ -3303,67 +2826,67 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>334</v>
+        <v>187</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="C43" s="9">
-        <v>45507.597800925898</v>
+        <v>45508.637291666702</v>
       </c>
       <c r="D43" s="8">
-        <v>11734070</v>
+        <v>11734179</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" s="10">
-        <v>45507.583726851903</v>
+        <v>45508.636550925898</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="C44" s="9">
-        <v>45507.592523148101</v>
+        <v>45508.641597222202</v>
       </c>
       <c r="D44" s="8">
-        <v>11734069</v>
+        <v>11734178</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G44" s="10">
-        <v>45507.583229166703</v>
+        <v>45508.635324074101</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>31</v>
@@ -3371,99 +2894,101 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="C45" s="9">
-        <v>45507.596203703702</v>
+        <v>45508.621053240699</v>
       </c>
       <c r="D45" s="8">
-        <v>11734068</v>
+        <v>11734177</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="G45" s="10">
-        <v>45507.582581018498</v>
+        <v>45508.620370370401</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="C46" s="9">
-        <v>45507.601041666698</v>
+        <v>45508.619502314803</v>
       </c>
       <c r="D46" s="8">
-        <v>11734067</v>
+        <v>11734176</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G46" s="10">
-        <v>45507.581250000003</v>
+        <v>45508.619131944397</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="C47" s="9">
-        <v>45507.5857986111</v>
+        <v>45508.617372685199</v>
       </c>
       <c r="D47" s="8">
-        <v>11734066</v>
+        <v>11734175</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G47" s="10">
-        <v>45507.575636574104</v>
+        <v>45508.617361111101</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>31</v>
@@ -3471,65 +2996,67 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="C48" s="9">
-        <v>45507.578831018502</v>
+        <v>45508.621111111097</v>
       </c>
       <c r="D48" s="8">
-        <v>11734065</v>
+        <v>11734174</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G48" s="10">
-        <v>45507.575509259303</v>
+        <v>45508.613148148201</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="L48" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>321</v>
+        <v>170</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="C49" s="9">
-        <v>45507.594907407401</v>
+        <v>45508.627789351798</v>
       </c>
       <c r="D49" s="8">
-        <v>11734064</v>
+        <v>11734173</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G49" s="10">
-        <v>45507.574768518498</v>
+        <v>45508.610972222203</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>31</v>
@@ -3537,135 +3064,135 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>316</v>
+        <v>173</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>347</v>
+        <v>174</v>
       </c>
       <c r="C50" s="9">
-        <v>45507.597210648099</v>
+        <v>45508.609432870398</v>
       </c>
       <c r="D50" s="8">
-        <v>11734063</v>
+        <v>11734172</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" s="10">
-        <v>45507.573275463001</v>
+        <v>45508.609432870398</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C51" s="9">
-        <v>45507.577893518501</v>
+        <v>45508.609652777799</v>
       </c>
       <c r="D51" s="8">
-        <v>11734062</v>
+        <v>11734171</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G51" s="10">
-        <v>45507.573263888902</v>
+        <v>45508.602847222202</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="C52" s="9">
-        <v>45507.573333333297</v>
+        <v>45508.603831018503</v>
       </c>
       <c r="D52" s="8">
-        <v>11734061</v>
+        <v>11734170</v>
       </c>
       <c r="E52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G52" s="10">
-        <v>45507.569398148102</v>
+        <v>45508.602604166699</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="C53" s="9">
-        <v>45507.563819444404</v>
+        <v>45508.599236111098</v>
       </c>
       <c r="D53" s="8">
-        <v>11734060</v>
+        <v>11734169</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G53" s="10">
-        <v>45507.552488425899</v>
+        <v>45508.599236111098</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>31</v>
@@ -3673,33 +3200,33 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="C54" s="9">
-        <v>45507.574537036999</v>
+        <v>45508.589363425897</v>
       </c>
       <c r="D54" s="8">
-        <v>11734059</v>
+        <v>11734168</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="10">
-        <v>45507.552187499998</v>
+        <v>45508.5871527778</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>31</v>
@@ -3707,33 +3234,33 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="C55" s="9">
-        <v>45507.552858796298</v>
+        <v>45508.586516203701</v>
       </c>
       <c r="D55" s="8">
-        <v>11734058</v>
+        <v>11734167</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" s="10">
-        <v>45507.551562499997</v>
+        <v>45508.586516203701</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>31</v>
@@ -3741,33 +3268,33 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="C56" s="9">
-        <v>45507.5553587963</v>
+        <v>45508.667916666702</v>
       </c>
       <c r="D56" s="8">
-        <v>11734057</v>
+        <v>11734166</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G56" s="10">
-        <v>45507.549675925897</v>
+        <v>45508.579421296301</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>31</v>
@@ -3775,33 +3302,33 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="C57" s="9">
-        <v>45507.563136574099</v>
+        <v>45508.569247685198</v>
       </c>
       <c r="D57" s="8">
-        <v>11734056</v>
+        <v>11734165</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G57" s="10">
-        <v>45507.549432870401</v>
+        <v>45508.561817129601</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>31</v>
@@ -3809,33 +3336,33 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C58" s="9">
-        <v>45507.559039351901</v>
+        <v>45508.913368055597</v>
       </c>
       <c r="D58" s="8">
-        <v>11734055</v>
+        <v>11734164</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G58" s="10">
-        <v>45507.549155092602</v>
+        <v>45508.558043981502</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>31</v>
@@ -3843,67 +3370,67 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="C59" s="9">
-        <v>45507.551018518498</v>
+        <v>45508.580775463</v>
       </c>
       <c r="D59" s="8">
-        <v>11734054</v>
+        <v>11734163</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G59" s="10">
-        <v>45507.542905092603</v>
+        <v>45508.535636574103</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="C60" s="9">
-        <v>45507.548252314802</v>
+        <v>45508.5395601852</v>
       </c>
       <c r="D60" s="8">
-        <v>11734053</v>
+        <v>11734162</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="10">
-        <v>45507.542789351901</v>
+        <v>45508.533935185202</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>31</v>
@@ -3911,33 +3438,33 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="C61" s="9">
-        <v>45507.541875000003</v>
+        <v>45508.512800925899</v>
       </c>
       <c r="D61" s="8">
-        <v>11734052</v>
+        <v>11734161</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G61" s="10">
-        <v>45507.537071759303</v>
+        <v>45508.512800925899</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>31</v>
@@ -3945,33 +3472,33 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="C62" s="9">
-        <v>45507.539756944403</v>
+        <v>45508.511250000003</v>
       </c>
       <c r="D62" s="8">
-        <v>11734051</v>
+        <v>11734160</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G62" s="10">
-        <v>45507.535185185203</v>
+        <v>45508.511250000003</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>31</v>
@@ -3979,33 +3506,33 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="C63" s="9">
-        <v>45507.536597222199</v>
+        <v>45508.503356481502</v>
       </c>
       <c r="D63" s="8">
-        <v>11734050</v>
+        <v>11734159</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="10">
-        <v>45507.532905092601</v>
+        <v>45508.502754629597</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>31</v>
@@ -4013,33 +3540,33 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="C64" s="9">
-        <v>45507.540671296301</v>
+        <v>45508.490173611099</v>
       </c>
       <c r="D64" s="8">
-        <v>11734049</v>
+        <v>11734158</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G64" s="10">
-        <v>45507.5325115741</v>
+        <v>45508.490173611099</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>31</v>
@@ -4047,67 +3574,67 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="C65" s="9">
-        <v>45507.539247685199</v>
+        <v>45508.490717592598</v>
       </c>
       <c r="D65" s="8">
-        <v>11734048</v>
+        <v>11734157</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G65" s="10">
-        <v>45507.531006944402</v>
+        <v>45508.481782407398</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="C66" s="9">
-        <v>45507.528263888897</v>
+        <v>45508.4782291667</v>
       </c>
       <c r="D66" s="8">
-        <v>11734047</v>
+        <v>11734156</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="G66" s="10">
-        <v>45507.525069444397</v>
+        <v>45508.472673611097</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>31</v>
@@ -4115,67 +3642,67 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="C67" s="9">
-        <v>45507.5235763889</v>
+        <v>45508.493680555599</v>
       </c>
       <c r="D67" s="8">
-        <v>11734046</v>
+        <v>11734155</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G67" s="10">
-        <v>45507.523518518501</v>
+        <v>45508.461469907401</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C68" s="9">
-        <v>45507.518125000002</v>
+        <v>45508.465023148201</v>
       </c>
       <c r="D68" s="8">
-        <v>11734045</v>
+        <v>11734154</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="G68" s="10">
-        <v>45507.518125000002</v>
+        <v>45508.461446759298</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>31</v>
@@ -4183,135 +3710,127 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="C69" s="9">
-        <v>45507.518541666701</v>
+        <v>45508.467916666697</v>
       </c>
       <c r="D69" s="8">
-        <v>11734044</v>
+        <v>11734153</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G69" s="10">
-        <v>45507.517638888901</v>
+        <v>45508.4608449074</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C70" s="9">
-        <v>45507.525462963</v>
+        <v>45508.735729166699</v>
       </c>
       <c r="D70" s="8">
-        <v>11734043</v>
+        <v>11734152</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G70" s="10">
-        <v>45507.517361111102</v>
+        <v>45508.457905092597</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="C71" s="9">
-        <v>45507.524895833303</v>
+        <v>45508.454398148097</v>
       </c>
       <c r="D71" s="8">
-        <v>11734042</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>11734151</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="10">
-        <v>45507.515509259298</v>
+        <v>45508.454398148097</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
-      <c r="L71" s="8" t="s">
-        <v>238</v>
-      </c>
+      <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="C72" s="9">
-        <v>45507.518645833297</v>
+        <v>45508.464965277803</v>
       </c>
       <c r="D72" s="8">
-        <v>11734041</v>
+        <v>11734150</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G72" s="10">
-        <v>45507.511168981502</v>
+        <v>45508.454375000001</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>31</v>
@@ -4319,67 +3838,67 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="C73" s="9">
-        <v>45507.512175925898</v>
+        <v>45508.464444444398</v>
       </c>
       <c r="D73" s="8">
-        <v>11734040</v>
+        <v>11734149</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="G73" s="10">
-        <v>45507.509675925903</v>
+        <v>45508.450868055603</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="C74" s="9">
-        <v>45507.5329166667</v>
+        <v>45508.585659722201</v>
       </c>
       <c r="D74" s="8">
-        <v>11734039</v>
+        <v>11734148</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G74" s="10">
-        <v>45507.509456018503</v>
+        <v>45508.446608796301</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>31</v>
@@ -4387,33 +3906,33 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="C75" s="9">
-        <v>45507.514687499999</v>
+        <v>45508.4828472222</v>
       </c>
       <c r="D75" s="8">
-        <v>11734038</v>
+        <v>11734147</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G75" s="10">
-        <v>45507.5075462963</v>
+        <v>45508.445243055598</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>31</v>
@@ -4421,33 +3940,33 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="C76" s="9">
-        <v>45507.520289351902</v>
+        <v>45508.448877314797</v>
       </c>
       <c r="D76" s="8">
-        <v>11734037</v>
+        <v>11734146</v>
       </c>
       <c r="E76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G76" s="10">
-        <v>45507.506990740701</v>
+        <v>45508.443703703699</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>31</v>
@@ -4455,67 +3974,67 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="C77" s="9">
-        <v>45507.519803240699</v>
+        <v>45508.469710648104</v>
       </c>
       <c r="D77" s="8">
-        <v>11734036</v>
+        <v>11734145</v>
       </c>
       <c r="E77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G77" s="10">
-        <v>45507.504907407398</v>
+        <v>45508.443414351903</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="C78" s="9">
-        <v>45507.549270833297</v>
+        <v>45508.4786805556</v>
       </c>
       <c r="D78" s="8">
-        <v>11734035</v>
+        <v>11734144</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G78" s="10">
-        <v>45507.4977083333</v>
+        <v>45508.437280092599</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>31</v>
@@ -4523,33 +4042,33 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="C79" s="9">
-        <v>45507.507789351897</v>
+        <v>45508.448287036997</v>
       </c>
       <c r="D79" s="8">
-        <v>11734034</v>
+        <v>11734143</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79" s="10">
-        <v>45507.497418981497</v>
+        <v>45508.434999999998</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>31</v>
@@ -4557,33 +4076,33 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="C80" s="9">
-        <v>45507.499247685198</v>
+        <v>45508.439872685201</v>
       </c>
       <c r="D80" s="8">
-        <v>11734033</v>
+        <v>11734142</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G80" s="10">
-        <v>45507.496898148202</v>
+        <v>45508.430034722202</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>31</v>
@@ -4591,33 +4110,33 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>460</v>
+        <v>74</v>
       </c>
       <c r="C81" s="9">
-        <v>45507.636122685202</v>
+        <v>45508.427696759303</v>
       </c>
       <c r="D81" s="8">
-        <v>11734032</v>
+        <v>11734141</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G81" s="10">
-        <v>45507.495254629597</v>
+        <v>45508.427696759303</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>31</v>
@@ -4625,33 +4144,33 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8" t="s">
-        <v>238</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="C82" s="9">
-        <v>45507.509236111102</v>
+        <v>45508.433715277803</v>
       </c>
       <c r="D82" s="8">
-        <v>11734031</v>
+        <v>11734140</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G82" s="10">
-        <v>45507.494467592602</v>
+        <v>45508.4273032407</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>31</v>
@@ -4664,28 +4183,28 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C83" s="9">
-        <v>45507.499062499999</v>
+        <v>45508.445127314801</v>
       </c>
       <c r="D83" s="8">
-        <v>11734030</v>
+        <v>11734139</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G83" s="10">
-        <v>45507.494351851798</v>
+        <v>45508.422465277799</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>31</v>
@@ -4693,33 +4212,33 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="C84" s="9">
-        <v>45507.492696759298</v>
+        <v>45508.423379629603</v>
       </c>
       <c r="D84" s="8">
-        <v>11734029</v>
+        <v>11734138</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G84" s="10">
-        <v>45507.4913773148</v>
+        <v>45508.4215625</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>31</v>
@@ -4727,33 +4246,33 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="C85" s="9">
-        <v>45507.493194444403</v>
+        <v>45508.417928240699</v>
       </c>
       <c r="D85" s="8">
-        <v>11734028</v>
+        <v>11734137</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G85" s="10">
-        <v>45507.480277777802</v>
+        <v>45508.417916666702</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>31</v>
@@ -4761,33 +4280,33 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="C86" s="9">
-        <v>45507.485347222202</v>
+        <v>45508.411030092597</v>
       </c>
       <c r="D86" s="8">
-        <v>11734027</v>
+        <v>11734136</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G86" s="10">
-        <v>45507.475694444402</v>
+        <v>45508.406469907401</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>31</v>
@@ -4795,33 +4314,33 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="C87" s="9">
-        <v>45507.474039351902</v>
+        <v>45508.401516203703</v>
       </c>
       <c r="D87" s="8">
-        <v>11734026</v>
+        <v>11734135</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G87" s="10">
-        <v>45507.469328703701</v>
+        <v>45508.388391203698</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>31</v>
@@ -4829,33 +4348,33 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="C88" s="9">
-        <v>45507.594953703701</v>
+        <v>45508.404050925899</v>
       </c>
       <c r="D88" s="8">
-        <v>11734025</v>
+        <v>11734134</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G88" s="10">
-        <v>45507.466215277796</v>
+        <v>45508.385324074101</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>31</v>
@@ -4863,33 +4382,33 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="C89" s="9">
-        <v>45507.471782407403</v>
+        <v>45508.403611111098</v>
       </c>
       <c r="D89" s="8">
-        <v>11734024</v>
+        <v>11734133</v>
       </c>
       <c r="E89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G89" s="10">
-        <v>45507.466168981497</v>
+        <v>45508.3800694444</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>31</v>
@@ -4897,67 +4416,59 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>461</v>
+        <v>49</v>
       </c>
       <c r="C90" s="9">
-        <v>45507.636701388903</v>
+        <v>45508.3661111111</v>
       </c>
       <c r="D90" s="8">
-        <v>11734023</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>11734132</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="10">
-        <v>45507.465393518498</v>
+        <v>45508.3661111111</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L90" s="8"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="C91" s="9">
-        <v>45507.482743055603</v>
+        <v>45508.118969907402</v>
       </c>
       <c r="D91" s="8">
-        <v>11734022</v>
+        <v>11734131</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91" s="10">
-        <v>45507.463113425903</v>
+        <v>45508.107326388897</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>31</v>
@@ -4965,33 +4476,33 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="C92" s="9">
-        <v>45507.471597222197</v>
+        <v>45508.0702199074</v>
       </c>
       <c r="D92" s="8">
-        <v>11734021</v>
+        <v>11734130</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G92" s="10">
-        <v>45507.462743055599</v>
+        <v>45508.069664351897</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>31</v>
@@ -4999,33 +4510,33 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>462</v>
+        <v>39</v>
       </c>
       <c r="C93" s="9">
-        <v>45507.639618055597</v>
+        <v>45508.057731481502</v>
       </c>
       <c r="D93" s="8">
-        <v>11734020</v>
+        <v>11734129</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G93" s="10">
-        <v>45507.4597222222</v>
+        <v>45508.055925925903</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>31</v>
@@ -5033,33 +4544,33 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="C94" s="9">
-        <v>45507.464814814797</v>
+        <v>45508.050543981502</v>
       </c>
       <c r="D94" s="8">
-        <v>11734019</v>
+        <v>11734128</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G94" s="10">
-        <v>45507.454513888901</v>
+        <v>45508.0495717593</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>31</v>
@@ -5067,1638 +4578,700 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>463</v>
+        <v>47</v>
       </c>
       <c r="C95" s="9">
-        <v>45507.618888888901</v>
+        <v>45508.259710648097</v>
       </c>
       <c r="D95" s="8">
-        <v>11734018</v>
+        <v>11734127</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="G95" s="10">
-        <v>45507.450358796297</v>
+        <v>45508.030694444402</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="9">
-        <v>45507.453900462999</v>
-      </c>
-      <c r="D96" s="8">
-        <v>11734017</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G96" s="10">
-        <v>45507.444942129601</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
-      <c r="L96" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L96" s="8"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="9">
-        <v>45507.473148148201</v>
-      </c>
-      <c r="D97" s="8">
-        <v>11734016</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="10">
-        <v>45507.444351851896</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="L97" s="8"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="9">
-        <v>45507.449710648201</v>
-      </c>
-      <c r="D98" s="8">
-        <v>11734015</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="10">
-        <v>45507.443993055596</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="L98" s="8"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="9">
-        <v>45507.460300925901</v>
-      </c>
-      <c r="D99" s="8">
-        <v>11734014</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" s="10">
-        <v>45507.443842592598</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L99" s="8"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="9">
-        <v>45507.482569444401</v>
-      </c>
-      <c r="D100" s="8">
-        <v>11734013</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G100" s="10">
-        <v>45507.439097222203</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A100" s="6"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="L100" s="8"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C101" s="9">
-        <v>45507.437071759297</v>
-      </c>
-      <c r="D101" s="8">
-        <v>11734012</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="10">
-        <v>45507.435312499998</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
-      <c r="L101" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L101" s="8"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" s="9">
-        <v>45507.441435185203</v>
-      </c>
-      <c r="D102" s="8">
-        <v>11734011</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" s="10">
-        <v>45507.434814814798</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A102" s="6"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
-      <c r="L102" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L102" s="8"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C103" s="9">
-        <v>45507.640231481499</v>
-      </c>
-      <c r="D103" s="8">
-        <v>11734010</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" s="10">
-        <v>45507.434212963002</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A103" s="6"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L103" s="8"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="9">
-        <v>45507.458726851903</v>
-      </c>
-      <c r="D104" s="8">
-        <v>11734009</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G104" s="10">
-        <v>45507.433726851901</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A104" s="6"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
-      <c r="L104" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L104" s="8"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="9">
-        <v>45507.462268518502</v>
-      </c>
-      <c r="D105" s="8">
-        <v>11734008</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" s="10">
-        <v>45507.432141203702</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A105" s="6"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
-      <c r="L105" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L105" s="8"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="9">
-        <v>45507.479398148098</v>
-      </c>
-      <c r="D106" s="8">
-        <v>11734007</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" s="10">
-        <v>45507.430752314802</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A106" s="6"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L106" s="8"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107" s="9">
-        <v>45507.432349536997</v>
-      </c>
-      <c r="D107" s="8">
-        <v>11734006</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" s="10">
-        <v>45507.429629629602</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A107" s="6"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L107" s="8"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="9">
-        <v>45507.462453703702</v>
-      </c>
-      <c r="D108" s="8">
-        <v>11734005</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" s="10">
-        <v>45507.427997685198</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
-      <c r="L108" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="L108" s="8"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="9">
-        <v>45507.438321759299</v>
-      </c>
-      <c r="D109" s="8">
-        <v>11734004</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" s="10">
-        <v>45507.426562499997</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
-      <c r="L109" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L109" s="8"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="9">
-        <v>45507.476539351897</v>
-      </c>
-      <c r="D110" s="8">
-        <v>11734003</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" s="10">
-        <v>45507.425462963001</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="L110" s="8"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="9">
-        <v>45507.4436921296</v>
-      </c>
-      <c r="D111" s="8">
-        <v>11734002</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="10">
-        <v>45507.419733796298</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="L111" s="8"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="9">
-        <v>45507.422002314801</v>
-      </c>
-      <c r="D112" s="8">
-        <v>11734001</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G112" s="10">
-        <v>45507.417812500003</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A112" s="6"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L112" s="8"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" s="9">
-        <v>45507.426076388903</v>
-      </c>
-      <c r="D113" s="8">
-        <v>11734000</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" s="10">
-        <v>45507.414143518501</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="L113" s="8"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C114" s="9">
-        <v>45507.427881944401</v>
-      </c>
-      <c r="D114" s="8">
-        <v>11733999</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G114" s="10">
-        <v>45507.411134259302</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C115" s="9">
-        <v>45507.420266203699</v>
-      </c>
-      <c r="D115" s="8">
-        <v>11733998</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G115" s="10">
-        <v>45507.4077777778</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
-      <c r="L115" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="L115" s="8"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="9">
-        <v>45507.419606481497</v>
-      </c>
-      <c r="D116" s="8">
-        <v>11733997</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" s="10">
-        <v>45507.405775462998</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L116" s="8"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="9">
-        <v>45507.423067129603</v>
-      </c>
-      <c r="D117" s="8">
-        <v>11733996</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="10">
-        <v>45507.4055787037</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
-      <c r="L117" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L117" s="8"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" s="9">
-        <v>45507.412187499998</v>
-      </c>
-      <c r="D118" s="8">
-        <v>11733995</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="10">
-        <v>45507.4054398148</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A118" s="6"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
-      <c r="L118" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="L118" s="8"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C119" s="9">
-        <v>45507.406076388899</v>
-      </c>
-      <c r="D119" s="8">
-        <v>11733994</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" s="10">
-        <v>45507.403738425899</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A119" s="6"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
-      <c r="L119" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L119" s="8"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C120" s="9">
-        <v>45507.594363425902</v>
-      </c>
-      <c r="D120" s="8">
-        <v>11733993</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" s="10">
-        <v>45507.402789351901</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
-      <c r="L120" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="L120" s="8"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A121" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" s="9">
-        <v>45507.436307870397</v>
-      </c>
-      <c r="D121" s="8">
-        <v>11733992</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="10">
-        <v>45507.401203703703</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L121" s="8"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A122" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C122" s="9">
-        <v>45507.452696759297</v>
-      </c>
-      <c r="D122" s="8">
-        <v>11733991</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="10">
-        <v>45507.399085648103</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
-      <c r="L122" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="L122" s="8"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A123" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" s="9">
-        <v>45507.408981481502</v>
-      </c>
-      <c r="D123" s="8">
-        <v>11733990</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" s="10">
-        <v>45507.398773148103</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L123" s="8"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A124" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="9">
-        <v>45507.400092592601</v>
-      </c>
-      <c r="D124" s="8">
-        <v>11733989</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G124" s="10">
-        <v>45507.397789351897</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A124" s="6"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="L124" s="8"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="9">
-        <v>45507.404074074097</v>
-      </c>
-      <c r="D125" s="8">
-        <v>11733988</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G125" s="10">
-        <v>45507.396666666697</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
-      <c r="L125" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="L125" s="8"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="9">
-        <v>45507.478842592602</v>
-      </c>
-      <c r="D126" s="8">
-        <v>11733987</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" s="10">
-        <v>45507.396539351903</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
-      <c r="L126" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="L126" s="8"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="9">
-        <v>45507.401458333297</v>
-      </c>
-      <c r="D127" s="8">
-        <v>11733986</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" s="10">
-        <v>45507.394803240699</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C128" s="9">
-        <v>45507.493888888901</v>
-      </c>
-      <c r="D128" s="8">
-        <v>11733985</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" s="10">
-        <v>45507.387418981503</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="A128" s="6"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L128" s="8"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="9">
-        <v>45507.389178240701</v>
-      </c>
-      <c r="D129" s="8">
-        <v>11733984</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="10">
-        <v>45507.384571759299</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="L129" s="8"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C130" s="9">
-        <v>45507.390034722201</v>
-      </c>
-      <c r="D130" s="8">
-        <v>11733983</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" s="10">
-        <v>45507.383125</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A130" s="6"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="L130" s="8"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="9">
-        <v>45507.388217592597</v>
-      </c>
-      <c r="D131" s="8">
-        <v>11733982</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="10">
-        <v>45507.382662037002</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
-      <c r="L131" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L131" s="8"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="9">
-        <v>45507.387986111098</v>
-      </c>
-      <c r="D132" s="8">
-        <v>11733981</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" s="10">
-        <v>45507.382037037001</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A132" s="6"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
-      <c r="L132" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A133" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C133" s="9">
-        <v>45507.385578703703</v>
-      </c>
-      <c r="D133" s="8">
-        <v>11733980</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133" s="10">
-        <v>45507.378599536998</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A133" s="6"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
-      <c r="L133" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="L133" s="8"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A134" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" s="9">
-        <v>45507.385717592602</v>
-      </c>
-      <c r="D134" s="8">
-        <v>11733979</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="10">
-        <v>45507.3773842593</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A134" s="6"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
-      <c r="L134" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="L134" s="8"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A135" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="9">
-        <v>45507.375173611101</v>
-      </c>
-      <c r="D135" s="8">
-        <v>11733978</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" s="10">
-        <v>45507.375162037002</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="L135" s="8"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A136" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C136" s="9">
-        <v>45507.378877314797</v>
-      </c>
-      <c r="D136" s="8">
-        <v>11733977</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" s="10">
-        <v>45507.372094907398</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A136" s="6"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
-      <c r="L136" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A137" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" s="9">
-        <v>45507.385567129597</v>
-      </c>
-      <c r="D137" s="8">
-        <v>11733976</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" s="10">
-        <v>45507.371805555602</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A137" s="6"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
-      <c r="L137" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="L137" s="8"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A138" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="9">
-        <v>45507.374780092599</v>
-      </c>
-      <c r="D138" s="8">
-        <v>11733975</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" s="10">
-        <v>45507.369537036997</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A138" s="6"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
-      <c r="L138" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L138" s="8"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A139" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="9">
-        <v>45507.464004629597</v>
-      </c>
-      <c r="D139" s="8">
-        <v>11733974</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" s="10">
-        <v>45507.352025462998</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A139" s="6"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
-      <c r="L139" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L139" s="8"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A140" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C140" s="9">
-        <v>45507.303668981498</v>
-      </c>
-      <c r="D140" s="8">
-        <v>11733973</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" s="10">
-        <v>45507.303657407399</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A140" s="6"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
-      <c r="L140" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L140" s="8"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A141" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="9">
-        <v>45507.053078703699</v>
-      </c>
-      <c r="D141" s="8">
-        <v>11733972</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" s="10">
-        <v>45507.053078703699</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A141" s="6"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="L141" s="8"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A142" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="9">
-        <v>45507.001643518503</v>
-      </c>
-      <c r="D142" s="8">
-        <v>11733971</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G142" s="10">
-        <v>45507.0016203704</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A142" s="6"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
-      <c r="L142" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="L142" s="8"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="6"/>

--- a/files/TS_todays_support.xlsx
+++ b/files/TS_todays_support.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eisuke_koresawa\project\kpi_project\kpi_info_sync\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50827F99-5ABE-4854-8AAC-ED666C462DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B9F12-2A88-4825-A8D5-327BDF79229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23595" yWindow="660" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_todays_support" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$95</definedName>
+    <definedName name="Query_from_Microsoft_CRM" localSheetId="0">TS_todays_support!$A$1:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>(変更しないでください) サポート案件</t>
   </si>
@@ -125,7 +125,7 @@
     <t>ー</t>
   </si>
   <si>
-    <t>d0e6383a-af51-ef11-882f-00505695a183</t>
+    <t>27e3d474-ad5c-ef11-882f-00505695a183</t>
   </si>
   <si>
     <t>TVS</t>
@@ -134,847 +134,91 @@
     <t>直受け</t>
   </si>
   <si>
-    <t>大石 雅也 税理士事務所</t>
+    <t>東京法律会計事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro給与</t>
+  </si>
+  <si>
+    <t>hO4rZ50sHa/DpgwThlY5TVkK6LL0Z1pGBp9KYQTwh+BiArDBWen1/Ga/rI5zvBtxfqPBkAKfzPWrlJO4LoyKSw==</t>
+  </si>
+  <si>
+    <t>即答</t>
+  </si>
+  <si>
+    <t>325aeea8-c65c-ef11-8830-0050569565d2</t>
+  </si>
+  <si>
+    <t>鎌倉会計事務所</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Proその他</t>
+  </si>
+  <si>
+    <t>As6rcHZX56ApACcetPe1Pc2SEepfgCfYFr7Twykk8TJChvqpYeP9bclvvYWiPeXjssjhdv34DqtysrGpHHx9dg==</t>
+  </si>
+  <si>
+    <t>8df85438-ec5c-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>x4F8n7pBiO/k3qGMdBm/rLh51cPisIB36tqhmJqN7yrqlo35DY4Z+9tiD8XVePrHAaoFpxh4cDTS+D7PJQcm6Q==</t>
+  </si>
+  <si>
+    <t>有限会社長谷川会計センター</t>
+  </si>
+  <si>
+    <t>ACELINK NX-Pro会計</t>
+  </si>
+  <si>
+    <t>70719451-ee5c-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>樋口一男税理士事務所</t>
+  </si>
+  <si>
+    <t>対応待ち</t>
+  </si>
+  <si>
+    <t>1983e798-ee5c-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>hYK7QLg69XYNQj03l3TgTIKFm0IA3BrtyOJJ7rGIZ+zNOxexJ6Iw8PBzPBrBlObwgA+DUD8tEi4AMJmvByGfLg==</t>
+  </si>
+  <si>
+    <t>kかんたんｸﾗｳﾄﾞ</t>
+  </si>
+  <si>
+    <t>WB0gl6ELjN88MkAXmTC91WPbNANZBtMH+JnQhjycRbUv8pdT9UVs3ioYurTj7FwMayf88me2H1g8PoBfIYn2yQ==</t>
+  </si>
+  <si>
+    <t>c4672cb7-ef5c-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>大城税理士事務所</t>
+  </si>
+  <si>
+    <t>49db1bdc-ef5c-ef11-882f-00505695a183</t>
+  </si>
+  <si>
+    <t>竹田人正税理士事務所</t>
+  </si>
+  <si>
+    <t>dgpSKwgOBMAKm3JUqeUxAtCGKCt0enQbS/7QfWlYapQLKYeE9G5Miyh+BWukWqEyhyxKRVE2sFm8apA5TlgUlA==</t>
+  </si>
+  <si>
+    <t>aSqhniYR30Lflt0/1qmgZHQDO9yAkEoTjkHONcZDbWlxmlM8en4o1g0HjokPvlIJTG3Efo7jKHGZcoLN3e2LXA==</t>
   </si>
   <si>
     <t>ACELINK NX-Proｼｽﾃﾑ</t>
   </si>
   <si>
-    <t>即答</t>
+    <t>45f4e4b5-f05c-ef11-882f-00505695a183</t>
   </si>
   <si>
-    <t>618fc806-b351-ef11-882f-00505695a183</t>
+    <t>EST8UZb7t3/qH+OeTuAvVk4/P7FF8XyyQNCiMyKP4ms19lHehQLVxophentVw2sKascVEDQXVjnjVI3KRlMt9Q==</t>
   </si>
   <si>
-    <t>荒木 克彦税理士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro給与</t>
-  </si>
-  <si>
-    <t>2q6MufFc6FZHYDp5rP9j5LpHW9KWRgUi/ZlsWW68cphKe3LhSQGlQlnDAG1mS3odFH33Fi+eLdBd322OjIAQfg==</t>
-  </si>
-  <si>
-    <t>2836d84d-b451-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>松下 陽一 税理士事務所</t>
-  </si>
-  <si>
-    <t>NX記帳くん</t>
-  </si>
-  <si>
-    <t>vx1MHbtzHH86hoQwx5407p2byT1pnlziDxSPKqSSa2DXWYJkksaZN8Yqgt/qVGoTQ8aL5wsVFhTjfjtQIxKxmw==</t>
-  </si>
-  <si>
-    <t>418a6e11-b751-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>藤生耕太税理士事務所</t>
-  </si>
-  <si>
-    <t>Y1RU2QViFfd7g7KKBI0BNvhUDFN8V0ADficcWBw/zUgeoY0qkLp2IPiWYygZsOqDEMa1nrX7MsIW9LA9N2nFpg==</t>
-  </si>
-  <si>
-    <t>0df2dea4-be51-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>海野会計事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Proその他</t>
-  </si>
-  <si>
-    <t>93a+UyrBjUfx3cao61NYikPaF4+kwjU4/J/h2zs4JYlkfk79zwO0Eb6TAYKVbxreTx/Ifm9OANfi4vhyRk2wfg==</t>
-  </si>
-  <si>
-    <t>hmYmKNUMxqK7NGyC5APCBx1wBDHn4layUTCvx6w37EzV1G3WfSzRC5oa5WVQdS7rwOey03cIybKCw3LJ39QK2A==</t>
-  </si>
-  <si>
-    <t>973fa8b3-f251-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>bRsUqUyJzfjIhLOaGxHwXDmMiuOEATSVLejBKLEix0Jd2dYzJC9TE0S5LXUfdvUnwqw3XWvlMr0fX9zwY3I02g==</t>
-  </si>
-  <si>
-    <t>不明企業</t>
-  </si>
-  <si>
-    <t>44d09f82-f551-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>米本税理士事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro減価</t>
-  </si>
-  <si>
-    <t>790b7c91-f651-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>1a86372f-f751-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>吉川税務会計事務所</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro会計</t>
-  </si>
-  <si>
-    <t>8y0z0GEF3lcrFDOAVy7CZxi50ef89lJC/VR07u92UngiRuarrw6tFH7NMz4oyb6mWhxZwItrS0Otwo/fAqjAPQ==</t>
-  </si>
-  <si>
-    <t>RelTlvw+BhvyTYkVeEfkxvapkh6JgpS4bXmDVGlNeO5k6kIMAESZk+ElgOIRn0bjo74oIRNC7ZXTgraaHqspfw==</t>
-  </si>
-  <si>
-    <t>MJSﾏｲﾅﾝﾊﾞｰ</t>
-  </si>
-  <si>
-    <t>2Ue21YWSDZHOQXnCEjXtd016SIH1wRF/mimzfcYhFcPbuzhxkx2Db3p+Awo7RD/HF2VbkwtFTxkWD8gIEniseA==</t>
-  </si>
-  <si>
-    <t>14c967d2-fa51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>トータルマネジメントコンサルタンツ</t>
-  </si>
-  <si>
-    <t>w+0ERr1aExZXJ3fdS6IaA1wvJamW46aTebZU5aigKsvSCt0Ox9RZSVJOYarTpLhs23n4hrDc0YiNB9OhKQ8hhw==</t>
-  </si>
-  <si>
-    <t>a56ae71f-fd51-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6XYsopQb5GUL5k4VebYbcVdQoA89pkjykjgspT7DXdqNAyap08FHzkRUWmZiHY8d1gaJb+D7VztjgxJYNDmdXw==</t>
-  </si>
-  <si>
-    <t>ecc89fdb-fd51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人アイ・フロンティア</t>
-  </si>
-  <si>
-    <t>78103b0a-fe51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>赤池 税理士事務所</t>
-  </si>
-  <si>
-    <t>nkfYMzh1H8wkOVlHkrw0EQVndDsFp+/QuV6A8yLsZbDdnvVsk2unuQq43ngGiK7ECKTAnx6s3HS/h8xdOucDrA==</t>
-  </si>
-  <si>
-    <t>ACELINK NX-Pro事務所管理</t>
-  </si>
-  <si>
-    <t>a1fc3d17-ff51-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>D4s1RKHAHn4eWzBhvEoYkeVmPGOk80GgLvqlBPNgfZk0bReWoL0CAVr88qpF/vYra67cOdmbVzg+ROkGpuCqKw==</t>
-  </si>
-  <si>
-    <t>税理士法人丸岡&amp;パートナーズ</t>
-  </si>
-  <si>
-    <t>055d8803-ff51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>後藤賢吾税理士事務所</t>
-  </si>
-  <si>
-    <t>4b4fc78f-ff51-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>lXbXCpxKIdrXAf2habzuLdH5YUdpNBiWwT0En9n+zf8uvg+oSeBoKojCo5KzM2vZbxqS1e1bRaczYC5u8KBVlw==</t>
-  </si>
-  <si>
-    <t>d1d26e8f-0052-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>山田陽一税理士事務所</t>
-  </si>
-  <si>
-    <t>567e5405-0152-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>qbLzI+zbjNmUn+QwLe+/PxKUZfuJc2MpN4R5KcvGR538wcXgtN8bDwPiXY/4yl4aY6U26396bxylOOEg39vYBA==</t>
-  </si>
-  <si>
-    <t>b295214d-0252-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>税理士法人 オーレンス税務事務所</t>
-  </si>
-  <si>
-    <t>f251d240-0252-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>市川税理士事務所</t>
-  </si>
-  <si>
-    <t>90ccd59e-0252-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>永井 紀子 税理士事務所</t>
-  </si>
-  <si>
-    <t>EtLrkER7m9J3g+44DscQX8qG4QiAPXmHmIpeNWZ9NPFAoxuZkACE21SUlhrFI+EPOMzIMtrn4rDBnP8dlmyjOA==</t>
-  </si>
-  <si>
-    <t>622c6fe5-0252-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>小山貢税理士事務所</t>
-  </si>
-  <si>
-    <t>Fu3jtG68fGI8bpuKaThcZOqtpvYB7mqpVClZ4NjrypP4+XdJXGtlU2OmWwq20v0V3nms/Aa8jf9XGtoIXxQYnQ==</t>
-  </si>
-  <si>
-    <t>cEEDNdyudWY2Ps/uoIsW/DRI5RPl7mcYHnnLEDireWXY/SsHgAir3j3zvlltfYGNIBVXToKtvSGxTy0tTk+bSQ==</t>
-  </si>
-  <si>
-    <t>ec7a06be-0352-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>川崎大地税理士事務所</t>
-  </si>
-  <si>
-    <t>ed370874-0452-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>tfByD1EAeAm5mTCmnAcNtZ00azSB+Ur/KBHLoFftqlSBrQyqDnTGA64i+Kjq5ck33ROQEZCNNDNGbRx5c1uISA==</t>
-  </si>
-  <si>
-    <t>73e96875-0452-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>事務長代行株式会社</t>
-  </si>
-  <si>
-    <t>留守電</t>
-  </si>
-  <si>
-    <t>d電子申告</t>
-  </si>
-  <si>
-    <t>cc6c632b-0552-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>e67ac1c2-0552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>岩下忠吾 税理士事務所</t>
-  </si>
-  <si>
-    <t>28b728e0-0552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 仙台合同会計</t>
-  </si>
-  <si>
-    <t>1c457fe1-0552-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>NeHeD9Nx+IVRL1eXhsBhZcN3oLsyH/Y80woSDszS19QX2qRROciNrZDbwzzQ5LuBaERU3YbUdTsxKv9zwym2TQ==</t>
-  </si>
-  <si>
-    <t>iCompassNX</t>
-  </si>
-  <si>
-    <t>GIMxBfxq3wCUJPDaGqub+MGHD86KHujRP0JAB0rEtSq5EHe0tRzyLS+hCbn25HQMMVx4Qe8ulLlP04Ei5CDJSw==</t>
-  </si>
-  <si>
-    <t>5eUQv3oyomgqiZIgWEBiu2lVj/1SI3OWw8LZxN3xZHCsoAIJVYK2pc2IM9GEeUyVpA6HqXFjCPCD5BMowO/WBg==</t>
-  </si>
-  <si>
-    <t>Ybcu5cir9egwljgOE4EgXCXfIu0xi1/ePE27XG7zT2j5ZHlBQp+Px7BjrxmKIWX/OgS2lQKqrBbwUJMxZ1jduQ==</t>
-  </si>
-  <si>
-    <t>8KQYFLGXY+6O1gWie+FrCwWBr3SVQV1J1c0K1WgODCA1QmBDpiWFC0bnfkju0W20KS/O9tjxB1L0z8HChIPzSQ==</t>
-  </si>
-  <si>
-    <t>支社依頼(通常)</t>
-  </si>
-  <si>
-    <t>e535b923-0852-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>折返し不要・ｷｬﾝｾﾙ</t>
-  </si>
-  <si>
-    <t>iI9HDh2jY0FHA9XKwjYrWyCUUIJ4RMLXMYRlhK3DNU3e3bSe2MDfzanLWI1xnBtf5P4jvic7jSQbZRIkNmdJmg==</t>
-  </si>
-  <si>
-    <t>pzb7EhwO/PXE9hwNoTOeqJl+9g0PM+AeyxikopGKXVdN0XX6UcEifWB+v8loXiq+1IvXZZnJIzcv4qDpf6Fp1A==</t>
-  </si>
-  <si>
-    <t>ae4ce4f8-0952-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>mmlhayisrPMcKYymn8NdnEe6yaDp+yt2vdUpBeOWsuRhc2SEoUxNXPmPPEOjvIZjbz3QMZc5en5rLxPb6ENf1w==</t>
-  </si>
-  <si>
-    <t>9c33f4a8-0b52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>F0N0sFX9mddGL+OswGkLf+c58hfJvQpZi7BOr2OsvpU/87eDCOBP+vMCKcwwKrqTC674NeDr75RdYIdfhgGLgQ==</t>
-  </si>
-  <si>
-    <t>東由美税理士事務所</t>
-  </si>
-  <si>
-    <t>H8N0bc6EGgKLxctdkjK0FXFtYmtXSxt+1klNIGJtt1Hoe8CyCPXamEzMkwzhnsN3+yNJv/4kkKBzCoUO2YbSKg==</t>
-  </si>
-  <si>
-    <t>確認後回答(部内)</t>
-  </si>
-  <si>
-    <t>GXiL6vwNTvd9y5j4MMl2+KqClg8Xj16q59hD9l26CK16pPLNzs98hPeQGPfiZyvIIue03p1fmDzKPZcQma2DNg==</t>
-  </si>
-  <si>
-    <t>3e618730-0e52-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>有限会社 エスエスシー</t>
-  </si>
-  <si>
-    <t>ta4Ab0HuVkv6/rP1SCz0KTrKYJoLTxfsSZqcdjBH/Bv25bcYH7rgCbTQ46b4Cm+1+/sbEkm8mJYVXn3I0ID+KA==</t>
-  </si>
-  <si>
-    <t>33db26e6-0f52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>QzDghOJOsOGDSccbh+sPkK4rJ04zZYqpof6Nz9+zgCtwEC/klsrtraLCrXMlBkBhJqyRDQSNw9J6IvaNzjvnmA==</t>
-  </si>
-  <si>
-    <t>74040236-1052-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>/xxDH6WFSGEjXOTO+1yVIH2PW+TsXwwQgvHT71LLukOu/tsNGExvY6Khp8c16A1BnvTOc/Gz1rFUF1KLQN59hA==</t>
-  </si>
-  <si>
-    <t>榊原剛志税理士事務所</t>
-  </si>
-  <si>
-    <t>180aa776-1452-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>上月彪税理士事務所</t>
-  </si>
-  <si>
-    <t>1c0410ce-1452-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>gBhnqI8Y9OpkrodgJ+t9Qu7tLVzNhg3Us4MBH6Cy2Gt8tlPnUQGX2ouAczje2KN11TOA5AsITqq++fkzDKojMQ==</t>
-  </si>
-  <si>
-    <t>WEB問い</t>
-  </si>
-  <si>
-    <t>江黒高文税理士事務所</t>
-  </si>
-  <si>
-    <t>対応待ち</t>
-  </si>
-  <si>
-    <t>72e4fd4f-1952-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>齊藤究税理士事務所</t>
-  </si>
-  <si>
-    <t>9a827e12-1a52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>NFPYMZWVFujvWeeAUoqj5bjOOF7BjkjNJKnGE53WzclUbWCw6NudAczN5hK3K+AXfAGisYRsmYyaLCR2gXVP6A==</t>
-  </si>
-  <si>
-    <t>86a5f19c-1d52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>WzzcH5YRmTdOAAYKH4Palw7bs9OCSl2gHKv4rsXgEtrhd3Xck8Ianx8iDct+1MSOFRaM5pamO7OXbzuTAtfYpw==</t>
-  </si>
-  <si>
-    <t>ﾒｰﾙ・FAX回答（送信）</t>
-  </si>
-  <si>
-    <t>g41LLSNHwHYrscLUUEmDzMozQQZxGsNcJ5FhkmEPUzsVphUiU1oqe63tOHS+wYMxYuQkjJ2oynNbtqyrV40Uyw==</t>
-  </si>
-  <si>
-    <t>4549340a-1f52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Wl9ec7nDlYQ9lwwyJ2z4vJkYPnFT8ZoRFM1EtzLcyvV8bBcP84XraFRb32/7fu7GIMW10fOiJuZFwTvRPeZfBg==</t>
-  </si>
-  <si>
-    <t>團野会計事務所</t>
-  </si>
-  <si>
-    <t>15dc092b-1f52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>清川高臣税理士事務所</t>
-  </si>
-  <si>
-    <t>bE+6tl+0gR3578ESYB/6OQKiRBOmwukdHW0STy//OX95LqAVhc+7S/vVrOc1v7CKQyVT6lU/luST7Nf+n7k6yg==</t>
-  </si>
-  <si>
-    <t>113ac2d9-2552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>3fyc5EYNy+6ZxZ/iSL2lBbM4g/5H93yO9MC8gq8m6TBvoGUSj+rupEi47GTP8+i9GWcmL9BsxQHKEAf5Btl7sQ==</t>
-  </si>
-  <si>
-    <t>bc77419a-2552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>eku+Nmw0XTp+yIzsfsIH7N9gqTjtPU21tPF9t60kmwqRUQJmyufTqadDp8/8EUmUjPjQ0Z+bpKWqQYOa3sBIMw==</t>
-  </si>
-  <si>
-    <t>久保木&amp;アソシエイツ税理士事務所</t>
-  </si>
-  <si>
-    <t>自己解決</t>
-  </si>
-  <si>
-    <t>kかんたんｸﾗｳﾄﾞ</t>
-  </si>
-  <si>
-    <t>b9b6073f-2552-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>/Udpt3QZIwdDjcBciKx3gmsVFDYHvl5Eru1ODmARM1Tgs1bs/ed02F4rO0Gw2DxZeYBE0RDHugcj8925QggaVA==</t>
-  </si>
-  <si>
-    <t>c9c3d565-2452-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>aH98gMQ3OkR6+9tZL0yFmwMR8h0INsJLQaMvrq6PsLkseV8rpmYjikjw3rodCySdHaILYxEZp7fTfi7+2zfQBg==</t>
-  </si>
-  <si>
-    <t>古川悟税理士事務所</t>
-  </si>
-  <si>
-    <t>8e8bd1f5-2352-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>6g8dU0Nmsi922TTRpX/rK2AIyqqK8SxMpAYhL/RcDNI8mmXFBzML+riXm/1BKj71ClJTf8mTumuS+n+MoVT2rg==</t>
-  </si>
-  <si>
-    <t>岩﨑達人税理士事務所</t>
-  </si>
-  <si>
-    <t>98aba2a6-2352-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>9s2m3jfmqV8Tc/49nAbXaTl8hVazUiIsclMnp7R7uMrNB6YSkcEO06Q7Ur7+5d0bYy1bmJO05VQeMfTZ7Jmzyw==</t>
-  </si>
-  <si>
-    <t>川邊俊一税理士事務所</t>
-  </si>
-  <si>
-    <t>他ｸﾞﾙｰﾌﾟ依頼</t>
-  </si>
-  <si>
-    <t>hﾊｰﾄﾞ・OS関連</t>
-  </si>
-  <si>
-    <t>019d5053-2252-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>NwhiwE/bFLqfxDQhRll991gE1By6CxqiCiqTSv27bxEgLuae6WAHJ6k/fhIXrNibCx/LOScfa8Yl81R5RVl9sw==</t>
-  </si>
-  <si>
-    <t>6ca9f946-2252-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>cMQE0WNRqWDlqhaiUdgmqbHVcYBLuT2mJ2TcNpkq4LaVQ/LBtq1cWttk6NUMPl+u7ujeDbGB6kFqGlCztH8sbg==</t>
-  </si>
-  <si>
-    <t>佐久間 一郎 税理士事務所</t>
-  </si>
-  <si>
-    <t>daad4d99-2152-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>DU3ZWy06VgafF370qcBwLuyPJhTf6buXblP2GhUaEh2+m4grHTCMOqKkr3qQsPjS8veJpokwigXQIMmyUZd9kg==</t>
-  </si>
-  <si>
-    <t>税理士法人 松丸会計事務所</t>
-  </si>
-  <si>
-    <t>b613ecdb-2852-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>6dc9371b-2952-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>原島 正光 税理士事務所</t>
-  </si>
-  <si>
-    <t>GGQxFRFIas3ArcQMKZ+Tuvr+zeoXXe8QehA6yT7xfAPuPs2H6PvPNTOuteg/N4JgQ5BUkj1HesHvryKHHEjdNg==</t>
-  </si>
-  <si>
-    <t>4dd3a421-2a52-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>LiuspwrcilgMMZa4m/yCgKOtK5sv9XZsJVQfmk++e2ghd+PdbJvBSp57/PtuBebmTkNvibtwKQ6hEBg+qSWTjg==</t>
-  </si>
-  <si>
-    <t>小坂 雄志郎 税理士事務所</t>
-  </si>
-  <si>
-    <t>XzCeFxNJz9dpU6L8PbyqLi0X2LPX97QtjecFM7ZRcLhkuKbvOlEVJOE0HsSUxexzbnyKudNNTFyyF0rzTOkV0w==</t>
-  </si>
-  <si>
-    <t>97b3ee3d-2c52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>川原 会計事務所</t>
-  </si>
-  <si>
-    <t>fL9jChc3vJU3rW3Uab0nHc87hyN2RJhGvc5yayuPEVxvjqQfIiYq2yGFYXZD3HxsWjHqyjRCwHWBi7PiE40IHg==</t>
-  </si>
-  <si>
-    <t>53b5a9ee-2f52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>御旅屋 公認会計士事務所</t>
-  </si>
-  <si>
-    <t>83e2c53d-3052-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>阿部 会計事務所</t>
-  </si>
-  <si>
-    <t>2c70399d-3052-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>村上文雄税理士事務所</t>
-  </si>
-  <si>
-    <t>7addefda-3052-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>KhFcIFDVqoT76LSMnkMFti/o1mQ2cT55wpCgSI4sBTVLPwEwncDehqUEJTHux5xHDRHV6C+nk00BRoVsl68boQ==</t>
-  </si>
-  <si>
-    <t>押田税理士事務所</t>
-  </si>
-  <si>
-    <t>0r/hBLEcA0UOKB9ZC5xQ23LCih7ixXXFldxts8UKI6KgAOJUkvP2H1kQ0bzyF2Gje9BslPbm8EIrlzgKiNMSpA==</t>
-  </si>
-  <si>
-    <t>30eeb2e2-3352-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>齊藤秀典税理士事務所</t>
-  </si>
-  <si>
-    <t>1VAYnpVnTaEv4HxUTiJhtOxMUcBz0xE8iAxqepJH83VnPKxM6TswHlt9v9/BYAUyeSGcPbmV6txWHhuI1g2l9g==</t>
-  </si>
-  <si>
-    <t>zfbNitFRQ0OeWi4VMaSkekYTwfJ8cs9tD1RZKVzTtw1DlxbpUImaoGajysCNRt1zc6IAcXYnl9BORzaFpxzrAA==</t>
-  </si>
-  <si>
-    <t>726621e3-3452-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>hv3U92oj90Q1Iiwsiqj53ylQTCeMC495TEQocaf3VpriEYUVntoFsB8IgiklEItF+HKhFGfz7WXciw462yDg6w==</t>
-  </si>
-  <si>
-    <t>株式会社ファーストマネージメント</t>
-  </si>
-  <si>
-    <t>60146e12-3652-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>x13vWpEyXSNwvABccuGsVyqumXgvan6DbkUTyNz/YtNWFJfh7fyuRTgH43XRn3sEUTEendPNQmBD3VnupYzXvA==</t>
-  </si>
-  <si>
-    <t>菊池力税理士事務所</t>
-  </si>
-  <si>
-    <t>9a444896-3652-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>株式会社 サ ワ ネ</t>
-  </si>
-  <si>
-    <t>6a6eb189-3652-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>浦 恭子 税理士事務所</t>
-  </si>
-  <si>
-    <t>bjKc2BYCHrUmeemIB4nUwKWElDS5/ykPWrlQQBfQCrYz1heeEy4WbONmIzUsPUvaoGWv6/5qY4pHoExKoGPXrg==</t>
-  </si>
-  <si>
-    <t>thpIuUYvK80bR4DzMa/z5F7EfgWahlt7ueKhAzxh26gY+M9kx4OLScWFHMWH0nqemeaVpEZGAo9PunJ20NoDuw==</t>
-  </si>
-  <si>
-    <t>b361f6db-3852-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>VHhpCSe6vhPFmjNLyFidH0Lo4hgR1FePbsD8jO69Kdgkqg6rmv/RZM8Zf8GMU2SWg93ZxYqBxt5Ljk/M6BH9TA==</t>
-  </si>
-  <si>
-    <t>c3cd032c-3952-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>稲川紘章税理士事務所</t>
-  </si>
-  <si>
-    <t>tcu4pT9rTWqEEFgRKWQn+wKX+MHqggkxaCiQRwUywoGNaQd1QjsVZNTup/RAo2LADNE6e9LB6bgNOv+OQzlFgg==</t>
-  </si>
-  <si>
-    <t>折返し</t>
-  </si>
-  <si>
-    <t>63ba416a-3a52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>SKY税理士法人</t>
-  </si>
-  <si>
-    <t>d3905c0c-3b52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>且井信昭公認会計士事務所</t>
-  </si>
-  <si>
-    <t>1a65af31-3b52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>aoTo/70oqh8ekkS4AkCdB8WtW1G8GWB9jXQbAHokx5PRVr0gPrVHjdCwLrP4h3K57cBGLtpv0W3+31BfW/jk9A==</t>
-  </si>
-  <si>
-    <t>東京法律会計事務所</t>
-  </si>
-  <si>
-    <t>XYdJ1Tp/0m5WYZfdihiB8DdQQNlHbU9Mi1rwOGSv4D65nmHkmm04187hbcnfVCKEl3SEoOADgHOyXnnhl1KbtA==</t>
-  </si>
-  <si>
-    <t>8b82eaf2-3b52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>e6bb173b-3c52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>小玉雅昭税理士事務所</t>
-  </si>
-  <si>
-    <t>BU1DoSkXWC418THcUZpA7nzCEQeJdptPniGv9X6ETQjfz6kovhRqD+4/gpnQa3OgvVpRyRuGEt3c8ntXvXz7vQ==</t>
-  </si>
-  <si>
-    <t>oyThyaibQpQRVcottcbXxRMVR9+ViYeBZA+TjO9spKbt1d9WOW5/hWz4R8B+pBFjuZuoRif5BJVBW+FjyzA/5A==</t>
-  </si>
-  <si>
-    <t>A/MIya46qQIcxhiuVg9jEokr5CkzjQTY5utc4myizBkMwvi/XhD82wlUy92XsFQr3SBLUkyzcuk20HAzaRfxUg==</t>
-  </si>
-  <si>
-    <t>kb70Ybd8oXCiXDG0mnHjWz8gVa6d677qYsHp78fwVFyI5p7aAuxMhExMAQZYMQX9Qmi2X4lY8JbKFlBGdIXpaQ==</t>
-  </si>
-  <si>
-    <t>kFq5xupONEoBPDQUglFP8yxc8E1qjk96/7agyg2Iph7zcbVbLCUCwLzBv+quXEtz+J9ubEoT4ilBxZeDbneUZA==</t>
-  </si>
-  <si>
-    <t>支社依頼(ｸﾚｰﾑ)</t>
-  </si>
-  <si>
-    <t>3cce4fb7-3e52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>鷹巣税理士特定社会保険労務士事務所</t>
-  </si>
-  <si>
-    <t>b87a8876-3f52-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>DqCfpfLkusjzKg4PEo9LsPu2yYaX9bxCWA6MnR1FcRM9c3nL0L7vNFy/jglulebIzpS5xSyGb5xqDaswGC7tdw==</t>
-  </si>
-  <si>
-    <t>48b4d42c-4052-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>kci5QivgAdTcZ13yTj4FEVbwyrmWLRRDTcEq36DWwCF4Jf/pbkmDudSck5Y2Ggv2wZmYs7UkU1i837q3IKjG9w==</t>
-  </si>
-  <si>
-    <t>税理士法人 ＴＡＰ 本別事務所</t>
-  </si>
-  <si>
-    <t>c1e29dc2-4052-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>nzAN2Xn7OA+JwlS0EzFLIJC+klSJFPzjzfN4r7Vr9/Xj3uzva6eqxdoNDA7JZEJPCKZ0G+lX36xDNArSk/ovFg==</t>
-  </si>
-  <si>
-    <t>bae29dc2-4052-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>QAm7HxLAQ5suZ8jQu08GBzAE63UUkFXAutvvXsPdYonMyAo83SoyRstOQXHhAkoVi5jkPUvTxtPzIBuPBi9Z6A==</t>
-  </si>
-  <si>
-    <t>sbIDNVMcpHmMupRoCgKeb3qS9vsQMRz3A2/SQv+9Oz+bFPPJr2KxDotWA9VO+JK9cpJwNLEJSwgSw6Sp9ljHyw==</t>
-  </si>
-  <si>
-    <t>5366ce18-4552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>菅谷税理士事務所</t>
-  </si>
-  <si>
-    <t>c23b3dbb-4552-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>田原慎二税理士事務所</t>
-  </si>
-  <si>
-    <t>5796be9e-4552-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>高田政義税理士事務所</t>
-  </si>
-  <si>
-    <t>10lFit+61WFpk25UMpZpqt+MUA4Lg8ltsWp/Awey2rRLEke1hg4RK3wtV6qUa/IiyemISOooPR4DJhmERLtRkw==</t>
-  </si>
-  <si>
-    <t>4e4f340a-4752-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>南出利之税理士事務所</t>
-  </si>
-  <si>
-    <t>72ef3a56-4852-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>田村 奈々子税理士事務所</t>
-  </si>
-  <si>
-    <t>OWtemslqiLtqTzI0Q9CGN1gcrS/aS95+TcrUrMD96boJgkRYFdxNhsgGSRJDanHFX+0mPaCoy4qm8keQ78tpFA==</t>
-  </si>
-  <si>
-    <t>2dc67a9f-4852-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>ajWSBRJzuAy2dGFyfoJ9pIB6GRNPeuSS3RpFcqFmCur6jl8+Nd1smh/x3gQf/iodogt9dqKiVoTHge/V2GZHSQ==</t>
-  </si>
-  <si>
-    <t>SfHQGTv0MV3a5Q2AteuPgmfm18cm+cAZsmETr4C7o9NnxqUWc1G9tygctgDodm3V//1LPti3GaTmifrLWzTZBg==</t>
-  </si>
-  <si>
-    <t>034af3ba-4952-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>米村元宏 税理士事務所</t>
-  </si>
-  <si>
-    <t>W84U/C23VokO8A1RaBrUW4WtdS28t6YD8lDR1qg2DP1wN5SzS9i40ptqI5udDmqO4qsbmg9Eq5TTWCcm/gSF9Q==</t>
-  </si>
-  <si>
-    <t>t62C6wsHPsdE70cstCH0tBfa4FtUGWUUuaxL+3CTuMXZXuP+J/Bt8XyGtYrLtkcQctzdyxgOt/7W3fTunPVrug==</t>
-  </si>
-  <si>
-    <t>2c4a8a2d-4d52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>a4db4350-4e52-ef11-882f-00505695a183</t>
-  </si>
-  <si>
-    <t>3b+Rif7Mco9z3ZuaJsoXEKAOUQLO8LiBY/3IQs0uUJICoijMvThtwjx3U/8zeNGUYyxevunGNzJcj5d5xfUDhA==</t>
-  </si>
-  <si>
-    <t>税理士法人アクシス</t>
-  </si>
-  <si>
-    <t>5YzWioHFAhLu54Hzs3dVtAd4d61r20vI2ozLHpBb7DP0gs5gREHyXRfd0bBYukj+cLkazVM4azRaSD+jeUkseQ==</t>
-  </si>
-  <si>
-    <t>c8dd50de-5452-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>大城税理士事務所</t>
-  </si>
-  <si>
-    <t>65a79d32-5752-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>松本正剛税理士事務所</t>
-  </si>
-  <si>
-    <t>LVF984fhmFxC8Kjm81zcw4+mEtSiu5p/KTu3p+nYea5Fhqvel5Qwp9nWjVUJv1FCffjTvxp1jFhWvC/JYSEooQ==</t>
-  </si>
-  <si>
-    <t>d104e316-5852-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>三坂税理士事務所</t>
-  </si>
-  <si>
-    <t>a0bb24ca-5952-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>張江税務会計事務所</t>
-  </si>
-  <si>
-    <t>n+bik/yxN5YrzcplMMAAT/5kVUVHEmnvIFl81+vkbD8QldRAd5j4En2Bl82101o8+R/htoHIUXV/ygcg8bD7DA==</t>
-  </si>
-  <si>
-    <t>908ed420-5c52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>岩﨑総合会計事務所</t>
-  </si>
-  <si>
-    <t>63eb1f96-5c52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>山田晃代税理士事務所</t>
-  </si>
-  <si>
-    <t>0/DokOu49krL3Nw60lx1SW5rT6CtgW8hmuzhHtvSMIaxIHQkre4PvjfXfLj2SyMhvqZU1Wvh+peP3KBBQyTP4w==</t>
-  </si>
-  <si>
-    <t>d168ebf8-5c52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>e73a0875-5d52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>Ppua+6Bs5VZO26c5qOOSdTEBKNUKzYhqHr8G8JsN/i5G3XLI37wuvgl//JdgfDhpz1C72l+GjsRKFWjaaIW2IQ==</t>
-  </si>
-  <si>
-    <t>kR4OZj0GUA2H0zPVljq7Q+UOuoSW6diDcrQ1mOofVGlJILctdFtOxRqzKiIUfo3BdbAc975AxoTO5eDNachuiw==</t>
-  </si>
-  <si>
-    <t>94X/NAUQZtxKTaG37icTDJHi4fpnUYhyFZuOc6QsVDA4SSC/1yugF1yxCsm39aVDgYaSyj27oyg1Ex+nBHO1rg==</t>
-  </si>
-  <si>
-    <t>c2758988-5f52-ef11-8830-0050569565d2</t>
-  </si>
-  <si>
-    <t>合同会社EINコンサル</t>
-  </si>
-  <si>
-    <t>Q0893OcJmziLCQKD0G0zhQln7ZXtOmIsEjHNvyYy+QfGbFXen9ZKFsWKJdXxzOjo3Qk+FN0KqLMgREq3W8hCQQ==</t>
-  </si>
-  <si>
-    <t>zDBh1ZpSYyiCItNoizuGZ/aGDWLCSc61LRvuqpLwNk/znxf+aVe6iskFvEXK0Ws2ctp36v9VoEZDI+ZBeH25Sg==</t>
-  </si>
-  <si>
-    <t>r7BCFTOUIHL+C2P2fN03Cxk+VFT4BLG9G7klBKVYdeMRmUyQpTPKDM31DYj2Xv9KrMZex3zikd8OzxdtOYeTiQ==</t>
-  </si>
-  <si>
-    <t>6L80po6CylmGUa2hhRfqZ1lLWc5MYFIdrRKujNsXlL66qEL7jMyQtfuulK6nj4DKZ9t218DOuXwaYJO4EThEbQ==</t>
-  </si>
-  <si>
-    <t>xcJW3hGQ8S6188LRvB6dGvYAt/idbw4//GQAxEK5PIA5eKI1pZlrNx7foJhgFqZtEQwxUTBEPSgJkCH1JiEQHw==</t>
-  </si>
-  <si>
-    <t>IrFuyQH6jQHUdDJBczke8CLty/XUGKh2j4A8qR2Swclg2E2G2ffCfqnBtIEY2sPY4qK/XqpATlMd+WYWcbmvEw==</t>
+    <t>片上税理士事務所</t>
   </si>
 </sst>
 </file>
@@ -1445,16 +689,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>308</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9">
-        <v>45508.917604166701</v>
+        <v>45522.3546180556</v>
       </c>
       <c r="D2" s="8">
-        <v>11734220</v>
+        <v>11745027</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>27</v>
@@ -1463,32 +707,32 @@
         <v>28</v>
       </c>
       <c r="G2" s="10">
-        <v>45508.9071064815</v>
+        <v>45522.3546180556</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>301</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9">
-        <v>45508.903379629599</v>
+        <v>45522.351689814801</v>
       </c>
       <c r="D3" s="8">
-        <v>11734219</v>
+        <v>11745026</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>27</v>
@@ -1497,32 +741,32 @@
         <v>28</v>
       </c>
       <c r="G3" s="10">
-        <v>45508.896793981497</v>
+        <v>45522.350509259297</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="C4" s="9">
-        <v>45508.918935185196</v>
+        <v>45522.3528703704</v>
       </c>
       <c r="D4" s="8">
-        <v>11734218</v>
+        <v>11745025</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>27</v>
@@ -1531,66 +775,66 @@
         <v>28</v>
       </c>
       <c r="G4" s="10">
-        <v>45508.894375000003</v>
+        <v>45522.349791666697</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
-        <v>45508.908240740697</v>
+        <v>45522.3441550926</v>
       </c>
       <c r="D5" s="8">
-        <v>11734217</v>
+        <v>11745024</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="G5" s="10">
-        <v>45508.8925115741</v>
+        <v>45522.3441550926</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9">
-        <v>45508.8965046296</v>
+        <v>45522.348136574103</v>
       </c>
       <c r="D6" s="8">
-        <v>11734216</v>
+        <v>11745023</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>27</v>
@@ -1599,32 +843,32 @@
         <v>28</v>
       </c>
       <c r="G6" s="10">
-        <v>45508.890185185199</v>
+        <v>45522.342835648102</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9">
-        <v>45508.893437500003</v>
+        <v>45522.332314814797</v>
       </c>
       <c r="D7" s="8">
-        <v>11734215</v>
+        <v>11745022</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>27</v>
@@ -1633,32 +877,32 @@
         <v>28</v>
       </c>
       <c r="G7" s="10">
-        <v>45508.878599536998</v>
+        <v>45522.332303240699</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9">
-        <v>45508.878784722197</v>
+        <v>45522.149988425903</v>
       </c>
       <c r="D8" s="8">
-        <v>11734214</v>
+        <v>11745021</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1667,32 +911,32 @@
         <v>28</v>
       </c>
       <c r="G8" s="10">
-        <v>45508.870208333297</v>
+        <v>45522.145590277803</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9">
-        <v>45508.869976851798</v>
+        <v>45522.031284722201</v>
       </c>
       <c r="D9" s="8">
-        <v>11734213</v>
+        <v>11745020</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>27</v>
@@ -1701,2919 +945,1223 @@
         <v>28</v>
       </c>
       <c r="G9" s="10">
-        <v>45508.865671296298</v>
+        <v>45522.020300925898</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45508.903287036999</v>
-      </c>
-      <c r="D10" s="8">
-        <v>11734212</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45508.854097222204</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45508.821516203701</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11734211</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="10">
-        <v>45508.821516203701</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45508.826388888898</v>
-      </c>
-      <c r="D12" s="8">
-        <v>11734210</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45508.815902777802</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45508.808252314797</v>
-      </c>
-      <c r="D13" s="8">
-        <v>11734209</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10">
-        <v>45508.798726851899</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="9">
-        <v>45508.798194444404</v>
-      </c>
-      <c r="D14" s="8">
-        <v>11734208</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="10">
-        <v>45508.793217592603</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45508.795995370398</v>
-      </c>
-      <c r="D15" s="8">
-        <v>11734207</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10">
-        <v>45508.791793981502</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45508.807395833297</v>
-      </c>
-      <c r="D16" s="8">
-        <v>11734206</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10">
-        <v>45508.785416666702</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45508.792719907397</v>
-      </c>
-      <c r="D17" s="8">
-        <v>11734205</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10">
-        <v>45508.778842592597</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="9">
-        <v>45508.781215277799</v>
-      </c>
-      <c r="D18" s="8">
-        <v>11734204</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10">
-        <v>45508.778298611098</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45508.909502314797</v>
-      </c>
-      <c r="D19" s="8">
-        <v>11734203</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="10">
-        <v>45508.775694444397</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="9">
-        <v>45508.754189814797</v>
-      </c>
-      <c r="D20" s="8">
-        <v>11734202</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="10">
-        <v>45508.754189814797</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="9">
-        <v>45508.7572685185</v>
-      </c>
-      <c r="D21" s="8">
-        <v>11734201</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="10">
-        <v>45508.754131944399</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="9">
-        <v>45508.751238425903</v>
-      </c>
-      <c r="D22" s="8">
-        <v>11734200</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="10">
-        <v>45508.751226851899</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="9">
-        <v>45508.747685185197</v>
-      </c>
-      <c r="D23" s="8">
-        <v>11734199</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="10">
-        <v>45508.747685185197</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45508.754861111098</v>
-      </c>
-      <c r="D24" s="8">
-        <v>11734198</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="10">
-        <v>45508.743969907402</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="9">
-        <v>45508.737662036998</v>
-      </c>
-      <c r="D25" s="8">
-        <v>11734197</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10">
-        <v>45508.731620370403</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45508.912384259304</v>
-      </c>
-      <c r="D26" s="8">
-        <v>11734196</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="10">
-        <v>45508.730219907397</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45508.726597222201</v>
-      </c>
-      <c r="D27" s="8">
-        <v>11734195</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="10">
-        <v>45508.7264699074</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45508.7352314815</v>
-      </c>
-      <c r="D28" s="8">
-        <v>11734194</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="10">
-        <v>45508.725740740701</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45508.733622685198</v>
-      </c>
-      <c r="D29" s="8">
-        <v>11734193</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="10">
-        <v>45508.722592592603</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="9">
-        <v>45508.717152777797</v>
-      </c>
-      <c r="D30" s="8">
-        <v>11734192</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="10">
-        <v>45508.7165046296</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="9">
-        <v>45508.728101851899</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11734191</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="10">
-        <v>45508.714861111097</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45508.705092592601</v>
-      </c>
-      <c r="D32" s="8">
-        <v>11734190</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="10">
-        <v>45508.703564814801</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45508.710682870398</v>
-      </c>
-      <c r="D33" s="8">
-        <v>11734189</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="10">
-        <v>45508.703321759298</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45508.7010069444</v>
-      </c>
-      <c r="D34" s="8">
-        <v>11734188</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="10">
-        <v>45508.7010069444</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45508.695196759298</v>
-      </c>
-      <c r="D35" s="8">
-        <v>11734187</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="10">
-        <v>45508.695196759298</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="9">
-        <v>45508.743333333303</v>
-      </c>
-      <c r="D36" s="8">
-        <v>11734186</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="10">
-        <v>45508.690138888902</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="9">
-        <v>45508.675069444398</v>
-      </c>
-      <c r="D37" s="8">
-        <v>11734185</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="10">
-        <v>45508.675069444398</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="9">
-        <v>45508.716412037</v>
-      </c>
-      <c r="D38" s="8">
-        <v>11734184</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="10">
-        <v>45508.673877314803</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="9">
-        <v>45508.681157407402</v>
-      </c>
-      <c r="D39" s="8">
-        <v>11734183</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="10">
-        <v>45508.672025462998</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45508.692754629599</v>
-      </c>
-      <c r="D40" s="8">
-        <v>11734182</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="10">
-        <v>45508.670486111099</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45508.694652777798</v>
-      </c>
-      <c r="D41" s="8">
-        <v>11734181</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="10">
-        <v>45508.652141203696</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="9">
-        <v>45508.641643518502</v>
-      </c>
-      <c r="D42" s="8">
-        <v>11734180</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="10">
-        <v>45508.641643518502</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="9">
-        <v>45508.637291666702</v>
-      </c>
-      <c r="D43" s="8">
-        <v>11734179</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="10">
-        <v>45508.636550925898</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="9">
-        <v>45508.641597222202</v>
-      </c>
-      <c r="D44" s="8">
-        <v>11734178</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="10">
-        <v>45508.635324074101</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="9">
-        <v>45508.621053240699</v>
-      </c>
-      <c r="D45" s="8">
-        <v>11734177</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="10">
-        <v>45508.620370370401</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45508.619502314803</v>
-      </c>
-      <c r="D46" s="8">
-        <v>11734176</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="10">
-        <v>45508.619131944397</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45508.617372685199</v>
-      </c>
-      <c r="D47" s="8">
-        <v>11734175</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="10">
-        <v>45508.617361111101</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45508.621111111097</v>
-      </c>
-      <c r="D48" s="8">
-        <v>11734174</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="10">
-        <v>45508.613148148201</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45508.627789351798</v>
-      </c>
-      <c r="D49" s="8">
-        <v>11734173</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="10">
-        <v>45508.610972222203</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45508.609432870398</v>
-      </c>
-      <c r="D50" s="8">
-        <v>11734172</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="10">
-        <v>45508.609432870398</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>176</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45508.609652777799</v>
-      </c>
-      <c r="D51" s="8">
-        <v>11734171</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="10">
-        <v>45508.602847222202</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45508.603831018503</v>
-      </c>
-      <c r="D52" s="8">
-        <v>11734170</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="10">
-        <v>45508.602604166699</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="9">
-        <v>45508.599236111098</v>
-      </c>
-      <c r="D53" s="8">
-        <v>11734169</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="10">
-        <v>45508.599236111098</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="9">
-        <v>45508.589363425897</v>
-      </c>
-      <c r="D54" s="8">
-        <v>11734168</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="10">
-        <v>45508.5871527778</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45508.586516203701</v>
-      </c>
-      <c r="D55" s="8">
-        <v>11734167</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="10">
-        <v>45508.586516203701</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="9">
-        <v>45508.667916666702</v>
-      </c>
-      <c r="D56" s="8">
-        <v>11734166</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="10">
-        <v>45508.579421296301</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="9">
-        <v>45508.569247685198</v>
-      </c>
-      <c r="D57" s="8">
-        <v>11734165</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="10">
-        <v>45508.561817129601</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" s="9">
-        <v>45508.913368055597</v>
-      </c>
-      <c r="D58" s="8">
-        <v>11734164</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="10">
-        <v>45508.558043981502</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="9">
-        <v>45508.580775463</v>
-      </c>
-      <c r="D59" s="8">
-        <v>11734163</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="10">
-        <v>45508.535636574103</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>150</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="9">
-        <v>45508.5395601852</v>
-      </c>
-      <c r="D60" s="8">
-        <v>11734162</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="10">
-        <v>45508.533935185202</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="9">
-        <v>45508.512800925899</v>
-      </c>
-      <c r="D61" s="8">
-        <v>11734161</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="10">
-        <v>45508.512800925899</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="9">
-        <v>45508.511250000003</v>
-      </c>
-      <c r="D62" s="8">
-        <v>11734160</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="10">
-        <v>45508.511250000003</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="9">
-        <v>45508.503356481502</v>
-      </c>
-      <c r="D63" s="8">
-        <v>11734159</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="10">
-        <v>45508.502754629597</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="9">
-        <v>45508.490173611099</v>
-      </c>
-      <c r="D64" s="8">
-        <v>11734158</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="10">
-        <v>45508.490173611099</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="9">
-        <v>45508.490717592598</v>
-      </c>
-      <c r="D65" s="8">
-        <v>11734157</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="10">
-        <v>45508.481782407398</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="9">
-        <v>45508.4782291667</v>
-      </c>
-      <c r="D66" s="8">
-        <v>11734156</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G66" s="10">
-        <v>45508.472673611097</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="9">
-        <v>45508.493680555599</v>
-      </c>
-      <c r="D67" s="8">
-        <v>11734155</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="10">
-        <v>45508.461469907401</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="9">
-        <v>45508.465023148201</v>
-      </c>
-      <c r="D68" s="8">
-        <v>11734154</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="10">
-        <v>45508.461446759298</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L68" s="8"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="9">
-        <v>45508.467916666697</v>
-      </c>
-      <c r="D69" s="8">
-        <v>11734153</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="10">
-        <v>45508.4608449074</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C70" s="9">
-        <v>45508.735729166699</v>
-      </c>
-      <c r="D70" s="8">
-        <v>11734152</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="10">
-        <v>45508.457905092597</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="9">
-        <v>45508.454398148097</v>
-      </c>
-      <c r="D71" s="8">
-        <v>11734151</v>
-      </c>
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="10">
-        <v>45508.454398148097</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="9">
-        <v>45508.464965277803</v>
-      </c>
-      <c r="D72" s="8">
-        <v>11734150</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="10">
-        <v>45508.454375000001</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="9">
-        <v>45508.464444444398</v>
-      </c>
-      <c r="D73" s="8">
-        <v>11734149</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" s="10">
-        <v>45508.450868055603</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="9">
-        <v>45508.585659722201</v>
-      </c>
-      <c r="D74" s="8">
-        <v>11734148</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="10">
-        <v>45508.446608796301</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-      <c r="L74" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="9">
-        <v>45508.4828472222</v>
-      </c>
-      <c r="D75" s="8">
-        <v>11734147</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="10">
-        <v>45508.445243055598</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="L75" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="9">
-        <v>45508.448877314797</v>
-      </c>
-      <c r="D76" s="8">
-        <v>11734146</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="10">
-        <v>45508.443703703699</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
-      <c r="L76" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="9">
-        <v>45508.469710648104</v>
-      </c>
-      <c r="D77" s="8">
-        <v>11734145</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="10">
-        <v>45508.443414351903</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="9">
-        <v>45508.4786805556</v>
-      </c>
-      <c r="D78" s="8">
-        <v>11734144</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="10">
-        <v>45508.437280092599</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
-      <c r="L78" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="9">
-        <v>45508.448287036997</v>
-      </c>
-      <c r="D79" s="8">
-        <v>11734143</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="10">
-        <v>45508.434999999998</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
-      <c r="L79" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="9">
-        <v>45508.439872685201</v>
-      </c>
-      <c r="D80" s="8">
-        <v>11734142</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" s="10">
-        <v>45508.430034722202</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
-      <c r="L80" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="9">
-        <v>45508.427696759303</v>
-      </c>
-      <c r="D81" s="8">
-        <v>11734141</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="10">
-        <v>45508.427696759303</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
-      <c r="L81" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="9">
-        <v>45508.433715277803</v>
-      </c>
-      <c r="D82" s="8">
-        <v>11734140</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="10">
-        <v>45508.4273032407</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
-      <c r="L82" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L82" s="8"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="9">
-        <v>45508.445127314801</v>
-      </c>
-      <c r="D83" s="8">
-        <v>11734139</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="10">
-        <v>45508.422465277799</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L83" s="8"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="9">
-        <v>45508.423379629603</v>
-      </c>
-      <c r="D84" s="8">
-        <v>11734138</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="10">
-        <v>45508.4215625</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="9">
-        <v>45508.417928240699</v>
-      </c>
-      <c r="D85" s="8">
-        <v>11734137</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="10">
-        <v>45508.417916666702</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="9">
-        <v>45508.411030092597</v>
-      </c>
-      <c r="D86" s="8">
-        <v>11734136</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" s="10">
-        <v>45508.406469907401</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L86" s="8"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="9">
-        <v>45508.401516203703</v>
-      </c>
-      <c r="D87" s="8">
-        <v>11734135</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="10">
-        <v>45508.388391203698</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="L87" s="8"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="9">
-        <v>45508.404050925899</v>
-      </c>
-      <c r="D88" s="8">
-        <v>11734134</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="10">
-        <v>45508.385324074101</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="L88" s="8"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="9">
-        <v>45508.403611111098</v>
-      </c>
-      <c r="D89" s="8">
-        <v>11734133</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" s="10">
-        <v>45508.3800694444</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A89" s="6"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L89" s="8"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="9">
-        <v>45508.3661111111</v>
-      </c>
-      <c r="D90" s="8">
-        <v>11734132</v>
-      </c>
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="10">
-        <v>45508.3661111111</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="9">
-        <v>45508.118969907402</v>
-      </c>
-      <c r="D91" s="8">
-        <v>11734131</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" s="10">
-        <v>45508.107326388897</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="L91" s="8"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="9">
-        <v>45508.0702199074</v>
-      </c>
-      <c r="D92" s="8">
-        <v>11734130</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" s="10">
-        <v>45508.069664351897</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A92" s="6"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L92" s="8"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="9">
-        <v>45508.057731481502</v>
-      </c>
-      <c r="D93" s="8">
-        <v>11734129</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" s="10">
-        <v>45508.055925925903</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="L93" s="8"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="9">
-        <v>45508.050543981502</v>
-      </c>
-      <c r="D94" s="8">
-        <v>11734128</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="10">
-        <v>45508.0495717593</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="L94" s="8"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="9">
-        <v>45508.259710648097</v>
-      </c>
-      <c r="D95" s="8">
-        <v>11734127</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="10">
-        <v>45508.030694444402</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="L95" s="8"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
